--- a/MCD.xlsx
+++ b/MCD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameelbrannon/Dropbox/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9E9C85-9F2E-0F4E-9A5C-CE8DEF35BFEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6344785F-8D0F-2544-A04E-7DE596CF8723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2640" yWindow="500" windowWidth="41500" windowHeight="23520" activeTab="1" xr2:uid="{68853114-4A9D-F642-8668-56CE329F4C0C}"/>
   </bookViews>
@@ -1195,8 +1195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EBBB766-D9B8-FB40-B5C7-D36C974DF243}">
   <dimension ref="A2:L17"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="D1" zoomScale="271" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="271" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -1248,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>277.8</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" spans="3:12">
@@ -1282,7 +1282,7 @@
       </c>
       <c r="J6" s="1">
         <f>+J4*J5</f>
-        <v>203467.2738576</v>
+        <v>201416.4878</v>
       </c>
     </row>
     <row r="7" spans="3:12">
@@ -1315,7 +1315,7 @@
       </c>
       <c r="J9" s="1">
         <f>+J6-J7+J8</f>
-        <v>235505.17385760002</v>
+        <v>233454.38780000003</v>
       </c>
     </row>
     <row r="13" spans="3:12">
@@ -1385,10 +1385,10 @@
   <dimension ref="B2:HO114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="Z6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AN32" sqref="AN32"/>
+      <selection pane="bottomRight" activeCell="AW55" sqref="AW55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.1640625" defaultRowHeight="13"/>
@@ -1411,7 +1411,8 @@
     <col min="29" max="32" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="46" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="45" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="8" style="1" bestFit="1" customWidth="1"/>
@@ -2504,15 +2505,15 @@
         <v>28080.434573406877</v>
       </c>
       <c r="AL14" s="3">
-        <f t="shared" ref="AL14:AP14" si="22">+AL5*AL8/1000</f>
+        <f>+AL5*AL8/1000</f>
         <v>30454.669041509853</v>
       </c>
       <c r="AM14" s="3">
-        <f t="shared" si="22"/>
+        <f>+AM5*AM8/1000</f>
         <v>33037.185283145904</v>
       </c>
       <c r="AN14" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="AN14:AP14" si="22">+AN5*AN8/1000</f>
         <v>35846.762804676975</v>
       </c>
       <c r="AO14" s="3">
@@ -2588,11 +2589,11 @@
         <v>3153.8</v>
       </c>
       <c r="AE15" s="9">
-        <f t="shared" ref="AE15:AE29" si="24">SUM(C15:F15)</f>
+        <f t="shared" ref="AE15:AE27" si="24">SUM(C15:F15)</f>
         <v>7760.6</v>
       </c>
       <c r="AF15" s="9">
-        <f t="shared" ref="AF15:AF29" si="25">SUM(G15:J15)</f>
+        <f t="shared" ref="AF15:AF27" si="25">SUM(G15:J15)</f>
         <v>6981.2</v>
       </c>
       <c r="AG15" s="9">
@@ -5033,44 +5034,44 @@
         <v>6.6985882120643714E-2</v>
       </c>
       <c r="L36" s="49">
-        <f>+L11/H11-1</f>
+        <f t="shared" ref="L36:Q36" si="82">+L11/H11-1</f>
         <v>0.56158624584300676</v>
       </c>
       <c r="M36" s="49">
-        <f>+M11/I11-1</f>
+        <f t="shared" si="82"/>
         <v>0.13645906228131555</v>
       </c>
       <c r="N36" s="49">
-        <f>+N11/J11-1</f>
+        <f t="shared" si="82"/>
         <v>0.13679308646397703</v>
       </c>
       <c r="O36" s="49">
-        <f>+O11/K11-1</f>
+        <f t="shared" si="82"/>
         <v>6.5186213277816263E-2</v>
       </c>
       <c r="P36" s="49">
-        <f>+P11/L11-1</f>
+        <f t="shared" si="82"/>
         <v>-0.15104271306304484</v>
       </c>
       <c r="Q36" s="49">
-        <f>+Q11/M11-1</f>
+        <f t="shared" si="82"/>
         <v>-0.18226600985221675</v>
       </c>
       <c r="R36" s="39"/>
       <c r="AD36" s="49">
-        <f>+AD11/AC11-1</f>
+        <f t="shared" ref="AD36:AG37" si="83">+AD11/AC11-1</f>
         <v>-0.21276997224602745</v>
       </c>
       <c r="AE36" s="49">
-        <f>+AE11/AD11-1</f>
+        <f t="shared" si="83"/>
         <v>-5.9114924046461126E-2</v>
       </c>
       <c r="AF36" s="49">
-        <f>+AF11/AE11-1</f>
+        <f t="shared" si="83"/>
         <v>-0.13603940217391297</v>
       </c>
       <c r="AG36" s="49">
-        <f>+AG11/AF11-1</f>
+        <f t="shared" si="83"/>
         <v>0.20250147434637311</v>
       </c>
       <c r="AH36" s="42"/>
@@ -5095,64 +5096,64 @@
         <v>39</v>
       </c>
       <c r="G37" s="49">
-        <f t="shared" ref="G37:L37" si="82">+G12/C12-1</f>
+        <f t="shared" ref="G37:L37" si="84">+G12/C12-1</f>
         <v>-3.9446060918566506E-2</v>
       </c>
       <c r="H37" s="49">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>-0.29001326124655724</v>
       </c>
       <c r="I37" s="49">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>1.0218978102189746E-2</v>
       </c>
       <c r="J37" s="49">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>-1.3397193287989495E-4</v>
       </c>
       <c r="K37" s="49">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>0.10329754601227004</v>
       </c>
       <c r="L37" s="49">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>0.58342911877394621</v>
       </c>
       <c r="M37" s="49">
-        <f>+M12/I12-1</f>
+        <f t="shared" ref="M37:Q38" si="85">+M12/I12-1</f>
         <v>0.15285076195480807</v>
       </c>
       <c r="N37" s="49">
-        <f>+N12/J12-1</f>
+        <f t="shared" si="85"/>
         <v>0.13610022443305514</v>
       </c>
       <c r="O37" s="49">
-        <f>+O12/K12-1</f>
+        <f t="shared" si="85"/>
         <v>0.13394036282755262</v>
       </c>
       <c r="P37" s="49">
-        <f>+P12/L12-1</f>
+        <f t="shared" si="85"/>
         <v>6.6723126247655973E-2</v>
       </c>
       <c r="Q37" s="49">
-        <f>+Q12/M12-1</f>
+        <f t="shared" si="85"/>
         <v>4.5866332402712207E-2</v>
       </c>
       <c r="R37" s="39"/>
       <c r="AD37" s="49">
-        <f>+AD12/AC12-1</f>
+        <f t="shared" si="83"/>
         <v>9.0184626045636707E-2</v>
       </c>
       <c r="AE37" s="49">
-        <f>+AE12/AD12-1</f>
+        <f t="shared" si="83"/>
         <v>5.8406356413166938E-2</v>
       </c>
       <c r="AF37" s="49">
-        <f>+AF12/AE12-1</f>
+        <f t="shared" si="83"/>
         <v>-7.9754969671491205E-2</v>
       </c>
       <c r="AG37" s="49">
-        <f>+AG12/AF12-1</f>
+        <f t="shared" si="83"/>
         <v>0.21995879210523861</v>
       </c>
       <c r="AH37" s="42"/>
@@ -5177,47 +5178,47 @@
         <v>40</v>
       </c>
       <c r="G38" s="49">
-        <f t="shared" ref="G38:L38" si="83">+G13/C13-1</f>
+        <f t="shared" ref="G38:L38" si="86">+G13/C13-1</f>
         <v>0.1766423357664233</v>
       </c>
       <c r="H38" s="49">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>0.16496350364963508</v>
       </c>
       <c r="I38" s="49">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>0.21199442119944223</v>
       </c>
       <c r="J38" s="49">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>0.20202020202020199</v>
       </c>
       <c r="K38" s="49">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>6.3275434243176276E-2</v>
       </c>
       <c r="L38" s="49">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>0.16541353383458657</v>
       </c>
       <c r="M38" s="49">
-        <f>+M13/I13-1</f>
+        <f t="shared" si="85"/>
         <v>6.6743383199079354E-2</v>
       </c>
       <c r="N38" s="49">
-        <f>+N13/J13-1</f>
+        <f t="shared" si="85"/>
         <v>-0.17331932773109238</v>
       </c>
       <c r="O38" s="49">
-        <f>+O13/K13-1</f>
+        <f t="shared" si="85"/>
         <v>0.17152858809801641</v>
       </c>
       <c r="P38" s="49">
-        <f>+P13/L13-1</f>
+        <f t="shared" si="85"/>
         <v>-0.15268817204301077</v>
       </c>
       <c r="Q38" s="49">
-        <f>+Q13/M13-1</f>
+        <f t="shared" si="85"/>
         <v>-0.17907227615965493</v>
       </c>
       <c r="R38" s="39"/>
@@ -5254,23 +5255,23 @@
         <v>41</v>
       </c>
       <c r="G39" s="50">
-        <f t="shared" ref="G39:K39" si="84">+G14/C14-1</f>
+        <f t="shared" ref="G39:K39" si="87">+G14/C14-1</f>
         <v>-6.1642881312075737E-2</v>
       </c>
       <c r="H39" s="50">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>-0.3046877888276831</v>
       </c>
       <c r="I39" s="50">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>-1.5302691601693841E-2</v>
       </c>
       <c r="J39" s="50">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>-2.1075126192844684E-2</v>
       </c>
       <c r="K39" s="50">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>8.7010011878499771E-2</v>
       </c>
       <c r="L39" s="50">
@@ -5278,39 +5279,39 @@
         <v>0.56530639372590707</v>
       </c>
       <c r="M39" s="50">
-        <f t="shared" ref="M39:O39" si="85">+M14/I14-1</f>
+        <f t="shared" ref="M39:O39" si="88">+M14/I14-1</f>
         <v>0.14455251841051298</v>
       </c>
       <c r="N39" s="50">
-        <f t="shared" si="85"/>
+        <f t="shared" si="88"/>
         <v>0.13084798072942139</v>
       </c>
       <c r="O39" s="50">
-        <f t="shared" si="85"/>
+        <f t="shared" si="88"/>
         <v>0.10556921515825635</v>
       </c>
       <c r="P39" s="50">
-        <f t="shared" ref="P39" si="86">+P14/L14-1</f>
+        <f t="shared" ref="P39" si="89">+P14/L14-1</f>
         <v>-2.8787853054569434E-2</v>
       </c>
       <c r="Q39" s="50">
-        <f t="shared" ref="Q39" si="87">+Q14/M14-1</f>
+        <f t="shared" ref="Q39" si="90">+Q14/M14-1</f>
         <v>-5.3085643332849486E-2</v>
       </c>
       <c r="R39" s="39">
-        <f t="shared" ref="R39" si="88">+R14/N14-1</f>
+        <f t="shared" ref="R39" si="91">+R14/N14-1</f>
         <v>9.1886553218327061E-2</v>
       </c>
       <c r="AD39" s="50">
-        <f t="shared" ref="AD39:AF39" si="89">+AD14/AC14-1</f>
+        <f t="shared" ref="AD39:AF39" si="92">+AD14/AC14-1</f>
         <v>-7.413633908816919E-2</v>
       </c>
       <c r="AE39" s="50">
-        <f t="shared" si="89"/>
+        <f t="shared" si="92"/>
         <v>4.9957192989058541E-3</v>
       </c>
       <c r="AF39" s="50">
-        <f t="shared" si="89"/>
+        <f t="shared" si="92"/>
         <v>-0.10094362584486338</v>
       </c>
       <c r="AG39" s="50">
@@ -5318,39 +5319,39 @@
         <v>0.20903487125022102</v>
       </c>
       <c r="AH39" s="39">
-        <f t="shared" ref="AH39:AP39" si="90">+AH14/AG14-1</f>
+        <f t="shared" ref="AH39:AP39" si="93">+AH14/AG14-1</f>
         <v>2.5597814525500473E-2</v>
       </c>
       <c r="AI39" s="39">
-        <f t="shared" si="90"/>
+        <f>+AI14/AH14-1</f>
         <v>4.1326663331665792E-2</v>
       </c>
       <c r="AJ39" s="39">
-        <f t="shared" si="90"/>
+        <f>+AJ14/AI14-1</f>
         <v>5.3934450800629641E-2</v>
       </c>
       <c r="AK39" s="39">
-        <f t="shared" si="90"/>
+        <f>+AK14/AJ14-1</f>
         <v>7.4260720240910016E-2</v>
       </c>
       <c r="AL39" s="39">
-        <f t="shared" si="90"/>
+        <f>+AL14/AK14-1</f>
         <v>8.455120101137803E-2</v>
       </c>
       <c r="AM39" s="39">
-        <f t="shared" si="90"/>
+        <f t="shared" si="93"/>
         <v>8.4798696650292493E-2</v>
       </c>
       <c r="AN39" s="39">
-        <f t="shared" si="90"/>
+        <f>+AN14/AM14-1</f>
         <v>8.5042884175862143E-2</v>
       </c>
       <c r="AO39" s="39">
-        <f t="shared" si="90"/>
+        <f>+AO14/AN14-1</f>
         <v>8.5283628091289421E-2</v>
       </c>
       <c r="AP39" s="39">
-        <f t="shared" si="90"/>
+        <f t="shared" si="93"/>
         <v>8.5520800370000982E-2</v>
       </c>
       <c r="AQ39" s="39">
@@ -5383,123 +5384,123 @@
         <v>0.4290121613821381</v>
       </c>
       <c r="D41" s="5">
-        <f t="shared" ref="D41:R41" si="91">+D22/D14</f>
+        <f t="shared" ref="D41:R41" si="94">+D22/D14</f>
         <v>0.43201227402122072</v>
       </c>
       <c r="E41" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>0.4504116460389293</v>
       </c>
       <c r="F41" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>0.43504292398953615</v>
       </c>
       <c r="G41" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>0.37483030714406929</v>
       </c>
       <c r="H41" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>0.2743852186627676</v>
       </c>
       <c r="I41" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>0.48027906461674769</v>
       </c>
       <c r="J41" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>0.41838232526628782</v>
       </c>
       <c r="K41" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>0.45997736408695317</v>
       </c>
       <c r="L41" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>0.47116968698517292</v>
       </c>
       <c r="M41" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>0.49515424185251483</v>
       </c>
       <c r="N41" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>0.41330648516416757</v>
       </c>
       <c r="O41" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>0.42454462016379552</v>
       </c>
       <c r="P41" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>0.29934946838276449</v>
       </c>
       <c r="Q41" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>0.4706834011682362</v>
       </c>
       <c r="R41" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>0.41330648516416757</v>
       </c>
       <c r="AC41" s="5">
-        <f t="shared" ref="AC41:AQ41" si="92">+AC22/AC14</f>
+        <f t="shared" ref="AC41:AQ41" si="95">+AC22/AC14</f>
         <v>0.50010888312050317</v>
       </c>
       <c r="AD41" s="5">
-        <f t="shared" si="92"/>
+        <f t="shared" si="95"/>
         <v>0.51880686041151169</v>
       </c>
       <c r="AE41" s="5">
-        <f t="shared" si="92"/>
+        <f t="shared" si="95"/>
         <v>0.43681545000093613</v>
       </c>
       <c r="AF41" s="5">
-        <f t="shared" si="92"/>
+        <f t="shared" si="95"/>
         <v>0.3969533210466582</v>
       </c>
       <c r="AG41" s="5">
-        <f t="shared" si="92"/>
+        <f t="shared" si="95"/>
         <v>0.46013202485477694</v>
       </c>
       <c r="AH41" s="5">
-        <f t="shared" si="92"/>
+        <f t="shared" si="95"/>
         <v>0.40276551478737616</v>
       </c>
       <c r="AI41" s="5">
-        <f t="shared" si="92"/>
+        <f t="shared" si="95"/>
         <v>0.46216973537784167</v>
       </c>
       <c r="AJ41" s="5">
-        <f t="shared" si="92"/>
+        <f t="shared" si="95"/>
         <v>0.45884670307299136</v>
       </c>
       <c r="AK41" s="5">
-        <f t="shared" si="92"/>
+        <f t="shared" si="95"/>
         <v>0.45564100315594558</v>
       </c>
       <c r="AL41" s="5">
-        <f t="shared" si="92"/>
+        <f t="shared" si="95"/>
         <v>0.45266823549720253</v>
       </c>
       <c r="AM41" s="5">
-        <f t="shared" si="92"/>
+        <f t="shared" si="95"/>
         <v>0.44994513664712693</v>
       </c>
       <c r="AN41" s="5">
-        <f t="shared" si="92"/>
+        <f t="shared" si="95"/>
         <v>0.44745189934755941</v>
       </c>
       <c r="AO41" s="5">
-        <f t="shared" si="92"/>
+        <f t="shared" si="95"/>
         <v>0.4451702103978592</v>
       </c>
       <c r="AP41" s="5">
-        <f t="shared" si="92"/>
+        <f t="shared" si="95"/>
         <v>0.44308314342601957</v>
       </c>
       <c r="AQ41" s="5">
-        <f t="shared" si="92"/>
+        <f t="shared" si="95"/>
         <v>0.44117505899487797</v>
       </c>
       <c r="AT41" s="1" t="s">
@@ -5507,7 +5508,7 @@
       </c>
       <c r="AU41" s="1">
         <f>+Main!J4</f>
-        <v>277.8</v>
+        <v>275</v>
       </c>
     </row>
     <row r="42" spans="2:53">
@@ -5529,7 +5530,7 @@
       </c>
       <c r="AU42" s="6">
         <f>+AU40/AU41-1</f>
-        <v>3.7502091857323006E-2</v>
+        <v>4.8065749519870415E-2</v>
       </c>
     </row>
     <row r="43" spans="2:53">
@@ -5565,7 +5566,7 @@
       </c>
       <c r="Q44" s="1">
         <f>+Main!J6</f>
-        <v>203467.2738576</v>
+        <v>201416.4878</v>
       </c>
       <c r="AC44" s="1">
         <f>+AC28*AC43</f>
@@ -5616,47 +5617,47 @@
         <v>5</v>
       </c>
       <c r="J45" s="1">
-        <f>+J44+J48</f>
+        <f t="shared" ref="J45:O45" si="96">+J44+J48</f>
         <v>-32694.100000000002</v>
       </c>
       <c r="K45" s="1">
-        <f>+K44+K48</f>
+        <f t="shared" si="96"/>
         <v>-31492.399999999998</v>
       </c>
       <c r="L45" s="1">
-        <f>+L44+L48</f>
+        <f t="shared" si="96"/>
         <v>-31176.399999999998</v>
       </c>
       <c r="M45" s="1">
-        <f>+M44+M48</f>
+        <f t="shared" si="96"/>
         <v>-29650.799999999999</v>
       </c>
       <c r="N45" s="1">
-        <f>+N44+N48</f>
+        <f t="shared" si="96"/>
         <v>-29712.299999999996</v>
       </c>
       <c r="O45" s="1">
-        <f>+O44+O48</f>
+        <f t="shared" si="96"/>
         <v>157794.5</v>
       </c>
       <c r="Q45" s="1">
         <f>+Q44+Q48</f>
-        <v>176160.97385760001</v>
+        <v>174110.18780000001</v>
       </c>
       <c r="AC45" s="1">
-        <f t="shared" ref="AC45:AF45" si="93">+AC44+AC48</f>
+        <f t="shared" ref="AC45:AF45" si="97">+AC44+AC48</f>
         <v>140363.86000000002</v>
       </c>
       <c r="AD45" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="97"/>
         <v>139498.992</v>
       </c>
       <c r="AE45" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="97"/>
         <v>157684.25368020311</v>
       </c>
       <c r="AF45" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="97"/>
         <v>139912.89286846283</v>
       </c>
       <c r="AG45" s="1">
@@ -5687,7 +5688,7 @@
         <v>231.67424552599149</v>
       </c>
       <c r="AZ45" s="1">
-        <f t="shared" ref="AZ45:BA45" si="94">FV(AZ44,10,,-$AG$29)*$AT$44</f>
+        <f t="shared" ref="AZ45" si="98">FV(AZ44,10,,-$AG$29)*$AT$44</f>
         <v>210.13927420879025</v>
       </c>
     </row>
@@ -5734,7 +5735,7 @@
         <v>128</v>
       </c>
       <c r="J48" s="3">
-        <f t="shared" ref="J48" si="95">+J49+J54-J69-J71</f>
+        <f t="shared" ref="J48" si="99">+J49+J54-J69-J71</f>
         <v>-32694.100000000002</v>
       </c>
       <c r="K48" s="3">
@@ -5746,15 +5747,15 @@
         <v>-31176.399999999998</v>
       </c>
       <c r="M48" s="3">
-        <f t="shared" ref="M48:O48" si="96">+M49+M54-M69-M71</f>
+        <f t="shared" ref="M48:O48" si="100">+M49+M54-M69-M71</f>
         <v>-29650.799999999999</v>
       </c>
       <c r="N48" s="3">
-        <f t="shared" si="96"/>
+        <f t="shared" si="100"/>
         <v>-29712.299999999996</v>
       </c>
       <c r="O48" s="3">
-        <f t="shared" si="96"/>
+        <f t="shared" si="100"/>
         <v>-30475.9</v>
       </c>
       <c r="P48" s="3">
@@ -5762,11 +5763,11 @@
         <v>-29287.9</v>
       </c>
       <c r="Q48" s="3">
-        <f t="shared" ref="Q48:R48" si="97">+P48+Q27</f>
+        <f t="shared" ref="Q48:R48" si="101">+P48+Q27</f>
         <v>-27306.300000000003</v>
       </c>
       <c r="R48" s="3">
-        <f t="shared" si="97"/>
+        <f t="shared" si="101"/>
         <v>-25557.273535479311</v>
       </c>
       <c r="AF48" s="3">
@@ -5782,39 +5783,39 @@
         <v>-25557.273535479311</v>
       </c>
       <c r="AI48" s="3">
-        <f t="shared" ref="AI48:AP48" si="98">+AH48+AI27</f>
+        <f t="shared" ref="AI48:AP48" si="102">+AH48+AI27</f>
         <v>-18249.51371059454</v>
       </c>
       <c r="AJ48" s="3">
-        <f t="shared" si="98"/>
+        <f t="shared" si="102"/>
         <v>-10602.991064531465</v>
       </c>
       <c r="AK48" s="3">
-        <f t="shared" si="98"/>
+        <f t="shared" si="102"/>
         <v>-2446.0211749181872</v>
       </c>
       <c r="AL48" s="3">
-        <f t="shared" si="98"/>
+        <f t="shared" si="102"/>
         <v>6342.9115428965688</v>
       </c>
       <c r="AM48" s="3">
-        <f t="shared" si="98"/>
+        <f t="shared" si="102"/>
         <v>15819.779643913707</v>
       </c>
       <c r="AN48" s="3">
-        <f t="shared" si="98"/>
+        <f t="shared" si="102"/>
         <v>26045.608813957675</v>
       </c>
       <c r="AO48" s="3">
-        <f t="shared" si="98"/>
+        <f t="shared" si="102"/>
         <v>37086.942209522735</v>
       </c>
       <c r="AP48" s="3">
-        <f t="shared" si="98"/>
+        <f t="shared" si="102"/>
         <v>49016.347859827358</v>
       </c>
       <c r="AQ48" s="3">
-        <f t="shared" ref="AQ48" si="99">+AP48+AQ27</f>
+        <f t="shared" ref="AQ48" si="103">+AP48+AQ27</f>
         <v>61912.973137994282</v>
       </c>
       <c r="AT48" s="44" t="s">
@@ -5822,7 +5823,7 @@
       </c>
       <c r="AU48" s="6">
         <f>+AU47/AU41-1</f>
-        <v>-1.5818350818804672E-2</v>
+        <v>-5.797592208959701E-3</v>
       </c>
     </row>
     <row r="49" spans="2:46">
@@ -5947,35 +5948,35 @@
         <v>57</v>
       </c>
       <c r="J53" s="3">
-        <f t="shared" ref="J53:P53" si="100">+SUM(J49:J52)</f>
+        <f t="shared" ref="J53:P53" si="104">+SUM(J49:J52)</f>
         <v>6243.2</v>
       </c>
       <c r="K53" s="3">
-        <f t="shared" si="100"/>
+        <f t="shared" si="104"/>
         <v>5467.9</v>
       </c>
       <c r="L53" s="3">
-        <f t="shared" si="100"/>
+        <f t="shared" si="104"/>
         <v>5701.2</v>
       </c>
       <c r="M53" s="3">
-        <f t="shared" si="100"/>
+        <f t="shared" si="104"/>
         <v>6795.9000000000005</v>
       </c>
       <c r="N53" s="3">
-        <f t="shared" si="100"/>
+        <f t="shared" si="104"/>
         <v>7148.5000000000009</v>
       </c>
       <c r="O53" s="3">
-        <f t="shared" si="100"/>
+        <f t="shared" si="104"/>
         <v>4656.3999999999996</v>
       </c>
       <c r="P53" s="3">
-        <f t="shared" si="100"/>
+        <f t="shared" si="104"/>
         <v>4919.3</v>
       </c>
       <c r="Q53" s="3">
-        <f t="shared" ref="Q53" si="101">+SUM(Q49:Q52)</f>
+        <f t="shared" ref="Q53" si="105">+SUM(Q49:Q52)</f>
         <v>5740.8</v>
       </c>
     </row>
@@ -6071,35 +6072,35 @@
         <v>61</v>
       </c>
       <c r="J57" s="3">
-        <f t="shared" ref="J57:P57" si="102">+SUM(J54:J56)</f>
+        <f t="shared" ref="J57:P57" si="106">+SUM(J54:J56)</f>
         <v>7597.7000000000007</v>
       </c>
       <c r="K57" s="3">
-        <f t="shared" si="102"/>
+        <f t="shared" si="106"/>
         <v>7456</v>
       </c>
       <c r="L57" s="3">
-        <f t="shared" si="102"/>
+        <f t="shared" si="106"/>
         <v>7864.4</v>
       </c>
       <c r="M57" s="3">
-        <f t="shared" si="102"/>
+        <f t="shared" si="106"/>
         <v>7973.5</v>
       </c>
       <c r="N57" s="3">
-        <f t="shared" si="102"/>
+        <f t="shared" si="106"/>
         <v>8433.2000000000007</v>
       </c>
       <c r="O57" s="3">
-        <f t="shared" si="102"/>
+        <f t="shared" si="106"/>
         <v>8408</v>
       </c>
       <c r="P57" s="3">
-        <f t="shared" si="102"/>
+        <f t="shared" si="106"/>
         <v>8199.7999999999993</v>
       </c>
       <c r="Q57" s="3">
-        <f t="shared" ref="Q57" si="103">+SUM(Q54:Q56)</f>
+        <f t="shared" ref="Q57" si="107">+SUM(Q54:Q56)</f>
         <v>7869.7000000000007</v>
       </c>
     </row>
@@ -6166,35 +6167,35 @@
         <v>53</v>
       </c>
       <c r="J60" s="3">
-        <f t="shared" ref="J60:Q60" si="104">+J53+J57+SUM(J58:J59)</f>
+        <f t="shared" ref="J60:Q60" si="108">+J53+J57+SUM(J58:J59)</f>
         <v>52626.8</v>
       </c>
       <c r="K60" s="3">
-        <f t="shared" si="104"/>
+        <f t="shared" si="108"/>
         <v>51103.1</v>
       </c>
       <c r="L60" s="3">
-        <f t="shared" si="104"/>
+        <f t="shared" si="108"/>
         <v>51893.1</v>
       </c>
       <c r="M60" s="3">
-        <f t="shared" si="104"/>
+        <f t="shared" si="108"/>
         <v>52727</v>
       </c>
       <c r="N60" s="3">
-        <f t="shared" si="104"/>
+        <f t="shared" si="108"/>
         <v>53854.3</v>
       </c>
       <c r="O60" s="3">
-        <f t="shared" si="104"/>
+        <f t="shared" si="108"/>
         <v>50877.700000000004</v>
       </c>
       <c r="P60" s="3">
-        <f t="shared" si="104"/>
+        <f t="shared" si="108"/>
         <v>49247.799999999996</v>
       </c>
       <c r="Q60" s="3">
-        <f t="shared" si="104"/>
+        <f t="shared" si="108"/>
         <v>48501.599999999999</v>
       </c>
     </row>
@@ -6420,35 +6421,35 @@
         <v>64</v>
       </c>
       <c r="J70" s="3">
-        <f t="shared" ref="J70:P70" si="105">+SUM(J62:J69)</f>
+        <f t="shared" ref="J70:P70" si="109">+SUM(J62:J69)</f>
         <v>6181.2000000000007</v>
       </c>
       <c r="K70" s="3">
-        <f t="shared" si="105"/>
+        <f t="shared" si="109"/>
         <v>4579.7999999999993</v>
       </c>
       <c r="L70" s="3">
-        <f t="shared" si="105"/>
+        <f t="shared" si="109"/>
         <v>3934.7999999999997</v>
       </c>
       <c r="M70" s="3">
-        <f t="shared" si="105"/>
+        <f t="shared" si="109"/>
         <v>5095.5999999999995</v>
       </c>
       <c r="N70" s="3">
-        <f t="shared" si="105"/>
+        <f t="shared" si="109"/>
         <v>4020</v>
       </c>
       <c r="O70" s="3">
-        <f t="shared" si="105"/>
+        <f t="shared" si="109"/>
         <v>4234.6000000000004</v>
       </c>
       <c r="P70" s="3">
-        <f t="shared" si="105"/>
+        <f t="shared" si="109"/>
         <v>3480.1</v>
       </c>
       <c r="Q70" s="3">
-        <f t="shared" ref="Q70" si="106">+SUM(Q62:Q69)</f>
+        <f t="shared" ref="Q70" si="110">+SUM(Q62:Q69)</f>
         <v>3486.0999999999995</v>
       </c>
     </row>
@@ -6631,35 +6632,35 @@
         <v>72</v>
       </c>
       <c r="J77" s="3">
-        <f t="shared" ref="J77:P77" si="107">SUM(J70:J76)</f>
+        <f t="shared" ref="J77:P77" si="111">SUM(J70:J76)</f>
         <v>60451.7</v>
       </c>
       <c r="K77" s="3">
-        <f t="shared" si="107"/>
+        <f t="shared" si="111"/>
         <v>58338.600000000006</v>
       </c>
       <c r="L77" s="3">
-        <f t="shared" si="107"/>
+        <f t="shared" si="111"/>
         <v>57701.1</v>
       </c>
       <c r="M77" s="3">
-        <f t="shared" si="107"/>
+        <f t="shared" si="111"/>
         <v>58401.999999999993</v>
       </c>
       <c r="N77" s="3">
-        <f t="shared" si="107"/>
+        <f t="shared" si="111"/>
         <v>58455.3</v>
       </c>
       <c r="O77" s="3">
-        <f t="shared" si="107"/>
+        <f t="shared" si="111"/>
         <v>56868.5</v>
       </c>
       <c r="P77" s="3">
-        <f t="shared" si="107"/>
+        <f t="shared" si="111"/>
         <v>55617.599999999999</v>
       </c>
       <c r="Q77" s="3">
-        <f t="shared" ref="Q77" si="108">SUM(Q70:Q76)</f>
+        <f t="shared" ref="Q77" si="112">SUM(Q70:Q76)</f>
         <v>55067.799999999996</v>
       </c>
     </row>
@@ -6697,35 +6698,35 @@
         <v>74</v>
       </c>
       <c r="J79" s="3">
-        <f t="shared" ref="J79:P79" si="109">+J77+J78</f>
+        <f t="shared" ref="J79:P79" si="113">+J77+J78</f>
         <v>52626.799999999996</v>
       </c>
       <c r="K79" s="3">
-        <f t="shared" si="109"/>
+        <f t="shared" si="113"/>
         <v>51103.100000000006</v>
       </c>
       <c r="L79" s="3">
-        <f t="shared" si="109"/>
+        <f t="shared" si="113"/>
         <v>51893.1</v>
       </c>
       <c r="M79" s="3">
-        <f t="shared" si="109"/>
+        <f t="shared" si="113"/>
         <v>52726.999999999993</v>
       </c>
       <c r="N79" s="3">
-        <f t="shared" si="109"/>
+        <f t="shared" si="113"/>
         <v>53854.3</v>
       </c>
       <c r="O79" s="3">
-        <f t="shared" si="109"/>
+        <f t="shared" si="113"/>
         <v>50877.7</v>
       </c>
       <c r="P79" s="3">
-        <f t="shared" si="109"/>
+        <f t="shared" si="113"/>
         <v>49247.799999999996</v>
       </c>
       <c r="Q79" s="3">
-        <f t="shared" ref="Q79" si="110">+Q77+Q78</f>
+        <f t="shared" ref="Q79" si="114">+Q77+Q78</f>
         <v>48501.599999999999</v>
       </c>
     </row>
@@ -6734,35 +6735,35 @@
         <v>93</v>
       </c>
       <c r="J80" s="25" t="str">
-        <f t="shared" ref="J80:P80" si="111">IF(J60=J79,"True","False")</f>
+        <f t="shared" ref="J80:P80" si="115">IF(J60=J79,"True","False")</f>
         <v>True</v>
       </c>
       <c r="K80" s="25" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="115"/>
         <v>True</v>
       </c>
       <c r="L80" s="25" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="115"/>
         <v>True</v>
       </c>
       <c r="M80" s="25" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="115"/>
         <v>True</v>
       </c>
       <c r="N80" s="25" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="115"/>
         <v>True</v>
       </c>
       <c r="O80" s="25" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="115"/>
         <v>True</v>
       </c>
       <c r="P80" s="25" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="115"/>
         <v>True</v>
       </c>
       <c r="Q80" s="25" t="str">
-        <f t="shared" ref="Q80" si="112">IF(Q60=Q79,"True","False")</f>
+        <f t="shared" ref="Q80" si="116">IF(Q60=Q79,"True","False")</f>
         <v>True</v>
       </c>
     </row>
@@ -7031,7 +7032,7 @@
     <row r="110" spans="2:33">
       <c r="O110" s="5">
         <f>+O109/Main!J9</f>
-        <v>2.9419311204556847E-2</v>
+        <v>2.9677745898421704E-2</v>
       </c>
     </row>
     <row r="114" spans="2:16">

--- a/MCD.xlsx
+++ b/MCD.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameelbrannon/Dropbox/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6344785F-8D0F-2544-A04E-7DE596CF8723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C26801-209A-0746-8A02-8EE4515741A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="500" windowWidth="41500" windowHeight="23520" activeTab="1" xr2:uid="{68853114-4A9D-F642-8668-56CE329F4C0C}"/>
+    <workbookView xWindow="4940" yWindow="500" windowWidth="41500" windowHeight="23520" xr2:uid="{68853114-4A9D-F642-8668-56CE329F4C0C}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Model" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="141">
   <si>
     <t>Price</t>
   </si>
@@ -496,6 +496,12 @@
   </si>
   <si>
     <t>Avg</t>
+  </si>
+  <si>
+    <t>mike-donna's</t>
+  </si>
+  <si>
+    <t>Press Release 11/1/22</t>
   </si>
 </sst>
 </file>
@@ -1193,10 +1199,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EBBB766-D9B8-FB40-B5C7-D36C974DF243}">
-  <dimension ref="A2:L17"/>
+  <dimension ref="A2:L19"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="271" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B4" zoomScale="400" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -1225,6 +1231,9 @@
       <c r="C3" s="3" t="s">
         <v>118</v>
       </c>
+      <c r="G3" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="I3" s="1" t="s">
         <v>112</v>
       </c>
@@ -1248,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>275</v>
+        <v>271.58999999999997</v>
       </c>
     </row>
     <row r="5" spans="3:12">
@@ -1282,7 +1291,7 @@
       </c>
       <c r="J6" s="1">
         <f>+J4*J5</f>
-        <v>201416.4878</v>
+        <v>198918.92335127998</v>
       </c>
     </row>
     <row r="7" spans="3:12">
@@ -1315,7 +1324,7 @@
       </c>
       <c r="J9" s="1">
         <f>+J6-J7+J8</f>
-        <v>233454.38780000003</v>
+        <v>230956.82335128001</v>
       </c>
     </row>
     <row r="13" spans="3:12">
@@ -1329,52 +1338,59 @@
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="3:12">
-      <c r="C14" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>117</v>
-      </c>
-    </row>
     <row r="15" spans="3:12">
       <c r="C15" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>83</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="D15" s="3"/>
       <c r="H15" s="11" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="3:12">
       <c r="C16" s="11" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="3:4">
       <c r="C17" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4">
+      <c r="C18" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4">
+      <c r="C19" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>87</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C14" r:id="rId1" xr:uid="{D72FFBBB-8C7F-794F-AE1A-440F5563FA9E}"/>
-    <hyperlink ref="C15" r:id="rId2" xr:uid="{BAB8D9DC-EEB5-7640-A71C-970EFDCC76E3}"/>
-    <hyperlink ref="C16" r:id="rId3" xr:uid="{EA0D4B25-29FB-0D4A-BA96-AB5FE06B663F}"/>
-    <hyperlink ref="C17" r:id="rId4" xr:uid="{2E7BD89E-83BF-724E-A075-085ED0D197EF}"/>
-    <hyperlink ref="H14" r:id="rId5" xr:uid="{1000ADEF-8BE9-2845-96D8-057CEB23FC63}"/>
-    <hyperlink ref="H15" r:id="rId6" xr:uid="{0DE9F1B6-9A6A-444E-9289-461CF2F996BD}"/>
+    <hyperlink ref="C16" r:id="rId1" xr:uid="{D72FFBBB-8C7F-794F-AE1A-440F5563FA9E}"/>
+    <hyperlink ref="C17" r:id="rId2" xr:uid="{BAB8D9DC-EEB5-7640-A71C-970EFDCC76E3}"/>
+    <hyperlink ref="C18" r:id="rId3" xr:uid="{EA0D4B25-29FB-0D4A-BA96-AB5FE06B663F}"/>
+    <hyperlink ref="C19" r:id="rId4" xr:uid="{2E7BD89E-83BF-724E-A075-085ED0D197EF}"/>
+    <hyperlink ref="H15" r:id="rId5" xr:uid="{1000ADEF-8BE9-2845-96D8-057CEB23FC63}"/>
+    <hyperlink ref="H16" r:id="rId6" xr:uid="{0DE9F1B6-9A6A-444E-9289-461CF2F996BD}"/>
+    <hyperlink ref="C15" r:id="rId7" xr:uid="{7C6DD1EA-9EF8-3446-B52B-F8D7AABA2447}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1384,11 +1400,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32BAB3F7-7021-914A-A508-B96F72023C96}">
   <dimension ref="B2:HO114"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="AF10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AW55" sqref="AW55"/>
+      <selection pane="bottomRight" activeCell="AU42" sqref="AU42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.1640625" defaultRowHeight="13"/>
@@ -5508,7 +5524,7 @@
       </c>
       <c r="AU41" s="1">
         <f>+Main!J4</f>
-        <v>275</v>
+        <v>271.58999999999997</v>
       </c>
     </row>
     <row r="42" spans="2:53">
@@ -5530,7 +5546,7 @@
       </c>
       <c r="AU42" s="6">
         <f>+AU40/AU41-1</f>
-        <v>4.8065749519870415E-2</v>
+        <v>6.1224938760500613E-2</v>
       </c>
     </row>
     <row r="43" spans="2:53">
@@ -5566,7 +5582,7 @@
       </c>
       <c r="Q44" s="1">
         <f>+Main!J6</f>
-        <v>201416.4878</v>
+        <v>198918.92335127998</v>
       </c>
       <c r="AC44" s="1">
         <f>+AC28*AC43</f>
@@ -5642,7 +5658,7 @@
       </c>
       <c r="Q45" s="1">
         <f>+Q44+Q48</f>
-        <v>174110.18780000001</v>
+        <v>171612.62335128</v>
       </c>
       <c r="AC45" s="1">
         <f t="shared" ref="AC45:AF45" si="97">+AC44+AC48</f>
@@ -5823,7 +5839,7 @@
       </c>
       <c r="AU48" s="6">
         <f>+AU47/AU41-1</f>
-        <v>-5.797592208959701E-3</v>
+        <v>6.685305580235168E-3</v>
       </c>
     </row>
     <row r="49" spans="2:46">
@@ -7032,7 +7048,7 @@
     <row r="110" spans="2:33">
       <c r="O110" s="5">
         <f>+O109/Main!J9</f>
-        <v>2.9677745898421704E-2</v>
+        <v>2.9998680703457997E-2</v>
       </c>
     </row>
     <row r="114" spans="2:16">

--- a/MCD.xlsx
+++ b/MCD.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameelbrannon/Dropbox/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C26801-209A-0746-8A02-8EE4515741A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98C09EA-9F09-7A47-A41A-C6E2F1517392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4940" yWindow="500" windowWidth="41500" windowHeight="23520" xr2:uid="{68853114-4A9D-F642-8668-56CE329F4C0C}"/>
+    <workbookView xWindow="1840" yWindow="500" windowWidth="43640" windowHeight="24700" xr2:uid="{68853114-4A9D-F642-8668-56CE329F4C0C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Main" sheetId="1" r:id="rId1"/>
-    <sheet name="Model" sheetId="2" r:id="rId2"/>
+    <sheet name="O" sheetId="1" r:id="rId1"/>
+    <sheet name="E" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="155">
   <si>
     <t>Price</t>
   </si>
@@ -432,9 +432,6 @@
     <t>OM%</t>
   </si>
   <si>
-    <t>Q1'22</t>
-  </si>
-  <si>
     <t>Growth Pillars</t>
   </si>
   <si>
@@ -456,9 +453,6 @@
     <t>Delivery, Digital, Drive Thru</t>
   </si>
   <si>
-    <t>Earnings Call</t>
-  </si>
-  <si>
     <t xml:space="preserve">Quarter End Price </t>
   </si>
   <si>
@@ -480,9 +474,6 @@
     <t>Q3'22</t>
   </si>
   <si>
-    <t xml:space="preserve">Q3'22 </t>
-  </si>
-  <si>
     <t>P/E</t>
   </si>
   <si>
@@ -498,10 +489,61 @@
     <t>Avg</t>
   </si>
   <si>
-    <t>mike-donna's</t>
-  </si>
-  <si>
     <t>Press Release 11/1/22</t>
+  </si>
+  <si>
+    <t>Div-Y</t>
+  </si>
+  <si>
+    <t>IR</t>
+  </si>
+  <si>
+    <t>https://corporate.mcdonalds.com/corpmcd/investors.html</t>
+  </si>
+  <si>
+    <t>Addt'l News</t>
+  </si>
+  <si>
+    <t>Holiday Deals</t>
+  </si>
+  <si>
+    <t>Cash @ Begin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cash @ End </t>
+  </si>
+  <si>
+    <t>Gain on sale</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>4Q FCF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CEO </t>
+  </si>
+  <si>
+    <t>Richard/Maurice Mcdonald ---&gt; Ray Kroc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">History </t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Richard_and_Maurice_McDonald</t>
+  </si>
+  <si>
+    <t>HQ</t>
+  </si>
+  <si>
+    <t>Chicago IL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Movie </t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/The_Founder</t>
   </si>
 </sst>
 </file>
@@ -513,7 +555,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
     <numFmt numFmtId="166" formatCode="0\x"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -545,28 +587,10 @@
       <family val="2"/>
     </font>
     <font>
-      <strike/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="ArialMT"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Intel Clear"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF0432FF"/>
-      <name val="ArialMT"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0432FF"/>
-      <name val="ArialMT"/>
     </font>
     <font>
       <sz val="10"/>
@@ -579,6 +603,33 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Intel Clear"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF0432FF"/>
+      <name val="Intel Clear"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Intel Clear"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0432FF"/>
+      <name val="Intel Clear"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -690,27 +741,17 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -720,58 +761,58 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -808,7 +849,7 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>43271</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>108857</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -859,7 +900,7 @@
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>26458</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>111125</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1199,15 +1240,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EBBB766-D9B8-FB40-B5C7-D36C974DF243}">
-  <dimension ref="A2:L19"/>
+  <dimension ref="A2:L31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B4" zoomScale="400" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="200" zoomScaleNormal="157" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="14"/>
+    <col min="1" max="1" width="10.83203125" style="7"/>
     <col min="2" max="2" width="10.83203125" style="1"/>
     <col min="3" max="3" width="19" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" style="1"/>
@@ -1220,177 +1261,240 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:12">
-      <c r="I2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="3:12">
+      <c r="C3" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="3:12">
+      <c r="C4" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="3:12">
+      <c r="C5" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="3:12">
+      <c r="C6" s="3"/>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="3:12">
+      <c r="C7" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="3:12">
+      <c r="C8" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="3:12">
+      <c r="I11" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="3:12">
-      <c r="C3" s="3" t="s">
+    <row r="12" spans="3:12">
+      <c r="C12" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1955</v>
+      </c>
+      <c r="K12" s="2">
+        <v>262</v>
+      </c>
+      <c r="L12" s="4"/>
+    </row>
+    <row r="13" spans="3:12">
+      <c r="C13" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="I13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>272.04000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="3:12">
+      <c r="C14" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="J3" s="1">
-        <v>1955</v>
-      </c>
-      <c r="K3" s="2">
-        <v>262</v>
-      </c>
-      <c r="L3" s="5"/>
-    </row>
-    <row r="4" spans="3:12">
-      <c r="C4" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="D4" s="17" t="s">
+      <c r="D14" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="E4" s="18"/>
-      <c r="I4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1">
-        <v>271.58999999999997</v>
-      </c>
-    </row>
-    <row r="5" spans="3:12">
-      <c r="C5" s="19" t="s">
+      <c r="E14" s="13"/>
+      <c r="I14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1">
+        <v>732.42359199999999</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="3:12">
+      <c r="C15" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D15" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="E5" s="21"/>
-      <c r="I5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J5" s="1">
-        <v>732.42359199999999</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="6" spans="3:12">
-      <c r="C6" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" s="24"/>
-      <c r="I6" s="1" t="s">
+      <c r="E15" s="16"/>
+      <c r="I15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J6" s="1">
-        <f>+J4*J5</f>
-        <v>198918.92335127998</v>
-      </c>
-    </row>
-    <row r="7" spans="3:12">
-      <c r="I7" s="1" t="s">
+      <c r="J15" s="1">
+        <f>+J13*J14</f>
+        <v>199248.51396768002</v>
+      </c>
+    </row>
+    <row r="16" spans="3:12">
+      <c r="I16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J16" s="1">
         <v>2828.3</v>
       </c>
-      <c r="K7" s="2" t="str">
-        <f>+K5</f>
+      <c r="K16" s="2" t="str">
+        <f>+K14</f>
         <v>Q3'22</v>
       </c>
     </row>
-    <row r="8" spans="3:12">
-      <c r="I8" s="1" t="s">
+    <row r="17" spans="3:11">
+      <c r="I17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J17" s="1">
         <v>34866.199999999997</v>
       </c>
-      <c r="K8" s="2" t="str">
-        <f>+K7</f>
+      <c r="K17" s="2" t="str">
+        <f>+K16</f>
         <v>Q3'22</v>
       </c>
     </row>
-    <row r="9" spans="3:12">
-      <c r="I9" s="1" t="s">
+    <row r="18" spans="3:11">
+      <c r="I18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="1">
-        <f>+J6-J7+J8</f>
-        <v>230956.82335128001</v>
-      </c>
-    </row>
-    <row r="13" spans="3:12">
-      <c r="C13" s="3" t="s">
+      <c r="J18" s="1">
+        <f>+J15-J16+J17</f>
+        <v>231286.41396768001</v>
+      </c>
+    </row>
+    <row r="20" spans="3:11">
+      <c r="I20" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J20" s="17">
+        <f>(1.52*4)/J13</f>
+        <v>2.2349654462579031E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="3:11">
+      <c r="C22" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D22" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="15" spans="3:12">
-      <c r="C15" s="11" t="s">
+    </row>
+    <row r="24" spans="3:11">
+      <c r="C24" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="3:11">
+      <c r="C25" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="3:11">
+      <c r="C26" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="3:11">
+      <c r="C27" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="3:11">
+      <c r="C28" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="3:11">
+      <c r="C30" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="H15" s="11" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="16" spans="3:12">
-      <c r="C16" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4">
-      <c r="C17" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4">
-      <c r="C18" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4">
-      <c r="C19" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>87</v>
+    </row>
+    <row r="31" spans="3:11">
+      <c r="C31" s="6" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C16" r:id="rId1" xr:uid="{D72FFBBB-8C7F-794F-AE1A-440F5563FA9E}"/>
-    <hyperlink ref="C17" r:id="rId2" xr:uid="{BAB8D9DC-EEB5-7640-A71C-970EFDCC76E3}"/>
-    <hyperlink ref="C18" r:id="rId3" xr:uid="{EA0D4B25-29FB-0D4A-BA96-AB5FE06B663F}"/>
-    <hyperlink ref="C19" r:id="rId4" xr:uid="{2E7BD89E-83BF-724E-A075-085ED0D197EF}"/>
-    <hyperlink ref="H15" r:id="rId5" xr:uid="{1000ADEF-8BE9-2845-96D8-057CEB23FC63}"/>
-    <hyperlink ref="H16" r:id="rId6" xr:uid="{0DE9F1B6-9A6A-444E-9289-461CF2F996BD}"/>
-    <hyperlink ref="C15" r:id="rId7" xr:uid="{7C6DD1EA-9EF8-3446-B52B-F8D7AABA2447}"/>
+    <hyperlink ref="C25" r:id="rId1" xr:uid="{D72FFBBB-8C7F-794F-AE1A-440F5563FA9E}"/>
+    <hyperlink ref="C26" r:id="rId2" xr:uid="{BAB8D9DC-EEB5-7640-A71C-970EFDCC76E3}"/>
+    <hyperlink ref="C27" r:id="rId3" xr:uid="{EA0D4B25-29FB-0D4A-BA96-AB5FE06B663F}"/>
+    <hyperlink ref="C28" r:id="rId4" xr:uid="{2E7BD89E-83BF-724E-A075-085ED0D197EF}"/>
+    <hyperlink ref="C24" r:id="rId5" xr:uid="{7C6DD1EA-9EF8-3446-B52B-F8D7AABA2447}"/>
+    <hyperlink ref="D4" r:id="rId6" xr:uid="{76C3B4E3-0B2D-B740-9CCC-3C0402955EDE}"/>
+    <hyperlink ref="C31" r:id="rId7" xr:uid="{9357CE5F-ECA1-3744-92A2-6E2A6DE58C3B}"/>
+    <hyperlink ref="D3" r:id="rId8" xr:uid="{0D1D7A66-C79F-B547-B4AB-19B1C3F947AF}"/>
+    <hyperlink ref="D5" r:id="rId9" xr:uid="{393E2B7B-16A0-0C47-BFB4-C2D8AE1C2775}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1398,5680 +1502,6380 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32BAB3F7-7021-914A-A508-B96F72023C96}">
-  <dimension ref="B2:HO114"/>
+  <dimension ref="B2:HO117"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AF10" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="AU42" sqref="AU42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.1640625" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.1640625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="14" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.6640625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="7.33203125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="6" style="1" customWidth="1"/>
-    <col min="22" max="27" width="5.6640625" style="1" customWidth="1"/>
-    <col min="28" max="28" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="32" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="45" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="167" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="168" max="223" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="224" max="16384" width="8.1640625" style="1"/>
+    <col min="1" max="1" width="2.33203125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="28" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="6.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="7" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="7.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.6640625" style="7" customWidth="1"/>
+    <col min="20" max="20" width="7.33203125" style="7" customWidth="1"/>
+    <col min="21" max="21" width="6" style="7" customWidth="1"/>
+    <col min="22" max="27" width="5.6640625" style="7" customWidth="1"/>
+    <col min="28" max="28" width="6.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="29" max="32" width="7.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="8.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="34" max="36" width="7.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="37" max="45" width="6.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="8" style="7" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="10.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="8" style="7" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="8.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="7.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="51" max="146" width="6.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="147" max="167" width="7.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="168" max="223" width="7.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="224" max="16384" width="8.1640625" style="7"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:44" s="15" customFormat="1">
-      <c r="B2" s="26"/>
-      <c r="C2" s="15" t="s">
+    <row r="2" spans="2:44" s="19" customFormat="1">
+      <c r="B2" s="18"/>
+      <c r="C2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="L2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="M2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="N2" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="15" t="s">
+      <c r="O2" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="P2" s="15" t="s">
+      <c r="P2" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="Q2" s="15" t="s">
+      <c r="Q2" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="R2" s="15" t="s">
+      <c r="R2" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="U2" s="15">
+      <c r="U2" s="19">
         <v>2009</v>
       </c>
-      <c r="V2" s="15">
+      <c r="V2" s="19">
         <v>2010</v>
       </c>
-      <c r="W2" s="15">
+      <c r="W2" s="19">
         <v>2011</v>
       </c>
-      <c r="X2" s="15">
+      <c r="X2" s="19">
         <v>2012</v>
       </c>
-      <c r="Y2" s="15">
+      <c r="Y2" s="19">
         <v>2013</v>
       </c>
-      <c r="Z2" s="15">
+      <c r="Z2" s="19">
         <v>2014</v>
       </c>
-      <c r="AA2" s="15">
+      <c r="AA2" s="19">
         <v>2015</v>
       </c>
-      <c r="AB2" s="15">
+      <c r="AB2" s="19">
         <v>2016</v>
       </c>
-      <c r="AC2" s="15">
+      <c r="AC2" s="19">
         <f>+AB2+1</f>
         <v>2017</v>
       </c>
-      <c r="AD2" s="15">
+      <c r="AD2" s="19">
         <f t="shared" ref="AD2:AP2" si="0">+AC2+1</f>
         <v>2018</v>
       </c>
-      <c r="AE2" s="15">
+      <c r="AE2" s="19">
         <f t="shared" si="0"/>
         <v>2019</v>
       </c>
-      <c r="AF2" s="15">
+      <c r="AF2" s="19">
         <f t="shared" si="0"/>
         <v>2020</v>
       </c>
-      <c r="AG2" s="15">
+      <c r="AG2" s="19">
         <f t="shared" si="0"/>
         <v>2021</v>
       </c>
-      <c r="AH2" s="15">
+      <c r="AH2" s="19">
         <f t="shared" si="0"/>
         <v>2022</v>
       </c>
-      <c r="AI2" s="15">
+      <c r="AI2" s="19">
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
-      <c r="AJ2" s="15">
+      <c r="AJ2" s="19">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="AK2" s="15">
+      <c r="AK2" s="19">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="AL2" s="15">
+      <c r="AL2" s="19">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="AM2" s="15">
+      <c r="AM2" s="19">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="AN2" s="15">
+      <c r="AN2" s="19">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="AO2" s="15">
+      <c r="AO2" s="19">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="AP2" s="15">
+      <c r="AP2" s="19">
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
-      <c r="AQ2" s="15">
+      <c r="AQ2" s="19">
         <f t="shared" ref="AQ2" si="1">+AP2+1</f>
         <v>2031</v>
       </c>
     </row>
     <row r="3" spans="2:44">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="7">
         <v>35278</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="7">
         <v>35461</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="7">
         <v>35663</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="7">
         <f>13185+8787+14087</f>
         <v>36059</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="7">
         <v>36347</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="7">
         <v>36371</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="7">
         <v>36438</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="7">
         <f>13025+8841+14655</f>
         <v>36521</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="7">
         <v>36484</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="7">
         <v>36717</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3" s="7">
         <v>36986</v>
       </c>
-      <c r="N3" s="1">
+      <c r="N3" s="7">
         <f>+N5*0.93</f>
         <v>37228.83</v>
       </c>
-      <c r="O3" s="1">
+      <c r="O3" s="7">
         <v>37552</v>
       </c>
-      <c r="P3" s="1">
+      <c r="P3" s="7">
         <v>37664</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="Q3" s="7">
         <v>37930</v>
       </c>
-      <c r="R3" s="1">
+      <c r="R3" s="7">
         <f>+Q3</f>
         <v>37930</v>
       </c>
-      <c r="AC3" s="1">
+      <c r="AC3" s="7">
         <v>34108</v>
       </c>
-      <c r="AD3" s="1">
+      <c r="AD3" s="7">
         <v>35085</v>
       </c>
-      <c r="AE3" s="9">
+      <c r="AE3" s="7">
         <f t="shared" ref="AE3:AE4" si="2">+F3</f>
         <v>36059</v>
       </c>
-      <c r="AF3" s="1">
+      <c r="AF3" s="7">
         <f>+J3</f>
         <v>36521</v>
       </c>
     </row>
     <row r="4" spans="2:44">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="7">
         <v>2693</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="7">
         <v>2647</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="7">
         <v>2635</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="7">
         <f>661+1678+297</f>
         <v>2636</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="7">
         <v>2637</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="7">
         <v>2649</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="7">
         <v>2658</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="7">
         <f>657+1719+301</f>
         <v>2677</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="7">
         <v>2676</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="7">
         <v>2679</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4" s="7">
         <v>2690</v>
       </c>
-      <c r="N4" s="1">
+      <c r="N4" s="7">
         <f>+N5-N3</f>
         <v>2802.1699999999983</v>
       </c>
-      <c r="O4" s="1">
+      <c r="O4" s="7">
         <v>2792</v>
       </c>
-      <c r="P4" s="1">
+      <c r="P4" s="7">
         <v>2032</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="Q4" s="7">
         <v>2050</v>
       </c>
-      <c r="R4" s="1">
+      <c r="R4" s="7">
         <f>+Q4</f>
         <v>2050</v>
       </c>
-      <c r="AC4" s="1">
+      <c r="AC4" s="7">
         <v>3133</v>
       </c>
-      <c r="AD4" s="1">
+      <c r="AD4" s="7">
         <v>2770</v>
       </c>
-      <c r="AE4" s="9">
+      <c r="AE4" s="7">
         <f t="shared" si="2"/>
         <v>2636</v>
       </c>
-      <c r="AF4" s="1">
+      <c r="AF4" s="7">
         <f>+J4</f>
         <v>2677</v>
       </c>
     </row>
-    <row r="5" spans="2:44" s="3" customFormat="1">
-      <c r="B5" s="28" t="s">
+    <row r="5" spans="2:44" s="22" customFormat="1">
+      <c r="B5" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="22">
         <f t="shared" ref="C5:K5" si="3">+C3+C4</f>
         <v>37971</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="22">
         <f t="shared" si="3"/>
         <v>38108</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="22">
         <f t="shared" si="3"/>
         <v>38298</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="22">
         <f t="shared" si="3"/>
         <v>38695</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="22">
         <f t="shared" si="3"/>
         <v>38984</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="22">
         <f t="shared" si="3"/>
         <v>39020</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="22">
         <f t="shared" si="3"/>
         <v>39096</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="22">
         <f t="shared" si="3"/>
         <v>39198</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="22">
         <f t="shared" si="3"/>
         <v>39160</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="22">
         <f>+L3+L4</f>
         <v>39396</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="22">
         <f>+SUM(M3:M4)</f>
         <v>39676</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N5" s="22">
         <v>40031</v>
       </c>
-      <c r="O5" s="3">
+      <c r="O5" s="22">
         <f>+K5*1.001</f>
         <v>39199.159999999996</v>
       </c>
-      <c r="P5" s="3">
+      <c r="P5" s="22">
         <f>+SUM(P3:P4)</f>
         <v>39696</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="Q5" s="22">
         <f>+SUM(Q3:Q4)</f>
         <v>39980</v>
       </c>
-      <c r="R5" s="3">
+      <c r="R5" s="22">
         <f>+SUM(R3:R4)</f>
         <v>39980</v>
       </c>
-      <c r="AC5" s="3">
+      <c r="AC5" s="22">
         <f>+D5</f>
         <v>38108</v>
       </c>
-      <c r="AD5" s="3">
+      <c r="AD5" s="22">
         <f>+E5</f>
         <v>38298</v>
       </c>
-      <c r="AE5" s="3">
+      <c r="AE5" s="22">
         <f>+F5</f>
         <v>38695</v>
       </c>
-      <c r="AF5" s="3">
+      <c r="AF5" s="22">
         <f>+J5</f>
         <v>39198</v>
       </c>
-      <c r="AG5" s="3">
+      <c r="AG5" s="22">
         <f>+N5</f>
         <v>40031</v>
       </c>
-      <c r="AH5" s="3">
+      <c r="AH5" s="22">
         <f>+R5</f>
         <v>39980</v>
       </c>
-      <c r="AI5" s="3">
+      <c r="AI5" s="22">
         <f>+AH5+AI6</f>
         <v>40031</v>
       </c>
-      <c r="AJ5" s="3">
+      <c r="AJ5" s="22">
         <f t="shared" ref="AJ5:AQ5" si="4">+AI5+AJ6</f>
         <v>40181</v>
       </c>
-      <c r="AK5" s="3">
+      <c r="AK5" s="22">
         <f t="shared" si="4"/>
         <v>40341</v>
       </c>
-      <c r="AL5" s="3">
+      <c r="AL5" s="22">
         <f t="shared" si="4"/>
         <v>40511</v>
       </c>
-      <c r="AM5" s="3">
+      <c r="AM5" s="22">
         <f t="shared" si="4"/>
         <v>40691</v>
       </c>
-      <c r="AN5" s="3">
+      <c r="AN5" s="22">
         <f t="shared" si="4"/>
         <v>40881</v>
       </c>
-      <c r="AO5" s="3">
+      <c r="AO5" s="22">
         <f t="shared" si="4"/>
         <v>41081</v>
       </c>
-      <c r="AP5" s="3">
+      <c r="AP5" s="22">
         <f t="shared" si="4"/>
         <v>41291</v>
       </c>
-      <c r="AQ5" s="3">
+      <c r="AQ5" s="22">
         <f t="shared" si="4"/>
         <v>41511</v>
       </c>
     </row>
-    <row r="6" spans="2:44" s="7" customFormat="1">
-      <c r="B6" s="29"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="AD6" s="7">
+    <row r="6" spans="2:44" s="24" customFormat="1">
+      <c r="B6" s="23"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="AD6" s="24">
         <f t="shared" ref="AD6:AE6" si="5">+AD5-AC5</f>
         <v>190</v>
       </c>
-      <c r="AE6" s="7">
+      <c r="AE6" s="24">
         <f t="shared" si="5"/>
         <v>397</v>
       </c>
-      <c r="AF6" s="7">
+      <c r="AF6" s="24">
         <f>+AF5-AE5</f>
         <v>503</v>
       </c>
-      <c r="AG6" s="7">
+      <c r="AG6" s="24">
         <f>+AG5-AF5</f>
         <v>833</v>
       </c>
-      <c r="AH6" s="36">
+      <c r="AH6" s="26">
         <f>+AH5-AG5</f>
         <v>-51</v>
       </c>
-      <c r="AI6" s="36">
+      <c r="AI6" s="26">
         <v>51</v>
       </c>
-      <c r="AJ6" s="36">
+      <c r="AJ6" s="26">
         <v>150</v>
       </c>
-      <c r="AK6" s="36">
+      <c r="AK6" s="26">
         <f>+AJ6+10</f>
         <v>160</v>
       </c>
-      <c r="AL6" s="36">
+      <c r="AL6" s="26">
         <f t="shared" ref="AL6:AQ6" si="6">+AK6+10</f>
         <v>170</v>
       </c>
-      <c r="AM6" s="36">
+      <c r="AM6" s="26">
         <f t="shared" si="6"/>
         <v>180</v>
       </c>
-      <c r="AN6" s="36">
+      <c r="AN6" s="26">
         <f t="shared" si="6"/>
         <v>190</v>
       </c>
-      <c r="AO6" s="36">
+      <c r="AO6" s="26">
         <f t="shared" si="6"/>
         <v>200</v>
       </c>
-      <c r="AP6" s="36">
+      <c r="AP6" s="26">
         <f t="shared" si="6"/>
         <v>210</v>
       </c>
-      <c r="AQ6" s="36">
+      <c r="AQ6" s="26">
         <f t="shared" si="6"/>
         <v>220</v>
       </c>
     </row>
-    <row r="7" spans="2:44" s="34" customFormat="1">
-      <c r="B7" s="33" t="s">
+    <row r="7" spans="2:44" s="27" customFormat="1">
+      <c r="B7" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="34">
+      <c r="C7" s="27">
         <f t="shared" ref="C7:K7" si="7">+C14/(C5/1000)</f>
         <v>132.3141344710437</v>
       </c>
-      <c r="D7" s="34">
+      <c r="D7" s="27">
         <f t="shared" si="7"/>
         <v>141.95969350267663</v>
       </c>
-      <c r="E7" s="34">
+      <c r="E7" s="27">
         <f t="shared" si="7"/>
         <v>143.67068776437412</v>
       </c>
-      <c r="F7" s="34">
+      <c r="F7" s="27">
         <f t="shared" si="7"/>
         <v>140.28169014084506</v>
       </c>
-      <c r="G7" s="34">
+      <c r="G7" s="27">
         <f t="shared" si="7"/>
         <v>120.93166427252207</v>
       </c>
-      <c r="H7" s="34">
+      <c r="H7" s="27">
         <f t="shared" si="7"/>
         <v>96.399282419272154</v>
       </c>
-      <c r="I7" s="34">
+      <c r="I7" s="27">
         <f t="shared" si="7"/>
         <v>138.58450992428894</v>
       </c>
-      <c r="J7" s="34">
+      <c r="J7" s="27">
         <f t="shared" si="7"/>
         <v>135.5630389305577</v>
       </c>
-      <c r="K7" s="34">
+      <c r="K7" s="27">
         <f t="shared" si="7"/>
         <v>130.86312563840653</v>
       </c>
-      <c r="L7" s="34">
+      <c r="L7" s="27">
         <f>+L14/(L5/1000)</f>
         <v>149.45425931566655</v>
       </c>
-      <c r="M7" s="34">
+      <c r="M7" s="27">
         <f>+M14/(M5/1000)</f>
         <v>156.29851799576571</v>
       </c>
-      <c r="N7" s="34">
+      <c r="N7" s="27">
         <f>+N14/(N5/1000)</f>
         <v>150.11116384801778</v>
       </c>
-      <c r="O7" s="34">
+      <c r="O7" s="27">
         <f t="shared" ref="O7:Q7" si="8">+O14/(O5/1000)</f>
         <v>144.53370939581359</v>
       </c>
-      <c r="P7" s="34">
+      <c r="P7" s="27">
         <f t="shared" si="8"/>
         <v>144.0548166062072</v>
       </c>
-      <c r="Q7" s="34">
+      <c r="Q7" s="27">
         <f t="shared" si="8"/>
         <v>146.87593796898452</v>
       </c>
-      <c r="R7" s="34">
+      <c r="R7" s="27">
         <f>+M7*(1+R9)</f>
         <v>164.11344389555398</v>
       </c>
     </row>
-    <row r="8" spans="2:44" s="34" customFormat="1">
-      <c r="B8" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="C8" s="34">
+    <row r="8" spans="2:44" s="27" customFormat="1">
+      <c r="B8" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" s="27">
         <f t="shared" ref="C8:K8" si="9">+C7*4</f>
         <v>529.2565378841748</v>
       </c>
-      <c r="D8" s="34">
+      <c r="D8" s="27">
         <f t="shared" si="9"/>
         <v>567.83877401070652</v>
       </c>
-      <c r="E8" s="34">
+      <c r="E8" s="27">
         <f t="shared" si="9"/>
         <v>574.68275105749649</v>
       </c>
-      <c r="F8" s="34">
+      <c r="F8" s="27">
         <f t="shared" si="9"/>
         <v>561.12676056338023</v>
       </c>
-      <c r="G8" s="34">
+      <c r="G8" s="27">
         <f t="shared" si="9"/>
         <v>483.72665709008828</v>
       </c>
-      <c r="H8" s="34">
+      <c r="H8" s="27">
         <f t="shared" si="9"/>
         <v>385.59712967708862</v>
       </c>
-      <c r="I8" s="34">
+      <c r="I8" s="27">
         <f t="shared" si="9"/>
         <v>554.33803969715575</v>
       </c>
-      <c r="J8" s="34">
+      <c r="J8" s="27">
         <f t="shared" si="9"/>
         <v>542.25215572223078</v>
       </c>
-      <c r="K8" s="34">
+      <c r="K8" s="27">
         <f t="shared" si="9"/>
         <v>523.45250255362612</v>
       </c>
-      <c r="L8" s="34">
+      <c r="L8" s="27">
         <f>+L7*4</f>
         <v>597.81703726266619</v>
       </c>
-      <c r="M8" s="34">
+      <c r="M8" s="27">
         <f>+M7*4</f>
         <v>625.19407198306283</v>
       </c>
-      <c r="N8" s="34">
+      <c r="N8" s="27">
         <f t="shared" ref="N8" si="10">+N7*4</f>
         <v>600.44465539207113</v>
       </c>
-      <c r="O8" s="34">
+      <c r="O8" s="27">
         <f t="shared" ref="O8" si="11">+O7*4</f>
         <v>578.13483758325435</v>
       </c>
-      <c r="P8" s="34">
+      <c r="P8" s="27">
         <f t="shared" ref="P8" si="12">+P7*4</f>
         <v>576.21926642482879</v>
       </c>
-      <c r="Q8" s="34">
+      <c r="Q8" s="27">
         <f t="shared" ref="Q8" si="13">+Q7*4</f>
         <v>587.50375187593806</v>
       </c>
-      <c r="R8" s="34">
+      <c r="R8" s="27">
         <f t="shared" ref="R8" si="14">+R7*4</f>
         <v>656.45377558221594</v>
       </c>
-      <c r="AD8" s="34">
+      <c r="AD8" s="27">
         <f>+AD14/(AD5/1000)</f>
         <v>555.073371977649</v>
       </c>
-      <c r="AE8" s="34">
+      <c r="AE8" s="27">
         <f>+AE14/(AE5/1000)</f>
         <v>552.12301330921309</v>
       </c>
-      <c r="AF8" s="34">
+      <c r="AF8" s="27">
         <f>+AF14/(AF5/1000)</f>
         <v>490.01989897443752</v>
       </c>
-      <c r="AG8" s="34">
+      <c r="AG8" s="27">
         <f>+AG14/(AG5/1000)</f>
         <v>580.12290474881968</v>
       </c>
-      <c r="AH8" s="34">
+      <c r="AH8" s="27">
         <f>+AH14/(AH5/1000)</f>
         <v>595.73175305013126</v>
       </c>
-      <c r="AI8" s="34">
+      <c r="AI8" s="27">
         <f>+AH8*(1+AI9)</f>
         <v>619.56102317213652</v>
       </c>
-      <c r="AJ8" s="34">
+      <c r="AJ8" s="27">
         <f t="shared" ref="AJ8:AQ8" si="15">+AI8*(1+AJ9)</f>
         <v>650.53907433074335</v>
       </c>
-      <c r="AK8" s="34">
+      <c r="AK8" s="27">
         <f t="shared" si="15"/>
         <v>696.07680953389547</v>
       </c>
-      <c r="AL8" s="34">
+      <c r="AL8" s="27">
         <f t="shared" si="15"/>
         <v>751.76295429660718</v>
       </c>
-      <c r="AM8" s="34">
+      <c r="AM8" s="27">
         <f t="shared" si="15"/>
         <v>811.90399064033579</v>
       </c>
-      <c r="AN8" s="34">
+      <c r="AN8" s="27">
         <f t="shared" si="15"/>
         <v>876.85630989156266</v>
       </c>
-      <c r="AO8" s="34">
+      <c r="AO8" s="27">
         <f t="shared" si="15"/>
         <v>947.00481468288774</v>
       </c>
-      <c r="AP8" s="34">
+      <c r="AP8" s="27">
         <f t="shared" si="15"/>
         <v>1022.7651998575188</v>
       </c>
-      <c r="AQ8" s="34">
+      <c r="AQ8" s="27">
         <f t="shared" si="15"/>
         <v>1104.5864158461204</v>
       </c>
     </row>
-    <row r="9" spans="2:44" s="34" customFormat="1">
-      <c r="B9" s="33"/>
-      <c r="G9" s="43">
+    <row r="9" spans="2:44" s="27" customFormat="1">
+      <c r="B9" s="18"/>
+      <c r="G9" s="28">
         <f t="shared" ref="G9:K9" si="16">+G7/C7-1</f>
         <v>-8.6026109334620071E-2</v>
       </c>
-      <c r="H9" s="43">
+      <c r="H9" s="28">
         <f t="shared" si="16"/>
         <v>-0.32093906347117773</v>
       </c>
-      <c r="I9" s="43">
+      <c r="I9" s="28">
         <f t="shared" si="16"/>
         <v>-3.5401639118111006E-2</v>
       </c>
-      <c r="J9" s="43">
+      <c r="J9" s="28">
         <f t="shared" si="16"/>
         <v>-3.3636971478956057E-2</v>
       </c>
-      <c r="K9" s="43">
+      <c r="K9" s="28">
         <f t="shared" si="16"/>
         <v>8.212457362286596E-2</v>
       </c>
-      <c r="L9" s="43">
+      <c r="L9" s="28">
         <f>+L7/H7-1</f>
         <v>0.55036692768770701</v>
       </c>
-      <c r="M9" s="43">
+      <c r="M9" s="28">
         <f t="shared" ref="M9:O9" si="17">+M7/I7-1</f>
         <v>0.12782098144413268</v>
       </c>
-      <c r="N9" s="43">
+      <c r="N9" s="28">
         <f t="shared" si="17"/>
         <v>0.10731630857664953</v>
       </c>
-      <c r="O9" s="43">
+      <c r="O9" s="28">
         <f t="shared" si="17"/>
         <v>0.10446475040784842</v>
       </c>
-      <c r="P9" s="43">
+      <c r="P9" s="28">
         <f t="shared" ref="P9" si="18">+P7/L7-1</f>
         <v>-3.6127727200166548E-2</v>
       </c>
-      <c r="Q9" s="43">
+      <c r="Q9" s="28">
         <f t="shared" ref="Q9" si="19">+Q7/M7-1</f>
         <v>-6.0285792518112391E-2</v>
       </c>
-      <c r="R9" s="39">
+      <c r="R9" s="29">
         <v>0.05</v>
       </c>
-      <c r="AE9" s="35">
+      <c r="AE9" s="30">
         <f t="shared" ref="AE9:AH9" si="20">+AE8/AD8-1</f>
         <v>-5.3152588781627541E-3</v>
       </c>
-      <c r="AF9" s="35">
+      <c r="AF9" s="30">
         <f t="shared" si="20"/>
         <v>-0.11248057559230029</v>
       </c>
-      <c r="AG9" s="35">
+      <c r="AG9" s="30">
         <f t="shared" si="20"/>
         <v>0.18387621801269449</v>
       </c>
-      <c r="AH9" s="39">
+      <c r="AH9" s="29">
         <f t="shared" si="20"/>
         <v>2.6906105884700215E-2</v>
       </c>
-      <c r="AI9" s="39">
+      <c r="AI9" s="29">
         <v>0.04</v>
       </c>
-      <c r="AJ9" s="39">
+      <c r="AJ9" s="29">
         <v>0.05</v>
       </c>
-      <c r="AK9" s="39">
+      <c r="AK9" s="29">
         <f>+AJ9+2%</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AL9" s="39">
+      <c r="AL9" s="29">
         <v>0.08</v>
       </c>
-      <c r="AM9" s="39">
+      <c r="AM9" s="29">
         <v>0.08</v>
       </c>
-      <c r="AN9" s="39">
+      <c r="AN9" s="29">
         <v>0.08</v>
       </c>
-      <c r="AO9" s="39">
+      <c r="AO9" s="29">
         <v>0.08</v>
       </c>
-      <c r="AP9" s="39">
+      <c r="AP9" s="29">
         <v>0.08</v>
       </c>
-      <c r="AQ9" s="39">
+      <c r="AQ9" s="29">
         <v>0.08</v>
       </c>
     </row>
-    <row r="10" spans="2:44" s="4" customFormat="1">
-      <c r="B10" s="26"/>
-      <c r="AH10" s="37"/>
-      <c r="AI10" s="37"/>
-      <c r="AJ10" s="37"/>
-      <c r="AK10" s="37"/>
-      <c r="AL10" s="37"/>
-      <c r="AM10" s="37"/>
-      <c r="AN10" s="37"/>
-      <c r="AO10" s="37"/>
-      <c r="AP10" s="37"/>
-      <c r="AQ10" s="37"/>
-      <c r="AR10" s="38"/>
+    <row r="10" spans="2:44" s="27" customFormat="1">
+      <c r="B10" s="18"/>
+      <c r="AH10" s="31"/>
+      <c r="AI10" s="31"/>
+      <c r="AJ10" s="31"/>
+      <c r="AK10" s="31"/>
+      <c r="AL10" s="31"/>
+      <c r="AM10" s="31"/>
+      <c r="AN10" s="31"/>
+      <c r="AO10" s="31"/>
+      <c r="AP10" s="31"/>
+      <c r="AQ10" s="31"/>
+      <c r="AR10" s="32"/>
     </row>
     <row r="11" spans="2:44">
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="7">
         <v>2240.5</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="7">
         <v>2400.4</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="7">
         <v>2416.6</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="7">
         <v>2363.3000000000002</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="7">
         <v>2025.8</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="7">
         <v>1593.7</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="7">
         <v>2286.4</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="7">
         <v>2233.3000000000002</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="7">
         <v>2161.5</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L11" s="7">
         <v>2488.6999999999998</v>
       </c>
-      <c r="M11" s="1">
+      <c r="M11" s="7">
         <v>2598.4</v>
       </c>
-      <c r="N11" s="1">
+      <c r="N11" s="7">
         <v>2538.8000000000002</v>
       </c>
-      <c r="O11" s="1">
+      <c r="O11" s="7">
         <v>2302.4</v>
       </c>
-      <c r="P11" s="1">
+      <c r="P11" s="7">
         <v>2112.8000000000002</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="Q11" s="7">
         <v>2124.8000000000002</v>
       </c>
-      <c r="AB11" s="1">
+      <c r="AB11" s="7">
         <v>15295</v>
       </c>
-      <c r="AC11" s="1">
+      <c r="AC11" s="7">
         <v>12718.9</v>
       </c>
-      <c r="AD11" s="1">
+      <c r="AD11" s="7">
         <v>10012.700000000001</v>
       </c>
-      <c r="AE11" s="1">
+      <c r="AE11" s="7">
         <v>9420.7999999999993</v>
       </c>
-      <c r="AF11" s="1">
+      <c r="AF11" s="7">
         <v>8139.2</v>
       </c>
-      <c r="AG11" s="1">
+      <c r="AG11" s="7">
         <v>9787.4</v>
       </c>
     </row>
     <row r="12" spans="2:44">
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="7">
         <v>2715.1</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="7">
         <v>2940.9</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="7">
         <v>3014</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="7">
         <v>2985.7</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="7">
         <v>2608</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="7">
         <v>2088</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="7">
         <v>3044.8</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="7">
         <v>2985.3</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12" s="7">
         <v>2877.4</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L12" s="7">
         <v>3306.2</v>
       </c>
-      <c r="M12" s="1">
+      <c r="M12" s="7">
         <v>3510.2</v>
       </c>
-      <c r="N12" s="1">
+      <c r="N12" s="7">
         <v>3391.6</v>
       </c>
-      <c r="O12" s="1">
+      <c r="O12" s="7">
         <v>3262.8</v>
       </c>
-      <c r="P12" s="1">
+      <c r="P12" s="7">
         <v>3526.8</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="Q12" s="7">
         <v>3671.2</v>
       </c>
-      <c r="AB12" s="1">
+      <c r="AB12" s="7">
         <v>9327</v>
       </c>
-      <c r="AC12" s="1">
+      <c r="AC12" s="7">
         <v>10101.5</v>
       </c>
-      <c r="AD12" s="1">
+      <c r="AD12" s="7">
         <v>11012.5</v>
       </c>
-      <c r="AE12" s="1">
+      <c r="AE12" s="7">
         <v>11655.7</v>
       </c>
-      <c r="AF12" s="1">
+      <c r="AF12" s="7">
         <v>10726.1</v>
       </c>
-      <c r="AG12" s="1">
+      <c r="AG12" s="7">
         <v>13085.4</v>
       </c>
     </row>
     <row r="13" spans="2:44">
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="7">
         <v>68.5</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="7">
         <v>68.5</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="7">
         <v>71.7</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="7">
         <v>79.2</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="7">
         <v>80.599999999999994</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="7">
         <v>79.8</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="7">
         <v>86.9</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="7">
         <v>95.2</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="7">
         <v>85.7</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L13" s="7">
         <v>93</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M13" s="7">
         <v>92.7</v>
       </c>
-      <c r="N13" s="1">
+      <c r="N13" s="7">
         <v>78.7</v>
       </c>
-      <c r="O13" s="1">
+      <c r="O13" s="7">
         <v>100.4</v>
       </c>
-      <c r="P13" s="1">
+      <c r="P13" s="7">
         <v>78.8</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="Q13" s="7">
         <v>76.099999999999994</v>
       </c>
-      <c r="AB13" s="1">
+      <c r="AB13" s="7">
         <v>151</v>
       </c>
-      <c r="AC13" s="1">
+      <c r="AC13" s="7">
         <v>140</v>
       </c>
-      <c r="AD13" s="1">
+      <c r="AD13" s="7">
         <v>233</v>
       </c>
-      <c r="AE13" s="1">
+      <c r="AE13" s="7">
         <v>287.89999999999998</v>
       </c>
-      <c r="AF13" s="1">
+      <c r="AF13" s="7">
         <v>342.5</v>
       </c>
-      <c r="AG13" s="1">
+      <c r="AG13" s="7">
         <v>350.1</v>
       </c>
     </row>
-    <row r="14" spans="2:44" s="3" customFormat="1">
-      <c r="B14" s="28" t="s">
+    <row r="14" spans="2:44" s="22" customFormat="1">
+      <c r="B14" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="22">
         <f t="shared" ref="C14:L14" si="21">+SUM(C11:C13)</f>
         <v>5024.1000000000004</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="22">
         <f t="shared" si="21"/>
         <v>5409.8</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="22">
         <f t="shared" si="21"/>
         <v>5502.3</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="22">
         <f t="shared" si="21"/>
         <v>5428.2</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="22">
         <f t="shared" si="21"/>
         <v>4714.4000000000005</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="22">
         <f t="shared" si="21"/>
         <v>3761.5</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="22">
         <f t="shared" si="21"/>
         <v>5418.1</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="22">
         <f t="shared" si="21"/>
         <v>5313.8</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="22">
         <f t="shared" si="21"/>
         <v>5124.5999999999995</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="22">
         <f t="shared" si="21"/>
         <v>5887.9</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="22">
         <f>+SUM(M11:M13)</f>
         <v>6201.3</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="22">
         <f>+SUM(N11:N13)</f>
         <v>6009.0999999999995</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="22">
         <f>+SUM(O11:O13)</f>
         <v>5665.6</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="22">
         <f>+SUM(P11:P13)</f>
         <v>5718.4000000000005</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="22">
         <f>+SUM(Q11:Q13)</f>
         <v>5872.1</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="22">
         <f>+R5*R7/1000</f>
         <v>6561.2554869442483</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AB14" s="22">
         <f>+SUM(AB11:AB13)</f>
         <v>24773</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AC14" s="22">
         <f>+SUM(AC11:AC13)</f>
         <v>22960.400000000001</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AD14" s="22">
         <f>+SUM(AD11:AD13)</f>
         <v>21258.2</v>
       </c>
-      <c r="AE14" s="3">
+      <c r="AE14" s="22">
         <f>SUM(C14:F14)</f>
         <v>21364.400000000001</v>
       </c>
-      <c r="AF14" s="3">
+      <c r="AF14" s="22">
         <f>SUM(G14:J14)</f>
         <v>19207.800000000003</v>
       </c>
-      <c r="AG14" s="3">
+      <c r="AG14" s="22">
         <f>SUM(K14:N14)</f>
         <v>23222.899999999998</v>
       </c>
-      <c r="AH14" s="3">
+      <c r="AH14" s="22">
         <f>+SUM(O14:R14)</f>
         <v>23817.355486944245</v>
       </c>
-      <c r="AI14" s="3">
+      <c r="AI14" s="22">
         <f>+AI5*AI8/1000</f>
         <v>24801.647318603795</v>
       </c>
-      <c r="AJ14" s="3">
+      <c r="AJ14" s="22">
         <f>+AJ5*AJ8/1000</f>
         <v>26139.310545683598</v>
       </c>
-      <c r="AK14" s="3">
+      <c r="AK14" s="22">
         <f>+AK5*AK8/1000</f>
         <v>28080.434573406877</v>
       </c>
-      <c r="AL14" s="3">
+      <c r="AL14" s="22">
         <f>+AL5*AL8/1000</f>
         <v>30454.669041509853</v>
       </c>
-      <c r="AM14" s="3">
+      <c r="AM14" s="22">
         <f>+AM5*AM8/1000</f>
         <v>33037.185283145904</v>
       </c>
-      <c r="AN14" s="3">
+      <c r="AN14" s="22">
         <f t="shared" ref="AN14:AP14" si="22">+AN5*AN8/1000</f>
         <v>35846.762804676975</v>
       </c>
-      <c r="AO14" s="3">
+      <c r="AO14" s="22">
         <f t="shared" si="22"/>
         <v>38903.904791987712</v>
       </c>
-      <c r="AP14" s="3">
+      <c r="AP14" s="22">
         <f t="shared" si="22"/>
         <v>42230.997867316815</v>
       </c>
-      <c r="AQ14" s="3">
+      <c r="AQ14" s="22">
         <f t="shared" ref="AQ14" si="23">+AQ5*AQ8/1000</f>
         <v>45852.486708188306</v>
       </c>
     </row>
-    <row r="15" spans="2:44" s="9" customFormat="1">
-      <c r="B15" s="30" t="s">
+    <row r="15" spans="2:44">
+      <c r="B15" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="7">
         <v>1886.2</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="7">
         <v>1967.1</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="7">
         <v>1967.7</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="7">
         <v>1939.6</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="7">
         <v>1752.8</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="7">
         <v>1448.4</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="7">
         <v>1876.3</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J15" s="7">
         <v>1903.7</v>
       </c>
-      <c r="K15" s="9">
+      <c r="K15" s="7">
         <v>1817.6</v>
       </c>
-      <c r="L15" s="9">
+      <c r="L15" s="7">
         <v>2021</v>
       </c>
-      <c r="M15" s="9">
+      <c r="M15" s="7">
         <v>2108.4</v>
       </c>
-      <c r="N15" s="9">
+      <c r="N15" s="7">
         <v>2100.3000000000002</v>
       </c>
-      <c r="O15" s="9">
+      <c r="O15" s="7">
         <v>1959.2</v>
       </c>
-      <c r="P15" s="9">
+      <c r="P15" s="7">
         <v>1769.8</v>
       </c>
-      <c r="Q15" s="9">
+      <c r="Q15" s="7">
         <v>1779.6</v>
       </c>
-      <c r="R15" s="9">
+      <c r="R15" s="7">
         <f>+R14*(N15/N14)</f>
         <v>2293.2893277244525</v>
       </c>
-      <c r="AC15" s="9">
+      <c r="AC15" s="7">
         <v>4033.5</v>
       </c>
-      <c r="AD15" s="9">
+      <c r="AD15" s="7">
         <v>3153.8</v>
       </c>
-      <c r="AE15" s="9">
+      <c r="AE15" s="7">
         <f t="shared" ref="AE15:AE27" si="24">SUM(C15:F15)</f>
         <v>7760.6</v>
       </c>
-      <c r="AF15" s="9">
+      <c r="AF15" s="7">
         <f t="shared" ref="AF15:AF27" si="25">SUM(G15:J15)</f>
         <v>6981.2</v>
       </c>
-      <c r="AG15" s="9">
+      <c r="AG15" s="7">
         <f t="shared" ref="AG15:AG29" si="26">SUM(K15:N15)</f>
         <v>8047.3</v>
       </c>
-      <c r="AH15" s="9">
+      <c r="AH15" s="7">
         <f t="shared" ref="AH15:AH27" si="27">+SUM(O15:R15)</f>
         <v>7801.8893277244533</v>
       </c>
-      <c r="AI15" s="9">
+      <c r="AI15" s="7">
         <f t="shared" ref="AI15:AP15" si="28">+AI14*(AH15/AH14)</f>
         <v>8124.3153813222389</v>
       </c>
-      <c r="AJ15" s="9">
+      <c r="AJ15" s="7">
         <f t="shared" si="28"/>
         <v>8562.4958695449604</v>
       </c>
-      <c r="AK15" s="9">
+      <c r="AK15" s="7">
         <f t="shared" si="28"/>
         <v>9198.3529798771851</v>
       </c>
-      <c r="AL15" s="9">
+      <c r="AL15" s="7">
         <f t="shared" si="28"/>
         <v>9976.0847716523895</v>
       </c>
-      <c r="AM15" s="9">
+      <c r="AM15" s="7">
         <f t="shared" si="28"/>
         <v>10822.043757961344</v>
       </c>
-      <c r="AN15" s="9">
+      <c r="AN15" s="7">
         <f t="shared" si="28"/>
         <v>11742.381571815762</v>
       </c>
-      <c r="AO15" s="9">
+      <c r="AO15" s="7">
         <f t="shared" si="28"/>
         <v>12743.814474692508</v>
       </c>
-      <c r="AP15" s="9">
+      <c r="AP15" s="7">
         <f t="shared" si="28"/>
         <v>13833.675688335014</v>
       </c>
-      <c r="AQ15" s="9">
+      <c r="AQ15" s="7">
         <f t="shared" ref="AQ15" si="29">+AQ14*(AP15/AP14)</f>
         <v>15019.972594956595</v>
       </c>
     </row>
-    <row r="16" spans="2:44" s="9" customFormat="1">
-      <c r="B16" s="30" t="s">
+    <row r="16" spans="2:44">
+      <c r="B16" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="7">
         <v>533.1</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="7">
         <v>544.70000000000005</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="7">
         <v>559.5</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="7">
         <v>563.29999999999995</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="7">
         <v>554.20000000000005</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="7">
         <v>524.5</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="7">
         <v>567.9</v>
       </c>
-      <c r="J16" s="9">
+      <c r="J16" s="7">
         <v>560.9</v>
       </c>
-      <c r="K16" s="9">
+      <c r="K16" s="7">
         <v>571.6</v>
       </c>
-      <c r="L16" s="9">
+      <c r="L16" s="7">
         <v>579.1</v>
       </c>
-      <c r="M16" s="9">
+      <c r="M16" s="7">
         <v>592.6</v>
       </c>
-      <c r="N16" s="9">
+      <c r="N16" s="7">
         <v>591.79999999999995</v>
       </c>
-      <c r="O16" s="9">
+      <c r="O16" s="7">
         <v>584</v>
       </c>
-      <c r="P16" s="9">
+      <c r="P16" s="7">
         <v>588.6</v>
       </c>
-      <c r="Q16" s="9">
+      <c r="Q16" s="7">
         <v>589</v>
       </c>
-      <c r="R16" s="9">
+      <c r="R16" s="7">
         <f>+$R$14*(N16/$N$14)</f>
         <v>646.17846219460591</v>
       </c>
-      <c r="AC16" s="9">
+      <c r="AC16" s="7">
         <v>3528.5</v>
       </c>
-      <c r="AD16" s="9">
+      <c r="AD16" s="7">
         <v>2937.9</v>
       </c>
-      <c r="AE16" s="9">
+      <c r="AE16" s="7">
         <f t="shared" si="24"/>
         <v>2200.6000000000004</v>
       </c>
-      <c r="AF16" s="9">
+      <c r="AF16" s="7">
         <f t="shared" si="25"/>
         <v>2207.5</v>
       </c>
-      <c r="AG16" s="9">
+      <c r="AG16" s="7">
         <f t="shared" si="26"/>
         <v>2335.1000000000004</v>
       </c>
-      <c r="AH16" s="9">
+      <c r="AH16" s="7">
         <f t="shared" si="27"/>
         <v>2407.7784621946057</v>
       </c>
-      <c r="AI16" s="9">
+      <c r="AI16" s="7">
         <f t="shared" ref="AI16:AP16" si="30">+AI$14*(AH16/AH$14)</f>
         <v>2507.2839120789586</v>
       </c>
-      <c r="AJ16" s="9">
+      <c r="AJ16" s="7">
         <f t="shared" si="30"/>
         <v>2642.512892878191</v>
       </c>
-      <c r="AK16" s="9">
+      <c r="AK16" s="7">
         <f t="shared" si="30"/>
         <v>2838.7478035492159</v>
       </c>
-      <c r="AL16" s="9">
+      <c r="AL16" s="7">
         <f t="shared" si="30"/>
         <v>3078.7673397077137</v>
       </c>
-      <c r="AM16" s="9">
+      <c r="AM16" s="7">
         <f t="shared" si="30"/>
         <v>3339.8427974044166</v>
       </c>
-      <c r="AN16" s="9">
+      <c r="AN16" s="7">
         <f t="shared" si="30"/>
         <v>3623.8726615896676</v>
       </c>
-      <c r="AO16" s="9">
+      <c r="AO16" s="7">
         <f t="shared" si="30"/>
         <v>3932.9296699108718</v>
       </c>
-      <c r="AP16" s="9">
+      <c r="AP16" s="7">
         <f t="shared" si="30"/>
         <v>4269.2769630805733</v>
       </c>
-      <c r="AQ16" s="9">
+      <c r="AQ16" s="7">
         <f t="shared" ref="AQ16:AQ17" si="31">+AQ$14*(AP16/AP$14)</f>
         <v>4635.3857377053764</v>
       </c>
     </row>
-    <row r="17" spans="2:223" s="9" customFormat="1">
-      <c r="B17" s="30" t="s">
+    <row r="17" spans="2:223">
+      <c r="B17" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="7">
         <v>53.3</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="7">
         <v>55.4</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="7">
         <v>57.5</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="7">
         <v>57.6</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="7">
         <v>65.5</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="7">
         <v>63.3</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="7">
         <v>69.2</v>
       </c>
-      <c r="J17" s="9">
+      <c r="J17" s="7">
         <v>69</v>
       </c>
-      <c r="K17" s="9">
+      <c r="K17" s="7">
         <v>67.2</v>
       </c>
-      <c r="L17" s="9">
+      <c r="L17" s="7">
         <v>68.3</v>
       </c>
-      <c r="M17" s="9">
+      <c r="M17" s="7">
         <v>68.900000000000006</v>
       </c>
-      <c r="N17" s="9">
+      <c r="N17" s="7">
         <v>56</v>
       </c>
-      <c r="O17" s="9">
+      <c r="O17" s="7">
         <v>72.3</v>
       </c>
-      <c r="P17" s="9">
+      <c r="P17" s="7">
         <v>57.9</v>
       </c>
-      <c r="Q17" s="9">
+      <c r="Q17" s="7">
         <v>57.4</v>
       </c>
-      <c r="R17" s="9">
+      <c r="R17" s="7">
         <f>+$R$14*(N17/$N$14)</f>
         <v>61.14564698022631</v>
       </c>
-      <c r="AC17" s="9">
+      <c r="AC17" s="7">
         <v>2847.6</v>
       </c>
-      <c r="AD17" s="9">
+      <c r="AD17" s="7">
         <v>2174.1999999999998</v>
       </c>
-      <c r="AE17" s="9">
+      <c r="AE17" s="7">
         <f t="shared" si="24"/>
         <v>223.79999999999998</v>
       </c>
-      <c r="AF17" s="9">
+      <c r="AF17" s="7">
         <f t="shared" si="25"/>
         <v>267</v>
       </c>
-      <c r="AG17" s="9">
+      <c r="AG17" s="7">
         <f t="shared" si="26"/>
         <v>260.39999999999998</v>
       </c>
-      <c r="AH17" s="9">
+      <c r="AH17" s="7">
         <f t="shared" si="27"/>
         <v>248.7456469802263</v>
       </c>
-      <c r="AI17" s="9">
+      <c r="AI17" s="7">
         <f t="shared" ref="AI17:AP19" si="32">+AI$14*(AH17/AH$14)</f>
         <v>259.02547458819549</v>
       </c>
-      <c r="AJ17" s="9">
+      <c r="AJ17" s="7">
         <f t="shared" si="32"/>
         <v>272.99587130348226</v>
       </c>
-      <c r="AK17" s="9">
+      <c r="AK17" s="7">
         <f t="shared" si="32"/>
         <v>293.26874132927367</v>
       </c>
-      <c r="AL17" s="9">
+      <c r="AL17" s="7">
         <f t="shared" si="32"/>
         <v>318.06496562775891</v>
       </c>
-      <c r="AM17" s="9">
+      <c r="AM17" s="7">
         <f t="shared" si="32"/>
         <v>345.03646016311296</v>
       </c>
-      <c r="AN17" s="9">
+      <c r="AN17" s="7">
         <f t="shared" si="32"/>
         <v>374.379355881214</v>
       </c>
-      <c r="AO17" s="9">
+      <c r="AO17" s="7">
         <f t="shared" si="32"/>
         <v>406.30778563324395</v>
       </c>
-      <c r="AP17" s="9">
+      <c r="AP17" s="7">
         <f t="shared" si="32"/>
         <v>441.05555265716174</v>
       </c>
-      <c r="AQ17" s="9">
+      <c r="AQ17" s="7">
         <f t="shared" si="31"/>
         <v>478.87795427719249</v>
       </c>
     </row>
-    <row r="18" spans="2:223" s="9" customFormat="1">
-      <c r="B18" s="30" t="s">
+    <row r="18" spans="2:223">
+      <c r="B18" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="P18" s="9">
-        <v>93</v>
-      </c>
-      <c r="Q18" s="9">
-        <v>93.3</v>
-      </c>
-      <c r="R18" s="9">
-        <f>+$R$14*(N18/$N$14)</f>
+      <c r="AH18" s="7">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AH18" s="9">
-        <f t="shared" si="27"/>
-        <v>186.3</v>
-      </c>
-    </row>
-    <row r="19" spans="2:223" s="9" customFormat="1">
-      <c r="B19" s="30" t="s">
+    </row>
+    <row r="19" spans="2:223">
+      <c r="B19" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="7">
         <v>437.7</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="7">
         <v>469.9</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="7">
         <v>474.6</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="7">
         <v>584.70000000000005</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="7">
         <v>516.29999999999995</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19" s="7">
         <v>576</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I19" s="7">
         <v>454.7</v>
       </c>
-      <c r="J19" s="9">
+      <c r="J19" s="7">
         <v>698</v>
       </c>
-      <c r="K19" s="9">
+      <c r="K19" s="7">
         <v>490.4</v>
       </c>
-      <c r="L19" s="9">
+      <c r="L19" s="7">
         <v>572.4</v>
       </c>
-      <c r="M19" s="9">
+      <c r="M19" s="7">
         <v>559.6</v>
       </c>
-      <c r="N19" s="9">
+      <c r="N19" s="7">
         <v>755.4</v>
       </c>
-      <c r="O19" s="9">
+      <c r="O19" s="7">
         <v>584.29999999999995</v>
       </c>
-      <c r="P19" s="9">
+      <c r="P19" s="7">
         <v>611.20000000000005</v>
       </c>
-      <c r="Q19" s="9">
+      <c r="Q19" s="7">
         <v>576.4</v>
       </c>
-      <c r="R19" s="9">
+      <c r="R19" s="7">
         <f>+$R$14*(N19/$N$14)</f>
         <v>824.81110230112415</v>
       </c>
-      <c r="AC19" s="9">
+      <c r="AC19" s="7">
         <v>2231.3000000000002</v>
       </c>
-      <c r="AD19" s="9">
+      <c r="AD19" s="7">
         <v>2200.1999999999998</v>
       </c>
-      <c r="AE19" s="9">
+      <c r="AE19" s="7">
         <f t="shared" si="24"/>
         <v>1966.8999999999999</v>
       </c>
-      <c r="AF19" s="9">
+      <c r="AF19" s="7">
         <f t="shared" si="25"/>
         <v>2245</v>
       </c>
-      <c r="AG19" s="9">
+      <c r="AG19" s="7">
         <f t="shared" si="26"/>
         <v>2377.8000000000002</v>
       </c>
-      <c r="AH19" s="9">
+      <c r="AH19" s="7">
         <f t="shared" si="27"/>
         <v>2596.7111023011244</v>
       </c>
-      <c r="AI19" s="9">
+      <c r="AI19" s="7">
         <f t="shared" si="32"/>
         <v>2704.0245077955219</v>
       </c>
-      <c r="AJ19" s="9">
+      <c r="AJ19" s="7">
         <f t="shared" si="32"/>
         <v>2849.8645845749161</v>
       </c>
-      <c r="AK19" s="9">
+      <c r="AK19" s="7">
         <f t="shared" si="32"/>
         <v>3061.4975812145112</v>
       </c>
-      <c r="AL19" s="9">
+      <c r="AL19" s="7">
         <f t="shared" si="32"/>
         <v>3320.3508785996273</v>
       </c>
-      <c r="AM19" s="9">
+      <c r="AM19" s="7">
         <f t="shared" si="32"/>
         <v>3601.9123055265295</v>
       </c>
-      <c r="AN19" s="9">
+      <c r="AN19" s="7">
         <f t="shared" si="32"/>
         <v>3908.2293165370343</v>
       </c>
-      <c r="AO19" s="9">
+      <c r="AO19" s="7">
         <f t="shared" si="32"/>
         <v>4241.537292064053</v>
       </c>
-      <c r="AP19" s="9">
+      <c r="AP19" s="7">
         <f t="shared" si="32"/>
         <v>4604.2769560805773</v>
       </c>
-      <c r="AQ19" s="9">
+      <c r="AQ19" s="7">
         <f t="shared" ref="AQ19" si="33">+AQ$14*(AP19/AP$14)</f>
         <v>4999.1134141040347</v>
       </c>
     </row>
-    <row r="20" spans="2:223" s="9" customFormat="1">
-      <c r="B20" s="30" t="s">
+    <row r="20" spans="2:223">
+      <c r="B20" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="7">
         <v>-41.6</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="7">
         <v>35.6</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="7">
         <v>-35.299999999999997</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="7">
         <v>-78.5</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="7">
         <v>58.5</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H20" s="7">
         <v>117.2</v>
       </c>
-      <c r="I20" s="9">
+      <c r="I20" s="7">
         <v>-152.19999999999999</v>
       </c>
-      <c r="J20" s="9">
+      <c r="J20" s="7">
         <v>-141</v>
       </c>
-      <c r="K20" s="9">
+      <c r="K20" s="7">
         <v>-179.4</v>
       </c>
-      <c r="L20" s="9">
+      <c r="L20" s="7">
         <v>-127.1</v>
       </c>
-      <c r="M20" s="9">
+      <c r="M20" s="7">
         <v>-198.8</v>
       </c>
-      <c r="N20" s="9">
+      <c r="N20" s="7">
         <v>22</v>
       </c>
-      <c r="O20" s="9">
+      <c r="O20" s="7">
         <v>60.5</v>
       </c>
-      <c r="P20" s="9">
+      <c r="P20" s="7">
         <v>886.1</v>
       </c>
-      <c r="Q20" s="9">
+      <c r="Q20" s="7">
         <v>12.5</v>
       </c>
-      <c r="R20" s="9">
+      <c r="R20" s="7">
         <f>+$R$14*(N20/$N$14)</f>
         <v>24.021504170803194</v>
       </c>
-      <c r="AC20" s="9">
+      <c r="AC20" s="7">
         <v>-1163.2</v>
       </c>
-      <c r="AD20" s="9">
+      <c r="AD20" s="7">
         <v>-236.8</v>
       </c>
-      <c r="AE20" s="9">
+      <c r="AE20" s="7">
         <f t="shared" si="24"/>
         <v>-119.8</v>
       </c>
-      <c r="AF20" s="9">
+      <c r="AF20" s="7">
         <f t="shared" si="25"/>
         <v>-117.5</v>
       </c>
-      <c r="AG20" s="9">
+      <c r="AG20" s="7">
         <f t="shared" si="26"/>
         <v>-483.3</v>
       </c>
-      <c r="AH20" s="9">
+      <c r="AH20" s="7">
         <f t="shared" si="27"/>
         <v>983.12150417080318</v>
       </c>
-      <c r="AI20" s="9">
+      <c r="AI20" s="7">
         <f t="shared" ref="AI20:AQ20" si="34">+AH48*$AU$35</f>
-        <v>-255.57273535479311</v>
-      </c>
-      <c r="AJ20" s="9">
+        <v>-253.70973535479308</v>
+      </c>
+      <c r="AJ20" s="7">
         <f t="shared" si="34"/>
-        <v>-182.49513710594539</v>
-      </c>
-      <c r="AK20" s="9">
+        <v>-179.85261765205965</v>
+      </c>
+      <c r="AK20" s="7">
         <f t="shared" si="34"/>
-        <v>-106.02991064531466</v>
-      </c>
-      <c r="AL20" s="9">
+        <v>-102.57620283995531</v>
+      </c>
+      <c r="AL20" s="7">
         <f t="shared" si="34"/>
-        <v>-24.460211749181873</v>
-      </c>
-      <c r="AM20" s="9">
+        <v>-20.145255127689108</v>
+      </c>
+      <c r="AM20" s="7">
         <f t="shared" si="34"/>
-        <v>63.429115428965687</v>
-      </c>
-      <c r="AN20" s="9">
+        <v>68.668220439245914</v>
+      </c>
+      <c r="AN20" s="7">
         <f t="shared" si="34"/>
-        <v>158.19779643913708</v>
-      </c>
-      <c r="AO20" s="9">
+        <v>164.42960661719343</v>
+      </c>
+      <c r="AO20" s="7">
         <f t="shared" si="34"/>
-        <v>260.45608813957676</v>
-      </c>
-      <c r="AP20" s="9">
+        <v>267.75532833328003</v>
+      </c>
+      <c r="AP20" s="7">
         <f t="shared" si="34"/>
-        <v>370.86942209522738</v>
-      </c>
-      <c r="AQ20" s="9">
+        <v>379.31754308572476</v>
+      </c>
+      <c r="AQ20" s="7">
         <f t="shared" si="34"/>
-        <v>490.16347859827357</v>
-      </c>
-    </row>
-    <row r="21" spans="2:223" s="9" customFormat="1">
-      <c r="B21" s="30" t="s">
+        <v>499.84926632752951</v>
+      </c>
+    </row>
+    <row r="21" spans="2:223">
+      <c r="B21" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="7">
         <f t="shared" ref="C21:L21" si="35">+SUM(C15:C20)</f>
         <v>2868.7000000000003</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="7">
         <f t="shared" si="35"/>
         <v>3072.7000000000003</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="7">
         <f t="shared" si="35"/>
         <v>3023.9999999999995</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="7">
         <f t="shared" si="35"/>
         <v>3066.7</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="7">
         <f t="shared" si="35"/>
         <v>2947.3</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H21" s="7">
         <f t="shared" si="35"/>
         <v>2729.3999999999996</v>
       </c>
-      <c r="I21" s="9">
+      <c r="I21" s="7">
         <f t="shared" si="35"/>
         <v>2815.8999999999996</v>
       </c>
-      <c r="J21" s="9">
+      <c r="J21" s="7">
         <f t="shared" si="35"/>
         <v>3090.6</v>
       </c>
-      <c r="K21" s="9">
+      <c r="K21" s="7">
         <f t="shared" si="35"/>
         <v>2767.3999999999996</v>
       </c>
-      <c r="L21" s="9">
+      <c r="L21" s="7">
         <f t="shared" si="35"/>
         <v>3113.7000000000003</v>
       </c>
-      <c r="M21" s="9">
+      <c r="M21" s="7">
         <f t="shared" ref="M21:R21" si="36">+SUM(M15:M20)</f>
         <v>3130.7</v>
       </c>
-      <c r="N21" s="9">
+      <c r="N21" s="7">
         <f t="shared" ref="N21" si="37">+SUM(N15:N20)</f>
         <v>3525.5000000000005</v>
       </c>
-      <c r="O21" s="9">
+      <c r="O21" s="7">
         <f t="shared" si="36"/>
         <v>3260.3</v>
       </c>
-      <c r="P21" s="9">
+      <c r="P21" s="7">
         <f t="shared" ref="P21:Q21" si="38">+SUM(P15:P20)</f>
-        <v>4006.6</v>
-      </c>
-      <c r="Q21" s="9">
+        <v>3913.6</v>
+      </c>
+      <c r="Q21" s="7">
         <f t="shared" si="38"/>
-        <v>3108.2000000000003</v>
-      </c>
-      <c r="R21" s="9">
+        <v>3014.9</v>
+      </c>
+      <c r="R21" s="7">
         <f t="shared" si="36"/>
         <v>3849.4460433712125</v>
       </c>
-      <c r="AC21" s="9">
+      <c r="AC21" s="7">
         <f>SUM(AC15:AC20)</f>
         <v>11477.7</v>
       </c>
-      <c r="AD21" s="9">
+      <c r="AD21" s="7">
         <f>SUM(AD15:AD20)</f>
         <v>10229.300000000003</v>
       </c>
-      <c r="AE21" s="9">
+      <c r="AE21" s="7">
         <f t="shared" si="24"/>
         <v>12032.099999999999</v>
       </c>
-      <c r="AF21" s="9">
+      <c r="AF21" s="7">
         <f t="shared" si="25"/>
         <v>11583.199999999999</v>
       </c>
-      <c r="AG21" s="9">
+      <c r="AG21" s="7">
         <f t="shared" si="26"/>
         <v>12537.3</v>
       </c>
-      <c r="AH21" s="9">
+      <c r="AH21" s="7">
         <f t="shared" si="27"/>
-        <v>14224.546043371212</v>
-      </c>
-      <c r="AI21" s="9">
+        <v>14038.246043371211</v>
+      </c>
+      <c r="AI21" s="7">
         <f t="shared" ref="AI21:AQ21" si="39">+SUM(AI15:AI20)</f>
-        <v>13339.076540430122</v>
-      </c>
-      <c r="AJ21" s="9">
+        <v>13340.939540430123</v>
+      </c>
+      <c r="AJ21" s="7">
         <f t="shared" si="39"/>
-        <v>14145.374081195605</v>
-      </c>
-      <c r="AK21" s="9">
+        <v>14148.016600649491</v>
+      </c>
+      <c r="AK21" s="7">
         <f t="shared" si="39"/>
-        <v>15285.837195324872</v>
-      </c>
-      <c r="AL21" s="9">
+        <v>15289.290903130232</v>
+      </c>
+      <c r="AL21" s="7">
         <f t="shared" si="39"/>
-        <v>16668.807743838308</v>
-      </c>
-      <c r="AM21" s="9">
+        <v>16673.1227004598</v>
+      </c>
+      <c r="AM21" s="7">
         <f t="shared" si="39"/>
-        <v>18172.264436484369</v>
-      </c>
-      <c r="AN21" s="9">
+        <v>18177.503541494651</v>
+      </c>
+      <c r="AN21" s="7">
         <f t="shared" si="39"/>
-        <v>19807.060702262817</v>
-      </c>
-      <c r="AO21" s="9">
+        <v>19813.292512440872</v>
+      </c>
+      <c r="AO21" s="7">
         <f t="shared" si="39"/>
-        <v>21585.045310440259</v>
-      </c>
-      <c r="AP21" s="9">
+        <v>21592.344550633963</v>
+      </c>
+      <c r="AP21" s="7">
         <f t="shared" si="39"/>
-        <v>23519.154582248553</v>
-      </c>
-      <c r="AQ21" s="9">
+        <v>23527.602703239052</v>
+      </c>
+      <c r="AQ21" s="7">
         <f t="shared" si="39"/>
-        <v>25623.513179641472</v>
-      </c>
-    </row>
-    <row r="22" spans="2:223" s="9" customFormat="1">
-      <c r="B22" s="30" t="s">
+        <v>25633.198967370725</v>
+      </c>
+    </row>
+    <row r="22" spans="2:223">
+      <c r="B22" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="7">
         <f t="shared" ref="C22:L22" si="40">+C14-C21</f>
         <v>2155.4</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="7">
         <f t="shared" si="40"/>
         <v>2337.1</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="7">
         <f t="shared" si="40"/>
         <v>2478.3000000000006</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="7">
         <f t="shared" si="40"/>
         <v>2361.5</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="7">
         <f t="shared" si="40"/>
         <v>1767.1000000000004</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H22" s="7">
         <f t="shared" si="40"/>
         <v>1032.1000000000004</v>
       </c>
-      <c r="I22" s="9">
+      <c r="I22" s="7">
         <f t="shared" si="40"/>
         <v>2602.2000000000007</v>
       </c>
-      <c r="J22" s="9">
+      <c r="J22" s="7">
         <f t="shared" si="40"/>
         <v>2223.2000000000003</v>
       </c>
-      <c r="K22" s="9">
+      <c r="K22" s="7">
         <f t="shared" si="40"/>
         <v>2357.1999999999998</v>
       </c>
-      <c r="L22" s="9">
+      <c r="L22" s="7">
         <f t="shared" si="40"/>
         <v>2774.1999999999994</v>
       </c>
-      <c r="M22" s="9">
+      <c r="M22" s="7">
         <f>+M14-M21</f>
         <v>3070.6000000000004</v>
       </c>
-      <c r="N22" s="9">
+      <c r="N22" s="7">
         <f>+N14-N21</f>
         <v>2483.599999999999</v>
       </c>
-      <c r="O22" s="9">
+      <c r="O22" s="7">
         <f>+O14-O21</f>
         <v>2405.3000000000002</v>
       </c>
-      <c r="P22" s="9">
+      <c r="P22" s="7">
         <f>+P14-P21</f>
-        <v>1711.8000000000006</v>
-      </c>
-      <c r="Q22" s="9">
+        <v>1804.8000000000006</v>
+      </c>
+      <c r="Q22" s="7">
         <f>+Q14-Q21</f>
-        <v>2763.9</v>
-      </c>
-      <c r="R22" s="9">
+        <v>2857.2000000000003</v>
+      </c>
+      <c r="R22" s="7">
         <f t="shared" ref="R22" si="41">+R14-R21</f>
         <v>2711.8094435730359</v>
       </c>
-      <c r="AC22" s="9">
+      <c r="AC22" s="7">
         <f>+AC14-AC21</f>
         <v>11482.7</v>
       </c>
-      <c r="AD22" s="9">
+      <c r="AD22" s="7">
         <f>+AD14-AD21</f>
         <v>11028.899999999998</v>
       </c>
-      <c r="AE22" s="9">
+      <c r="AE22" s="7">
         <f t="shared" si="24"/>
         <v>9332.3000000000011</v>
       </c>
-      <c r="AF22" s="9">
+      <c r="AF22" s="7">
         <f t="shared" si="25"/>
         <v>7624.6000000000022</v>
       </c>
-      <c r="AG22" s="9">
+      <c r="AG22" s="7">
         <f t="shared" si="26"/>
         <v>10685.599999999999</v>
       </c>
-      <c r="AH22" s="9">
+      <c r="AH22" s="7">
         <f t="shared" si="27"/>
-        <v>9592.8094435730363</v>
-      </c>
-      <c r="AI22" s="9">
+        <v>9779.1094435730374</v>
+      </c>
+      <c r="AI22" s="7">
         <f t="shared" ref="AI22:AQ22" si="42">+AI14-AI21</f>
-        <v>11462.570778173673</v>
-      </c>
-      <c r="AJ22" s="9">
+        <v>11460.707778173672</v>
+      </c>
+      <c r="AJ22" s="7">
         <f t="shared" si="42"/>
-        <v>11993.936464487993</v>
-      </c>
-      <c r="AK22" s="9">
+        <v>11991.293945034107</v>
+      </c>
+      <c r="AK22" s="7">
         <f t="shared" si="42"/>
-        <v>12794.597378082006</v>
-      </c>
-      <c r="AL22" s="9">
+        <v>12791.143670276646</v>
+      </c>
+      <c r="AL22" s="7">
         <f t="shared" si="42"/>
-        <v>13785.861297671545</v>
-      </c>
-      <c r="AM22" s="9">
+        <v>13781.546341050052</v>
+      </c>
+      <c r="AM22" s="7">
         <f t="shared" si="42"/>
-        <v>14864.920846661535</v>
-      </c>
-      <c r="AN22" s="9">
+        <v>14859.681741651253</v>
+      </c>
+      <c r="AN22" s="7">
         <f t="shared" si="42"/>
-        <v>16039.702102414158</v>
-      </c>
-      <c r="AO22" s="9">
+        <v>16033.470292236103</v>
+      </c>
+      <c r="AO22" s="7">
         <f t="shared" si="42"/>
-        <v>17318.859481547453</v>
-      </c>
-      <c r="AP22" s="9">
+        <v>17311.560241353749</v>
+      </c>
+      <c r="AP22" s="7">
         <f t="shared" si="42"/>
-        <v>18711.843285068262</v>
-      </c>
-      <c r="AQ22" s="9">
+        <v>18703.395164077763</v>
+      </c>
+      <c r="AQ22" s="7">
         <f t="shared" si="42"/>
-        <v>20228.973528546834</v>
-      </c>
-    </row>
-    <row r="23" spans="2:223" s="9" customFormat="1">
-      <c r="B23" s="30" t="s">
+        <v>20219.287740817581</v>
+      </c>
+    </row>
+    <row r="23" spans="2:223">
+      <c r="B23" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="7">
         <v>274.10000000000002</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="7">
         <v>284.2</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="7">
         <v>280.60000000000002</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="7">
         <v>283</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="7">
         <v>280</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H23" s="7">
         <v>319.10000000000002</v>
       </c>
-      <c r="I23" s="9">
+      <c r="I23" s="7">
         <v>310.10000000000002</v>
       </c>
-      <c r="J23" s="9">
+      <c r="J23" s="7">
         <v>308.89999999999998</v>
       </c>
-      <c r="K23" s="9">
+      <c r="K23" s="7">
         <v>300</v>
       </c>
-      <c r="L23" s="9">
+      <c r="L23" s="7">
         <v>296.5</v>
       </c>
-      <c r="M23" s="9">
+      <c r="M23" s="7">
         <v>293.7</v>
       </c>
-      <c r="N23" s="9">
+      <c r="N23" s="7">
         <v>295.60000000000002</v>
       </c>
-      <c r="O23" s="9">
+      <c r="O23" s="7">
         <v>287.3</v>
       </c>
-      <c r="P23" s="9">
+      <c r="P23" s="7">
         <v>290.60000000000002</v>
       </c>
-      <c r="Q23" s="9">
+      <c r="Q23" s="7">
         <v>306.2</v>
       </c>
-      <c r="R23" s="9">
+      <c r="R23" s="7">
         <f t="shared" ref="R23" si="43">+R22*(N23/N22)</f>
         <v>322.76166513133751</v>
       </c>
-      <c r="AC23" s="9">
+      <c r="AC23" s="7">
         <v>921.3</v>
       </c>
-      <c r="AD23" s="9">
+      <c r="AD23" s="7">
         <v>981.2</v>
       </c>
-      <c r="AE23" s="9">
+      <c r="AE23" s="7">
         <f t="shared" si="24"/>
         <v>1121.9000000000001</v>
       </c>
-      <c r="AF23" s="9">
+      <c r="AF23" s="7">
         <f t="shared" si="25"/>
         <v>1218.0999999999999</v>
       </c>
-      <c r="AG23" s="9">
+      <c r="AG23" s="7">
         <f t="shared" si="26"/>
         <v>1185.8000000000002</v>
       </c>
-      <c r="AH23" s="9">
+      <c r="AH23" s="7">
         <f t="shared" si="27"/>
         <v>1206.8616651313378</v>
       </c>
-      <c r="AI23" s="9">
+      <c r="AI23" s="7">
         <f t="shared" ref="AI23:AP23" si="44">+AI22*(AH23/AH22)</f>
-        <v>1442.0944497444157</v>
-      </c>
-      <c r="AJ23" s="9">
+        <v>1414.3914589114854</v>
+      </c>
+      <c r="AJ23" s="7">
         <f t="shared" si="44"/>
-        <v>1508.9450299369162</v>
-      </c>
-      <c r="AK23" s="9">
+        <v>1479.8722788703706</v>
+      </c>
+      <c r="AK23" s="7">
         <f t="shared" si="44"/>
-        <v>1609.6753706227764</v>
-      </c>
-      <c r="AL23" s="9">
+        <v>1578.583513960951</v>
+      </c>
+      <c r="AL23" s="7">
         <f t="shared" si="44"/>
-        <v>1734.3852829396476</v>
-      </c>
-      <c r="AM23" s="9">
+        <v>1700.8113122381928</v>
+      </c>
+      <c r="AM23" s="7">
         <f t="shared" si="44"/>
-        <v>1870.1406746974214</v>
-      </c>
-      <c r="AN23" s="9">
+        <v>1833.8664020001495</v>
+      </c>
+      <c r="AN23" s="7">
         <f t="shared" si="44"/>
-        <v>2017.9387176818557</v>
-      </c>
-      <c r="AO23" s="9">
+        <v>1978.7262599294356</v>
+      </c>
+      <c r="AO23" s="7">
         <f t="shared" si="44"/>
-        <v>2178.8682153046957</v>
-      </c>
-      <c r="AP23" s="9">
+        <v>2136.4581856308591</v>
+      </c>
+      <c r="AP23" s="7">
         <f t="shared" si="44"/>
-        <v>2354.1181003886149</v>
-      </c>
-      <c r="AQ23" s="9">
+        <v>2308.2276317260357</v>
+      </c>
+      <c r="AQ23" s="7">
         <f t="shared" ref="AQ23" si="45">+AQ22*(AP23/AP22)</f>
-        <v>2544.9867236668942</v>
-      </c>
-    </row>
-    <row r="24" spans="2:223" s="9" customFormat="1">
-      <c r="B24" s="30" t="s">
+        <v>2495.307309060745</v>
+      </c>
+    </row>
+    <row r="24" spans="2:223">
+      <c r="B24" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="7">
         <v>-11.4</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="7">
         <v>-18.100000000000001</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="7">
         <v>-23.5</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="7">
         <v>-17.2</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="7">
         <v>-31.3</v>
       </c>
-      <c r="H24" s="9">
+      <c r="H24" s="7">
         <v>-6.7</v>
       </c>
-      <c r="I24" s="9">
+      <c r="I24" s="7">
         <v>-0.8</v>
       </c>
-      <c r="J24" s="9">
+      <c r="J24" s="7">
         <v>4</v>
       </c>
-      <c r="K24" s="9">
+      <c r="K24" s="7">
         <v>28.6</v>
       </c>
-      <c r="L24" s="9">
+      <c r="L24" s="7">
         <v>18.600000000000001</v>
       </c>
-      <c r="M24" s="9">
+      <c r="M24" s="7">
         <v>1.4</v>
       </c>
-      <c r="N24" s="9">
+      <c r="N24" s="7">
         <v>-6.3</v>
       </c>
-      <c r="O24" s="9">
+      <c r="O24" s="7">
         <v>484.1</v>
       </c>
-      <c r="P24" s="9">
+      <c r="P24" s="7">
         <v>12.1</v>
       </c>
-      <c r="Q24" s="9">
+      <c r="Q24" s="7">
         <v>-78.5</v>
       </c>
-      <c r="R24" s="9">
+      <c r="R24" s="7">
         <f t="shared" ref="R24" si="46">+R22*(N24/N22)</f>
         <v>-6.8788852852754596</v>
       </c>
-      <c r="AC24" s="9">
+      <c r="AC24" s="7">
         <v>57.9</v>
       </c>
-      <c r="AD24" s="9">
+      <c r="AD24" s="7">
         <v>25.3</v>
       </c>
-      <c r="AE24" s="9">
+      <c r="AE24" s="7">
         <f t="shared" si="24"/>
         <v>-70.2</v>
       </c>
-      <c r="AF24" s="9">
+      <c r="AF24" s="7">
         <f t="shared" si="25"/>
         <v>-34.799999999999997</v>
       </c>
-      <c r="AG24" s="9">
+      <c r="AG24" s="7">
         <f t="shared" si="26"/>
         <v>42.300000000000004</v>
       </c>
-      <c r="AH24" s="9">
+      <c r="AH24" s="7">
         <f t="shared" si="27"/>
         <v>410.82111471472456</v>
       </c>
-      <c r="AI24" s="9">
+      <c r="AI24" s="7">
         <f t="shared" ref="AI24:AP24" si="47">+AI22*(AH24/AH22)</f>
-        <v>490.89540788707137</v>
-      </c>
-      <c r="AJ24" s="9">
+        <v>481.46518576324763</v>
+      </c>
+      <c r="AJ24" s="7">
         <f t="shared" si="47"/>
-        <v>513.65164471809248</v>
-      </c>
-      <c r="AK24" s="9">
+        <v>503.75515007743923</v>
+      </c>
+      <c r="AK24" s="7">
         <f t="shared" si="47"/>
-        <v>547.94070372275939</v>
-      </c>
-      <c r="AL24" s="9">
+        <v>537.35689649662493</v>
+      </c>
+      <c r="AL24" s="7">
         <f t="shared" si="47"/>
-        <v>590.39251628274906</v>
-      </c>
-      <c r="AM24" s="9">
+        <v>578.96378632348706</v>
+      </c>
+      <c r="AM24" s="7">
         <f t="shared" si="47"/>
-        <v>636.6042595022119</v>
-      </c>
-      <c r="AN24" s="9">
+        <v>624.25633465256681</v>
+      </c>
+      <c r="AN24" s="7">
         <f t="shared" si="47"/>
-        <v>686.91537512200603</v>
-      </c>
-      <c r="AO24" s="9">
+        <v>673.56727892342451</v>
+      </c>
+      <c r="AO24" s="7">
         <f t="shared" si="47"/>
-        <v>741.69649669877026</v>
-      </c>
-      <c r="AP24" s="9">
+        <v>727.25993270053073</v>
+      </c>
+      <c r="AP24" s="7">
         <f t="shared" si="47"/>
-        <v>801.35234228896707</v>
-      </c>
-      <c r="AQ24" s="9">
+        <v>785.73102127477239</v>
+      </c>
+      <c r="AQ24" s="7">
         <f t="shared" ref="AQ24" si="48">+AQ22*(AP24/AP22)</f>
-        <v>866.32487629576576</v>
-      </c>
-    </row>
-    <row r="25" spans="2:223" s="9" customFormat="1">
-      <c r="B25" s="30" t="s">
+        <v>849.41378111680626</v>
+      </c>
+    </row>
+    <row r="25" spans="2:223">
+      <c r="B25" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="7">
         <f t="shared" ref="C25:L25" si="49">+C22-SUM(C23:C24)</f>
         <v>1892.7</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="7">
         <f t="shared" si="49"/>
         <v>2071</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="7">
         <f t="shared" si="49"/>
         <v>2221.2000000000007</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="7">
         <f t="shared" si="49"/>
         <v>2095.6999999999998</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="7">
         <f t="shared" si="49"/>
         <v>1518.4000000000003</v>
       </c>
-      <c r="H25" s="9">
+      <c r="H25" s="7">
         <f t="shared" si="49"/>
         <v>719.70000000000027</v>
       </c>
-      <c r="I25" s="9">
+      <c r="I25" s="7">
         <f t="shared" si="49"/>
         <v>2292.9000000000005</v>
       </c>
-      <c r="J25" s="9">
+      <c r="J25" s="7">
         <f t="shared" si="49"/>
         <v>1910.3000000000002</v>
       </c>
-      <c r="K25" s="9">
+      <c r="K25" s="7">
         <f t="shared" si="49"/>
         <v>2028.6</v>
       </c>
-      <c r="L25" s="9">
+      <c r="L25" s="7">
         <f t="shared" si="49"/>
         <v>2459.0999999999995</v>
       </c>
-      <c r="M25" s="9">
+      <c r="M25" s="7">
         <f t="shared" ref="M25" si="50">+M22-SUM(M23:M24)</f>
         <v>2775.5000000000005</v>
       </c>
-      <c r="N25" s="9">
+      <c r="N25" s="7">
         <f t="shared" ref="N25" si="51">+N22-SUM(N23:N24)</f>
         <v>2194.2999999999988</v>
       </c>
-      <c r="O25" s="9">
+      <c r="O25" s="7">
         <f t="shared" ref="O25:R25" si="52">+O22-SUM(O23:O24)</f>
         <v>1633.9</v>
       </c>
-      <c r="P25" s="9">
+      <c r="P25" s="7">
         <f t="shared" ref="P25:Q25" si="53">+P22-SUM(P23:P24)</f>
-        <v>1409.1000000000006</v>
-      </c>
-      <c r="Q25" s="9">
+        <v>1502.1000000000006</v>
+      </c>
+      <c r="Q25" s="7">
         <f t="shared" si="53"/>
-        <v>2536.2000000000003</v>
-      </c>
-      <c r="R25" s="9">
+        <v>2629.5000000000005</v>
+      </c>
+      <c r="R25" s="7">
         <f t="shared" si="52"/>
         <v>2395.9266637269739</v>
       </c>
-      <c r="AC25" s="9">
+      <c r="AC25" s="7">
         <f>+AC22-SUM(AC23:AC24)</f>
         <v>10503.5</v>
       </c>
-      <c r="AD25" s="9">
+      <c r="AD25" s="7">
         <f>+AD22-SUM(AD23:AD24)</f>
         <v>10022.399999999998</v>
       </c>
-      <c r="AE25" s="9">
+      <c r="AE25" s="7">
         <f t="shared" si="24"/>
         <v>8280.6</v>
       </c>
-      <c r="AF25" s="9">
+      <c r="AF25" s="7">
         <f t="shared" si="25"/>
         <v>6441.3000000000011</v>
       </c>
-      <c r="AG25" s="9">
+      <c r="AG25" s="7">
         <f t="shared" si="26"/>
         <v>9457.4999999999982</v>
       </c>
-      <c r="AH25" s="9">
+      <c r="AH25" s="7">
         <f t="shared" si="27"/>
-        <v>7975.1266637269746</v>
-      </c>
-      <c r="AI25" s="9">
+        <v>8161.4266637269757</v>
+      </c>
+      <c r="AI25" s="7">
         <f t="shared" ref="AI25:AQ25" si="54">+AI22-SUM(AI23:AI24)</f>
-        <v>9529.5809205421865</v>
-      </c>
-      <c r="AJ25" s="9">
+        <v>9564.851133498938</v>
+      </c>
+      <c r="AJ25" s="7">
         <f t="shared" si="54"/>
-        <v>9971.339789832984</v>
-      </c>
-      <c r="AK25" s="9">
+        <v>10007.666516086298</v>
+      </c>
+      <c r="AK25" s="7">
         <f t="shared" si="54"/>
-        <v>10636.981303736469</v>
-      </c>
-      <c r="AL25" s="9">
+        <v>10675.203259819071</v>
+      </c>
+      <c r="AL25" s="7">
         <f t="shared" si="54"/>
-        <v>11461.083498449148</v>
-      </c>
-      <c r="AM25" s="9">
+        <v>11501.771242488372</v>
+      </c>
+      <c r="AM25" s="7">
         <f t="shared" si="54"/>
-        <v>12358.175912461902</v>
-      </c>
-      <c r="AN25" s="9">
+        <v>12401.559004998537</v>
+      </c>
+      <c r="AN25" s="7">
         <f t="shared" si="54"/>
-        <v>13334.848009610296</v>
-      </c>
-      <c r="AO25" s="9">
+        <v>13381.176753383243</v>
+      </c>
+      <c r="AO25" s="7">
         <f t="shared" si="54"/>
-        <v>14398.294769543987</v>
-      </c>
-      <c r="AP25" s="9">
+        <v>14447.842123022359</v>
+      </c>
+      <c r="AP25" s="7">
         <f t="shared" si="54"/>
-        <v>15556.37284239068</v>
-      </c>
-      <c r="AQ25" s="9">
+        <v>15609.436511076954</v>
+      </c>
+      <c r="AQ25" s="7">
         <f t="shared" si="54"/>
-        <v>16817.661928584173</v>
-      </c>
-    </row>
-    <row r="26" spans="2:223" s="9" customFormat="1">
-      <c r="B26" s="30" t="s">
+        <v>16874.56665064003</v>
+      </c>
+    </row>
+    <row r="26" spans="2:223">
+      <c r="B26" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="7">
         <v>502.9</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="7">
         <v>490.9</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="7">
         <v>544.29999999999995</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="7">
         <v>454.6</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G26" s="7">
         <v>338</v>
       </c>
-      <c r="H26" s="9">
+      <c r="H26" s="7">
         <v>164.9</v>
       </c>
-      <c r="I26" s="9">
+      <c r="I26" s="7">
         <v>454.5</v>
       </c>
-      <c r="J26" s="9">
+      <c r="J26" s="7">
         <v>452.8</v>
       </c>
-      <c r="K26" s="9">
+      <c r="K26" s="7">
         <v>415.5</v>
       </c>
-      <c r="L26" s="9">
+      <c r="L26" s="7">
         <v>156.69999999999999</v>
       </c>
-      <c r="M26" s="9">
+      <c r="M26" s="7">
         <v>541.5</v>
       </c>
-      <c r="N26" s="9">
+      <c r="N26" s="7">
         <v>469</v>
       </c>
-      <c r="O26" s="9">
+      <c r="O26" s="7">
         <v>436.8</v>
       </c>
-      <c r="P26" s="9">
+      <c r="P26" s="7">
         <v>221.1</v>
       </c>
-      <c r="Q26" s="9">
+      <c r="Q26" s="7">
         <v>554.6</v>
       </c>
-      <c r="R26" s="9">
+      <c r="R26" s="7">
         <f t="shared" ref="R26" si="55">+R25*0.27</f>
         <v>646.90019920628299</v>
       </c>
-      <c r="AC26" s="9">
+      <c r="AC26" s="7">
         <v>3381.2</v>
       </c>
-      <c r="AD26" s="9">
+      <c r="AD26" s="7">
         <v>1891.8</v>
       </c>
-      <c r="AE26" s="9">
+      <c r="AE26" s="7">
         <f t="shared" si="24"/>
         <v>1992.6999999999998</v>
       </c>
-      <c r="AF26" s="9">
+      <c r="AF26" s="7">
         <f t="shared" si="25"/>
         <v>1410.2</v>
       </c>
-      <c r="AG26" s="9">
+      <c r="AG26" s="7">
         <f t="shared" si="26"/>
         <v>1582.7</v>
       </c>
-      <c r="AH26" s="9">
+      <c r="AH26" s="7">
         <f t="shared" si="27"/>
         <v>1859.4001992062831</v>
       </c>
-      <c r="AI26" s="9">
+      <c r="AI26" s="7">
         <f t="shared" ref="AI26:AP26" si="56">+AI25*(AH26/AH25)</f>
-        <v>2221.8210956574158</v>
-      </c>
-      <c r="AJ26" s="9">
+        <v>2179.1393632255918</v>
+      </c>
+      <c r="AJ26" s="7">
         <f t="shared" si="56"/>
-        <v>2324.8171437699089</v>
-      </c>
-      <c r="AK26" s="9">
+        <v>2280.025034875865</v>
+      </c>
+      <c r="AK26" s="7">
         <f t="shared" si="56"/>
-        <v>2480.0114141231911</v>
-      </c>
-      <c r="AL26" s="9">
+        <v>2432.1084885924506</v>
+      </c>
+      <c r="AL26" s="7">
         <f t="shared" si="56"/>
-        <v>2672.1507806343925</v>
-      </c>
-      <c r="AM26" s="9">
+        <v>2620.4236857948704</v>
+      </c>
+      <c r="AM26" s="7">
         <f t="shared" si="56"/>
-        <v>2881.3078114447644</v>
-      </c>
-      <c r="AN26" s="9">
+        <v>2825.4203872037829</v>
+      </c>
+      <c r="AN26" s="7">
         <f t="shared" si="56"/>
-        <v>3109.0188395663254</v>
-      </c>
-      <c r="AO26" s="9">
+        <v>3048.6045817745803</v>
+      </c>
+      <c r="AO26" s="7">
         <f t="shared" si="56"/>
-        <v>3356.961373978927</v>
-      </c>
-      <c r="AP26" s="9">
+        <v>3291.6206477778865</v>
+      </c>
+      <c r="AP26" s="7">
         <f t="shared" si="56"/>
-        <v>3626.9671920860546</v>
-      </c>
-      <c r="AQ26" s="9">
+        <v>3556.2641868964865</v>
+      </c>
+      <c r="AQ26" s="7">
         <f t="shared" ref="AQ26" si="57">+AQ25*(AP26/AP25)</f>
-        <v>3921.0366504172534</v>
-      </c>
-    </row>
-    <row r="27" spans="2:223" s="3" customFormat="1">
-      <c r="B27" s="28" t="s">
+        <v>3844.4960525310203</v>
+      </c>
+    </row>
+    <row r="27" spans="2:223" s="22" customFormat="1">
+      <c r="B27" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="22">
         <f t="shared" ref="C27:L27" si="58">+C25-C26</f>
         <v>1389.8000000000002</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="22">
         <f t="shared" si="58"/>
         <v>1580.1</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="22">
         <f t="shared" si="58"/>
         <v>1676.9000000000008</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="22">
         <f t="shared" si="58"/>
         <v>1641.1</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27" s="22">
         <f t="shared" si="58"/>
         <v>1180.4000000000003</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="22">
         <f t="shared" si="58"/>
         <v>554.8000000000003</v>
       </c>
-      <c r="I27" s="3">
+      <c r="I27" s="22">
         <f t="shared" si="58"/>
         <v>1838.4000000000005</v>
       </c>
-      <c r="J27" s="3">
+      <c r="J27" s="22">
         <f t="shared" si="58"/>
         <v>1457.5000000000002</v>
       </c>
-      <c r="K27" s="3">
+      <c r="K27" s="22">
         <f t="shared" si="58"/>
         <v>1613.1</v>
       </c>
-      <c r="L27" s="3">
+      <c r="L27" s="22">
         <f t="shared" si="58"/>
         <v>2302.3999999999996</v>
       </c>
-      <c r="M27" s="3">
+      <c r="M27" s="22">
         <f t="shared" ref="M27" si="59">+M25-M26</f>
         <v>2234.0000000000005</v>
       </c>
-      <c r="N27" s="3">
+      <c r="N27" s="22">
         <f t="shared" ref="N27" si="60">+N25-N26</f>
         <v>1725.2999999999988</v>
       </c>
-      <c r="O27" s="3">
+      <c r="O27" s="22">
         <f t="shared" ref="O27:R27" si="61">+O25-O26</f>
         <v>1197.1000000000001</v>
       </c>
-      <c r="P27" s="3">
+      <c r="P27" s="22">
         <f t="shared" ref="P27:Q27" si="62">+P25-P26</f>
-        <v>1188.0000000000007</v>
-      </c>
-      <c r="Q27" s="3">
+        <v>1281.0000000000007</v>
+      </c>
+      <c r="Q27" s="22">
         <f t="shared" si="62"/>
-        <v>1981.6000000000004</v>
-      </c>
-      <c r="R27" s="3">
+        <v>2074.9000000000005</v>
+      </c>
+      <c r="R27" s="22">
         <f t="shared" si="61"/>
         <v>1749.0264645206908</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AC27" s="22">
         <f>+AC25-AC26</f>
         <v>7122.3</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AD27" s="22">
         <f>+AD25-AD26</f>
         <v>8130.5999999999976</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AE27" s="22">
         <f t="shared" si="24"/>
         <v>6287.9000000000015</v>
       </c>
-      <c r="AF27" s="3">
+      <c r="AF27" s="22">
         <f t="shared" si="25"/>
         <v>5031.1000000000013</v>
       </c>
-      <c r="AG27" s="3">
+      <c r="AG27" s="22">
         <f>SUM(K27:N27)</f>
         <v>7874.7999999999993</v>
       </c>
-      <c r="AH27" s="3">
+      <c r="AH27" s="22">
         <f t="shared" si="27"/>
-        <v>6115.7264645206915</v>
-      </c>
-      <c r="AI27" s="3">
+        <v>6302.0264645206926</v>
+      </c>
+      <c r="AI27" s="22">
         <f>+AI25-AI26</f>
-        <v>7307.7598248847708</v>
-      </c>
-      <c r="AJ27" s="3">
+        <v>7385.7117702733467</v>
+      </c>
+      <c r="AJ27" s="22">
         <f t="shared" ref="AJ27:AP27" si="63">+AJ25-AJ26</f>
-        <v>7646.5226460630747</v>
-      </c>
-      <c r="AK27" s="3">
+        <v>7727.6414812104322</v>
+      </c>
+      <c r="AK27" s="22">
         <f t="shared" si="63"/>
-        <v>8156.9698896132777</v>
-      </c>
-      <c r="AL27" s="3">
+        <v>8243.0947712266207</v>
+      </c>
+      <c r="AL27" s="22">
         <f t="shared" si="63"/>
-        <v>8788.932717814756</v>
-      </c>
-      <c r="AM27" s="3">
+        <v>8881.3475566935012</v>
+      </c>
+      <c r="AM27" s="22">
         <f t="shared" si="63"/>
-        <v>9476.8681010171385</v>
-      </c>
-      <c r="AN27" s="3">
+        <v>9576.1386177947534</v>
+      </c>
+      <c r="AN27" s="22">
         <f t="shared" si="63"/>
-        <v>10225.829170043969</v>
-      </c>
-      <c r="AO27" s="3">
+        <v>10332.572171608663</v>
+      </c>
+      <c r="AO27" s="22">
         <f t="shared" si="63"/>
-        <v>11041.33339556506</v>
-      </c>
-      <c r="AP27" s="3">
+        <v>11156.221475244472</v>
+      </c>
+      <c r="AP27" s="22">
         <f t="shared" si="63"/>
-        <v>11929.405650304625</v>
-      </c>
-      <c r="AQ27" s="3">
+        <v>12053.172324180468</v>
+      </c>
+      <c r="AQ27" s="22">
         <f t="shared" ref="AQ27" si="64">+AQ25-AQ26</f>
-        <v>12896.625278166921</v>
-      </c>
-      <c r="AR27" s="3">
+        <v>13030.07059810901</v>
+      </c>
+      <c r="AR27" s="22">
         <f>AQ27*(1+$AU$36)</f>
-        <v>13154.557783730259</v>
-      </c>
-      <c r="AS27" s="3">
+        <v>13290.67201007119</v>
+      </c>
+      <c r="AS27" s="22">
         <f t="shared" ref="AS27:BX27" si="65">+AR27*(1+$AU$36)</f>
-        <v>13417.648939404864</v>
-      </c>
-      <c r="AT27" s="3">
+        <v>13556.485450272614</v>
+      </c>
+      <c r="AT27" s="22">
         <f t="shared" si="65"/>
-        <v>13686.001918192962</v>
-      </c>
-      <c r="AU27" s="3">
+        <v>13827.615159278066</v>
+      </c>
+      <c r="AU27" s="22">
         <f t="shared" si="65"/>
-        <v>13959.721956556821</v>
-      </c>
-      <c r="AV27" s="3">
+        <v>14104.167462463627</v>
+      </c>
+      <c r="AV27" s="22">
         <f t="shared" si="65"/>
-        <v>14238.916395687958</v>
-      </c>
-      <c r="AW27" s="3">
+        <v>14386.2508117129</v>
+      </c>
+      <c r="AW27" s="22">
         <f t="shared" si="65"/>
-        <v>14523.694723601719</v>
-      </c>
-      <c r="AX27" s="3">
+        <v>14673.975827947159</v>
+      </c>
+      <c r="AX27" s="22">
         <f t="shared" si="65"/>
-        <v>14814.168618073752</v>
-      </c>
-      <c r="AY27" s="3">
+        <v>14967.455344506103</v>
+      </c>
+      <c r="AY27" s="22">
         <f t="shared" si="65"/>
-        <v>15110.451990435227</v>
-      </c>
-      <c r="AZ27" s="3">
+        <v>15266.804451396225</v>
+      </c>
+      <c r="AZ27" s="22">
         <f t="shared" si="65"/>
-        <v>15412.661030243933</v>
-      </c>
-      <c r="BA27" s="3">
+        <v>15572.14054042415</v>
+      </c>
+      <c r="BA27" s="22">
         <f t="shared" si="65"/>
-        <v>15720.914250848811</v>
-      </c>
-      <c r="BB27" s="3">
+        <v>15883.583351232634</v>
+      </c>
+      <c r="BB27" s="22">
         <f t="shared" si="65"/>
-        <v>16035.332535865788</v>
-      </c>
-      <c r="BC27" s="3">
+        <v>16201.255018257287</v>
+      </c>
+      <c r="BC27" s="22">
         <f t="shared" si="65"/>
-        <v>16356.039186583104</v>
-      </c>
-      <c r="BD27" s="3">
+        <v>16525.280118622431</v>
+      </c>
+      <c r="BD27" s="22">
         <f t="shared" si="65"/>
-        <v>16683.159970314766</v>
-      </c>
-      <c r="BE27" s="3">
+        <v>16855.785720994882</v>
+      </c>
+      <c r="BE27" s="22">
         <f t="shared" si="65"/>
-        <v>17016.823169721061</v>
-      </c>
-      <c r="BF27" s="3">
+        <v>17192.90143541478</v>
+      </c>
+      <c r="BF27" s="22">
         <f t="shared" si="65"/>
-        <v>17357.159633115483</v>
-      </c>
-      <c r="BG27" s="3">
+        <v>17536.759464123075</v>
+      </c>
+      <c r="BG27" s="22">
         <f t="shared" si="65"/>
-        <v>17704.302825777795</v>
-      </c>
-      <c r="BH27" s="3">
+        <v>17887.494653405538</v>
+      </c>
+      <c r="BH27" s="22">
         <f t="shared" si="65"/>
-        <v>18058.388882293351</v>
-      </c>
-      <c r="BI27" s="3">
+        <v>18245.244546473648</v>
+      </c>
+      <c r="BI27" s="22">
         <f t="shared" si="65"/>
-        <v>18419.556659939219</v>
-      </c>
-      <c r="BJ27" s="3">
+        <v>18610.149437403121</v>
+      </c>
+      <c r="BJ27" s="22">
         <f t="shared" si="65"/>
-        <v>18787.947793138002</v>
-      </c>
-      <c r="BK27" s="3">
+        <v>18982.352426151185</v>
+      </c>
+      <c r="BK27" s="22">
         <f t="shared" si="65"/>
-        <v>19163.706749000761</v>
-      </c>
-      <c r="BL27" s="3">
+        <v>19361.999474674209</v>
+      </c>
+      <c r="BL27" s="22">
         <f t="shared" si="65"/>
-        <v>19546.980883980777</v>
-      </c>
-      <c r="BM27" s="3">
+        <v>19749.239464167695</v>
+      </c>
+      <c r="BM27" s="22">
         <f t="shared" si="65"/>
-        <v>19937.920501660392</v>
-      </c>
-      <c r="BN27" s="3">
+        <v>20144.224253451048</v>
+      </c>
+      <c r="BN27" s="22">
         <f t="shared" si="65"/>
-        <v>20336.678911693602</v>
-      </c>
-      <c r="BO27" s="3">
+        <v>20547.10873852007</v>
+      </c>
+      <c r="BO27" s="22">
         <f t="shared" si="65"/>
-        <v>20743.412489927476</v>
-      </c>
-      <c r="BP27" s="3">
+        <v>20958.05091329047</v>
+      </c>
+      <c r="BP27" s="22">
         <f t="shared" si="65"/>
-        <v>21158.280739726026</v>
-      </c>
-      <c r="BQ27" s="3">
+        <v>21377.211931556281</v>
+      </c>
+      <c r="BQ27" s="22">
         <f t="shared" si="65"/>
-        <v>21581.446354520547</v>
-      </c>
-      <c r="BR27" s="3">
+        <v>21804.756170187407</v>
+      </c>
+      <c r="BR27" s="22">
         <f t="shared" si="65"/>
-        <v>22013.07528161096</v>
-      </c>
-      <c r="BS27" s="3">
+        <v>22240.851293591157</v>
+      </c>
+      <c r="BS27" s="22">
         <f t="shared" si="65"/>
-        <v>22453.336787243181</v>
-      </c>
-      <c r="BT27" s="3">
+        <v>22685.66831946298</v>
+      </c>
+      <c r="BT27" s="22">
         <f t="shared" si="65"/>
-        <v>22902.403522988046</v>
-      </c>
-      <c r="BU27" s="3">
+        <v>23139.38168585224</v>
+      </c>
+      <c r="BU27" s="22">
         <f t="shared" si="65"/>
-        <v>23360.451593447808</v>
-      </c>
-      <c r="BV27" s="3">
+        <v>23602.169319569286</v>
+      </c>
+      <c r="BV27" s="22">
         <f t="shared" si="65"/>
-        <v>23827.660625316763</v>
-      </c>
-      <c r="BW27" s="3">
+        <v>24074.212705960672</v>
+      </c>
+      <c r="BW27" s="22">
         <f t="shared" si="65"/>
-        <v>24304.213837823099</v>
-      </c>
-      <c r="BX27" s="3">
+        <v>24555.696960079888</v>
+      </c>
+      <c r="BX27" s="22">
         <f t="shared" si="65"/>
-        <v>24790.29811457956</v>
-      </c>
-      <c r="BY27" s="3">
+        <v>25046.810899281485</v>
+      </c>
+      <c r="BY27" s="22">
         <f t="shared" ref="BY27:DD27" si="66">+BX27*(1+$AU$36)</f>
-        <v>25286.104076871154</v>
-      </c>
-      <c r="BZ27" s="3">
+        <v>25547.747117267114</v>
+      </c>
+      <c r="BZ27" s="22">
         <f t="shared" si="66"/>
-        <v>25791.826158408578</v>
-      </c>
-      <c r="CA27" s="3">
+        <v>26058.702059612457</v>
+      </c>
+      <c r="CA27" s="22">
         <f t="shared" si="66"/>
-        <v>26307.662681576749</v>
-      </c>
-      <c r="CB27" s="3">
+        <v>26579.876100804708</v>
+      </c>
+      <c r="CB27" s="22">
         <f t="shared" si="66"/>
-        <v>26833.815935208284</v>
-      </c>
-      <c r="CC27" s="3">
+        <v>27111.473622820802</v>
+      </c>
+      <c r="CC27" s="22">
         <f t="shared" si="66"/>
-        <v>27370.492253912449</v>
-      </c>
-      <c r="CD27" s="3">
+        <v>27653.703095277218</v>
+      </c>
+      <c r="CD27" s="22">
         <f t="shared" si="66"/>
-        <v>27917.9020989907</v>
-      </c>
-      <c r="CE27" s="3">
+        <v>28206.777157182762</v>
+      </c>
+      <c r="CE27" s="22">
         <f t="shared" si="66"/>
-        <v>28476.260140970513</v>
-      </c>
-      <c r="CF27" s="3">
+        <v>28770.912700326418</v>
+      </c>
+      <c r="CF27" s="22">
         <f t="shared" si="66"/>
-        <v>29045.785343789925</v>
-      </c>
-      <c r="CG27" s="3">
+        <v>29346.330954332949</v>
+      </c>
+      <c r="CG27" s="22">
         <f t="shared" si="66"/>
-        <v>29626.701050665724</v>
-      </c>
-      <c r="CH27" s="3">
+        <v>29933.257573419607</v>
+      </c>
+      <c r="CH27" s="22">
         <f t="shared" si="66"/>
-        <v>30219.235071679039</v>
-      </c>
-      <c r="CI27" s="3">
+        <v>30531.922724888002</v>
+      </c>
+      <c r="CI27" s="22">
         <f t="shared" si="66"/>
-        <v>30823.619773112619</v>
-      </c>
-      <c r="CJ27" s="3">
+        <v>31142.561179385761</v>
+      </c>
+      <c r="CJ27" s="22">
         <f t="shared" si="66"/>
-        <v>31440.092168574873</v>
-      </c>
-      <c r="CK27" s="3">
+        <v>31765.412402973478</v>
+      </c>
+      <c r="CK27" s="22">
         <f t="shared" si="66"/>
-        <v>32068.89401194637</v>
-      </c>
-      <c r="CL27" s="3">
+        <v>32400.720651032949</v>
+      </c>
+      <c r="CL27" s="22">
         <f t="shared" si="66"/>
-        <v>32710.271892185297</v>
-      </c>
-      <c r="CM27" s="3">
+        <v>33048.73506405361</v>
+      </c>
+      <c r="CM27" s="22">
         <f t="shared" si="66"/>
-        <v>33364.477330029003</v>
-      </c>
-      <c r="CN27" s="3">
+        <v>33709.709765334679</v>
+      </c>
+      <c r="CN27" s="22">
         <f t="shared" si="66"/>
-        <v>34031.766876629583</v>
-      </c>
-      <c r="CO27" s="3">
+        <v>34383.903960641372</v>
+      </c>
+      <c r="CO27" s="22">
         <f t="shared" si="66"/>
-        <v>34712.402214162175</v>
-      </c>
-      <c r="CP27" s="3">
+        <v>35071.582039854198</v>
+      </c>
+      <c r="CP27" s="22">
         <f t="shared" si="66"/>
-        <v>35406.650258445421</v>
-      </c>
-      <c r="CQ27" s="3">
+        <v>35773.013680651282</v>
+      </c>
+      <c r="CQ27" s="22">
         <f t="shared" si="66"/>
-        <v>36114.783263614328</v>
-      </c>
-      <c r="CR27" s="3">
+        <v>36488.473954264307</v>
+      </c>
+      <c r="CR27" s="22">
         <f t="shared" si="66"/>
-        <v>36837.078928886614</v>
-      </c>
-      <c r="CS27" s="3">
+        <v>37218.243433349591</v>
+      </c>
+      <c r="CS27" s="22">
         <f t="shared" si="66"/>
-        <v>37573.820507464348</v>
-      </c>
-      <c r="CT27" s="3">
+        <v>37962.608302016582</v>
+      </c>
+      <c r="CT27" s="22">
         <f t="shared" si="66"/>
-        <v>38325.296917613639</v>
-      </c>
-      <c r="CU27" s="3">
+        <v>38721.860468056911</v>
+      </c>
+      <c r="CU27" s="22">
         <f t="shared" si="66"/>
-        <v>39091.802855965914</v>
-      </c>
-      <c r="CV27" s="3">
+        <v>39496.29767741805</v>
+      </c>
+      <c r="CV27" s="22">
         <f t="shared" si="66"/>
-        <v>39873.638913085233</v>
-      </c>
-      <c r="CW27" s="3">
+        <v>40286.223630966415</v>
+      </c>
+      <c r="CW27" s="22">
         <f t="shared" si="66"/>
-        <v>40671.111691346938</v>
-      </c>
-      <c r="CX27" s="3">
+        <v>41091.948103585746</v>
+      </c>
+      <c r="CX27" s="22">
         <f t="shared" si="66"/>
-        <v>41484.533925173877</v>
-      </c>
-      <c r="CY27" s="3">
+        <v>41913.78706565746</v>
+      </c>
+      <c r="CY27" s="22">
         <f t="shared" si="66"/>
-        <v>42314.224603677358</v>
-      </c>
-      <c r="CZ27" s="3">
+        <v>42752.062806970607</v>
+      </c>
+      <c r="CZ27" s="22">
         <f t="shared" si="66"/>
-        <v>43160.509095750909</v>
-      </c>
-      <c r="DA27" s="3">
+        <v>43607.104063110019</v>
+      </c>
+      <c r="DA27" s="22">
         <f t="shared" si="66"/>
-        <v>44023.719277665929</v>
-      </c>
-      <c r="DB27" s="3">
+        <v>44479.24614437222</v>
+      </c>
+      <c r="DB27" s="22">
         <f t="shared" si="66"/>
-        <v>44904.193663219245</v>
-      </c>
-      <c r="DC27" s="3">
+        <v>45368.831067259664</v>
+      </c>
+      <c r="DC27" s="22">
         <f t="shared" si="66"/>
-        <v>45802.277536483627</v>
-      </c>
-      <c r="DD27" s="3">
+        <v>46276.20768860486</v>
+      </c>
+      <c r="DD27" s="22">
         <f t="shared" si="66"/>
-        <v>46718.323087213299</v>
-      </c>
-      <c r="DE27" s="3">
+        <v>47201.731842376961</v>
+      </c>
+      <c r="DE27" s="22">
         <f t="shared" ref="DE27:EJ27" si="67">+DD27*(1+$AU$36)</f>
-        <v>47652.689548957569</v>
-      </c>
-      <c r="DF27" s="3">
+        <v>48145.766479224498</v>
+      </c>
+      <c r="DF27" s="22">
         <f t="shared" si="67"/>
-        <v>48605.743339936722</v>
-      </c>
-      <c r="DG27" s="3">
+        <v>49108.681808808986</v>
+      </c>
+      <c r="DG27" s="22">
         <f t="shared" si="67"/>
-        <v>49577.858206735458</v>
-      </c>
-      <c r="DH27" s="3">
+        <v>50090.855444985165</v>
+      </c>
+      <c r="DH27" s="22">
         <f t="shared" si="67"/>
-        <v>50569.415370870171</v>
-      </c>
-      <c r="DI27" s="3">
+        <v>51092.67255388487</v>
+      </c>
+      <c r="DI27" s="22">
         <f t="shared" si="67"/>
-        <v>51580.803678287572</v>
-      </c>
-      <c r="DJ27" s="3">
+        <v>52114.526004962565</v>
+      </c>
+      <c r="DJ27" s="22">
         <f t="shared" si="67"/>
-        <v>52612.419751853326</v>
-      </c>
-      <c r="DK27" s="3">
+        <v>53156.816525061819</v>
+      </c>
+      <c r="DK27" s="22">
         <f t="shared" si="67"/>
-        <v>53664.668146890392</v>
-      </c>
-      <c r="DL27" s="3">
+        <v>54219.952855563053</v>
+      </c>
+      <c r="DL27" s="22">
         <f t="shared" si="67"/>
-        <v>54737.961509828201</v>
-      </c>
-      <c r="DM27" s="3">
+        <v>55304.351912674312</v>
+      </c>
+      <c r="DM27" s="22">
         <f t="shared" si="67"/>
-        <v>55832.720740024764</v>
-      </c>
-      <c r="DN27" s="3">
+        <v>56410.438950927797</v>
+      </c>
+      <c r="DN27" s="22">
         <f t="shared" si="67"/>
-        <v>56949.375154825262</v>
-      </c>
-      <c r="DO27" s="3">
+        <v>57538.647729946351</v>
+      </c>
+      <c r="DO27" s="22">
         <f t="shared" si="67"/>
-        <v>58088.362657921767</v>
-      </c>
-      <c r="DP27" s="3">
+        <v>58689.420684545279</v>
+      </c>
+      <c r="DP27" s="22">
         <f t="shared" si="67"/>
-        <v>59250.129911080207</v>
-      </c>
-      <c r="DQ27" s="3">
+        <v>59863.209098236184</v>
+      </c>
+      <c r="DQ27" s="22">
         <f t="shared" si="67"/>
-        <v>60435.132509301809</v>
-      </c>
-      <c r="DR27" s="3">
+        <v>61060.473280200909</v>
+      </c>
+      <c r="DR27" s="22">
         <f t="shared" si="67"/>
-        <v>61643.835159487848</v>
-      </c>
-      <c r="DS27" s="3">
+        <v>62281.68274580493</v>
+      </c>
+      <c r="DS27" s="22">
         <f t="shared" si="67"/>
-        <v>62876.711862677606</v>
-      </c>
-      <c r="DT27" s="3">
+        <v>63527.316400721029</v>
+      </c>
+      <c r="DT27" s="22">
         <f t="shared" si="67"/>
-        <v>64134.246099931159</v>
-      </c>
-      <c r="DU27" s="3">
+        <v>64797.862728735454</v>
+      </c>
+      <c r="DU27" s="22">
         <f t="shared" si="67"/>
-        <v>65416.931021929784</v>
-      </c>
-      <c r="DV27" s="3">
+        <v>66093.819983310168</v>
+      </c>
+      <c r="DV27" s="22">
         <f t="shared" si="67"/>
-        <v>66725.269642368381</v>
-      </c>
-      <c r="DW27" s="3">
+        <v>67415.69638297637</v>
+      </c>
+      <c r="DW27" s="22">
         <f t="shared" si="67"/>
-        <v>68059.775035215745</v>
-      </c>
-      <c r="DX27" s="3">
+        <v>68764.010310635902</v>
+      </c>
+      <c r="DX27" s="22">
         <f t="shared" si="67"/>
-        <v>69420.97053592006</v>
-      </c>
-      <c r="DY27" s="3">
+        <v>70139.290516848618</v>
+      </c>
+      <c r="DY27" s="22">
         <f t="shared" si="67"/>
-        <v>70809.389946638461</v>
-      </c>
-      <c r="DZ27" s="3">
+        <v>71542.076327185598</v>
+      </c>
+      <c r="DZ27" s="22">
         <f t="shared" si="67"/>
-        <v>72225.577745571238</v>
-      </c>
-      <c r="EA27" s="3">
+        <v>72972.917853729305</v>
+      </c>
+      <c r="EA27" s="22">
         <f t="shared" si="67"/>
-        <v>73670.089300482665</v>
-      </c>
-      <c r="EB27" s="3">
+        <v>74432.376210803894</v>
+      </c>
+      <c r="EB27" s="22">
         <f t="shared" si="67"/>
-        <v>75143.491086492315</v>
-      </c>
-      <c r="EC27" s="3">
+        <v>75921.023735019975</v>
+      </c>
+      <c r="EC27" s="22">
         <f t="shared" si="67"/>
-        <v>76646.360908222166</v>
-      </c>
-      <c r="ED27" s="3">
+        <v>77439.444209720372</v>
+      </c>
+      <c r="ED27" s="22">
         <f t="shared" si="67"/>
-        <v>78179.288126386615</v>
-      </c>
-      <c r="EE27" s="3">
+        <v>78988.23309391478</v>
+      </c>
+      <c r="EE27" s="22">
         <f t="shared" si="67"/>
-        <v>79742.873888914342</v>
-      </c>
-      <c r="EF27" s="3">
+        <v>80567.997755793083</v>
+      </c>
+      <c r="EF27" s="22">
         <f t="shared" si="67"/>
-        <v>81337.731366692635</v>
-      </c>
-      <c r="EG27" s="3">
+        <v>82179.357710908953</v>
+      </c>
+      <c r="EG27" s="22">
         <f t="shared" si="67"/>
-        <v>82964.485994026487</v>
-      </c>
-      <c r="EH27" s="3">
+        <v>83822.944865127138</v>
+      </c>
+      <c r="EH27" s="22">
         <f t="shared" si="67"/>
-        <v>84623.775713907016</v>
-      </c>
-      <c r="EI27" s="3">
+        <v>85499.403762429676</v>
+      </c>
+      <c r="EI27" s="22">
         <f t="shared" si="67"/>
-        <v>86316.251228185152</v>
-      </c>
-      <c r="EJ27" s="3">
+        <v>87209.391837678268</v>
+      </c>
+      <c r="EJ27" s="22">
         <f t="shared" si="67"/>
-        <v>88042.576252748855</v>
-      </c>
-      <c r="EK27" s="3">
+        <v>88953.579674431836</v>
+      </c>
+      <c r="EK27" s="22">
         <f t="shared" ref="EK27:FP27" si="68">+EJ27*(1+$AU$36)</f>
-        <v>89803.427777803838</v>
-      </c>
-      <c r="EL27" s="3">
+        <v>90732.651267920475</v>
+      </c>
+      <c r="EL27" s="22">
         <f t="shared" si="68"/>
-        <v>91599.496333359915</v>
-      </c>
-      <c r="EM27" s="3">
+        <v>92547.304293278881</v>
+      </c>
+      <c r="EM27" s="22">
         <f t="shared" si="68"/>
-        <v>93431.486260027115</v>
-      </c>
-      <c r="EN27" s="3">
+        <v>94398.250379144461</v>
+      </c>
+      <c r="EN27" s="22">
         <f t="shared" si="68"/>
-        <v>95300.115985227661</v>
-      </c>
-      <c r="EO27" s="3">
+        <v>96286.215386727359</v>
+      </c>
+      <c r="EO27" s="22">
         <f t="shared" si="68"/>
-        <v>97206.118304932214</v>
-      </c>
-      <c r="EP27" s="3">
+        <v>98211.939694461907</v>
+      </c>
+      <c r="EP27" s="22">
         <f t="shared" si="68"/>
-        <v>99150.240671030857</v>
-      </c>
-      <c r="EQ27" s="3">
+        <v>100176.17848835114</v>
+      </c>
+      <c r="EQ27" s="22">
         <f t="shared" si="68"/>
-        <v>101133.24548445147</v>
-      </c>
-      <c r="ER27" s="3">
+        <v>102179.70205811817</v>
+      </c>
+      <c r="ER27" s="22">
         <f t="shared" si="68"/>
-        <v>103155.9103941405</v>
-      </c>
-      <c r="ES27" s="3">
+        <v>104223.29609928053</v>
+      </c>
+      <c r="ES27" s="22">
         <f t="shared" si="68"/>
-        <v>105219.02860202332</v>
-      </c>
-      <c r="ET27" s="3">
+        <v>106307.76202126614</v>
+      </c>
+      <c r="ET27" s="22">
         <f t="shared" si="68"/>
-        <v>107323.40917406378</v>
-      </c>
-      <c r="EU27" s="3">
+        <v>108433.91726169147</v>
+      </c>
+      <c r="EU27" s="22">
         <f t="shared" si="68"/>
-        <v>109469.87735754506</v>
-      </c>
-      <c r="EV27" s="3">
+        <v>110602.5956069253</v>
+      </c>
+      <c r="EV27" s="22">
         <f t="shared" si="68"/>
-        <v>111659.27490469597</v>
-      </c>
-      <c r="EW27" s="3">
+        <v>112814.64751906382</v>
+      </c>
+      <c r="EW27" s="22">
         <f t="shared" si="68"/>
-        <v>113892.46040278989</v>
-      </c>
-      <c r="EX27" s="3">
+        <v>115070.94046944509</v>
+      </c>
+      <c r="EX27" s="22">
         <f t="shared" si="68"/>
-        <v>116170.3096108457</v>
-      </c>
-      <c r="EY27" s="3">
+        <v>117372.359278834</v>
+      </c>
+      <c r="EY27" s="22">
         <f t="shared" si="68"/>
-        <v>118493.71580306262</v>
-      </c>
-      <c r="EZ27" s="3">
+        <v>119719.80646441068</v>
+      </c>
+      <c r="EZ27" s="22">
         <f t="shared" si="68"/>
-        <v>120863.59011912387</v>
-      </c>
-      <c r="FA27" s="3">
+        <v>122114.20259369889</v>
+      </c>
+      <c r="FA27" s="22">
         <f t="shared" si="68"/>
-        <v>123280.86192150635</v>
-      </c>
-      <c r="FB27" s="3">
+        <v>124556.48664557288</v>
+      </c>
+      <c r="FB27" s="22">
         <f t="shared" si="68"/>
-        <v>125746.47915993648</v>
-      </c>
-      <c r="FC27" s="3">
+        <v>127047.61637848434</v>
+      </c>
+      <c r="FC27" s="22">
         <f t="shared" si="68"/>
-        <v>128261.40874313521</v>
-      </c>
-      <c r="FD27" s="3">
+        <v>129588.56870605402</v>
+      </c>
+      <c r="FD27" s="22">
         <f t="shared" si="68"/>
-        <v>130826.63691799791</v>
-      </c>
-      <c r="FE27" s="3">
+        <v>132180.34008017511</v>
+      </c>
+      <c r="FE27" s="22">
         <f t="shared" si="68"/>
-        <v>133443.16965635787</v>
-      </c>
-      <c r="FF27" s="3">
+        <v>134823.94688177863</v>
+      </c>
+      <c r="FF27" s="22">
         <f t="shared" si="68"/>
-        <v>136112.03304948504</v>
-      </c>
-      <c r="FG27" s="3">
+        <v>137520.4258194142</v>
+      </c>
+      <c r="FG27" s="22">
         <f t="shared" si="68"/>
-        <v>138834.27371047475</v>
-      </c>
-      <c r="FH27" s="3">
+        <v>140270.8343358025</v>
+      </c>
+      <c r="FH27" s="22">
         <f t="shared" si="68"/>
-        <v>141610.95918468424</v>
-      </c>
-      <c r="FI27" s="3">
+        <v>143076.25102251855</v>
+      </c>
+      <c r="FI27" s="22">
         <f t="shared" si="68"/>
-        <v>144443.17836837794</v>
-      </c>
-      <c r="FJ27" s="3">
+        <v>145937.77604296894</v>
+      </c>
+      <c r="FJ27" s="22">
         <f t="shared" si="68"/>
-        <v>147332.04193574551</v>
-      </c>
-      <c r="FK27" s="3">
+        <v>148856.53156382832</v>
+      </c>
+      <c r="FK27" s="22">
         <f t="shared" si="68"/>
-        <v>150278.68277446041</v>
-      </c>
-      <c r="FL27" s="3">
+        <v>151833.6621951049</v>
+      </c>
+      <c r="FL27" s="22">
         <f t="shared" si="68"/>
-        <v>153284.25642994963</v>
-      </c>
-      <c r="FM27" s="3">
+        <v>154870.335439007</v>
+      </c>
+      <c r="FM27" s="22">
         <f t="shared" si="68"/>
-        <v>156349.94155854863</v>
-      </c>
-      <c r="FN27" s="3">
+        <v>157967.74214778715</v>
+      </c>
+      <c r="FN27" s="22">
         <f t="shared" si="68"/>
-        <v>159476.94038971962</v>
-      </c>
-      <c r="FO27" s="3">
+        <v>161127.0969907429</v>
+      </c>
+      <c r="FO27" s="22">
         <f t="shared" si="68"/>
-        <v>162666.47919751401</v>
-      </c>
-      <c r="FP27" s="3">
+        <v>164349.63893055776</v>
+      </c>
+      <c r="FP27" s="22">
         <f t="shared" si="68"/>
-        <v>165919.80878146429</v>
-      </c>
-      <c r="FQ27" s="3">
+        <v>167636.63170916893</v>
+      </c>
+      <c r="FQ27" s="22">
         <f t="shared" ref="FQ27:GV27" si="69">+FP27*(1+$AU$36)</f>
-        <v>169238.20495709358</v>
-      </c>
-      <c r="FR27" s="3">
+        <v>170989.3643433523</v>
+      </c>
+      <c r="FR27" s="22">
         <f t="shared" si="69"/>
-        <v>172622.96905623545</v>
-      </c>
-      <c r="FS27" s="3">
+        <v>174409.15163021933</v>
+      </c>
+      <c r="FS27" s="22">
         <f t="shared" si="69"/>
-        <v>176075.42843736015</v>
-      </c>
-      <c r="FT27" s="3">
+        <v>177897.33466282373</v>
+      </c>
+      <c r="FT27" s="22">
         <f t="shared" si="69"/>
-        <v>179596.93700610736</v>
-      </c>
-      <c r="FU27" s="3">
+        <v>181455.2813560802</v>
+      </c>
+      <c r="FU27" s="22">
         <f t="shared" si="69"/>
-        <v>183188.87574622952</v>
-      </c>
-      <c r="FV27" s="3">
+        <v>185084.38698320181</v>
+      </c>
+      <c r="FV27" s="22">
         <f t="shared" si="69"/>
-        <v>186852.6532611541</v>
-      </c>
-      <c r="FW27" s="3">
+        <v>188786.07472286586</v>
+      </c>
+      <c r="FW27" s="22">
         <f t="shared" si="69"/>
-        <v>190589.7063263772</v>
-      </c>
-      <c r="FX27" s="3">
+        <v>192561.79621732316</v>
+      </c>
+      <c r="FX27" s="22">
         <f t="shared" si="69"/>
-        <v>194401.50045290476</v>
-      </c>
-      <c r="FY27" s="3">
+        <v>196413.03214166962</v>
+      </c>
+      <c r="FY27" s="22">
         <f t="shared" si="69"/>
-        <v>198289.53046196286</v>
-      </c>
-      <c r="FZ27" s="3">
+        <v>200341.29278450302</v>
+      </c>
+      <c r="FZ27" s="22">
         <f t="shared" si="69"/>
-        <v>202255.32107120211</v>
-      </c>
-      <c r="GA27" s="3">
+        <v>204348.11864019308</v>
+      </c>
+      <c r="GA27" s="22">
         <f t="shared" si="69"/>
-        <v>206300.42749262616</v>
-      </c>
-      <c r="GB27" s="3">
+        <v>208435.08101299693</v>
+      </c>
+      <c r="GB27" s="22">
         <f t="shared" si="69"/>
-        <v>210426.43604247869</v>
-      </c>
-      <c r="GC27" s="3">
+        <v>212603.78263325687</v>
+      </c>
+      <c r="GC27" s="22">
         <f t="shared" si="69"/>
-        <v>214634.96476332826</v>
-      </c>
-      <c r="GD27" s="3">
+        <v>216855.858285922</v>
+      </c>
+      <c r="GD27" s="22">
         <f t="shared" si="69"/>
-        <v>218927.66405859482</v>
-      </c>
-      <c r="GE27" s="3">
+        <v>221192.97545164044</v>
+      </c>
+      <c r="GE27" s="22">
         <f t="shared" si="69"/>
-        <v>223306.21733976671</v>
-      </c>
-      <c r="GF27" s="3">
+        <v>225616.83496067324</v>
+      </c>
+      <c r="GF27" s="22">
         <f t="shared" si="69"/>
-        <v>227772.34168656205</v>
-      </c>
-      <c r="GG27" s="3">
+        <v>230129.17165988669</v>
+      </c>
+      <c r="GG27" s="22">
         <f t="shared" si="69"/>
-        <v>232327.78852029331</v>
-      </c>
-      <c r="GH27" s="3">
+        <v>234731.75509308442</v>
+      </c>
+      <c r="GH27" s="22">
         <f t="shared" si="69"/>
-        <v>236974.34429069917</v>
-      </c>
-      <c r="GI27" s="3">
+        <v>239426.39019494611</v>
+      </c>
+      <c r="GI27" s="22">
         <f t="shared" si="69"/>
-        <v>241713.83117651317</v>
-      </c>
-      <c r="GJ27" s="3">
+        <v>244214.91799884505</v>
+      </c>
+      <c r="GJ27" s="22">
         <f t="shared" si="69"/>
-        <v>246548.10780004342</v>
-      </c>
-      <c r="GK27" s="3">
+        <v>249099.21635882196</v>
+      </c>
+      <c r="GK27" s="22">
         <f t="shared" si="69"/>
-        <v>251479.06995604429</v>
-      </c>
-      <c r="GL27" s="3">
+        <v>254081.2006859984</v>
+      </c>
+      <c r="GL27" s="22">
         <f t="shared" si="69"/>
-        <v>256508.65135516517</v>
-      </c>
-      <c r="GM27" s="3">
+        <v>259162.82469971836</v>
+      </c>
+      <c r="GM27" s="22">
         <f t="shared" si="69"/>
-        <v>261638.82438226847</v>
-      </c>
-      <c r="GN27" s="3">
+        <v>264346.08119371271</v>
+      </c>
+      <c r="GN27" s="22">
         <f t="shared" si="69"/>
-        <v>266871.60086991388</v>
-      </c>
-      <c r="GO27" s="3">
+        <v>269633.002817587</v>
+      </c>
+      <c r="GO27" s="22">
         <f t="shared" si="69"/>
-        <v>272209.03288731218</v>
-      </c>
-      <c r="GP27" s="3">
+        <v>275025.66287393874</v>
+      </c>
+      <c r="GP27" s="22">
         <f t="shared" si="69"/>
-        <v>277653.21354505845</v>
-      </c>
-      <c r="GQ27" s="3">
+        <v>280526.17613141751</v>
+      </c>
+      <c r="GQ27" s="22">
         <f t="shared" si="69"/>
-        <v>283206.27781595965</v>
-      </c>
-      <c r="GR27" s="3">
+        <v>286136.69965404586</v>
+      </c>
+      <c r="GR27" s="22">
         <f t="shared" si="69"/>
-        <v>288870.40337227884</v>
-      </c>
-      <c r="GS27" s="3">
+        <v>291859.43364712677</v>
+      </c>
+      <c r="GS27" s="22">
         <f t="shared" si="69"/>
-        <v>294647.81143972441</v>
-      </c>
-      <c r="GT27" s="3">
+        <v>297696.62232006929</v>
+      </c>
+      <c r="GT27" s="22">
         <f t="shared" si="69"/>
-        <v>300540.76766851888</v>
-      </c>
-      <c r="GU27" s="3">
+        <v>303650.55476647068</v>
+      </c>
+      <c r="GU27" s="22">
         <f t="shared" si="69"/>
-        <v>306551.58302188927</v>
-      </c>
-      <c r="GV27" s="3">
+        <v>309723.5658618001</v>
+      </c>
+      <c r="GV27" s="22">
         <f t="shared" si="69"/>
-        <v>312682.61468232708</v>
-      </c>
-      <c r="GW27" s="3">
+        <v>315918.03717903612</v>
+      </c>
+      <c r="GW27" s="22">
         <f t="shared" ref="GW27:HO27" si="70">+GV27*(1+$AU$36)</f>
-        <v>318936.26697597362</v>
-      </c>
-      <c r="GX27" s="3">
+        <v>322236.39792261686</v>
+      </c>
+      <c r="GX27" s="22">
         <f t="shared" si="70"/>
-        <v>325314.99231549312</v>
-      </c>
-      <c r="GY27" s="3">
+        <v>328681.12588106922</v>
+      </c>
+      <c r="GY27" s="22">
         <f t="shared" si="70"/>
-        <v>331821.29216180299</v>
-      </c>
-      <c r="GZ27" s="3">
+        <v>335254.7483986906</v>
+      </c>
+      <c r="GZ27" s="22">
         <f t="shared" si="70"/>
-        <v>338457.71800503909</v>
-      </c>
-      <c r="HA27" s="3">
+        <v>341959.84336666443</v>
+      </c>
+      <c r="HA27" s="22">
         <f t="shared" si="70"/>
-        <v>345226.87236513989</v>
-      </c>
-      <c r="HB27" s="3">
+        <v>348799.04023399774</v>
+      </c>
+      <c r="HB27" s="22">
         <f t="shared" si="70"/>
-        <v>352131.40981244267</v>
-      </c>
-      <c r="HC27" s="3">
+        <v>355775.02103867772</v>
+      </c>
+      <c r="HC27" s="22">
         <f t="shared" si="70"/>
-        <v>359174.03800869151</v>
-      </c>
-      <c r="HD27" s="3">
+        <v>362890.52145945129</v>
+      </c>
+      <c r="HD27" s="22">
         <f t="shared" si="70"/>
-        <v>366357.51876886532</v>
-      </c>
-      <c r="HE27" s="3">
+        <v>370148.3318886403</v>
+      </c>
+      <c r="HE27" s="22">
         <f t="shared" si="70"/>
-        <v>373684.66914424265</v>
-      </c>
-      <c r="HF27" s="3">
+        <v>377551.2985264131</v>
+      </c>
+      <c r="HF27" s="22">
         <f t="shared" si="70"/>
-        <v>381158.36252712749</v>
-      </c>
-      <c r="HG27" s="3">
+        <v>385102.32449694135</v>
+      </c>
+      <c r="HG27" s="22">
         <f t="shared" si="70"/>
-        <v>388781.52977767005</v>
-      </c>
-      <c r="HH27" s="3">
+        <v>392804.37098688021</v>
+      </c>
+      <c r="HH27" s="22">
         <f t="shared" si="70"/>
-        <v>396557.16037322348</v>
-      </c>
-      <c r="HI27" s="3">
+        <v>400660.45840661781</v>
+      </c>
+      <c r="HI27" s="22">
         <f t="shared" si="70"/>
-        <v>404488.30358068796</v>
-      </c>
-      <c r="HJ27" s="3">
+        <v>408673.66757475014</v>
+      </c>
+      <c r="HJ27" s="22">
         <f t="shared" si="70"/>
-        <v>412578.06965230173</v>
-      </c>
-      <c r="HK27" s="3">
+        <v>416847.14092624513</v>
+      </c>
+      <c r="HK27" s="22">
         <f t="shared" si="70"/>
-        <v>420829.63104534778</v>
-      </c>
-      <c r="HL27" s="3">
+        <v>425184.08374477003</v>
+      </c>
+      <c r="HL27" s="22">
         <f t="shared" si="70"/>
-        <v>429246.22366625472</v>
-      </c>
-      <c r="HM27" s="3">
+        <v>433687.76541966543</v>
+      </c>
+      <c r="HM27" s="22">
         <f t="shared" si="70"/>
-        <v>437831.1481395798</v>
-      </c>
-      <c r="HN27" s="3">
+        <v>442361.52072805876</v>
+      </c>
+      <c r="HN27" s="22">
         <f t="shared" si="70"/>
-        <v>446587.77110237139</v>
-      </c>
-      <c r="HO27" s="3">
+        <v>451208.75114261993</v>
+      </c>
+      <c r="HO27" s="22">
         <f t="shared" si="70"/>
-        <v>455519.52652441885</v>
-      </c>
-    </row>
-    <row r="28" spans="2:223" s="9" customFormat="1">
-      <c r="B28" s="30" t="s">
+        <v>460232.92616547237</v>
+      </c>
+    </row>
+    <row r="28" spans="2:223">
+      <c r="B28" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="7">
         <v>771.6</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="7">
         <v>768.7</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28" s="7">
         <v>763.9</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F28" s="7">
         <v>755.6</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G28" s="7">
         <v>750.7</v>
       </c>
-      <c r="H28" s="9">
+      <c r="H28" s="7">
         <v>748.6</v>
       </c>
-      <c r="I28" s="9">
+      <c r="I28" s="7">
         <v>750</v>
       </c>
-      <c r="J28" s="9">
+      <c r="J28" s="7">
         <v>751</v>
       </c>
-      <c r="K28" s="9">
+      <c r="K28" s="7">
         <v>751</v>
       </c>
-      <c r="L28" s="9">
+      <c r="L28" s="7">
         <v>752.1</v>
       </c>
-      <c r="M28" s="9">
+      <c r="M28" s="7">
         <v>752.6</v>
       </c>
-      <c r="N28" s="9">
+      <c r="N28" s="7">
         <v>751.6</v>
       </c>
-      <c r="O28" s="9">
+      <c r="O28" s="7">
         <v>747.6</v>
       </c>
-      <c r="P28" s="9">
+      <c r="P28" s="7">
         <v>742</v>
       </c>
-      <c r="Q28" s="9">
+      <c r="Q28" s="7">
         <v>739.5</v>
       </c>
-      <c r="R28" s="9">
+      <c r="R28" s="7">
         <f t="shared" ref="R28" si="71">+Q28</f>
         <v>739.5</v>
       </c>
-      <c r="AC28" s="9">
+      <c r="AC28" s="7">
         <v>815.5</v>
       </c>
-      <c r="AD28" s="9">
+      <c r="AD28" s="7">
         <v>785.6</v>
       </c>
-      <c r="AE28" s="9">
+      <c r="AE28" s="7">
         <f>+AE27/AE29</f>
         <v>797.95685279187842</v>
       </c>
-      <c r="AF28" s="9">
+      <c r="AF28" s="7">
         <f>+AF27/AF29</f>
         <v>797.32171156893844</v>
       </c>
-      <c r="AG28" s="9">
+      <c r="AG28" s="7">
         <f>+AG27/AG29</f>
         <v>751.90652423758263</v>
       </c>
-      <c r="AH28" s="9">
+      <c r="AH28" s="7">
         <f>+AG28</f>
         <v>751.90652423758263</v>
       </c>
-      <c r="AI28" s="9">
+      <c r="AI28" s="7">
         <f t="shared" ref="AI28:AP28" si="72">+AH28</f>
         <v>751.90652423758263</v>
       </c>
-      <c r="AJ28" s="9">
+      <c r="AJ28" s="7">
         <f t="shared" si="72"/>
         <v>751.90652423758263</v>
       </c>
-      <c r="AK28" s="9">
+      <c r="AK28" s="7">
         <f t="shared" si="72"/>
         <v>751.90652423758263</v>
       </c>
-      <c r="AL28" s="9">
+      <c r="AL28" s="7">
         <f t="shared" si="72"/>
         <v>751.90652423758263</v>
       </c>
-      <c r="AM28" s="9">
+      <c r="AM28" s="7">
         <f t="shared" si="72"/>
         <v>751.90652423758263</v>
       </c>
-      <c r="AN28" s="9">
+      <c r="AN28" s="7">
         <f t="shared" si="72"/>
         <v>751.90652423758263</v>
       </c>
-      <c r="AO28" s="9">
+      <c r="AO28" s="7">
         <f t="shared" si="72"/>
         <v>751.90652423758263</v>
       </c>
-      <c r="AP28" s="9">
+      <c r="AP28" s="7">
         <f t="shared" si="72"/>
         <v>751.90652423758263</v>
       </c>
-      <c r="AQ28" s="9">
+      <c r="AQ28" s="7">
         <f t="shared" ref="AQ28" si="73">+AP28</f>
         <v>751.90652423758263</v>
       </c>
     </row>
-    <row r="29" spans="2:223" s="45" customFormat="1">
-      <c r="B29" s="44" t="s">
+    <row r="29" spans="2:223" s="34" customFormat="1">
+      <c r="B29" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="45">
+      <c r="C29" s="34">
         <f t="shared" ref="C29:M29" si="74">+C27/C28</f>
         <v>1.801192327630897</v>
       </c>
-      <c r="D29" s="45">
+      <c r="D29" s="34">
         <f t="shared" si="74"/>
         <v>2.0555483283465588</v>
       </c>
-      <c r="E29" s="45">
+      <c r="E29" s="34">
         <f t="shared" si="74"/>
         <v>2.1951826155255936</v>
       </c>
-      <c r="F29" s="45">
+      <c r="F29" s="34">
         <f t="shared" si="74"/>
         <v>2.1719163578613019</v>
       </c>
-      <c r="G29" s="45">
+      <c r="G29" s="34">
         <f t="shared" si="74"/>
         <v>1.5723990941787669</v>
       </c>
-      <c r="H29" s="45">
+      <c r="H29" s="34">
         <f t="shared" si="74"/>
         <v>0.74111675126903587</v>
       </c>
-      <c r="I29" s="45">
+      <c r="I29" s="34">
         <f t="shared" si="74"/>
         <v>2.4512000000000009</v>
       </c>
-      <c r="J29" s="45">
+      <c r="J29" s="34">
         <f t="shared" si="74"/>
         <v>1.9407456724367513</v>
       </c>
-      <c r="K29" s="45">
+      <c r="K29" s="34">
         <f t="shared" si="74"/>
         <v>2.1479360852197069</v>
       </c>
-      <c r="L29" s="45">
+      <c r="L29" s="34">
         <f t="shared" si="74"/>
         <v>3.0612950405531172</v>
       </c>
-      <c r="M29" s="45">
+      <c r="M29" s="34">
         <f t="shared" si="74"/>
         <v>2.9683762955089028</v>
       </c>
-      <c r="N29" s="45">
+      <c r="N29" s="34">
         <f t="shared" ref="N29" si="75">+N27/N28</f>
         <v>2.2955029270888754</v>
       </c>
-      <c r="O29" s="45">
+      <c r="O29" s="34">
         <f t="shared" ref="O29:P29" si="76">+O27/O28</f>
         <v>1.6012573568753345</v>
       </c>
-      <c r="P29" s="45">
+      <c r="P29" s="34">
         <f t="shared" si="76"/>
-        <v>1.6010781671159038</v>
-      </c>
-      <c r="Q29" s="45">
+        <v>1.7264150943396235</v>
+      </c>
+      <c r="Q29" s="34">
         <f t="shared" ref="Q29" si="77">+Q27/Q28</f>
-        <v>2.6796484110885737</v>
-      </c>
-      <c r="R29" s="45">
+        <v>2.8058147396889797</v>
+      </c>
+      <c r="R29" s="34">
         <f t="shared" ref="R29" si="78">+R27/R28</f>
         <v>2.3651473489123607</v>
       </c>
-      <c r="X29" s="45">
+      <c r="X29" s="34">
         <v>5.36</v>
       </c>
-      <c r="Y29" s="45">
+      <c r="Y29" s="34">
         <v>5.55</v>
       </c>
-      <c r="Z29" s="45">
+      <c r="Z29" s="34">
         <v>4.82</v>
       </c>
-      <c r="AA29" s="45">
+      <c r="AA29" s="34">
         <v>4.8</v>
       </c>
-      <c r="AB29" s="45">
+      <c r="AB29" s="34">
         <v>5.44</v>
       </c>
-      <c r="AC29" s="45">
+      <c r="AC29" s="34">
         <v>6.37</v>
       </c>
-      <c r="AD29" s="45">
+      <c r="AD29" s="34">
         <v>7.54</v>
       </c>
-      <c r="AE29" s="45">
+      <c r="AE29" s="34">
         <v>7.88</v>
       </c>
-      <c r="AF29" s="45">
+      <c r="AF29" s="34">
         <v>6.31</v>
       </c>
-      <c r="AG29" s="45">
+      <c r="AG29" s="34">
         <f t="shared" si="26"/>
         <v>10.473110348370604</v>
       </c>
-      <c r="AH29" s="45">
+      <c r="AH29" s="34">
         <f>+AH27/AH28</f>
-        <v>8.1336260125178583</v>
-      </c>
-      <c r="AI29" s="45">
+        <v>8.3813961727633828</v>
+      </c>
+      <c r="AI29" s="34">
         <f t="shared" ref="AI29:AP29" si="79">+AI27/AI28</f>
-        <v>9.7189738209742025</v>
-      </c>
-      <c r="AJ29" s="45">
+        <v>9.8226462095967353</v>
+      </c>
+      <c r="AJ29" s="34">
         <f t="shared" si="79"/>
-        <v>10.169512299173741</v>
-      </c>
-      <c r="AK29" s="45">
+        <v>10.277396500909601</v>
+      </c>
+      <c r="AK29" s="34">
         <f t="shared" si="79"/>
-        <v>10.848382912868422</v>
-      </c>
-      <c r="AL29" s="45">
+        <v>10.962924918871989</v>
+      </c>
+      <c r="AL29" s="34">
         <f t="shared" si="79"/>
-        <v>11.688863488352556</v>
-      </c>
-      <c r="AM29" s="45">
+        <v>11.811770839066732</v>
+      </c>
+      <c r="AM29" s="34">
         <f t="shared" si="79"/>
-        <v>12.603784906144394</v>
-      </c>
-      <c r="AN29" s="45">
+        <v>12.735809983168794</v>
+      </c>
+      <c r="AN29" s="34">
         <f t="shared" si="79"/>
-        <v>13.599867590473091</v>
-      </c>
-      <c r="AO29" s="45">
+        <v>13.741830717702141</v>
+      </c>
+      <c r="AO29" s="34">
         <f t="shared" si="79"/>
-        <v>14.684449515530856</v>
-      </c>
-      <c r="AP29" s="45">
+        <v>14.83724521017642</v>
+      </c>
+      <c r="AP29" s="34">
         <f t="shared" si="79"/>
-        <v>15.865543476166524</v>
-      </c>
-      <c r="AQ29" s="45">
+        <v>16.030147279812649</v>
+      </c>
+      <c r="AQ29" s="34">
         <f t="shared" ref="AQ29" si="80">+AQ27/AQ28</f>
-        <v>17.15189968758926</v>
-      </c>
-    </row>
-    <row r="30" spans="2:223" s="10" customFormat="1">
-      <c r="B30" s="31"/>
-      <c r="AC30" s="9"/>
-      <c r="AD30" s="9"/>
-      <c r="AE30" s="9"/>
-      <c r="AF30" s="9"/>
-      <c r="AG30" s="9"/>
-    </row>
-    <row r="31" spans="2:223" s="10" customFormat="1">
-      <c r="B31" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="X31" s="46">
+        <v>17.329375631261115</v>
+      </c>
+    </row>
+    <row r="30" spans="2:223" s="36" customFormat="1">
+      <c r="B30" s="35"/>
+      <c r="AC30" s="7"/>
+      <c r="AD30" s="7"/>
+      <c r="AE30" s="7"/>
+      <c r="AF30" s="7"/>
+      <c r="AG30" s="7"/>
+    </row>
+    <row r="31" spans="2:223" s="36" customFormat="1">
+      <c r="B31" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="X31" s="37">
         <v>16.46</v>
       </c>
-      <c r="Y31" s="46">
+      <c r="Y31" s="37">
         <v>17.510000000000002</v>
       </c>
-      <c r="Z31" s="46">
+      <c r="Z31" s="37">
         <v>18.440000000000001</v>
       </c>
-      <c r="AA31" s="46">
+      <c r="AA31" s="37">
         <v>25.57</v>
       </c>
-      <c r="AB31" s="46">
+      <c r="AB31" s="37">
         <v>22.88</v>
       </c>
-      <c r="AC31" s="46">
+      <c r="AC31" s="37">
         <v>24.91</v>
       </c>
-      <c r="AD31" s="46">
+      <c r="AD31" s="37">
         <v>26.86</v>
       </c>
-      <c r="AE31" s="46">
+      <c r="AE31" s="37">
         <v>25.93</v>
       </c>
-      <c r="AF31" s="46">
+      <c r="AF31" s="37">
         <v>32.76</v>
       </c>
-      <c r="AG31" s="46">
+      <c r="AG31" s="37">
         <v>27.64</v>
       </c>
     </row>
-    <row r="32" spans="2:223" s="10" customFormat="1">
-      <c r="B32" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC32" s="9"/>
-      <c r="AD32" s="9"/>
-      <c r="AE32" s="9"/>
-      <c r="AF32" s="9"/>
-    </row>
-    <row r="33" spans="2:53" s="10" customFormat="1">
-      <c r="B33" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="AC33" s="9"/>
-      <c r="AD33" s="9"/>
-      <c r="AE33" s="9"/>
-      <c r="AF33" s="9"/>
+    <row r="32" spans="2:223" s="36" customFormat="1">
+      <c r="B32" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC32" s="7"/>
+      <c r="AD32" s="7"/>
+      <c r="AE32" s="7"/>
+      <c r="AF32" s="7"/>
+    </row>
+    <row r="33" spans="2:53" s="36" customFormat="1">
+      <c r="B33" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC33" s="7"/>
+      <c r="AD33" s="7"/>
+      <c r="AE33" s="7"/>
+      <c r="AF33" s="7"/>
     </row>
     <row r="34" spans="2:53">
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="13"/>
-      <c r="O34" s="13"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="38"/>
+      <c r="L34" s="38"/>
+      <c r="M34" s="38"/>
+      <c r="N34" s="38"/>
+      <c r="O34" s="38"/>
     </row>
     <row r="35" spans="2:53">
-      <c r="AT35" s="6" t="s">
+      <c r="AT35" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="AU35" s="8">
+      <c r="AU35" s="25">
         <v>0.01</v>
       </c>
     </row>
-    <row r="36" spans="2:53" s="5" customFormat="1">
+    <row r="36" spans="2:53" s="30" customFormat="1">
       <c r="B36" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="G36" s="49">
+      <c r="G36" s="28">
         <f t="shared" ref="G36:K36" si="81">+G11/C11-1</f>
         <v>-9.5826824369560359E-2</v>
       </c>
-      <c r="H36" s="49">
+      <c r="H36" s="28">
         <f t="shared" si="81"/>
         <v>-0.33606898850191635</v>
       </c>
-      <c r="I36" s="49">
+      <c r="I36" s="28">
         <f t="shared" si="81"/>
         <v>-5.3877348340643838E-2</v>
       </c>
-      <c r="J36" s="49">
+      <c r="J36" s="28">
         <f t="shared" si="81"/>
         <v>-5.500782803706683E-2</v>
       </c>
-      <c r="K36" s="49">
+      <c r="K36" s="28">
         <f t="shared" si="81"/>
         <v>6.6985882120643714E-2</v>
       </c>
-      <c r="L36" s="49">
+      <c r="L36" s="28">
         <f t="shared" ref="L36:Q36" si="82">+L11/H11-1</f>
         <v>0.56158624584300676</v>
       </c>
-      <c r="M36" s="49">
+      <c r="M36" s="28">
         <f t="shared" si="82"/>
         <v>0.13645906228131555</v>
       </c>
-      <c r="N36" s="49">
+      <c r="N36" s="28">
         <f t="shared" si="82"/>
         <v>0.13679308646397703</v>
       </c>
-      <c r="O36" s="49">
+      <c r="O36" s="28">
         <f t="shared" si="82"/>
         <v>6.5186213277816263E-2</v>
       </c>
-      <c r="P36" s="49">
+      <c r="P36" s="28">
         <f t="shared" si="82"/>
         <v>-0.15104271306304484</v>
       </c>
-      <c r="Q36" s="49">
+      <c r="Q36" s="28">
         <f t="shared" si="82"/>
         <v>-0.18226600985221675</v>
       </c>
-      <c r="R36" s="39"/>
-      <c r="AD36" s="49">
+      <c r="R36" s="29"/>
+      <c r="AD36" s="28">
         <f t="shared" ref="AD36:AG37" si="83">+AD11/AC11-1</f>
         <v>-0.21276997224602745</v>
       </c>
-      <c r="AE36" s="49">
+      <c r="AE36" s="28">
         <f t="shared" si="83"/>
         <v>-5.9114924046461126E-2</v>
       </c>
-      <c r="AF36" s="49">
+      <c r="AF36" s="28">
         <f t="shared" si="83"/>
         <v>-0.13603940217391297</v>
       </c>
-      <c r="AG36" s="49">
+      <c r="AG36" s="28">
         <f t="shared" si="83"/>
         <v>0.20250147434637311</v>
       </c>
-      <c r="AH36" s="42"/>
-      <c r="AI36" s="42"/>
-      <c r="AJ36" s="42"/>
-      <c r="AK36" s="42"/>
-      <c r="AL36" s="42"/>
-      <c r="AM36" s="42"/>
-      <c r="AN36" s="42"/>
-      <c r="AO36" s="42"/>
-      <c r="AP36" s="42"/>
-      <c r="AQ36" s="42"/>
-      <c r="AT36" s="5" t="s">
+      <c r="AH36" s="41"/>
+      <c r="AI36" s="41"/>
+      <c r="AJ36" s="41"/>
+      <c r="AK36" s="41"/>
+      <c r="AL36" s="41"/>
+      <c r="AM36" s="41"/>
+      <c r="AN36" s="41"/>
+      <c r="AO36" s="41"/>
+      <c r="AP36" s="41"/>
+      <c r="AQ36" s="41"/>
+      <c r="AT36" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="AU36" s="41">
+      <c r="AU36" s="42">
         <v>0.02</v>
       </c>
     </row>
-    <row r="37" spans="2:53" s="5" customFormat="1">
+    <row r="37" spans="2:53" s="30" customFormat="1">
       <c r="B37" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="G37" s="49">
+      <c r="G37" s="28">
         <f t="shared" ref="G37:L37" si="84">+G12/C12-1</f>
         <v>-3.9446060918566506E-2</v>
       </c>
-      <c r="H37" s="49">
+      <c r="H37" s="28">
         <f t="shared" si="84"/>
         <v>-0.29001326124655724</v>
       </c>
-      <c r="I37" s="49">
+      <c r="I37" s="28">
         <f t="shared" si="84"/>
         <v>1.0218978102189746E-2</v>
       </c>
-      <c r="J37" s="49">
+      <c r="J37" s="28">
         <f t="shared" si="84"/>
         <v>-1.3397193287989495E-4</v>
       </c>
-      <c r="K37" s="49">
+      <c r="K37" s="28">
         <f t="shared" si="84"/>
         <v>0.10329754601227004</v>
       </c>
-      <c r="L37" s="49">
+      <c r="L37" s="28">
         <f t="shared" si="84"/>
         <v>0.58342911877394621</v>
       </c>
-      <c r="M37" s="49">
+      <c r="M37" s="28">
         <f t="shared" ref="M37:Q38" si="85">+M12/I12-1</f>
         <v>0.15285076195480807</v>
       </c>
-      <c r="N37" s="49">
+      <c r="N37" s="28">
         <f t="shared" si="85"/>
         <v>0.13610022443305514</v>
       </c>
-      <c r="O37" s="49">
+      <c r="O37" s="28">
         <f t="shared" si="85"/>
         <v>0.13394036282755262</v>
       </c>
-      <c r="P37" s="49">
+      <c r="P37" s="28">
         <f t="shared" si="85"/>
         <v>6.6723126247655973E-2</v>
       </c>
-      <c r="Q37" s="49">
+      <c r="Q37" s="28">
         <f t="shared" si="85"/>
         <v>4.5866332402712207E-2</v>
       </c>
-      <c r="R37" s="39"/>
-      <c r="AD37" s="49">
+      <c r="R37" s="29"/>
+      <c r="AD37" s="28">
         <f t="shared" si="83"/>
         <v>9.0184626045636707E-2</v>
       </c>
-      <c r="AE37" s="49">
+      <c r="AE37" s="28">
         <f t="shared" si="83"/>
         <v>5.8406356413166938E-2</v>
       </c>
-      <c r="AF37" s="49">
+      <c r="AF37" s="28">
         <f t="shared" si="83"/>
         <v>-7.9754969671491205E-2</v>
       </c>
-      <c r="AG37" s="49">
+      <c r="AG37" s="28">
         <f t="shared" si="83"/>
         <v>0.21995879210523861</v>
       </c>
-      <c r="AH37" s="42"/>
-      <c r="AI37" s="42"/>
-      <c r="AJ37" s="42"/>
-      <c r="AK37" s="42"/>
-      <c r="AL37" s="42"/>
-      <c r="AM37" s="42"/>
-      <c r="AN37" s="42"/>
-      <c r="AO37" s="42"/>
-      <c r="AP37" s="42"/>
-      <c r="AQ37" s="42"/>
-      <c r="AT37" s="5" t="s">
+      <c r="AH37" s="41"/>
+      <c r="AI37" s="41"/>
+      <c r="AJ37" s="41"/>
+      <c r="AK37" s="41"/>
+      <c r="AL37" s="41"/>
+      <c r="AM37" s="41"/>
+      <c r="AN37" s="41"/>
+      <c r="AO37" s="41"/>
+      <c r="AP37" s="41"/>
+      <c r="AQ37" s="41"/>
+      <c r="AT37" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="AU37" s="41">
+      <c r="AU37" s="42">
         <v>0.06</v>
       </c>
     </row>
-    <row r="38" spans="2:53" s="5" customFormat="1">
+    <row r="38" spans="2:53" s="30" customFormat="1">
       <c r="B38" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="G38" s="49">
+      <c r="G38" s="28">
         <f t="shared" ref="G38:L38" si="86">+G13/C13-1</f>
         <v>0.1766423357664233</v>
       </c>
-      <c r="H38" s="49">
+      <c r="H38" s="28">
         <f t="shared" si="86"/>
         <v>0.16496350364963508</v>
       </c>
-      <c r="I38" s="49">
+      <c r="I38" s="28">
         <f t="shared" si="86"/>
         <v>0.21199442119944223</v>
       </c>
-      <c r="J38" s="49">
+      <c r="J38" s="28">
         <f t="shared" si="86"/>
         <v>0.20202020202020199</v>
       </c>
-      <c r="K38" s="49">
+      <c r="K38" s="28">
         <f t="shared" si="86"/>
         <v>6.3275434243176276E-2</v>
       </c>
-      <c r="L38" s="49">
+      <c r="L38" s="28">
         <f t="shared" si="86"/>
         <v>0.16541353383458657</v>
       </c>
-      <c r="M38" s="49">
+      <c r="M38" s="28">
         <f t="shared" si="85"/>
         <v>6.6743383199079354E-2</v>
       </c>
-      <c r="N38" s="49">
+      <c r="N38" s="28">
         <f t="shared" si="85"/>
         <v>-0.17331932773109238</v>
       </c>
-      <c r="O38" s="49">
+      <c r="O38" s="28">
         <f t="shared" si="85"/>
         <v>0.17152858809801641</v>
       </c>
-      <c r="P38" s="49">
+      <c r="P38" s="28">
         <f t="shared" si="85"/>
         <v>-0.15268817204301077</v>
       </c>
-      <c r="Q38" s="49">
+      <c r="Q38" s="28">
         <f t="shared" si="85"/>
         <v>-0.17907227615965493</v>
       </c>
-      <c r="R38" s="39"/>
-      <c r="AD38" s="49"/>
-      <c r="AE38" s="49"/>
-      <c r="AF38" s="49">
+      <c r="R38" s="29"/>
+      <c r="AD38" s="28"/>
+      <c r="AE38" s="28"/>
+      <c r="AF38" s="28">
         <f>+AF13/AE13-1</f>
         <v>0.18964918374435569</v>
       </c>
-      <c r="AG38" s="49">
+      <c r="AG38" s="28">
         <f>+AG13/AF13-1</f>
         <v>2.2189781021897836E-2</v>
       </c>
-      <c r="AH38" s="42"/>
-      <c r="AI38" s="42"/>
-      <c r="AJ38" s="42"/>
-      <c r="AK38" s="42"/>
-      <c r="AL38" s="42"/>
-      <c r="AM38" s="42"/>
-      <c r="AN38" s="42"/>
-      <c r="AO38" s="42"/>
-      <c r="AP38" s="42"/>
-      <c r="AQ38" s="42"/>
-      <c r="AT38" s="5" t="s">
+      <c r="AH38" s="41"/>
+      <c r="AI38" s="41"/>
+      <c r="AJ38" s="41"/>
+      <c r="AK38" s="41"/>
+      <c r="AL38" s="41"/>
+      <c r="AM38" s="41"/>
+      <c r="AN38" s="41"/>
+      <c r="AO38" s="41"/>
+      <c r="AP38" s="41"/>
+      <c r="AQ38" s="41"/>
+      <c r="AT38" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="AU38" s="1">
-        <f>NPV(AU37,AG27:HO27)+Main!J7-Main!J8</f>
-        <v>211097.72225176683</v>
-      </c>
-    </row>
-    <row r="39" spans="2:53" s="6" customFormat="1">
-      <c r="B39" s="32" t="s">
+      <c r="AU38" s="7">
+        <f>NPV(AU37,AG27:HO27)+O!J16-O!J17</f>
+        <v>213653.95920376759</v>
+      </c>
+    </row>
+    <row r="39" spans="2:53" s="39" customFormat="1">
+      <c r="B39" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="G39" s="50">
+      <c r="G39" s="44">
         <f t="shared" ref="G39:K39" si="87">+G14/C14-1</f>
         <v>-6.1642881312075737E-2</v>
       </c>
-      <c r="H39" s="50">
+      <c r="H39" s="44">
         <f t="shared" si="87"/>
         <v>-0.3046877888276831</v>
       </c>
-      <c r="I39" s="50">
+      <c r="I39" s="44">
         <f t="shared" si="87"/>
         <v>-1.5302691601693841E-2</v>
       </c>
-      <c r="J39" s="50">
+      <c r="J39" s="44">
         <f t="shared" si="87"/>
         <v>-2.1075126192844684E-2</v>
       </c>
-      <c r="K39" s="50">
+      <c r="K39" s="44">
         <f t="shared" si="87"/>
         <v>8.7010011878499771E-2</v>
       </c>
-      <c r="L39" s="50">
+      <c r="L39" s="44">
         <f>+L14/H14-1</f>
         <v>0.56530639372590707</v>
       </c>
-      <c r="M39" s="50">
+      <c r="M39" s="44">
         <f t="shared" ref="M39:O39" si="88">+M14/I14-1</f>
         <v>0.14455251841051298</v>
       </c>
-      <c r="N39" s="50">
+      <c r="N39" s="44">
         <f t="shared" si="88"/>
         <v>0.13084798072942139</v>
       </c>
-      <c r="O39" s="50">
+      <c r="O39" s="44">
         <f t="shared" si="88"/>
         <v>0.10556921515825635</v>
       </c>
-      <c r="P39" s="50">
+      <c r="P39" s="44">
         <f t="shared" ref="P39" si="89">+P14/L14-1</f>
         <v>-2.8787853054569434E-2</v>
       </c>
-      <c r="Q39" s="50">
+      <c r="Q39" s="44">
         <f t="shared" ref="Q39" si="90">+Q14/M14-1</f>
         <v>-5.3085643332849486E-2</v>
       </c>
-      <c r="R39" s="39">
+      <c r="R39" s="29">
         <f t="shared" ref="R39" si="91">+R14/N14-1</f>
         <v>9.1886553218327061E-2</v>
       </c>
-      <c r="AD39" s="50">
+      <c r="AD39" s="44">
         <f t="shared" ref="AD39:AF39" si="92">+AD14/AC14-1</f>
         <v>-7.413633908816919E-2</v>
       </c>
-      <c r="AE39" s="50">
+      <c r="AE39" s="44">
         <f t="shared" si="92"/>
         <v>4.9957192989058541E-3</v>
       </c>
-      <c r="AF39" s="50">
+      <c r="AF39" s="44">
         <f t="shared" si="92"/>
         <v>-0.10094362584486338</v>
       </c>
-      <c r="AG39" s="50">
+      <c r="AG39" s="44">
         <f>+AG14/AF14-1</f>
         <v>0.20903487125022102</v>
       </c>
-      <c r="AH39" s="39">
+      <c r="AH39" s="29">
         <f t="shared" ref="AH39:AP39" si="93">+AH14/AG14-1</f>
         <v>2.5597814525500473E-2</v>
       </c>
-      <c r="AI39" s="39">
+      <c r="AI39" s="29">
         <f>+AI14/AH14-1</f>
         <v>4.1326663331665792E-2</v>
       </c>
-      <c r="AJ39" s="39">
+      <c r="AJ39" s="29">
         <f>+AJ14/AI14-1</f>
         <v>5.3934450800629641E-2</v>
       </c>
-      <c r="AK39" s="39">
+      <c r="AK39" s="29">
         <f>+AK14/AJ14-1</f>
         <v>7.4260720240910016E-2</v>
       </c>
-      <c r="AL39" s="39">
+      <c r="AL39" s="29">
         <f>+AL14/AK14-1</f>
         <v>8.455120101137803E-2</v>
       </c>
-      <c r="AM39" s="39">
+      <c r="AM39" s="29">
         <f t="shared" si="93"/>
         <v>8.4798696650292493E-2</v>
       </c>
-      <c r="AN39" s="39">
+      <c r="AN39" s="29">
         <f>+AN14/AM14-1</f>
         <v>8.5042884175862143E-2</v>
       </c>
-      <c r="AO39" s="39">
+      <c r="AO39" s="29">
         <f>+AO14/AN14-1</f>
         <v>8.5283628091289421E-2</v>
       </c>
-      <c r="AP39" s="39">
+      <c r="AP39" s="29">
         <f t="shared" si="93"/>
         <v>8.5520800370000982E-2</v>
       </c>
-      <c r="AQ39" s="39">
+      <c r="AQ39" s="29">
         <f>+AQ14/AP14-1</f>
         <v>8.5754280593834054E-2</v>
       </c>
-      <c r="AT39" s="1" t="s">
+      <c r="AT39" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="AU39" s="1">
-        <f>+Main!J5</f>
+      <c r="AU39" s="7">
+        <f>+O!J14</f>
         <v>732.42359199999999</v>
       </c>
     </row>
     <row r="40" spans="2:53">
-      <c r="AT40" s="1" t="s">
+      <c r="AT40" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="AU40" s="1">
+      <c r="AU40" s="7">
         <f>+AU38/AU39</f>
-        <v>288.21808111796435</v>
+        <v>291.70818845464987</v>
       </c>
     </row>
     <row r="41" spans="2:53">
-      <c r="B41" s="27" t="s">
+      <c r="B41" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C41" s="30">
         <f>+C22/C14</f>
         <v>0.4290121613821381</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D41" s="30">
         <f t="shared" ref="D41:R41" si="94">+D22/D14</f>
         <v>0.43201227402122072</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E41" s="30">
         <f t="shared" si="94"/>
         <v>0.4504116460389293</v>
       </c>
-      <c r="F41" s="5">
+      <c r="F41" s="30">
         <f t="shared" si="94"/>
         <v>0.43504292398953615</v>
       </c>
-      <c r="G41" s="5">
+      <c r="G41" s="30">
         <f t="shared" si="94"/>
         <v>0.37483030714406929</v>
       </c>
-      <c r="H41" s="5">
+      <c r="H41" s="30">
         <f t="shared" si="94"/>
         <v>0.2743852186627676</v>
       </c>
-      <c r="I41" s="5">
+      <c r="I41" s="30">
         <f t="shared" si="94"/>
         <v>0.48027906461674769</v>
       </c>
-      <c r="J41" s="5">
+      <c r="J41" s="30">
         <f t="shared" si="94"/>
         <v>0.41838232526628782</v>
       </c>
-      <c r="K41" s="5">
+      <c r="K41" s="30">
         <f t="shared" si="94"/>
         <v>0.45997736408695317</v>
       </c>
-      <c r="L41" s="5">
+      <c r="L41" s="30">
         <f t="shared" si="94"/>
         <v>0.47116968698517292</v>
       </c>
-      <c r="M41" s="5">
+      <c r="M41" s="30">
         <f t="shared" si="94"/>
         <v>0.49515424185251483</v>
       </c>
-      <c r="N41" s="5">
+      <c r="N41" s="30">
         <f t="shared" si="94"/>
         <v>0.41330648516416757</v>
       </c>
-      <c r="O41" s="5">
+      <c r="O41" s="30">
         <f t="shared" si="94"/>
         <v>0.42454462016379552</v>
       </c>
-      <c r="P41" s="5">
+      <c r="P41" s="30">
         <f t="shared" si="94"/>
-        <v>0.29934946838276449</v>
-      </c>
-      <c r="Q41" s="5">
+        <v>0.31561275881365425</v>
+      </c>
+      <c r="Q41" s="30">
         <f t="shared" si="94"/>
-        <v>0.4706834011682362</v>
-      </c>
-      <c r="R41" s="5">
+        <v>0.48657209516186717</v>
+      </c>
+      <c r="R41" s="30">
         <f t="shared" si="94"/>
         <v>0.41330648516416757</v>
       </c>
-      <c r="AC41" s="5">
+      <c r="AC41" s="30">
         <f t="shared" ref="AC41:AQ41" si="95">+AC22/AC14</f>
         <v>0.50010888312050317</v>
       </c>
-      <c r="AD41" s="5">
+      <c r="AD41" s="30">
         <f t="shared" si="95"/>
         <v>0.51880686041151169</v>
       </c>
-      <c r="AE41" s="5">
+      <c r="AE41" s="30">
         <f t="shared" si="95"/>
         <v>0.43681545000093613</v>
       </c>
-      <c r="AF41" s="5">
+      <c r="AF41" s="30">
         <f t="shared" si="95"/>
         <v>0.3969533210466582</v>
       </c>
-      <c r="AG41" s="5">
+      <c r="AG41" s="30">
         <f t="shared" si="95"/>
         <v>0.46013202485477694</v>
       </c>
-      <c r="AH41" s="5">
+      <c r="AH41" s="30">
         <f t="shared" si="95"/>
-        <v>0.40276551478737616</v>
-      </c>
-      <c r="AI41" s="5">
+        <v>0.41058754188447022</v>
+      </c>
+      <c r="AI41" s="30">
         <f t="shared" si="95"/>
-        <v>0.46216973537784167</v>
-      </c>
-      <c r="AJ41" s="5">
+        <v>0.46209461939961377</v>
+      </c>
+      <c r="AJ41" s="30">
         <f t="shared" si="95"/>
-        <v>0.45884670307299136</v>
-      </c>
-      <c r="AK41" s="5">
+        <v>0.45874560937928938</v>
+      </c>
+      <c r="AK41" s="30">
         <f t="shared" si="95"/>
-        <v>0.45564100315594558</v>
-      </c>
-      <c r="AL41" s="5">
+        <v>0.45551800976720969</v>
+      </c>
+      <c r="AL41" s="30">
         <f t="shared" si="95"/>
-        <v>0.45266823549720253</v>
-      </c>
-      <c r="AM41" s="5">
+        <v>0.45252655092937449</v>
+      </c>
+      <c r="AM41" s="30">
         <f t="shared" si="95"/>
-        <v>0.44994513664712693</v>
-      </c>
-      <c r="AN41" s="5">
+        <v>0.44978655458375261</v>
+      </c>
+      <c r="AN41" s="30">
         <f t="shared" si="95"/>
-        <v>0.44745189934755941</v>
-      </c>
-      <c r="AO41" s="5">
+        <v>0.44727805351908079</v>
+      </c>
+      <c r="AO41" s="30">
         <f t="shared" si="95"/>
-        <v>0.4451702103978592</v>
-      </c>
-      <c r="AP41" s="5">
+        <v>0.44498258809534919</v>
+      </c>
+      <c r="AP41" s="30">
         <f t="shared" si="95"/>
-        <v>0.44308314342601957</v>
-      </c>
-      <c r="AQ41" s="5">
+        <v>0.44288309792823044</v>
+      </c>
+      <c r="AQ41" s="30">
         <f t="shared" si="95"/>
-        <v>0.44117505899487797</v>
-      </c>
-      <c r="AT41" s="1" t="s">
+        <v>0.44096382099178133</v>
+      </c>
+      <c r="AT41" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AU41" s="1">
-        <f>+Main!J4</f>
-        <v>271.58999999999997</v>
+      <c r="AU41" s="7">
+        <f>+O!J13</f>
+        <v>272.04000000000002</v>
       </c>
     </row>
     <row r="42" spans="2:53">
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="5"/>
-      <c r="N42" s="5"/>
-      <c r="O42" s="5"/>
-      <c r="AT42" s="3" t="s">
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="30"/>
+      <c r="K42" s="30"/>
+      <c r="L42" s="30"/>
+      <c r="M42" s="30"/>
+      <c r="N42" s="30"/>
+      <c r="O42" s="30"/>
+      <c r="AT42" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="AU42" s="6">
+      <c r="AU42" s="39">
         <f>+AU40/AU41-1</f>
-        <v>6.1224938760500613E-2</v>
+        <v>7.2298884188537915E-2</v>
       </c>
     </row>
     <row r="43" spans="2:53">
-      <c r="B43" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="O43" s="1">
+      <c r="B43" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="O43" s="7">
         <v>244</v>
       </c>
-      <c r="AC43" s="1">
+      <c r="AC43" s="7">
         <v>172.12</v>
       </c>
-      <c r="AD43" s="1">
+      <c r="AD43" s="7">
         <v>177.57</v>
       </c>
-      <c r="AE43" s="1">
+      <c r="AE43" s="7">
         <v>197.61</v>
       </c>
-      <c r="AF43" s="1">
+      <c r="AF43" s="7">
         <v>214.58</v>
       </c>
-      <c r="AG43" s="1">
+      <c r="AG43" s="7">
         <v>268.07</v>
       </c>
     </row>
     <row r="44" spans="2:53">
-      <c r="B44" s="27" t="s">
+      <c r="B44" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="O44" s="1">
+      <c r="O44" s="7">
         <f>+C28*O43</f>
         <v>188270.4</v>
       </c>
-      <c r="Q44" s="1">
-        <f>+Main!J6</f>
-        <v>198918.92335127998</v>
-      </c>
-      <c r="AC44" s="1">
+      <c r="Q44" s="7">
+        <f>+O!J15</f>
+        <v>199248.51396768002</v>
+      </c>
+      <c r="AC44" s="7">
         <f>+AC28*AC43</f>
         <v>140363.86000000002</v>
       </c>
-      <c r="AD44" s="1">
+      <c r="AD44" s="7">
         <f>+AD28*AD43</f>
         <v>139498.992</v>
       </c>
-      <c r="AE44" s="1">
+      <c r="AE44" s="7">
         <f>+AE28*AE43</f>
         <v>157684.25368020311</v>
       </c>
-      <c r="AF44" s="1">
+      <c r="AF44" s="7">
         <f>+AF28*AF43</f>
         <v>171089.29286846283</v>
       </c>
-      <c r="AG44" s="1">
+      <c r="AG44" s="7">
         <f>+AG28*AG43</f>
         <v>201563.58195236878</v>
       </c>
-      <c r="AT44" s="47">
+      <c r="AT44" s="45">
         <f>MIN(X31:AG31)</f>
         <v>16.46</v>
       </c>
-      <c r="AU44" s="5">
+      <c r="AU44" s="30">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AV44" s="5">
+      <c r="AV44" s="30">
         <v>0.06</v>
       </c>
-      <c r="AW44" s="5">
+      <c r="AW44" s="30">
         <v>0.05</v>
       </c>
-      <c r="AX44" s="5">
+      <c r="AX44" s="30">
         <v>0.04</v>
       </c>
-      <c r="AY44" s="5">
+      <c r="AY44" s="30">
         <v>0.03</v>
       </c>
-      <c r="AZ44" s="5">
+      <c r="AZ44" s="30">
         <v>0.02</v>
       </c>
-      <c r="BA44" s="5"/>
+      <c r="BA44" s="30"/>
     </row>
     <row r="45" spans="2:53">
-      <c r="B45" s="27" t="s">
+      <c r="B45" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="J45" s="1">
+      <c r="J45" s="7">
         <f t="shared" ref="J45:O45" si="96">+J44+J48</f>
         <v>-32694.100000000002</v>
       </c>
-      <c r="K45" s="1">
+      <c r="K45" s="7">
         <f t="shared" si="96"/>
         <v>-31492.399999999998</v>
       </c>
-      <c r="L45" s="1">
+      <c r="L45" s="7">
         <f t="shared" si="96"/>
         <v>-31176.399999999998</v>
       </c>
-      <c r="M45" s="1">
+      <c r="M45" s="7">
         <f t="shared" si="96"/>
         <v>-29650.799999999999</v>
       </c>
-      <c r="N45" s="1">
+      <c r="N45" s="7">
         <f t="shared" si="96"/>
         <v>-29712.299999999996</v>
       </c>
-      <c r="O45" s="1">
+      <c r="O45" s="7">
         <f t="shared" si="96"/>
         <v>157794.5</v>
       </c>
-      <c r="Q45" s="1">
+      <c r="Q45" s="7">
         <f>+Q44+Q48</f>
-        <v>171612.62335128</v>
-      </c>
-      <c r="AC45" s="1">
+        <v>172128.51396768002</v>
+      </c>
+      <c r="AC45" s="7">
         <f t="shared" ref="AC45:AF45" si="97">+AC44+AC48</f>
         <v>140363.86000000002</v>
       </c>
-      <c r="AD45" s="1">
+      <c r="AD45" s="7">
         <f t="shared" si="97"/>
         <v>139498.992</v>
       </c>
-      <c r="AE45" s="1">
+      <c r="AE45" s="7">
         <f t="shared" si="97"/>
         <v>157684.25368020311</v>
       </c>
-      <c r="AF45" s="1">
+      <c r="AF45" s="7">
         <f t="shared" si="97"/>
         <v>139912.89286846283</v>
       </c>
-      <c r="AG45" s="1">
+      <c r="AG45" s="7">
         <f>+AG44+AG48</f>
         <v>171851.28195236879</v>
       </c>
-      <c r="AT45" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="AU45" s="1">
+      <c r="AT45" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="AU45" s="7">
         <f>FV(AU44,10,,-$AG$29)*$AT$44</f>
         <v>339.11210067839676</v>
       </c>
-      <c r="AV45" s="1">
+      <c r="AV45" s="7">
         <f>FV(AV44,10,,-$AG$29)*$AT$44</f>
         <v>308.71957163808668</v>
       </c>
-      <c r="AW45" s="1">
+      <c r="AW45" s="7">
         <f>FV(AW44,10,,-$AG$29)*$AT$44</f>
         <v>280.80090361289928</v>
       </c>
-      <c r="AX45" s="1">
+      <c r="AX45" s="7">
         <f>FV(AX44,10,,-$AG$29)*$AT$44</f>
         <v>255.17545821562373</v>
       </c>
-      <c r="AY45" s="1">
+      <c r="AY45" s="7">
         <f>FV(AY44,10,,-$AG$29)*$AT$44</f>
         <v>231.67424552599149</v>
       </c>
-      <c r="AZ45" s="1">
+      <c r="AZ45" s="7">
         <f t="shared" ref="AZ45" si="98">FV(AZ44,10,,-$AG$29)*$AT$44</f>
         <v>210.13927420879025</v>
       </c>
     </row>
     <row r="46" spans="2:53">
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
-      <c r="M46" s="5"/>
-      <c r="N46" s="5"/>
-      <c r="O46" s="5"/>
-      <c r="AT46" s="27"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="30"/>
+      <c r="J46" s="30"/>
+      <c r="K46" s="30"/>
+      <c r="L46" s="30"/>
+      <c r="M46" s="30"/>
+      <c r="N46" s="30"/>
+      <c r="O46" s="30"/>
+      <c r="AT46" s="20"/>
     </row>
     <row r="47" spans="2:53">
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
-      <c r="L47" s="5"/>
-      <c r="M47" s="5"/>
-      <c r="N47" s="5"/>
-      <c r="O47" s="5"/>
-      <c r="AT47" s="48" t="s">
-        <v>138</v>
-      </c>
-      <c r="AU47" s="3">
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="30"/>
+      <c r="J47" s="30"/>
+      <c r="K47" s="30"/>
+      <c r="L47" s="30"/>
+      <c r="M47" s="30"/>
+      <c r="N47" s="30"/>
+      <c r="O47" s="30"/>
+      <c r="AT47" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="AU47" s="22">
         <f>AVERAGE(AU45:BA45,AU40)</f>
-        <v>273.40566214253607</v>
-      </c>
-    </row>
-    <row r="48" spans="2:53" s="3" customFormat="1">
-      <c r="B48" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="J48" s="3">
+        <v>273.90424890491971</v>
+      </c>
+    </row>
+    <row r="48" spans="2:53" s="22" customFormat="1">
+      <c r="B48" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="J48" s="22">
         <f t="shared" ref="J48" si="99">+J49+J54-J69-J71</f>
         <v>-32694.100000000002</v>
       </c>
-      <c r="K48" s="3">
+      <c r="K48" s="22">
         <f>+K49+K54-K69-K71</f>
         <v>-31492.399999999998</v>
       </c>
-      <c r="L48" s="3">
+      <c r="L48" s="22">
         <f>+L49+L54-L69-L71</f>
         <v>-31176.399999999998</v>
       </c>
-      <c r="M48" s="3">
+      <c r="M48" s="22">
         <f t="shared" ref="M48:O48" si="100">+M49+M54-M69-M71</f>
         <v>-29650.799999999999</v>
       </c>
-      <c r="N48" s="3">
+      <c r="N48" s="22">
         <f t="shared" si="100"/>
         <v>-29712.299999999996</v>
       </c>
-      <c r="O48" s="3">
+      <c r="O48" s="22">
         <f t="shared" si="100"/>
         <v>-30475.9</v>
       </c>
-      <c r="P48" s="3">
+      <c r="P48" s="22">
         <f>+O48+P27</f>
-        <v>-29287.9</v>
-      </c>
-      <c r="Q48" s="3">
+        <v>-29194.9</v>
+      </c>
+      <c r="Q48" s="22">
         <f t="shared" ref="Q48:R48" si="101">+P48+Q27</f>
-        <v>-27306.300000000003</v>
-      </c>
-      <c r="R48" s="3">
+        <v>-27120</v>
+      </c>
+      <c r="R48" s="22">
         <f t="shared" si="101"/>
-        <v>-25557.273535479311</v>
-      </c>
-      <c r="AF48" s="3">
+        <v>-25370.973535479308</v>
+      </c>
+      <c r="AF48" s="22">
         <f>+L48</f>
         <v>-31176.399999999998</v>
       </c>
-      <c r="AG48" s="3">
+      <c r="AG48" s="22">
         <f>+N48</f>
         <v>-29712.299999999996</v>
       </c>
-      <c r="AH48" s="3">
+      <c r="AH48" s="22">
         <f>+R48</f>
-        <v>-25557.273535479311</v>
-      </c>
-      <c r="AI48" s="3">
+        <v>-25370.973535479308</v>
+      </c>
+      <c r="AI48" s="22">
         <f t="shared" ref="AI48:AP48" si="102">+AH48+AI27</f>
-        <v>-18249.51371059454</v>
-      </c>
-      <c r="AJ48" s="3">
+        <v>-17985.261765205963</v>
+      </c>
+      <c r="AJ48" s="22">
         <f t="shared" si="102"/>
-        <v>-10602.991064531465</v>
-      </c>
-      <c r="AK48" s="3">
+        <v>-10257.620283995531</v>
+      </c>
+      <c r="AK48" s="22">
         <f t="shared" si="102"/>
-        <v>-2446.0211749181872</v>
-      </c>
-      <c r="AL48" s="3">
+        <v>-2014.5255127689106</v>
+      </c>
+      <c r="AL48" s="22">
         <f t="shared" si="102"/>
-        <v>6342.9115428965688</v>
-      </c>
-      <c r="AM48" s="3">
+        <v>6866.8220439245906</v>
+      </c>
+      <c r="AM48" s="22">
         <f t="shared" si="102"/>
-        <v>15819.779643913707</v>
-      </c>
-      <c r="AN48" s="3">
+        <v>16442.960661719342</v>
+      </c>
+      <c r="AN48" s="22">
         <f t="shared" si="102"/>
-        <v>26045.608813957675</v>
-      </c>
-      <c r="AO48" s="3">
+        <v>26775.532833328005</v>
+      </c>
+      <c r="AO48" s="22">
         <f t="shared" si="102"/>
-        <v>37086.942209522735</v>
-      </c>
-      <c r="AP48" s="3">
+        <v>37931.754308572476</v>
+      </c>
+      <c r="AP48" s="22">
         <f t="shared" si="102"/>
-        <v>49016.347859827358</v>
-      </c>
-      <c r="AQ48" s="3">
+        <v>49984.926632752948</v>
+      </c>
+      <c r="AQ48" s="22">
         <f t="shared" ref="AQ48" si="103">+AP48+AQ27</f>
-        <v>61912.973137994282</v>
-      </c>
-      <c r="AT48" s="44" t="s">
+        <v>63014.997230861962</v>
+      </c>
+      <c r="AT48" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="AU48" s="6">
+      <c r="AU48" s="39">
         <f>+AU47/AU41-1</f>
-        <v>6.685305580235168E-3</v>
+        <v>6.8528484962493419E-3</v>
       </c>
     </row>
     <row r="49" spans="2:46">
-      <c r="B49" s="27" t="s">
+      <c r="B49" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="J49" s="1">
+      <c r="J49" s="7">
         <v>3449.1</v>
       </c>
-      <c r="K49" s="1">
+      <c r="K49" s="7">
         <v>3019.7</v>
       </c>
-      <c r="L49" s="1">
+      <c r="L49" s="7">
         <v>3049.4</v>
       </c>
-      <c r="M49" s="1">
+      <c r="M49" s="7">
         <v>4305.8</v>
       </c>
-      <c r="N49" s="1">
+      <c r="N49" s="7">
         <v>4709.2</v>
       </c>
-      <c r="O49" s="1">
+      <c r="O49" s="7">
         <v>2335.6999999999998</v>
       </c>
-      <c r="P49" s="1">
+      <c r="P49" s="7">
         <v>1872.5</v>
       </c>
-      <c r="Q49" s="1">
+      <c r="Q49" s="7">
         <v>2828.3</v>
       </c>
-      <c r="AT49" s="27"/>
+      <c r="AT49" s="20"/>
     </row>
     <row r="50" spans="2:46">
-      <c r="B50" s="27" t="s">
+      <c r="B50" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="J50" s="1">
+      <c r="J50" s="7">
         <v>2110.3000000000002</v>
       </c>
-      <c r="K50" s="1">
+      <c r="K50" s="7">
         <v>1733.7</v>
       </c>
-      <c r="L50" s="1">
+      <c r="L50" s="7">
         <v>1808.3</v>
       </c>
-      <c r="M50" s="1">
+      <c r="M50" s="7">
         <v>1828.5</v>
       </c>
-      <c r="N50" s="1">
+      <c r="N50" s="7">
         <v>1872.4</v>
       </c>
-      <c r="O50" s="1">
+      <c r="O50" s="7">
         <v>1674.1</v>
       </c>
-      <c r="P50" s="1">
+      <c r="P50" s="7">
         <v>1836.7</v>
       </c>
-      <c r="Q50" s="1">
+      <c r="Q50" s="7">
         <v>1889.9</v>
       </c>
     </row>
     <row r="51" spans="2:46">
-      <c r="B51" s="27" t="s">
+      <c r="B51" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="J51" s="1">
+      <c r="J51" s="7">
         <v>51.1</v>
       </c>
-      <c r="K51" s="1">
+      <c r="K51" s="7">
         <v>45.3</v>
       </c>
-      <c r="L51" s="1">
+      <c r="L51" s="7">
         <v>47.8</v>
       </c>
-      <c r="M51" s="1">
+      <c r="M51" s="7">
         <v>50.1</v>
       </c>
-      <c r="N51" s="1">
+      <c r="N51" s="7">
         <v>55.6</v>
       </c>
-      <c r="O51" s="1">
+      <c r="O51" s="7">
         <v>49.6</v>
       </c>
-      <c r="P51" s="1">
+      <c r="P51" s="7">
         <v>43.3</v>
       </c>
-      <c r="Q51" s="1">
+      <c r="Q51" s="7">
         <v>43.4</v>
       </c>
     </row>
     <row r="52" spans="2:46">
-      <c r="B52" s="27" t="s">
+      <c r="B52" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="J52" s="1">
+      <c r="J52" s="7">
         <v>632.70000000000005</v>
       </c>
-      <c r="K52" s="1">
+      <c r="K52" s="7">
         <v>669.2</v>
       </c>
-      <c r="L52" s="1">
+      <c r="L52" s="7">
         <v>795.7</v>
       </c>
-      <c r="M52" s="1">
+      <c r="M52" s="7">
         <v>611.5</v>
       </c>
-      <c r="N52" s="1">
+      <c r="N52" s="7">
         <v>511.3</v>
       </c>
-      <c r="O52" s="1">
+      <c r="O52" s="7">
         <v>597</v>
       </c>
-      <c r="P52" s="1">
+      <c r="P52" s="7">
         <v>1166.8</v>
       </c>
-      <c r="Q52" s="1">
+      <c r="Q52" s="7">
         <v>979.2</v>
       </c>
     </row>
-    <row r="53" spans="2:46" s="3" customFormat="1">
-      <c r="B53" s="28" t="s">
+    <row r="53" spans="2:46" s="22" customFormat="1">
+      <c r="B53" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="J53" s="3">
+      <c r="J53" s="22">
         <f t="shared" ref="J53:P53" si="104">+SUM(J49:J52)</f>
         <v>6243.2</v>
       </c>
-      <c r="K53" s="3">
+      <c r="K53" s="22">
         <f t="shared" si="104"/>
         <v>5467.9</v>
       </c>
-      <c r="L53" s="3">
+      <c r="L53" s="22">
         <f t="shared" si="104"/>
         <v>5701.2</v>
       </c>
-      <c r="M53" s="3">
+      <c r="M53" s="22">
         <f t="shared" si="104"/>
         <v>6795.9000000000005</v>
       </c>
-      <c r="N53" s="3">
+      <c r="N53" s="22">
         <f t="shared" si="104"/>
         <v>7148.5000000000009</v>
       </c>
-      <c r="O53" s="3">
+      <c r="O53" s="22">
         <f t="shared" si="104"/>
         <v>4656.3999999999996</v>
       </c>
-      <c r="P53" s="3">
+      <c r="P53" s="22">
         <f t="shared" si="104"/>
         <v>4919.3</v>
       </c>
-      <c r="Q53" s="3">
+      <c r="Q53" s="22">
         <f t="shared" ref="Q53" si="105">+SUM(Q49:Q52)</f>
         <v>5740.8</v>
       </c>
     </row>
     <row r="54" spans="2:46">
-      <c r="B54" s="27" t="s">
+      <c r="B54" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="J54" s="1">
+      <c r="J54" s="7">
         <v>1297.2</v>
       </c>
-      <c r="K54" s="1">
+      <c r="K54" s="7">
         <v>1211.0999999999999</v>
       </c>
-      <c r="L54" s="1">
+      <c r="L54" s="7">
         <v>1196.8</v>
       </c>
-      <c r="M54" s="1">
+      <c r="M54" s="7">
         <v>1171.4000000000001</v>
       </c>
-      <c r="N54" s="1">
+      <c r="N54" s="7">
         <v>1201.2</v>
       </c>
-      <c r="O54" s="1">
+      <c r="O54" s="7">
         <v>1177.2</v>
       </c>
-      <c r="P54" s="1">
+      <c r="P54" s="7">
         <v>1074</v>
       </c>
-      <c r="Q54" s="1">
+      <c r="Q54" s="7">
         <v>963.8</v>
       </c>
     </row>
     <row r="55" spans="2:46">
-      <c r="B55" s="27" t="s">
+      <c r="B55" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="J55" s="1">
+      <c r="J55" s="7">
         <v>2773.1</v>
       </c>
-      <c r="K55" s="1">
+      <c r="K55" s="7">
         <v>2745.8</v>
       </c>
-      <c r="L55" s="1">
+      <c r="L55" s="7">
         <v>2778.1</v>
       </c>
-      <c r="M55" s="1">
+      <c r="M55" s="7">
         <v>2744.2</v>
       </c>
-      <c r="N55" s="1">
+      <c r="N55" s="7">
         <v>2782.5</v>
       </c>
-      <c r="O55" s="1">
+      <c r="O55" s="7">
         <v>2813.9</v>
       </c>
-      <c r="P55" s="1">
+      <c r="P55" s="7">
         <v>2722.4</v>
       </c>
-      <c r="Q55" s="1">
+      <c r="Q55" s="7">
         <v>2651.3</v>
       </c>
     </row>
     <row r="56" spans="2:46">
-      <c r="B56" s="27" t="s">
+      <c r="B56" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="J56" s="1">
+      <c r="J56" s="7">
         <v>3527.4</v>
       </c>
-      <c r="K56" s="1">
+      <c r="K56" s="7">
         <v>3499.1</v>
       </c>
-      <c r="L56" s="1">
+      <c r="L56" s="7">
         <v>3889.5</v>
       </c>
-      <c r="M56" s="1">
+      <c r="M56" s="7">
         <v>4057.9</v>
       </c>
-      <c r="N56" s="1">
+      <c r="N56" s="7">
         <v>4449.5</v>
       </c>
-      <c r="O56" s="1">
+      <c r="O56" s="7">
         <v>4416.8999999999996</v>
       </c>
-      <c r="P56" s="1">
+      <c r="P56" s="7">
         <v>4403.3999999999996</v>
       </c>
-      <c r="Q56" s="1">
+      <c r="Q56" s="7">
         <v>4254.6000000000004</v>
       </c>
     </row>
-    <row r="57" spans="2:46" s="3" customFormat="1">
-      <c r="B57" s="28" t="s">
+    <row r="57" spans="2:46" s="22" customFormat="1">
+      <c r="B57" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="J57" s="3">
+      <c r="J57" s="22">
         <f t="shared" ref="J57:P57" si="106">+SUM(J54:J56)</f>
         <v>7597.7000000000007</v>
       </c>
-      <c r="K57" s="3">
+      <c r="K57" s="22">
         <f t="shared" si="106"/>
         <v>7456</v>
       </c>
-      <c r="L57" s="3">
+      <c r="L57" s="22">
         <f t="shared" si="106"/>
         <v>7864.4</v>
       </c>
-      <c r="M57" s="3">
+      <c r="M57" s="22">
         <f t="shared" si="106"/>
         <v>7973.5</v>
       </c>
-      <c r="N57" s="3">
+      <c r="N57" s="22">
         <f t="shared" si="106"/>
         <v>8433.2000000000007</v>
       </c>
-      <c r="O57" s="3">
+      <c r="O57" s="22">
         <f t="shared" si="106"/>
         <v>8408</v>
       </c>
-      <c r="P57" s="3">
+      <c r="P57" s="22">
         <f t="shared" si="106"/>
         <v>8199.7999999999993</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="Q57" s="22">
         <f t="shared" ref="Q57" si="107">+SUM(Q54:Q56)</f>
         <v>7869.7000000000007</v>
       </c>
     </row>
     <row r="58" spans="2:46">
-      <c r="B58" s="27" t="s">
+      <c r="B58" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="J58" s="1">
+      <c r="J58" s="7">
         <v>13827.7</v>
       </c>
-      <c r="K58" s="1">
+      <c r="K58" s="7">
         <v>13629.4</v>
       </c>
-      <c r="L58" s="1">
+      <c r="L58" s="7">
         <v>13707.3</v>
       </c>
-      <c r="M58" s="1">
+      <c r="M58" s="7">
         <v>13528.9</v>
       </c>
-      <c r="N58" s="1">
+      <c r="N58" s="7">
         <v>13552</v>
       </c>
-      <c r="O58" s="1">
+      <c r="O58" s="7">
         <v>13378.6</v>
       </c>
-      <c r="P58" s="1">
+      <c r="P58" s="7">
         <v>12794.2</v>
       </c>
-      <c r="Q58" s="1">
+      <c r="Q58" s="7">
         <v>12192.8</v>
       </c>
     </row>
     <row r="59" spans="2:46">
-      <c r="B59" s="27" t="s">
+      <c r="B59" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="J59" s="1">
+      <c r="J59" s="7">
         <v>24958.2</v>
       </c>
-      <c r="K59" s="1">
+      <c r="K59" s="7">
         <v>24549.8</v>
       </c>
-      <c r="L59" s="1">
+      <c r="L59" s="7">
         <v>24620.2</v>
       </c>
-      <c r="M59" s="1">
+      <c r="M59" s="7">
         <v>24428.7</v>
       </c>
-      <c r="N59" s="1">
+      <c r="N59" s="7">
         <v>24720.6</v>
       </c>
-      <c r="O59" s="1">
+      <c r="O59" s="7">
         <v>24434.7</v>
       </c>
-      <c r="P59" s="1">
+      <c r="P59" s="7">
         <v>23334.5</v>
       </c>
-      <c r="Q59" s="1">
+      <c r="Q59" s="7">
         <v>22698.3</v>
       </c>
     </row>
-    <row r="60" spans="2:46" s="3" customFormat="1">
-      <c r="B60" s="28" t="s">
+    <row r="60" spans="2:46" s="22" customFormat="1">
+      <c r="B60" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="J60" s="3">
+      <c r="J60" s="22">
         <f t="shared" ref="J60:Q60" si="108">+J53+J57+SUM(J58:J59)</f>
         <v>52626.8</v>
       </c>
-      <c r="K60" s="3">
+      <c r="K60" s="22">
         <f t="shared" si="108"/>
         <v>51103.1</v>
       </c>
-      <c r="L60" s="3">
+      <c r="L60" s="22">
         <f t="shared" si="108"/>
         <v>51893.1</v>
       </c>
-      <c r="M60" s="3">
+      <c r="M60" s="22">
         <f t="shared" si="108"/>
         <v>52727</v>
       </c>
-      <c r="N60" s="3">
+      <c r="N60" s="22">
         <f t="shared" si="108"/>
         <v>53854.3</v>
       </c>
-      <c r="O60" s="3">
+      <c r="O60" s="22">
         <f t="shared" si="108"/>
         <v>50877.700000000004</v>
       </c>
-      <c r="P60" s="3">
+      <c r="P60" s="22">
         <f t="shared" si="108"/>
         <v>49247.799999999996</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="Q60" s="22">
         <f t="shared" si="108"/>
         <v>48501.599999999999</v>
       </c>
     </row>
     <row r="62" spans="2:46">
-      <c r="B62" s="27" t="s">
+      <c r="B62" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="J62" s="1">
+      <c r="J62" s="7">
         <v>741.3</v>
       </c>
-      <c r="K62" s="1">
+      <c r="K62" s="7">
         <v>670</v>
       </c>
-      <c r="L62" s="1">
+      <c r="L62" s="7">
         <v>730.9</v>
       </c>
-      <c r="M62" s="1">
+      <c r="M62" s="7">
         <v>772.6</v>
       </c>
-      <c r="N62" s="1">
+      <c r="N62" s="7">
         <v>1006.8</v>
       </c>
-      <c r="O62" s="1">
+      <c r="O62" s="7">
         <v>718.6</v>
       </c>
-      <c r="P62" s="1">
+      <c r="P62" s="7">
         <v>739.4</v>
       </c>
-      <c r="Q62" s="1">
+      <c r="Q62" s="7">
         <v>794.8</v>
       </c>
     </row>
     <row r="63" spans="2:46">
-      <c r="B63" s="27" t="s">
+      <c r="B63" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="J63" s="1">
+      <c r="J63" s="7">
         <v>0</v>
       </c>
-      <c r="K63" s="1">
+      <c r="K63" s="7">
         <v>0</v>
       </c>
-      <c r="M63" s="1">
+      <c r="M63" s="7">
         <v>1027.3</v>
       </c>
-      <c r="P63" s="1">
+      <c r="P63" s="7">
         <v>0</v>
       </c>
-      <c r="Q63" s="1">
+      <c r="Q63" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="2:46">
-      <c r="B64" s="27" t="s">
+      <c r="B64" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="J64" s="1">
+      <c r="J64" s="7">
         <v>701.5</v>
       </c>
-      <c r="K64" s="1">
+      <c r="K64" s="7">
         <v>718.4</v>
       </c>
-      <c r="L64" s="1">
+      <c r="L64" s="7">
         <v>720.4</v>
       </c>
-      <c r="M64" s="1">
+      <c r="M64" s="7">
         <v>701.5</v>
       </c>
-      <c r="N64" s="1">
+      <c r="N64" s="7">
         <v>705.5</v>
       </c>
-      <c r="O64" s="1">
+      <c r="O64" s="7">
         <v>691.9</v>
       </c>
-      <c r="P64" s="1">
+      <c r="P64" s="7">
         <v>689.6</v>
       </c>
-      <c r="Q64" s="1">
+      <c r="Q64" s="7">
         <v>654.9</v>
       </c>
     </row>
     <row r="65" spans="2:17">
-      <c r="B65" s="27" t="s">
+      <c r="B65" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="J65" s="1">
+      <c r="J65" s="7">
         <v>741.1</v>
       </c>
-      <c r="K65" s="1">
+      <c r="K65" s="7">
         <v>718.3</v>
       </c>
-      <c r="L65" s="1">
+      <c r="L65" s="7">
         <v>281.39999999999998</v>
       </c>
-      <c r="M65" s="1">
+      <c r="M65" s="7">
         <v>259.7</v>
       </c>
-      <c r="N65" s="1">
+      <c r="N65" s="7">
         <v>360.7</v>
       </c>
-      <c r="O65" s="1">
+      <c r="O65" s="7">
         <v>593.5</v>
       </c>
-      <c r="P65" s="1">
+      <c r="P65" s="7">
         <v>503.8</v>
       </c>
-      <c r="Q65" s="1">
+      <c r="Q65" s="7">
         <v>386.3</v>
       </c>
     </row>
     <row r="66" spans="2:17">
-      <c r="B66" s="27" t="s">
+      <c r="B66" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="J66" s="1">
+      <c r="J66" s="7">
         <v>227</v>
       </c>
-      <c r="K66" s="1">
+      <c r="K66" s="7">
         <v>192</v>
       </c>
-      <c r="L66" s="1">
+      <c r="L66" s="7">
         <v>241.2</v>
       </c>
-      <c r="M66" s="1">
+      <c r="M66" s="7">
         <v>253.5</v>
       </c>
-      <c r="N66" s="1">
+      <c r="N66" s="7">
         <v>236.7</v>
       </c>
-      <c r="O66" s="1">
+      <c r="O66" s="7">
         <v>270.7</v>
       </c>
-      <c r="P66" s="1">
+      <c r="P66" s="7">
         <v>215.9</v>
       </c>
-      <c r="Q66" s="1">
+      <c r="Q66" s="7">
         <v>203.6</v>
       </c>
     </row>
     <row r="67" spans="2:17">
-      <c r="B67" s="27" t="s">
+      <c r="B67" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="J67" s="1">
+      <c r="J67" s="7">
         <v>388.4</v>
       </c>
-      <c r="K67" s="1">
+      <c r="K67" s="7">
         <v>333.2</v>
       </c>
-      <c r="L67" s="1">
+      <c r="L67" s="7">
         <v>323.8</v>
       </c>
-      <c r="M67" s="1">
+      <c r="M67" s="7">
         <v>312.2</v>
       </c>
-      <c r="N67" s="1">
+      <c r="N67" s="7">
         <v>363.3</v>
       </c>
-      <c r="O67" s="1">
+      <c r="O67" s="7">
         <v>322.39999999999998</v>
       </c>
-      <c r="P67" s="1">
+      <c r="P67" s="7">
         <v>312.8</v>
       </c>
-      <c r="Q67" s="1">
+      <c r="Q67" s="7">
         <v>318.39999999999998</v>
       </c>
     </row>
     <row r="68" spans="2:17">
-      <c r="B68" s="27" t="s">
+      <c r="B68" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="J68" s="1">
+      <c r="J68" s="7">
         <v>1138.3</v>
       </c>
-      <c r="K68" s="1">
+      <c r="K68" s="7">
         <v>1047.9000000000001</v>
       </c>
-      <c r="L68" s="1">
+      <c r="L68" s="7">
         <v>1137.0999999999999</v>
       </c>
-      <c r="M68" s="1">
+      <c r="M68" s="7">
         <v>1268.8</v>
       </c>
-      <c r="N68" s="1">
+      <c r="N68" s="7">
         <v>1347</v>
       </c>
-      <c r="O68" s="1">
+      <c r="O68" s="7">
         <v>1637.5</v>
       </c>
-      <c r="P68" s="1">
+      <c r="P68" s="7">
         <v>1018.6</v>
       </c>
-      <c r="Q68" s="1">
+      <c r="Q68" s="7">
         <v>1128.0999999999999</v>
       </c>
     </row>
     <row r="69" spans="2:17">
-      <c r="B69" s="27" t="s">
+      <c r="B69" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="J69" s="1">
+      <c r="J69" s="7">
         <v>2243.6</v>
       </c>
-      <c r="K69" s="1">
+      <c r="K69" s="7">
         <v>900</v>
       </c>
-      <c r="L69" s="1">
+      <c r="L69" s="7">
         <v>500</v>
       </c>
-      <c r="M69" s="1">
+      <c r="M69" s="7">
         <v>500</v>
       </c>
-      <c r="N69" s="1">
+      <c r="N69" s="7">
         <v>0</v>
       </c>
-      <c r="O69" s="1">
+      <c r="O69" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:17" s="3" customFormat="1">
-      <c r="B70" s="28" t="s">
+    <row r="70" spans="2:17" s="22" customFormat="1">
+      <c r="B70" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="J70" s="3">
+      <c r="J70" s="22">
         <f t="shared" ref="J70:P70" si="109">+SUM(J62:J69)</f>
         <v>6181.2000000000007</v>
       </c>
-      <c r="K70" s="3">
+      <c r="K70" s="22">
         <f t="shared" si="109"/>
         <v>4579.7999999999993</v>
       </c>
-      <c r="L70" s="3">
+      <c r="L70" s="22">
         <f t="shared" si="109"/>
         <v>3934.7999999999997</v>
       </c>
-      <c r="M70" s="3">
+      <c r="M70" s="22">
         <f t="shared" si="109"/>
         <v>5095.5999999999995</v>
       </c>
-      <c r="N70" s="3">
+      <c r="N70" s="22">
         <f t="shared" si="109"/>
         <v>4020</v>
       </c>
-      <c r="O70" s="3">
+      <c r="O70" s="22">
         <f t="shared" si="109"/>
         <v>4234.6000000000004</v>
       </c>
-      <c r="P70" s="3">
+      <c r="P70" s="22">
         <f t="shared" si="109"/>
         <v>3480.1</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="Q70" s="22">
         <f t="shared" ref="Q70" si="110">+SUM(Q62:Q69)</f>
         <v>3486.0999999999995</v>
       </c>
     </row>
     <row r="71" spans="2:17">
-      <c r="B71" s="27" t="s">
+      <c r="B71" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="J71" s="1">
+      <c r="J71" s="7">
         <v>35196.800000000003</v>
       </c>
-      <c r="K71" s="1">
+      <c r="K71" s="7">
         <v>34823.199999999997</v>
       </c>
-      <c r="L71" s="1">
+      <c r="L71" s="7">
         <v>34922.6</v>
       </c>
-      <c r="M71" s="1">
+      <c r="M71" s="7">
         <v>34628</v>
       </c>
-      <c r="N71" s="1">
+      <c r="N71" s="7">
         <v>35622.699999999997</v>
       </c>
-      <c r="O71" s="1">
+      <c r="O71" s="7">
         <v>33988.800000000003</v>
       </c>
-      <c r="P71" s="1">
+      <c r="P71" s="7">
         <v>34576.5</v>
       </c>
-      <c r="Q71" s="1">
+      <c r="Q71" s="7">
         <v>34866.199999999997</v>
       </c>
     </row>
     <row r="72" spans="2:17">
-      <c r="B72" s="27" t="s">
+      <c r="B72" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="J72" s="1">
+      <c r="J72" s="7">
         <v>13321.3</v>
       </c>
-      <c r="K72" s="1">
+      <c r="K72" s="7">
         <v>13111</v>
       </c>
-      <c r="L72" s="1">
+      <c r="L72" s="7">
         <v>13119</v>
       </c>
-      <c r="M72" s="1">
+      <c r="M72" s="7">
         <v>12986.6</v>
       </c>
-      <c r="N72" s="1">
+      <c r="N72" s="7">
         <v>13020.9</v>
       </c>
-      <c r="O72" s="1">
+      <c r="O72" s="7">
         <v>12871.8</v>
       </c>
-      <c r="P72" s="1">
+      <c r="P72" s="7">
         <v>12319.4</v>
       </c>
-      <c r="Q72" s="1">
+      <c r="Q72" s="7">
         <v>11766.8</v>
       </c>
     </row>
     <row r="73" spans="2:17">
-      <c r="B73" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="J73" s="1">
+      <c r="B73" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="J73" s="7">
         <v>1970.7</v>
       </c>
-      <c r="K73" s="1">
+      <c r="K73" s="7">
         <v>1963.4</v>
       </c>
-      <c r="L73" s="1">
+      <c r="L73" s="7">
         <v>1865.2</v>
       </c>
-      <c r="M73" s="1">
+      <c r="M73" s="7">
         <v>1878.9</v>
       </c>
-      <c r="N73" s="1">
+      <c r="N73" s="7">
         <v>1896.8</v>
       </c>
-      <c r="O73" s="1">
+      <c r="O73" s="7">
         <v>1889.8</v>
       </c>
-      <c r="P73" s="1">
+      <c r="P73" s="7">
         <v>1236.0999999999999</v>
       </c>
-      <c r="Q73" s="1">
+      <c r="Q73" s="7">
         <v>1085</v>
       </c>
     </row>
     <row r="74" spans="2:17">
-      <c r="B74" s="27" t="s">
+      <c r="B74" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="J74" s="7">
+        <v>702</v>
+      </c>
+      <c r="K74" s="7">
+        <v>702.5</v>
+      </c>
+      <c r="L74" s="7">
+        <v>714.9</v>
+      </c>
+      <c r="M74" s="7">
+        <v>720.1</v>
+      </c>
+      <c r="N74" s="7">
+        <v>738.3</v>
+      </c>
+      <c r="O74" s="7">
+        <v>743</v>
+      </c>
+      <c r="P74" s="7">
+        <v>733</v>
+      </c>
+      <c r="Q74" s="7">
+        <v>727.8</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17">
+      <c r="B75" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="J74" s="1">
-        <v>702</v>
-      </c>
-      <c r="K74" s="1">
-        <v>702.5</v>
-      </c>
-      <c r="L74" s="1">
-        <v>714.9</v>
-      </c>
-      <c r="M74" s="1">
-        <v>720.1</v>
-      </c>
-      <c r="N74" s="1">
-        <v>738.3</v>
-      </c>
-      <c r="O74" s="1">
-        <v>743</v>
-      </c>
-      <c r="P74" s="1">
-        <v>733</v>
-      </c>
-      <c r="Q74" s="1">
-        <v>727.8</v>
-      </c>
-    </row>
-    <row r="75" spans="2:17">
-      <c r="B75" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="J75" s="1">
+      <c r="J75" s="7">
         <v>1054.0999999999999</v>
       </c>
-      <c r="K75" s="1">
+      <c r="K75" s="7">
         <v>1056.8</v>
       </c>
-      <c r="L75" s="1">
+      <c r="L75" s="7">
         <v>1077.2</v>
       </c>
-      <c r="M75" s="1">
+      <c r="M75" s="7">
         <v>1046.5999999999999</v>
       </c>
-      <c r="N75" s="1">
+      <c r="N75" s="7">
         <v>1081</v>
       </c>
-      <c r="O75" s="1">
+      <c r="O75" s="7">
         <v>1092</v>
       </c>
-      <c r="P75" s="1">
+      <c r="P75" s="7">
         <v>1022.8</v>
       </c>
-      <c r="Q75" s="1">
+      <c r="Q75" s="7">
         <v>990.8</v>
       </c>
     </row>
     <row r="76" spans="2:17">
-      <c r="B76" s="27" t="s">
+      <c r="B76" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="J76" s="1">
+      <c r="J76" s="7">
         <v>2025.6</v>
       </c>
-      <c r="K76" s="1">
+      <c r="K76" s="7">
         <v>2101.9</v>
       </c>
-      <c r="L76" s="1">
+      <c r="L76" s="7">
         <v>2067.4</v>
       </c>
-      <c r="M76" s="1">
+      <c r="M76" s="7">
         <v>2046.2</v>
       </c>
-      <c r="N76" s="1">
+      <c r="N76" s="7">
         <v>2075.6</v>
       </c>
-      <c r="O76" s="1">
+      <c r="O76" s="7">
         <v>2048.5</v>
       </c>
-      <c r="P76" s="1">
+      <c r="P76" s="7">
         <v>2249.6999999999998</v>
       </c>
-      <c r="Q76" s="1">
+      <c r="Q76" s="7">
         <v>2145.1</v>
       </c>
     </row>
-    <row r="77" spans="2:17" s="3" customFormat="1">
-      <c r="B77" s="28" t="s">
+    <row r="77" spans="2:17" s="22" customFormat="1">
+      <c r="B77" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="J77" s="3">
+      <c r="J77" s="22">
         <f t="shared" ref="J77:P77" si="111">SUM(J70:J76)</f>
         <v>60451.7</v>
       </c>
-      <c r="K77" s="3">
+      <c r="K77" s="22">
         <f t="shared" si="111"/>
         <v>58338.600000000006</v>
       </c>
-      <c r="L77" s="3">
+      <c r="L77" s="22">
         <f t="shared" si="111"/>
         <v>57701.1</v>
       </c>
-      <c r="M77" s="3">
+      <c r="M77" s="22">
         <f t="shared" si="111"/>
         <v>58401.999999999993</v>
       </c>
-      <c r="N77" s="3">
+      <c r="N77" s="22">
         <f t="shared" si="111"/>
         <v>58455.3</v>
       </c>
-      <c r="O77" s="3">
+      <c r="O77" s="22">
         <f t="shared" si="111"/>
         <v>56868.5</v>
       </c>
-      <c r="P77" s="3">
+      <c r="P77" s="22">
         <f t="shared" si="111"/>
         <v>55617.599999999999</v>
       </c>
-      <c r="Q77" s="3">
+      <c r="Q77" s="22">
         <f t="shared" ref="Q77" si="112">SUM(Q70:Q76)</f>
         <v>55067.799999999996</v>
       </c>
     </row>
     <row r="78" spans="2:17">
-      <c r="B78" s="27" t="s">
+      <c r="B78" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="J78" s="1">
+      <c r="J78" s="7">
         <v>-7824.9</v>
       </c>
-      <c r="K78" s="1">
+      <c r="K78" s="7">
         <v>-7235.5</v>
       </c>
-      <c r="L78" s="1">
+      <c r="L78" s="7">
         <v>-5808</v>
       </c>
-      <c r="M78" s="1">
+      <c r="M78" s="7">
         <v>-5675</v>
       </c>
-      <c r="N78" s="1">
+      <c r="N78" s="7">
         <v>-4601</v>
       </c>
-      <c r="O78" s="1">
+      <c r="O78" s="7">
         <v>-5990.8</v>
       </c>
-      <c r="P78" s="1">
+      <c r="P78" s="7">
         <v>-6369.8</v>
       </c>
-      <c r="Q78" s="1">
+      <c r="Q78" s="7">
         <v>-6566.2</v>
       </c>
     </row>
-    <row r="79" spans="2:17" s="3" customFormat="1">
-      <c r="B79" s="28" t="s">
+    <row r="79" spans="2:17" s="22" customFormat="1">
+      <c r="B79" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="J79" s="3">
+      <c r="J79" s="22">
         <f t="shared" ref="J79:P79" si="113">+J77+J78</f>
         <v>52626.799999999996</v>
       </c>
-      <c r="K79" s="3">
+      <c r="K79" s="22">
         <f t="shared" si="113"/>
         <v>51103.100000000006</v>
       </c>
-      <c r="L79" s="3">
+      <c r="L79" s="22">
         <f t="shared" si="113"/>
         <v>51893.1</v>
       </c>
-      <c r="M79" s="3">
+      <c r="M79" s="22">
         <f t="shared" si="113"/>
         <v>52726.999999999993</v>
       </c>
-      <c r="N79" s="3">
+      <c r="N79" s="22">
         <f t="shared" si="113"/>
         <v>53854.3</v>
       </c>
-      <c r="O79" s="3">
+      <c r="O79" s="22">
         <f t="shared" si="113"/>
         <v>50877.7</v>
       </c>
-      <c r="P79" s="3">
+      <c r="P79" s="22">
         <f t="shared" si="113"/>
         <v>49247.799999999996</v>
       </c>
-      <c r="Q79" s="3">
+      <c r="Q79" s="22">
         <f t="shared" ref="Q79" si="114">+Q77+Q78</f>
         <v>48501.599999999999</v>
       </c>
     </row>
-    <row r="80" spans="2:17" s="25" customFormat="1">
-      <c r="B80" s="27" t="s">
+    <row r="80" spans="2:17" s="46" customFormat="1">
+      <c r="B80" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="J80" s="25" t="str">
+      <c r="J80" s="46" t="str">
         <f t="shared" ref="J80:P80" si="115">IF(J60=J79,"True","False")</f>
         <v>True</v>
       </c>
-      <c r="K80" s="25" t="str">
+      <c r="K80" s="46" t="str">
         <f t="shared" si="115"/>
         <v>True</v>
       </c>
-      <c r="L80" s="25" t="str">
+      <c r="L80" s="46" t="str">
         <f t="shared" si="115"/>
         <v>True</v>
       </c>
-      <c r="M80" s="25" t="str">
+      <c r="M80" s="46" t="str">
         <f t="shared" si="115"/>
         <v>True</v>
       </c>
-      <c r="N80" s="25" t="str">
+      <c r="N80" s="46" t="str">
         <f t="shared" si="115"/>
         <v>True</v>
       </c>
-      <c r="O80" s="25" t="str">
+      <c r="O80" s="46" t="str">
         <f t="shared" si="115"/>
         <v>True</v>
       </c>
-      <c r="P80" s="25" t="str">
+      <c r="P80" s="46" t="str">
         <f t="shared" si="115"/>
         <v>True</v>
       </c>
-      <c r="Q80" s="25" t="str">
+      <c r="Q80" s="46" t="str">
         <f t="shared" ref="Q80" si="116">IF(Q60=Q79,"True","False")</f>
         <v>True</v>
       </c>
     </row>
     <row r="84" spans="2:33">
-      <c r="B84" s="27" t="s">
+      <c r="B84" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="O84" s="1">
+      <c r="K84" s="7">
+        <v>1537.2</v>
+      </c>
+      <c r="L84" s="7">
+        <v>2219.3000000000002</v>
+      </c>
+      <c r="M84" s="7">
+        <v>2149.9</v>
+      </c>
+      <c r="N84" s="7">
+        <f>+AG84-SUM(K84:M84)</f>
+        <v>1638.8000000000002</v>
+      </c>
+      <c r="O84" s="7">
         <v>1104.4000000000001</v>
       </c>
+      <c r="P84" s="7">
+        <v>1188</v>
+      </c>
+      <c r="Q84" s="7">
+        <f>+Q27</f>
+        <v>2074.9000000000005</v>
+      </c>
+      <c r="AG84" s="7">
+        <v>7545.2</v>
+      </c>
     </row>
     <row r="85" spans="2:33">
-      <c r="B85" s="27" t="s">
+      <c r="B85" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="O85" s="1">
+      <c r="K85" s="7">
+        <v>453.9</v>
+      </c>
+      <c r="L85" s="7">
+        <v>463.4</v>
+      </c>
+      <c r="M85" s="7">
+        <v>469.2</v>
+      </c>
+      <c r="N85" s="7">
+        <f t="shared" ref="N85:N109" si="117">+AG85-SUM(K85:M85)</f>
+        <v>481.59999999999991</v>
+      </c>
+      <c r="O85" s="7">
         <v>479.7</v>
       </c>
+      <c r="P85" s="7">
+        <v>462.2</v>
+      </c>
+      <c r="Q85" s="7">
+        <v>465.6</v>
+      </c>
+      <c r="AG85" s="7">
+        <v>1868.1</v>
+      </c>
     </row>
     <row r="86" spans="2:33">
-      <c r="B86" s="27" t="s">
+      <c r="B86" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="O86" s="1">
+      <c r="K86" s="7">
+        <v>-1.5</v>
+      </c>
+      <c r="L86" s="7">
+        <v>-368.9</v>
+      </c>
+      <c r="M86" s="7">
+        <v>-45.8</v>
+      </c>
+      <c r="N86" s="7">
+        <f t="shared" si="117"/>
+        <v>-12.100000000000023</v>
+      </c>
+      <c r="O86" s="7">
         <v>-50.5</v>
       </c>
+      <c r="P86" s="7">
+        <v>-136.30000000000001</v>
+      </c>
+      <c r="Q86" s="7">
+        <v>-196.3</v>
+      </c>
+      <c r="AG86" s="7">
+        <v>-428.3</v>
+      </c>
     </row>
     <row r="87" spans="2:33">
-      <c r="B87" s="27" t="s">
+      <c r="B87" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="O87" s="1">
+      <c r="K87" s="7">
+        <v>27.3</v>
+      </c>
+      <c r="L87" s="7">
+        <v>36.5</v>
+      </c>
+      <c r="M87" s="7">
+        <v>34.1</v>
+      </c>
+      <c r="N87" s="7">
+        <f t="shared" si="117"/>
+        <v>41.299999999999983</v>
+      </c>
+      <c r="O87" s="7">
         <v>54.3</v>
       </c>
+      <c r="P87" s="7">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="Q87" s="7">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="AG87" s="7">
+        <v>139.19999999999999</v>
+      </c>
     </row>
     <row r="88" spans="2:33">
-      <c r="B88" s="27" t="s">
+      <c r="B88" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="N88" s="7">
+        <f t="shared" si="117"/>
+        <v>-97.8</v>
+      </c>
+      <c r="AG88" s="7">
+        <v>-97.8</v>
+      </c>
+    </row>
+    <row r="89" spans="2:33">
+      <c r="B89" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="O88" s="1">
+      <c r="K89" s="7">
+        <v>-130</v>
+      </c>
+      <c r="L89" s="7">
+        <v>-71.2</v>
+      </c>
+      <c r="M89" s="7">
+        <v>-163.6</v>
+      </c>
+      <c r="N89" s="7">
+        <f t="shared" si="117"/>
+        <v>25.699999999999932</v>
+      </c>
+      <c r="O89" s="7">
         <v>72</v>
       </c>
-    </row>
-    <row r="89" spans="2:33">
-      <c r="B89" s="27" t="s">
+      <c r="P89" s="7">
+        <v>234.2</v>
+      </c>
+      <c r="Q89" s="7">
+        <v>-45.6</v>
+      </c>
+      <c r="AG89" s="7">
+        <v>-339.1</v>
+      </c>
+    </row>
+    <row r="90" spans="2:33">
+      <c r="B90" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="O89" s="1">
+      <c r="K90" s="7">
+        <v>237.1</v>
+      </c>
+      <c r="L90" s="7">
+        <v>-545.9</v>
+      </c>
+      <c r="M90" s="7">
+        <v>174</v>
+      </c>
+      <c r="N90" s="7">
+        <f t="shared" si="117"/>
+        <v>589</v>
+      </c>
+      <c r="O90" s="7">
         <v>473.4</v>
       </c>
-    </row>
-    <row r="90" spans="2:33" s="3" customFormat="1">
-      <c r="B90" s="28" t="s">
+      <c r="P90" s="7">
+        <v>-1168.3</v>
+      </c>
+      <c r="Q90" s="7">
+        <v>190.3</v>
+      </c>
+      <c r="AG90" s="7">
+        <f>309.9-62.2+225-302.5+284</f>
+        <v>454.2</v>
+      </c>
+    </row>
+    <row r="91" spans="2:33" s="22" customFormat="1">
+      <c r="B91" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="O90" s="3">
-        <f>+SUM(O84:O89)</f>
+      <c r="K91" s="22">
+        <f>+SUM(K84:K90)</f>
+        <v>2124</v>
+      </c>
+      <c r="L91" s="22">
+        <f t="shared" ref="L91" si="118">+SUM(L84:L90)</f>
+        <v>1733.2000000000003</v>
+      </c>
+      <c r="M91" s="22">
+        <f t="shared" ref="M91" si="119">+SUM(M84:M90)</f>
+        <v>2617.7999999999997</v>
+      </c>
+      <c r="N91" s="22">
+        <f t="shared" si="117"/>
+        <v>2666.5000000000018</v>
+      </c>
+      <c r="O91" s="22">
+        <f>+SUM(O84:O90)</f>
         <v>2133.3000000000002</v>
       </c>
-      <c r="AD90" s="3">
+      <c r="P91" s="22">
+        <f t="shared" ref="P91:R91" si="120">+SUM(P84:P90)</f>
+        <v>618.10000000000014</v>
+      </c>
+      <c r="Q91" s="22">
+        <f t="shared" si="120"/>
+        <v>2527.2000000000007</v>
+      </c>
+      <c r="R91" s="22">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="AD91" s="22">
         <v>6966.7</v>
       </c>
-      <c r="AE90" s="3">
+      <c r="AE91" s="22">
         <v>8122.1</v>
       </c>
-      <c r="AF90" s="3">
+      <c r="AF91" s="22">
         <v>6265.2</v>
       </c>
-      <c r="AG90" s="3">
-        <v>9141.5</v>
-      </c>
-    </row>
-    <row r="91" spans="2:33">
-      <c r="B91" s="27" t="s">
+      <c r="AG91" s="22">
+        <f>+SUM(AG84:AG90)</f>
+        <v>9141.5000000000018</v>
+      </c>
+    </row>
+    <row r="92" spans="2:33">
+      <c r="B92" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="O91" s="1">
+      <c r="K92" s="7">
+        <v>-368.7</v>
+      </c>
+      <c r="L92" s="7">
+        <v>-482.6</v>
+      </c>
+      <c r="M92" s="7">
+        <v>-501.5</v>
+      </c>
+      <c r="N92" s="7">
+        <f t="shared" si="117"/>
+        <v>-687.2</v>
+      </c>
+      <c r="O92" s="7">
         <v>-401.2</v>
       </c>
-      <c r="AD91" s="1">
+      <c r="P92" s="7">
+        <v>-437.9</v>
+      </c>
+      <c r="Q92" s="7">
+        <v>-531.20000000000005</v>
+      </c>
+      <c r="AD92" s="7">
         <v>-2741.7</v>
       </c>
-      <c r="AE91" s="1">
+      <c r="AE92" s="7">
         <v>-2393.6999999999998</v>
       </c>
-      <c r="AF91" s="1">
+      <c r="AF92" s="7">
         <v>-1640.8</v>
       </c>
-      <c r="AG91" s="1">
+      <c r="AG92" s="7">
+        <f>+-2040</f>
         <v>-2040</v>
       </c>
     </row>
-    <row r="92" spans="2:33">
-      <c r="B92" s="27" t="s">
+    <row r="93" spans="2:33">
+      <c r="B93" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="O92" s="1">
+      <c r="K93" s="7">
+        <v>-38.700000000000003</v>
+      </c>
+      <c r="L93" s="7">
+        <v>-49.4</v>
+      </c>
+      <c r="M93" s="7">
+        <v>-28.6</v>
+      </c>
+      <c r="N93" s="7">
+        <f t="shared" si="117"/>
+        <v>-257.5</v>
+      </c>
+      <c r="O93" s="7">
         <v>-86.7</v>
       </c>
-    </row>
-    <row r="93" spans="2:33">
-      <c r="B93" s="27" t="s">
+      <c r="P93" s="7">
+        <v>-110.5</v>
+      </c>
+      <c r="Q93" s="7">
+        <v>-152.30000000000001</v>
+      </c>
+      <c r="AG93" s="7">
+        <v>-374.2</v>
+      </c>
+    </row>
+    <row r="94" spans="2:33">
+      <c r="B94" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="O93" s="1">
+      <c r="K94" s="7">
+        <v>29.6</v>
+      </c>
+      <c r="L94" s="7">
+        <v>52.2</v>
+      </c>
+      <c r="M94" s="7">
+        <v>60.1</v>
+      </c>
+      <c r="N94" s="7">
+        <f t="shared" si="117"/>
+        <v>54.299999999999983</v>
+      </c>
+      <c r="O94" s="7">
         <v>16.5</v>
       </c>
-    </row>
-    <row r="94" spans="2:33">
-      <c r="B94" s="27" t="s">
+      <c r="P94" s="7">
+        <v>351.7</v>
+      </c>
+      <c r="Q94" s="7">
+        <v>33.21</v>
+      </c>
+      <c r="AG94" s="7">
+        <v>196.2</v>
+      </c>
+    </row>
+    <row r="95" spans="2:33">
+      <c r="B95" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="O94" s="1">
+      <c r="K95" s="7">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="L95" s="7">
+        <v>23.8</v>
+      </c>
+      <c r="M95" s="7">
+        <v>41.3</v>
+      </c>
+      <c r="N95" s="7">
+        <f t="shared" si="117"/>
+        <v>8.3000000000000114</v>
+      </c>
+      <c r="O95" s="7">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="95" spans="2:33">
-      <c r="B95" s="27" t="s">
+      <c r="P95" s="7">
+        <v>6.3</v>
+      </c>
+      <c r="Q95" s="7">
+        <v>11.1</v>
+      </c>
+      <c r="AG95" s="7">
+        <v>106.2</v>
+      </c>
+    </row>
+    <row r="96" spans="2:33">
+      <c r="B96" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="O95" s="1">
+      <c r="K96" s="7">
+        <v>100.4</v>
+      </c>
+      <c r="L96" s="7">
+        <v>42.5</v>
+      </c>
+      <c r="M96" s="7">
+        <v>43.8</v>
+      </c>
+      <c r="N96" s="7">
+        <f t="shared" si="117"/>
+        <v>-240.6</v>
+      </c>
+      <c r="O96" s="7">
         <v>-88</v>
       </c>
-    </row>
-    <row r="96" spans="2:33" s="3" customFormat="1">
-      <c r="B96" s="28" t="s">
+      <c r="P96" s="7">
+        <v>-128.80000000000001</v>
+      </c>
+      <c r="Q96" s="7">
+        <v>-93.8</v>
+      </c>
+      <c r="AG96" s="7">
+        <v>-53.9</v>
+      </c>
+    </row>
+    <row r="97" spans="2:33" s="22" customFormat="1">
+      <c r="B97" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="O96" s="3">
-        <f>+SUM(O91:O95)</f>
+      <c r="K97" s="22">
+        <f>+SUM(K92:K96)</f>
+        <v>-244.59999999999994</v>
+      </c>
+      <c r="L97" s="22">
+        <f t="shared" ref="L97" si="121">+SUM(L92:L96)</f>
+        <v>-413.5</v>
+      </c>
+      <c r="M97" s="22">
+        <f t="shared" ref="M97" si="122">+SUM(M92:M96)</f>
+        <v>-384.9</v>
+      </c>
+      <c r="N97" s="22">
+        <f t="shared" si="117"/>
+        <v>-1122.7000000000003</v>
+      </c>
+      <c r="O97" s="22">
+        <f>+SUM(O92:O96)</f>
         <v>-554.5</v>
       </c>
-    </row>
-    <row r="97" spans="2:33">
-      <c r="B97" s="27" t="s">
+      <c r="P97" s="22">
+        <f t="shared" ref="P97:Q97" si="123">+SUM(P92:P96)</f>
+        <v>-319.2</v>
+      </c>
+      <c r="Q97" s="22">
+        <f t="shared" si="123"/>
+        <v>-732.9899999999999</v>
+      </c>
+      <c r="AG97" s="22">
+        <f>+SUM(AG92:AG96)</f>
+        <v>-2165.7000000000003</v>
+      </c>
+    </row>
+    <row r="98" spans="2:33">
+      <c r="B98" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="O97" s="1">
+      <c r="K98" s="7">
+        <v>6.5</v>
+      </c>
+      <c r="L98" s="7">
+        <v>1.4</v>
+      </c>
+      <c r="M98" s="7">
+        <v>-0.3</v>
+      </c>
+      <c r="N98" s="7">
+        <f t="shared" si="117"/>
+        <v>7.4999999999999991</v>
+      </c>
+      <c r="O98" s="7">
         <v>6</v>
       </c>
-    </row>
-    <row r="98" spans="2:33">
-      <c r="B98" s="27" t="s">
+      <c r="P98" s="7">
+        <v>310.10000000000002</v>
+      </c>
+      <c r="Q98" s="7">
+        <v>-305.39999999999998</v>
+      </c>
+      <c r="AG98" s="7">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="99" spans="2:33">
+      <c r="B99" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="O98" s="1">
+      <c r="K99" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="2:33">
-      <c r="B99" s="27" t="s">
+      <c r="L99" s="7">
+        <v>0</v>
+      </c>
+      <c r="M99" s="7">
+        <v>0</v>
+      </c>
+      <c r="N99" s="7">
+        <f t="shared" si="117"/>
+        <v>1154.4000000000001</v>
+      </c>
+      <c r="O99" s="7">
+        <v>0</v>
+      </c>
+      <c r="P99" s="7">
+        <v>1874.5</v>
+      </c>
+      <c r="Q99" s="7">
+        <v>1500</v>
+      </c>
+      <c r="AG99" s="7">
+        <v>1154.4000000000001</v>
+      </c>
+    </row>
+    <row r="100" spans="2:33">
+      <c r="B100" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="O99" s="1">
+      <c r="K100" s="7">
+        <v>-1337.8</v>
+      </c>
+      <c r="L100" s="7">
+        <v>-401.2</v>
+      </c>
+      <c r="M100" s="7">
+        <v>-0.4</v>
+      </c>
+      <c r="N100" s="7">
+        <f t="shared" si="117"/>
+        <v>-500.59999999999991</v>
+      </c>
+      <c r="O100" s="7">
         <v>-1350.6</v>
       </c>
-    </row>
-    <row r="100" spans="2:33">
-      <c r="B100" s="27" t="s">
+      <c r="P100" s="7">
+        <v>-850.8</v>
+      </c>
+      <c r="Q100" s="7">
+        <v>-0.4</v>
+      </c>
+      <c r="AG100" s="7">
+        <v>-2240</v>
+      </c>
+    </row>
+    <row r="101" spans="2:33">
+      <c r="B101" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="O100" s="1">
+      <c r="K101" s="7">
+        <v>-21.5</v>
+      </c>
+      <c r="L101" s="7">
+        <v>-3</v>
+      </c>
+      <c r="M101" s="7">
+        <v>-17.7</v>
+      </c>
+      <c r="N101" s="7">
+        <f t="shared" si="117"/>
+        <v>-803.3</v>
+      </c>
+      <c r="O101" s="7">
         <v>-1506.5</v>
       </c>
-    </row>
-    <row r="101" spans="2:33">
-      <c r="B101" s="27" t="s">
+      <c r="P101" s="7">
+        <v>-1031.2</v>
+      </c>
+      <c r="Q101" s="7">
+        <v>-869.2</v>
+      </c>
+      <c r="AG101" s="7">
+        <v>-845.5</v>
+      </c>
+    </row>
+    <row r="102" spans="2:33">
+      <c r="B102" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="O101" s="1">
+      <c r="K102" s="7">
+        <v>-962.3</v>
+      </c>
+      <c r="L102" s="7">
+        <v>-963.3</v>
+      </c>
+      <c r="M102" s="7">
+        <v>-963.9</v>
+      </c>
+      <c r="N102" s="7">
+        <f t="shared" si="117"/>
+        <v>-1029.0999999999999</v>
+      </c>
+      <c r="O102" s="7">
         <v>-1025.0999999999999</v>
       </c>
-    </row>
-    <row r="102" spans="2:33">
-      <c r="B102" s="27" t="s">
+      <c r="P102" s="7">
+        <v>-1016.9</v>
+      </c>
+      <c r="Q102" s="7">
+        <v>-1014.7</v>
+      </c>
+      <c r="AG102" s="7">
+        <v>-3918.6</v>
+      </c>
+    </row>
+    <row r="103" spans="2:33">
+      <c r="B103" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="O102" s="1">
+      <c r="K103" s="7">
+        <v>59.1</v>
+      </c>
+      <c r="L103" s="7">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="M103" s="7">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="N103" s="7">
+        <f t="shared" si="117"/>
+        <v>87.1</v>
+      </c>
+      <c r="O103" s="7">
         <v>58.7</v>
       </c>
-    </row>
-    <row r="103" spans="2:33">
-      <c r="B103" s="27" t="s">
+      <c r="P103" s="7">
+        <v>47.2</v>
+      </c>
+      <c r="Q103" s="7">
+        <v>62.4</v>
+      </c>
+      <c r="AG103" s="7">
+        <v>285.7</v>
+      </c>
+    </row>
+    <row r="104" spans="2:33">
+      <c r="B104" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="O103" s="1">
+      <c r="K104" s="7">
+        <v>-7.9</v>
+      </c>
+      <c r="L104" s="7">
+        <v>-13.1</v>
+      </c>
+      <c r="M104" s="7">
+        <v>-11.7</v>
+      </c>
+      <c r="N104" s="7">
+        <f t="shared" si="117"/>
+        <v>-14</v>
+      </c>
+      <c r="O104" s="7">
         <v>-12.6</v>
       </c>
-    </row>
-    <row r="104" spans="2:33" s="3" customFormat="1">
-      <c r="B104" s="28" t="s">
+      <c r="P104" s="7">
+        <v>-19.600000000000001</v>
+      </c>
+      <c r="Q104" s="7">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="AG104" s="7">
+        <v>-46.7</v>
+      </c>
+    </row>
+    <row r="105" spans="2:33" s="22" customFormat="1">
+      <c r="B105" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="O104" s="3">
-        <f>+SUM(O97:O103)</f>
+      <c r="K105" s="22">
+        <f>+SUM(K98:K104)</f>
+        <v>-2263.9</v>
+      </c>
+      <c r="L105" s="22">
+        <f t="shared" ref="L105" si="124">+SUM(L98:L104)</f>
+        <v>-1306.2999999999997</v>
+      </c>
+      <c r="M105" s="22">
+        <f t="shared" ref="M105" si="125">+SUM(M98:M104)</f>
+        <v>-927.4</v>
+      </c>
+      <c r="N105" s="22">
+        <f t="shared" si="117"/>
+        <v>-1098.0000000000009</v>
+      </c>
+      <c r="O105" s="22">
+        <f>+SUM(O98:O104)</f>
         <v>-3830.1</v>
       </c>
-    </row>
-    <row r="105" spans="2:33">
-      <c r="B105" s="27" t="s">
+      <c r="P105" s="22">
+        <f t="shared" ref="P105:Q105" si="126">+SUM(P98:P104)</f>
+        <v>-686.7</v>
+      </c>
+      <c r="Q105" s="22">
+        <f t="shared" si="126"/>
+        <v>-546.40000000000032</v>
+      </c>
+      <c r="AG105" s="22">
+        <f>+SUM(AG98:AG104)</f>
+        <v>-5595.6</v>
+      </c>
+    </row>
+    <row r="106" spans="2:33">
+      <c r="B106" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="O105" s="1">
+      <c r="K106" s="7">
+        <v>-44.9</v>
+      </c>
+      <c r="L106" s="7">
+        <v>16.3</v>
+      </c>
+      <c r="M106" s="7">
+        <v>-49.1</v>
+      </c>
+      <c r="N106" s="7">
+        <f t="shared" si="117"/>
+        <v>-42.399999999999991</v>
+      </c>
+      <c r="O106" s="7">
         <v>-122.2</v>
       </c>
-    </row>
-    <row r="106" spans="2:33">
-      <c r="B106" s="27" t="s">
+      <c r="P106" s="7">
+        <v>-75.400000000000006</v>
+      </c>
+      <c r="Q106" s="7">
+        <v>-198.6</v>
+      </c>
+      <c r="AG106" s="7">
+        <v>-120.1</v>
+      </c>
+    </row>
+    <row r="107" spans="2:33">
+      <c r="B107" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="O106" s="1">
-        <f>+O90+O96+O104+O105</f>
+      <c r="K107" s="7">
+        <f>+K91+K97+K105+K106</f>
+        <v>-429.4</v>
+      </c>
+      <c r="L107" s="7">
+        <f t="shared" ref="L107" si="127">+L91+L97+L105+L106</f>
+        <v>29.700000000000546</v>
+      </c>
+      <c r="M107" s="7">
+        <f t="shared" ref="M107" si="128">+M91+M97+M105+M106</f>
+        <v>1256.3999999999996</v>
+      </c>
+      <c r="N107" s="7">
+        <f t="shared" si="117"/>
+        <v>403.40000000000055</v>
+      </c>
+      <c r="O107" s="7">
+        <f>+O91+O97+O105+O106</f>
         <v>-2373.4999999999995</v>
       </c>
+      <c r="P107" s="7">
+        <f t="shared" ref="P107:Q107" si="129">+P91+P97+P105+P106</f>
+        <v>-463.19999999999993</v>
+      </c>
+      <c r="Q107" s="7">
+        <f t="shared" si="129"/>
+        <v>1049.2100000000007</v>
+      </c>
+      <c r="AG107" s="7">
+        <f t="shared" ref="AG107" si="130">+AG91+AG97+AG105+AG106</f>
+        <v>1260.1000000000008</v>
+      </c>
     </row>
     <row r="108" spans="2:33">
-      <c r="B108" s="27" t="s">
+      <c r="B108" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="K108" s="7">
+        <f>+J49</f>
+        <v>3449.1</v>
+      </c>
+      <c r="L108" s="7">
+        <f>+K49</f>
+        <v>3019.7</v>
+      </c>
+      <c r="M108" s="7">
+        <f>+L49</f>
+        <v>3049.4</v>
+      </c>
+      <c r="N108" s="7">
+        <f>+M109</f>
+        <v>4305.7999999999993</v>
+      </c>
+      <c r="O108" s="7">
+        <f>+N49</f>
+        <v>4709.2</v>
+      </c>
+      <c r="P108" s="7">
+        <f>+O49</f>
+        <v>2335.6999999999998</v>
+      </c>
+      <c r="Q108" s="7">
+        <f>+P49</f>
+        <v>1872.5</v>
+      </c>
+      <c r="AG108" s="7">
+        <f>+J49</f>
+        <v>3449.1</v>
+      </c>
+    </row>
+    <row r="109" spans="2:33" s="22" customFormat="1">
+      <c r="B109" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="K109" s="22">
+        <f>+SUM(K107:K108)</f>
+        <v>3019.7</v>
+      </c>
+      <c r="L109" s="22">
+        <f>+SUM(L107:L108)</f>
+        <v>3049.4000000000005</v>
+      </c>
+      <c r="M109" s="22">
+        <f>+SUM(M107:M108)</f>
+        <v>4305.7999999999993</v>
+      </c>
+      <c r="N109" s="22">
+        <f>+SUM(N107:N108)</f>
+        <v>4709.2</v>
+      </c>
+      <c r="O109" s="22">
+        <f>+SUM(O107:O108)</f>
+        <v>2335.7000000000003</v>
+      </c>
+      <c r="P109" s="22">
+        <f>+SUM(P107:P108)</f>
+        <v>1872.5</v>
+      </c>
+      <c r="Q109" s="22">
+        <f>+SUM(Q107:Q108)</f>
+        <v>2921.7100000000009</v>
+      </c>
+      <c r="AG109" s="22">
+        <f>+SUM(AG107:AG108)</f>
+        <v>4709.2000000000007</v>
+      </c>
+    </row>
+    <row r="110" spans="2:33">
+      <c r="N110" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="111" spans="2:33">
+      <c r="B111" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="O108" s="1">
-        <f>+O90+O91</f>
+      <c r="K111" s="7">
+        <f t="shared" ref="K111:O111" si="131">+K91+K92</f>
+        <v>1755.3</v>
+      </c>
+      <c r="L111" s="7">
+        <f t="shared" si="131"/>
+        <v>1250.6000000000004</v>
+      </c>
+      <c r="M111" s="7">
+        <f t="shared" si="131"/>
+        <v>2116.2999999999997</v>
+      </c>
+      <c r="N111" s="7">
+        <f t="shared" si="131"/>
+        <v>1979.3000000000018</v>
+      </c>
+      <c r="O111" s="7">
+        <f>+O91+O92</f>
         <v>1732.1000000000001</v>
       </c>
-      <c r="AD108" s="1">
-        <f>+SUM(AD90:AD91)</f>
+      <c r="P111" s="7">
+        <f t="shared" ref="P111:Q111" si="132">+P91+P92</f>
+        <v>180.20000000000016</v>
+      </c>
+      <c r="Q111" s="7">
+        <f t="shared" si="132"/>
+        <v>1996.0000000000007</v>
+      </c>
+      <c r="AD111" s="7">
+        <f>+SUM(AD91:AD92)</f>
         <v>4225</v>
       </c>
-      <c r="AE108" s="1">
-        <f>+SUM(AE90:AE91)</f>
+      <c r="AE111" s="7">
+        <f>+SUM(AE91:AE92)</f>
         <v>5728.4000000000005</v>
       </c>
-      <c r="AF108" s="1">
-        <f>+SUM(AF90:AF91)</f>
+      <c r="AF111" s="7">
+        <f>+SUM(AF91:AF92)</f>
         <v>4624.3999999999996</v>
       </c>
-      <c r="AG108" s="1">
-        <f>+SUM(AG90:AG91)</f>
-        <v>7101.5</v>
-      </c>
-    </row>
-    <row r="109" spans="2:33">
-      <c r="B109" s="27" t="s">
+      <c r="AG111" s="7">
+        <f>+SUM(AG91:AG92)</f>
+        <v>7101.5000000000018</v>
+      </c>
+    </row>
+    <row r="112" spans="2:33">
+      <c r="B112" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="O109" s="1">
-        <f>+O108*4</f>
-        <v>6928.4000000000005</v>
-      </c>
-      <c r="AD109" s="1">
+      <c r="K112" s="7">
+        <f t="shared" ref="K112:Q112" si="133">+K27</f>
+        <v>1613.1</v>
+      </c>
+      <c r="L112" s="7">
+        <f t="shared" si="133"/>
+        <v>2302.3999999999996</v>
+      </c>
+      <c r="M112" s="7">
+        <f t="shared" si="133"/>
+        <v>2234.0000000000005</v>
+      </c>
+      <c r="N112" s="7">
+        <f t="shared" si="133"/>
+        <v>1725.2999999999988</v>
+      </c>
+      <c r="O112" s="7">
+        <f t="shared" si="133"/>
+        <v>1197.1000000000001</v>
+      </c>
+      <c r="P112" s="7">
+        <f t="shared" si="133"/>
+        <v>1281.0000000000007</v>
+      </c>
+      <c r="Q112" s="7">
+        <f>+Q27</f>
+        <v>2074.9000000000005</v>
+      </c>
+      <c r="AD112" s="7">
         <f>+AD27</f>
         <v>8130.5999999999976</v>
       </c>
-      <c r="AE109" s="1">
+      <c r="AE112" s="7">
         <f>+AE27</f>
         <v>6287.9000000000015</v>
       </c>
-      <c r="AF109" s="1">
+      <c r="AF112" s="7">
         <f>+AF27</f>
         <v>5031.1000000000013</v>
       </c>
-      <c r="AG109" s="1">
+      <c r="AG112" s="7">
         <f>+AG27</f>
         <v>7874.7999999999993</v>
       </c>
     </row>
-    <row r="110" spans="2:33">
-      <c r="O110" s="5">
-        <f>+O109/Main!J9</f>
-        <v>2.9998680703457997E-2</v>
-      </c>
-    </row>
-    <row r="114" spans="2:16">
-      <c r="B114" s="27" t="s">
+    <row r="113" spans="2:17">
+      <c r="O113" s="30"/>
+    </row>
+    <row r="114" spans="2:17" s="22" customFormat="1">
+      <c r="B114" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="N114" s="22">
+        <f t="shared" ref="N114:P114" si="134">SUM(K111:N111)</f>
+        <v>7101.5000000000027</v>
+      </c>
+      <c r="O114" s="22">
+        <f t="shared" si="134"/>
+        <v>7078.300000000002</v>
+      </c>
+      <c r="P114" s="22">
+        <f t="shared" si="134"/>
+        <v>6007.9000000000015</v>
+      </c>
+      <c r="Q114" s="22">
+        <f>SUM(N111:Q111)</f>
+        <v>5887.6000000000031</v>
+      </c>
+    </row>
+    <row r="115" spans="2:17">
+      <c r="N115" s="22">
+        <f t="shared" ref="N115" si="135">SUM(K112:N112)</f>
+        <v>7874.7999999999993</v>
+      </c>
+      <c r="O115" s="22">
+        <f t="shared" ref="O115" si="136">SUM(L112:O112)</f>
+        <v>7458.7999999999993</v>
+      </c>
+      <c r="P115" s="22">
+        <f t="shared" ref="P115" si="137">SUM(M112:P112)</f>
+        <v>6437.4000000000005</v>
+      </c>
+      <c r="Q115" s="22">
+        <f>SUM(N112:Q112)</f>
+        <v>6278.3</v>
+      </c>
+    </row>
+    <row r="117" spans="2:17">
+      <c r="B117" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="K114" s="12">
+      <c r="K117" s="36">
         <v>1.29</v>
       </c>
-      <c r="L114" s="12">
+      <c r="L117" s="36">
         <v>1.29</v>
       </c>
-      <c r="M114" s="12">
+      <c r="M117" s="36">
         <v>1.29</v>
       </c>
-      <c r="N114" s="12">
+      <c r="N117" s="36">
         <v>1.38</v>
       </c>
-      <c r="O114" s="12">
+      <c r="O117" s="36">
         <v>1.38</v>
       </c>
-      <c r="P114" s="12">
+      <c r="P117" s="36">
         <v>1.38</v>
+      </c>
+      <c r="Q117" s="36">
+        <v>1.52</v>
       </c>
     </row>
   </sheetData>
@@ -7079,7 +7883,7 @@
   <ignoredErrors>
     <ignoredError sqref="AE15:AF17 AE19:AF27 AG15:AG20 AG26" formulaRange="1"/>
     <ignoredError sqref="AE28:AF28 AG21:AG25" formula="1" formulaRange="1"/>
-    <ignoredError sqref="AG28 N21" formula="1"/>
+    <ignoredError sqref="AG28 N21 N90:N108" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/MCD.xlsx
+++ b/MCD.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameelbrannon/Library/CloudStorage/Dropbox/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC3EB1D3-97AF-D54A-BED5-0707D9D7006F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8970465-9A3A-F94D-8D78-7F3A67F4D879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2900" yWindow="500" windowWidth="48200" windowHeight="26400" xr2:uid="{68853114-4A9D-F642-8668-56CE329F4C0C}"/>
+    <workbookView xWindow="3420" yWindow="2400" windowWidth="48200" windowHeight="26400" activeTab="2" xr2:uid="{68853114-4A9D-F642-8668-56CE329F4C0C}"/>
   </bookViews>
   <sheets>
     <sheet name="O" sheetId="1" r:id="rId1"/>
-    <sheet name="E" sheetId="2" r:id="rId2"/>
-    <sheet name="Institutional" sheetId="3" r:id="rId3"/>
+    <sheet name="Releases" sheetId="4" r:id="rId2"/>
+    <sheet name="E" sheetId="2" r:id="rId3"/>
+    <sheet name="Institutional" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -55,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="189">
   <si>
     <t>Price</t>
   </si>
@@ -634,7 +635,7 @@
     <numFmt numFmtId="166" formatCode="0\x"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -690,12 +691,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
@@ -947,7 +942,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -959,46 +954,46 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1443,10 +1438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EBBB766-D9B8-FB40-B5C7-D36C974DF243}">
-  <dimension ref="B2:L39"/>
+  <dimension ref="B2:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="L48" sqref="L48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -1623,7 +1618,8 @@
         <v>5</v>
       </c>
       <c r="J18" s="1">
-        <v>37274.6</v>
+        <f>+J15-J16+J17</f>
+        <v>248144.04326655998</v>
       </c>
       <c r="K18" s="17"/>
     </row>
@@ -1657,135 +1653,158 @@
     </row>
     <row r="23" spans="2:11">
       <c r="B23" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11">
+      <c r="B24" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C24" s="15">
         <v>45327</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E24" s="6" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11">
-      <c r="B24" s="6"/>
-      <c r="C24" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="25" spans="2:11">
       <c r="B25" s="6"/>
-      <c r="C25" s="15">
+      <c r="C25" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11">
+      <c r="B26" s="6"/>
+      <c r="C26" s="15">
         <v>45250</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="26" spans="2:11">
-      <c r="C26" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="D26" s="3"/>
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="2:11">
       <c r="C27" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>70</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="D27" s="3"/>
       <c r="H27" s="6"/>
     </row>
     <row r="28" spans="2:11">
       <c r="C28" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="2:11">
       <c r="C29" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="2:11">
       <c r="C30" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11">
+      <c r="C31" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="32" spans="2:11">
-      <c r="C32" s="3" t="s">
+    <row r="33" spans="2:3">
+      <c r="C33" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="33" spans="2:3">
-      <c r="C33" s="6" t="s">
+    <row r="34" spans="2:3">
+      <c r="C34" s="6" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="37" spans="2:3">
-      <c r="B37" s="3" t="s">
+    <row r="38" spans="2:3">
+      <c r="B38" s="3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="38" spans="2:3">
-      <c r="B38" s="6" t="s">
+    <row r="39" spans="2:3">
+      <c r="B39" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="39" spans="2:3">
-      <c r="B39" s="1" t="s">
+    <row r="40" spans="2:3">
+      <c r="B40" s="1" t="s">
         <v>155</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C27" r:id="rId1" display="Press Release 8/24/21" xr:uid="{D72FFBBB-8C7F-794F-AE1A-440F5563FA9E}"/>
-    <hyperlink ref="C28" r:id="rId2" display="Press Release 8/23/21" xr:uid="{BAB8D9DC-EEB5-7640-A71C-970EFDCC76E3}"/>
-    <hyperlink ref="C29" r:id="rId3" display="Press Release 8/17/21" xr:uid="{EA0D4B25-29FB-0D4A-BA96-AB5FE06B663F}"/>
-    <hyperlink ref="C30" r:id="rId4" display="Press Release 5/13/21" xr:uid="{2E7BD89E-83BF-724E-A075-085ED0D197EF}"/>
-    <hyperlink ref="C26" r:id="rId5" display="Press Release 11/1/22" xr:uid="{7C6DD1EA-9EF8-3446-B52B-F8D7AABA2447}"/>
+    <hyperlink ref="C28" r:id="rId1" display="Press Release 8/24/21" xr:uid="{D72FFBBB-8C7F-794F-AE1A-440F5563FA9E}"/>
+    <hyperlink ref="C29" r:id="rId2" display="Press Release 8/23/21" xr:uid="{BAB8D9DC-EEB5-7640-A71C-970EFDCC76E3}"/>
+    <hyperlink ref="C30" r:id="rId3" display="Press Release 8/17/21" xr:uid="{EA0D4B25-29FB-0D4A-BA96-AB5FE06B663F}"/>
+    <hyperlink ref="C31" r:id="rId4" display="Press Release 5/13/21" xr:uid="{2E7BD89E-83BF-724E-A075-085ED0D197EF}"/>
+    <hyperlink ref="C27" r:id="rId5" display="Press Release 11/1/22" xr:uid="{7C6DD1EA-9EF8-3446-B52B-F8D7AABA2447}"/>
     <hyperlink ref="D4" r:id="rId6" xr:uid="{76C3B4E3-0B2D-B740-9CCC-3C0402955EDE}"/>
-    <hyperlink ref="C33" r:id="rId7" xr:uid="{9357CE5F-ECA1-3744-92A2-6E2A6DE58C3B}"/>
+    <hyperlink ref="C34" r:id="rId7" xr:uid="{9357CE5F-ECA1-3744-92A2-6E2A6DE58C3B}"/>
     <hyperlink ref="D3" r:id="rId8" xr:uid="{0D1D7A66-C79F-B547-B4AB-19B1C3F947AF}"/>
     <hyperlink ref="D5" r:id="rId9" xr:uid="{393E2B7B-16A0-0C47-BFB4-C2D8AE1C2775}"/>
-    <hyperlink ref="B23" r:id="rId10" xr:uid="{E33EDE6D-980A-CF4F-A59D-3FAC9727221E}"/>
-    <hyperlink ref="C23" r:id="rId11" display="https://corporate.mcdonalds.com/content/dam/sites/corp/nfl/pdf/Exhibit 99.1 - Q4-23.pdf" xr:uid="{FE4A4FCE-1A34-DB43-B810-2B0D9DCCE5E8}"/>
-    <hyperlink ref="C25" r:id="rId12" display="https://corporate.mcdonalds.com/corpmcd/our-stories/article/mcd-to-acquire-carlyles-stake-mcdonalds-china.html" xr:uid="{C8823DD8-447E-BE40-9E8D-BDFF9493FCFA}"/>
-    <hyperlink ref="C24" r:id="rId13" xr:uid="{1A961DB5-B1F3-E34C-B7B0-6FE87CFEFC47}"/>
-    <hyperlink ref="E23" r:id="rId14" xr:uid="{EF1BE2F8-FF37-1B43-B81E-62A2C48722BF}"/>
-    <hyperlink ref="B38" r:id="rId15" xr:uid="{A021232C-1DBA-8844-82BC-C4927AF9B50D}"/>
+    <hyperlink ref="B24" r:id="rId10" xr:uid="{E33EDE6D-980A-CF4F-A59D-3FAC9727221E}"/>
+    <hyperlink ref="C24" r:id="rId11" display="https://corporate.mcdonalds.com/content/dam/sites/corp/nfl/pdf/Exhibit 99.1 - Q4-23.pdf" xr:uid="{FE4A4FCE-1A34-DB43-B810-2B0D9DCCE5E8}"/>
+    <hyperlink ref="C26" r:id="rId12" display="https://corporate.mcdonalds.com/corpmcd/our-stories/article/mcd-to-acquire-carlyles-stake-mcdonalds-china.html" xr:uid="{C8823DD8-447E-BE40-9E8D-BDFF9493FCFA}"/>
+    <hyperlink ref="C25" r:id="rId13" xr:uid="{1A961DB5-B1F3-E34C-B7B0-6FE87CFEFC47}"/>
+    <hyperlink ref="E24" r:id="rId14" xr:uid="{EF1BE2F8-FF37-1B43-B81E-62A2C48722BF}"/>
+    <hyperlink ref="B39" r:id="rId15" xr:uid="{A021232C-1DBA-8844-82BC-C4927AF9B50D}"/>
+    <hyperlink ref="B23" r:id="rId16" xr:uid="{76593BB3-D6F1-6B45-A9D7-AB0AD1B56F69}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F31CF7B-F278-C142-8024-D858932DB4BC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="247" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="1" width="2.83203125" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32BAB3F7-7021-914A-A508-B96F72023C96}">
   <dimension ref="A1:IU119"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="W15" sqref="W15"/>
+      <selection pane="bottomRight" activeCell="AD5" sqref="AD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.1640625" defaultRowHeight="13"/>
@@ -2514,7 +2533,7 @@
         <v>2162</v>
       </c>
       <c r="GC2" s="22">
-        <f t="shared" ref="GC2:HY2" si="4">+GB2+1</f>
+        <f t="shared" ref="GC2:HX2" si="4">+GB2+1</f>
         <v>2163</v>
       </c>
       <c r="GD2" s="22">
@@ -6562,803 +6581,803 @@
         <v>14244.085553049052</v>
       </c>
       <c r="BD32" s="56">
-        <f>+BC32*(1+$BI$35)</f>
+        <f t="shared" ref="BD32:CI32" si="78">+BC32*(1+$BI$35)</f>
         <v>14386.526408579542</v>
       </c>
       <c r="BE32" s="24">
-        <f>+BD32*(1+$BI$35)</f>
+        <f t="shared" si="78"/>
         <v>14530.391672665339</v>
       </c>
       <c r="BF32" s="24">
-        <f>+BE32*(1+$BI$35)</f>
+        <f t="shared" si="78"/>
         <v>14675.695589391993</v>
       </c>
       <c r="BG32" s="24">
-        <f>+BF32*(1+$BI$35)</f>
+        <f t="shared" si="78"/>
         <v>14822.452545285912</v>
       </c>
       <c r="BH32" s="24">
-        <f>+BG32*(1+$BI$35)</f>
+        <f t="shared" si="78"/>
         <v>14970.677070738771</v>
       </c>
       <c r="BI32" s="24">
-        <f>+BH32*(1+$BI$35)</f>
+        <f t="shared" si="78"/>
         <v>15120.383841446159</v>
       </c>
       <c r="BJ32" s="24">
-        <f>+BI32*(1+$BI$35)</f>
+        <f t="shared" si="78"/>
         <v>15271.58767986062</v>
       </c>
       <c r="BK32" s="24">
-        <f>+BJ32*(1+$BI$35)</f>
+        <f t="shared" si="78"/>
         <v>15424.303556659226</v>
       </c>
       <c r="BL32" s="24">
-        <f>+BK32*(1+$BI$35)</f>
+        <f t="shared" si="78"/>
         <v>15578.546592225819</v>
       </c>
       <c r="BM32" s="24">
-        <f>+BL32*(1+$BI$35)</f>
+        <f t="shared" si="78"/>
         <v>15734.332058148077</v>
       </c>
       <c r="BN32" s="24">
-        <f>+BM32*(1+$BI$35)</f>
+        <f t="shared" si="78"/>
         <v>15891.675378729558</v>
       </c>
       <c r="BO32" s="24">
-        <f>+BN32*(1+$BI$35)</f>
+        <f t="shared" si="78"/>
         <v>16050.592132516855</v>
       </c>
       <c r="BP32" s="24">
-        <f>+BO32*(1+$BI$35)</f>
+        <f t="shared" si="78"/>
         <v>16211.098053842023</v>
       </c>
       <c r="BQ32" s="24">
-        <f>+BP32*(1+$BI$35)</f>
+        <f t="shared" si="78"/>
         <v>16373.209034380443</v>
       </c>
       <c r="BR32" s="24">
-        <f>+BQ32*(1+$BI$35)</f>
+        <f t="shared" si="78"/>
         <v>16536.941124724246</v>
       </c>
       <c r="BS32" s="24">
-        <f>+BR32*(1+$BI$35)</f>
+        <f t="shared" si="78"/>
         <v>16702.31053597149</v>
       </c>
       <c r="BT32" s="24">
-        <f>+BS32*(1+$BI$35)</f>
+        <f t="shared" si="78"/>
         <v>16869.333641331206</v>
       </c>
       <c r="BU32" s="24">
-        <f>+BT32*(1+$BI$35)</f>
+        <f t="shared" si="78"/>
         <v>17038.026977744517</v>
       </c>
       <c r="BV32" s="24">
-        <f>+BU32*(1+$BI$35)</f>
+        <f t="shared" si="78"/>
         <v>17208.407247521962</v>
       </c>
       <c r="BW32" s="24">
-        <f>+BV32*(1+$BI$35)</f>
+        <f t="shared" si="78"/>
         <v>17380.491319997182</v>
       </c>
       <c r="BX32" s="24">
-        <f>+BW32*(1+$BI$35)</f>
+        <f t="shared" si="78"/>
         <v>17554.296233197154</v>
       </c>
       <c r="BY32" s="24">
-        <f>+BX32*(1+$BI$35)</f>
+        <f t="shared" si="78"/>
         <v>17729.839195529126</v>
       </c>
       <c r="BZ32" s="24">
-        <f>+BY32*(1+$BI$35)</f>
+        <f t="shared" si="78"/>
         <v>17907.137587484416</v>
       </c>
       <c r="CA32" s="24">
-        <f>+BZ32*(1+$BI$35)</f>
+        <f t="shared" si="78"/>
         <v>18086.208963359262</v>
       </c>
       <c r="CB32" s="24">
-        <f>+CA32*(1+$BI$35)</f>
+        <f t="shared" si="78"/>
         <v>18267.071052992855</v>
       </c>
       <c r="CC32" s="24">
-        <f>+CB32*(1+$BI$35)</f>
+        <f t="shared" si="78"/>
         <v>18449.741763522783</v>
       </c>
       <c r="CD32" s="24">
-        <f>+CC32*(1+$BI$35)</f>
+        <f t="shared" si="78"/>
         <v>18634.239181158013</v>
       </c>
       <c r="CE32" s="24">
-        <f>+CD32*(1+$BI$35)</f>
+        <f t="shared" si="78"/>
         <v>18820.581572969593</v>
       </c>
       <c r="CF32" s="24">
-        <f>+CE32*(1+$BI$35)</f>
+        <f t="shared" si="78"/>
         <v>19008.787388699289</v>
       </c>
       <c r="CG32" s="24">
-        <f>+CF32*(1+$BI$35)</f>
+        <f t="shared" si="78"/>
         <v>19198.875262586283</v>
       </c>
       <c r="CH32" s="24">
-        <f>+CG32*(1+$BI$35)</f>
+        <f t="shared" si="78"/>
         <v>19390.864015212148</v>
       </c>
       <c r="CI32" s="24">
-        <f>+CH32*(1+$BI$35)</f>
+        <f t="shared" si="78"/>
         <v>19584.772655364268</v>
       </c>
       <c r="CJ32" s="24">
-        <f>+CI32*(1+$BI$35)</f>
+        <f t="shared" ref="CJ32:DO32" si="79">+CI32*(1+$BI$35)</f>
         <v>19780.62038191791</v>
       </c>
       <c r="CK32" s="24">
-        <f>+CJ32*(1+$BI$35)</f>
+        <f t="shared" si="79"/>
         <v>19978.426585737088</v>
       </c>
       <c r="CL32" s="24">
-        <f>+CK32*(1+$BI$35)</f>
+        <f t="shared" si="79"/>
         <v>20178.21085159446</v>
       </c>
       <c r="CM32" s="24">
-        <f>+CL32*(1+$BI$35)</f>
+        <f t="shared" si="79"/>
         <v>20379.992960110405</v>
       </c>
       <c r="CN32" s="24">
-        <f>+CM32*(1+$BI$35)</f>
+        <f t="shared" si="79"/>
         <v>20583.792889711509</v>
       </c>
       <c r="CO32" s="24">
-        <f>+CN32*(1+$BI$35)</f>
+        <f t="shared" si="79"/>
         <v>20789.630818608624</v>
       </c>
       <c r="CP32" s="24">
-        <f>+CO32*(1+$BI$35)</f>
+        <f t="shared" si="79"/>
         <v>20997.52712679471</v>
       </c>
       <c r="CQ32" s="24">
-        <f>+CP32*(1+$BI$35)</f>
+        <f t="shared" si="79"/>
         <v>21207.502398062657</v>
       </c>
       <c r="CR32" s="24">
-        <f>+CQ32*(1+$BI$35)</f>
+        <f t="shared" si="79"/>
         <v>21419.577422043283</v>
       </c>
       <c r="CS32" s="24">
-        <f>+CR32*(1+$BI$35)</f>
+        <f t="shared" si="79"/>
         <v>21633.773196263715</v>
       </c>
       <c r="CT32" s="24">
-        <f>+CS32*(1+$BI$35)</f>
+        <f t="shared" si="79"/>
         <v>21850.110928226353</v>
       </c>
       <c r="CU32" s="24">
-        <f>+CT32*(1+$BI$35)</f>
+        <f t="shared" si="79"/>
         <v>22068.612037508618</v>
       </c>
       <c r="CV32" s="24">
-        <f>+CU32*(1+$BI$35)</f>
+        <f t="shared" si="79"/>
         <v>22289.298157883703</v>
       </c>
       <c r="CW32" s="24">
-        <f>+CV32*(1+$BI$35)</f>
+        <f t="shared" si="79"/>
         <v>22512.191139462539</v>
       </c>
       <c r="CX32" s="24">
-        <f>+CW32*(1+$BI$35)</f>
+        <f t="shared" si="79"/>
         <v>22737.313050857163</v>
       </c>
       <c r="CY32" s="24">
-        <f>+CX32*(1+$BI$35)</f>
+        <f t="shared" si="79"/>
         <v>22964.686181365734</v>
       </c>
       <c r="CZ32" s="24">
-        <f>+CY32*(1+$BI$35)</f>
+        <f t="shared" si="79"/>
         <v>23194.333043179391</v>
       </c>
       <c r="DA32" s="24">
-        <f>+CZ32*(1+$BI$35)</f>
+        <f t="shared" si="79"/>
         <v>23426.276373611185</v>
       </c>
       <c r="DB32" s="24">
-        <f>+DA32*(1+$BI$35)</f>
+        <f t="shared" si="79"/>
         <v>23660.539137347296</v>
       </c>
       <c r="DC32" s="24">
-        <f>+DB32*(1+$BI$35)</f>
+        <f t="shared" si="79"/>
         <v>23897.144528720768</v>
       </c>
       <c r="DD32" s="24">
-        <f>+DC32*(1+$BI$35)</f>
+        <f t="shared" si="79"/>
         <v>24136.115974007975</v>
       </c>
       <c r="DE32" s="24">
-        <f>+DD32*(1+$BI$35)</f>
+        <f t="shared" si="79"/>
         <v>24377.477133748056</v>
       </c>
       <c r="DF32" s="24">
-        <f>+DE32*(1+$BI$35)</f>
+        <f t="shared" si="79"/>
         <v>24621.251905085537</v>
       </c>
       <c r="DG32" s="24">
-        <f>+DF32*(1+$BI$35)</f>
+        <f t="shared" si="79"/>
         <v>24867.464424136393</v>
       </c>
       <c r="DH32" s="24">
-        <f>+DG32*(1+$BI$35)</f>
+        <f t="shared" si="79"/>
         <v>25116.139068377757</v>
       </c>
       <c r="DI32" s="24">
-        <f>+DH32*(1+$BI$35)</f>
+        <f t="shared" si="79"/>
         <v>25367.300459061535</v>
       </c>
       <c r="DJ32" s="24">
-        <f>+DI32*(1+$BI$35)</f>
+        <f t="shared" si="79"/>
         <v>25620.97346365215</v>
       </c>
       <c r="DK32" s="24">
-        <f>+DJ32*(1+$BI$35)</f>
+        <f t="shared" si="79"/>
         <v>25877.183198288672</v>
       </c>
       <c r="DL32" s="24">
-        <f>+DK32*(1+$BI$35)</f>
+        <f t="shared" si="79"/>
         <v>26135.955030271558</v>
       </c>
       <c r="DM32" s="24">
-        <f>+DL32*(1+$BI$35)</f>
+        <f t="shared" si="79"/>
         <v>26397.314580574275</v>
       </c>
       <c r="DN32" s="24">
-        <f>+DM32*(1+$BI$35)</f>
+        <f t="shared" si="79"/>
         <v>26661.287726380018</v>
       </c>
       <c r="DO32" s="24">
-        <f>+DN32*(1+$BI$35)</f>
+        <f t="shared" si="79"/>
         <v>26927.900603643819</v>
       </c>
       <c r="DP32" s="24">
-        <f>+DO32*(1+$BI$35)</f>
+        <f t="shared" ref="DP32:EU32" si="80">+DO32*(1+$BI$35)</f>
         <v>27197.179609680257</v>
       </c>
       <c r="DQ32" s="24">
-        <f>+DP32*(1+$BI$35)</f>
+        <f t="shared" si="80"/>
         <v>27469.151405777062</v>
       </c>
       <c r="DR32" s="24">
-        <f>+DQ32*(1+$BI$35)</f>
+        <f t="shared" si="80"/>
         <v>27743.842919834831</v>
       </c>
       <c r="DS32" s="24">
-        <f>+DR32*(1+$BI$35)</f>
+        <f t="shared" si="80"/>
         <v>28021.281349033179</v>
       </c>
       <c r="DT32" s="24">
-        <f>+DS32*(1+$BI$35)</f>
+        <f t="shared" si="80"/>
         <v>28301.494162523511</v>
       </c>
       <c r="DU32" s="24">
-        <f>+DT32*(1+$BI$35)</f>
+        <f t="shared" si="80"/>
         <v>28584.509104148747</v>
       </c>
       <c r="DV32" s="24">
-        <f>+DU32*(1+$BI$35)</f>
+        <f t="shared" si="80"/>
         <v>28870.354195190233</v>
       </c>
       <c r="DW32" s="24">
-        <f>+DV32*(1+$BI$35)</f>
+        <f t="shared" si="80"/>
         <v>29159.057737142135</v>
       </c>
       <c r="DX32" s="24">
-        <f>+DW32*(1+$BI$35)</f>
+        <f t="shared" si="80"/>
         <v>29450.648314513557</v>
       </c>
       <c r="DY32" s="24">
-        <f>+DX32*(1+$BI$35)</f>
+        <f t="shared" si="80"/>
         <v>29745.154797658692</v>
       </c>
       <c r="DZ32" s="24">
-        <f>+DY32*(1+$BI$35)</f>
+        <f t="shared" si="80"/>
         <v>30042.606345635279</v>
       </c>
       <c r="EA32" s="24">
-        <f>+DZ32*(1+$BI$35)</f>
+        <f t="shared" si="80"/>
         <v>30343.032409091633</v>
       </c>
       <c r="EB32" s="24">
-        <f>+EA32*(1+$BI$35)</f>
+        <f t="shared" si="80"/>
         <v>30646.46273318255</v>
       </c>
       <c r="EC32" s="24">
-        <f>+EB32*(1+$BI$35)</f>
+        <f t="shared" si="80"/>
         <v>30952.927360514375</v>
       </c>
       <c r="ED32" s="24">
-        <f>+EC32*(1+$BI$35)</f>
+        <f t="shared" si="80"/>
         <v>31262.45663411952</v>
       </c>
       <c r="EE32" s="24">
-        <f>+ED32*(1+$BI$35)</f>
+        <f t="shared" si="80"/>
         <v>31575.081200460714</v>
       </c>
       <c r="EF32" s="24">
-        <f>+EE32*(1+$BI$35)</f>
+        <f t="shared" si="80"/>
         <v>31890.832012465322</v>
       </c>
       <c r="EG32" s="24">
-        <f>+EF32*(1+$BI$35)</f>
+        <f t="shared" si="80"/>
         <v>32209.740332589976</v>
       </c>
       <c r="EH32" s="24">
-        <f>+EG32*(1+$BI$35)</f>
+        <f t="shared" si="80"/>
         <v>32531.837735915877</v>
       </c>
       <c r="EI32" s="24">
-        <f>+EH32*(1+$BI$35)</f>
+        <f t="shared" si="80"/>
         <v>32857.156113275036</v>
       </c>
       <c r="EJ32" s="24">
-        <f>+EI32*(1+$BI$35)</f>
+        <f t="shared" si="80"/>
         <v>33185.72767440779</v>
       </c>
       <c r="EK32" s="24">
-        <f>+EJ32*(1+$BI$35)</f>
+        <f t="shared" si="80"/>
         <v>33517.584951151868</v>
       </c>
       <c r="EL32" s="24">
-        <f>+EK32*(1+$BI$35)</f>
+        <f t="shared" si="80"/>
         <v>33852.760800663389</v>
       </c>
       <c r="EM32" s="24">
-        <f>+EL32*(1+$BI$35)</f>
+        <f t="shared" si="80"/>
         <v>34191.288408670021</v>
       </c>
       <c r="EN32" s="24">
-        <f>+EM32*(1+$BI$35)</f>
+        <f t="shared" si="80"/>
         <v>34533.201292756719</v>
       </c>
       <c r="EO32" s="24">
-        <f>+EN32*(1+$BI$35)</f>
+        <f t="shared" si="80"/>
         <v>34878.533305684286</v>
       </c>
       <c r="EP32" s="24">
-        <f>+EO32*(1+$BI$35)</f>
+        <f t="shared" si="80"/>
         <v>35227.318638741126</v>
       </c>
       <c r="EQ32" s="24">
-        <f>+EP32*(1+$BI$35)</f>
+        <f t="shared" si="80"/>
         <v>35579.59182512854</v>
       </c>
       <c r="ER32" s="24">
-        <f>+EQ32*(1+$BI$35)</f>
+        <f t="shared" si="80"/>
         <v>35935.387743379826</v>
       </c>
       <c r="ES32" s="24">
-        <f>+ER32*(1+$BI$35)</f>
+        <f t="shared" si="80"/>
         <v>36294.741620813627</v>
       </c>
       <c r="ET32" s="24">
-        <f>+ES32*(1+$BI$35)</f>
+        <f t="shared" si="80"/>
         <v>36657.689037021766</v>
       </c>
       <c r="EU32" s="24">
-        <f>+ET32*(1+$BI$35)</f>
+        <f t="shared" si="80"/>
         <v>37024.265927391985</v>
       </c>
       <c r="EV32" s="24">
-        <f>+EU32*(1+$BI$35)</f>
+        <f t="shared" ref="EV32:GA32" si="81">+EU32*(1+$BI$35)</f>
         <v>37394.508586665906</v>
       </c>
       <c r="EW32" s="24">
-        <f>+EV32*(1+$BI$35)</f>
+        <f t="shared" si="81"/>
         <v>37768.453672532567</v>
       </c>
       <c r="EX32" s="24">
-        <f>+EW32*(1+$BI$35)</f>
+        <f t="shared" si="81"/>
         <v>38146.138209257893</v>
       </c>
       <c r="EY32" s="24">
-        <f>+EX32*(1+$BI$35)</f>
+        <f t="shared" si="81"/>
         <v>38527.599591350474</v>
       </c>
       <c r="EZ32" s="24">
-        <f>+EY32*(1+$BI$35)</f>
+        <f t="shared" si="81"/>
         <v>38912.875587263981</v>
       </c>
       <c r="FA32" s="24">
-        <f>+EZ32*(1+$BI$35)</f>
+        <f t="shared" si="81"/>
         <v>39302.004343136621</v>
       </c>
       <c r="FB32" s="24">
-        <f>+FA32*(1+$BI$35)</f>
+        <f t="shared" si="81"/>
         <v>39695.024386567988</v>
       </c>
       <c r="FC32" s="24">
-        <f>+FB32*(1+$BI$35)</f>
+        <f t="shared" si="81"/>
         <v>40091.974630433666</v>
       </c>
       <c r="FD32" s="24">
-        <f>+FC32*(1+$BI$35)</f>
+        <f t="shared" si="81"/>
         <v>40492.894376738004</v>
       </c>
       <c r="FE32" s="24">
-        <f>+FD32*(1+$BI$35)</f>
+        <f t="shared" si="81"/>
         <v>40897.823320505384</v>
       </c>
       <c r="FF32" s="24">
-        <f>+FE32*(1+$BI$35)</f>
+        <f t="shared" si="81"/>
         <v>41306.801553710437</v>
       </c>
       <c r="FG32" s="24">
-        <f>+FF32*(1+$BI$35)</f>
+        <f t="shared" si="81"/>
         <v>41719.869569247545</v>
       </c>
       <c r="FH32" s="24">
-        <f>+FG32*(1+$BI$35)</f>
+        <f t="shared" si="81"/>
         <v>42137.068264940019</v>
       </c>
       <c r="FI32" s="24">
-        <f>+FH32*(1+$BI$35)</f>
+        <f t="shared" si="81"/>
         <v>42558.43894758942</v>
       </c>
       <c r="FJ32" s="24">
-        <f>+FI32*(1+$BI$35)</f>
+        <f t="shared" si="81"/>
         <v>42984.023337065315</v>
       </c>
       <c r="FK32" s="24">
-        <f>+FJ32*(1+$BI$35)</f>
+        <f t="shared" si="81"/>
         <v>43413.863570435969</v>
       </c>
       <c r="FL32" s="24">
-        <f>+FK32*(1+$BI$35)</f>
+        <f t="shared" si="81"/>
         <v>43848.002206140329</v>
       </c>
       <c r="FM32" s="24">
-        <f>+FL32*(1+$BI$35)</f>
+        <f t="shared" si="81"/>
         <v>44286.482228201734</v>
       </c>
       <c r="FN32" s="24">
-        <f>+FM32*(1+$BI$35)</f>
+        <f t="shared" si="81"/>
         <v>44729.347050483753</v>
       </c>
       <c r="FO32" s="24">
-        <f>+FN32*(1+$BI$35)</f>
+        <f t="shared" si="81"/>
         <v>45176.640520988592</v>
       </c>
       <c r="FP32" s="24">
-        <f>+FO32*(1+$BI$35)</f>
+        <f t="shared" si="81"/>
         <v>45628.406926198477</v>
       </c>
       <c r="FQ32" s="24">
-        <f>+FP32*(1+$BI$35)</f>
+        <f t="shared" si="81"/>
         <v>46084.690995460463</v>
       </c>
       <c r="FR32" s="24">
-        <f>+FQ32*(1+$BI$35)</f>
+        <f t="shared" si="81"/>
         <v>46545.537905415069</v>
       </c>
       <c r="FS32" s="24">
-        <f>+FR32*(1+$BI$35)</f>
+        <f t="shared" si="81"/>
         <v>47010.993284469223</v>
       </c>
       <c r="FT32" s="24">
-        <f>+FS32*(1+$BI$35)</f>
+        <f t="shared" si="81"/>
         <v>47481.103217313917</v>
       </c>
       <c r="FU32" s="24">
-        <f>+FT32*(1+$BI$35)</f>
+        <f t="shared" si="81"/>
         <v>47955.914249487054</v>
       </c>
       <c r="FV32" s="24">
-        <f>+FU32*(1+$BI$35)</f>
+        <f t="shared" si="81"/>
         <v>48435.473391981926</v>
       </c>
       <c r="FW32" s="24">
-        <f>+FV32*(1+$BI$35)</f>
+        <f t="shared" si="81"/>
         <v>48919.828125901746</v>
       </c>
       <c r="FX32" s="24">
-        <f>+FW32*(1+$BI$35)</f>
+        <f t="shared" si="81"/>
         <v>49409.026407160767</v>
       </c>
       <c r="FY32" s="24">
-        <f>+FX32*(1+$BI$35)</f>
+        <f t="shared" si="81"/>
         <v>49903.116671232376</v>
       </c>
       <c r="FZ32" s="24">
-        <f>+FY32*(1+$BI$35)</f>
+        <f t="shared" si="81"/>
         <v>50402.1478379447</v>
       </c>
       <c r="GA32" s="24">
-        <f>+FZ32*(1+$BI$35)</f>
+        <f t="shared" si="81"/>
         <v>50906.169316324151</v>
       </c>
       <c r="GB32" s="24">
-        <f>+GA32*(1+$BI$35)</f>
+        <f t="shared" ref="GB32:HG32" si="82">+GA32*(1+$BI$35)</f>
         <v>51415.23100948739</v>
       </c>
       <c r="GC32" s="24">
-        <f>+GB32*(1+$BI$35)</f>
+        <f t="shared" si="82"/>
         <v>51929.383319582266</v>
       </c>
       <c r="GD32" s="24">
-        <f>+GC32*(1+$BI$35)</f>
+        <f t="shared" si="82"/>
         <v>52448.677152778087</v>
       </c>
       <c r="GE32" s="24">
-        <f>+GD32*(1+$BI$35)</f>
+        <f t="shared" si="82"/>
         <v>52973.163924305867</v>
       </c>
       <c r="GF32" s="24">
-        <f>+GE32*(1+$BI$35)</f>
+        <f t="shared" si="82"/>
         <v>53502.895563548926</v>
       </c>
       <c r="GG32" s="24">
-        <f>+GF32*(1+$BI$35)</f>
+        <f t="shared" si="82"/>
         <v>54037.924519184417</v>
       </c>
       <c r="GH32" s="24">
-        <f>+GG32*(1+$BI$35)</f>
+        <f t="shared" si="82"/>
         <v>54578.303764376258</v>
       </c>
       <c r="GI32" s="24">
-        <f>+GH32*(1+$BI$35)</f>
+        <f t="shared" si="82"/>
         <v>55124.086802020021</v>
       </c>
       <c r="GJ32" s="24">
-        <f>+GI32*(1+$BI$35)</f>
+        <f t="shared" si="82"/>
         <v>55675.32767004022</v>
       </c>
       <c r="GK32" s="24">
-        <f>+GJ32*(1+$BI$35)</f>
+        <f t="shared" si="82"/>
         <v>56232.080946740622</v>
       </c>
       <c r="GL32" s="24">
-        <f>+GK32*(1+$BI$35)</f>
+        <f t="shared" si="82"/>
         <v>56794.401756208026</v>
       </c>
       <c r="GM32" s="24">
-        <f>+GL32*(1+$BI$35)</f>
+        <f t="shared" si="82"/>
         <v>57362.34577377011</v>
       </c>
       <c r="GN32" s="24">
-        <f>+GM32*(1+$BI$35)</f>
+        <f t="shared" si="82"/>
         <v>57935.969231507814</v>
       </c>
       <c r="GO32" s="24">
-        <f>+GN32*(1+$BI$35)</f>
+        <f t="shared" si="82"/>
         <v>58515.32892382289</v>
       </c>
       <c r="GP32" s="24">
-        <f>+GO32*(1+$BI$35)</f>
+        <f t="shared" si="82"/>
         <v>59100.482213061121</v>
       </c>
       <c r="GQ32" s="24">
-        <f>+GP32*(1+$BI$35)</f>
+        <f t="shared" si="82"/>
         <v>59691.487035191734</v>
       </c>
       <c r="GR32" s="24">
-        <f>+GQ32*(1+$BI$35)</f>
+        <f t="shared" si="82"/>
         <v>60288.401905543651</v>
       </c>
       <c r="GS32" s="24">
-        <f>+GR32*(1+$BI$35)</f>
+        <f t="shared" si="82"/>
         <v>60891.285924599091</v>
       </c>
       <c r="GT32" s="24">
-        <f>+GS32*(1+$BI$35)</f>
+        <f t="shared" si="82"/>
         <v>61500.19878384508</v>
       </c>
       <c r="GU32" s="24">
-        <f>+GT32*(1+$BI$35)</f>
+        <f t="shared" si="82"/>
         <v>62115.200771683529</v>
       </c>
       <c r="GV32" s="24">
-        <f>+GU32*(1+$BI$35)</f>
+        <f t="shared" si="82"/>
         <v>62736.352779400368</v>
       </c>
       <c r="GW32" s="24">
-        <f>+GV32*(1+$BI$35)</f>
+        <f t="shared" si="82"/>
         <v>63363.716307194372</v>
       </c>
       <c r="GX32" s="24">
-        <f>+GW32*(1+$BI$35)</f>
+        <f t="shared" si="82"/>
         <v>63997.353470266316</v>
       </c>
       <c r="GY32" s="24">
-        <f>+GX32*(1+$BI$35)</f>
+        <f t="shared" si="82"/>
         <v>64637.327004968982</v>
       </c>
       <c r="GZ32" s="24">
-        <f>+GY32*(1+$BI$35)</f>
+        <f t="shared" si="82"/>
         <v>65283.700275018673</v>
       </c>
       <c r="HA32" s="24">
-        <f>+GZ32*(1+$BI$35)</f>
+        <f t="shared" si="82"/>
         <v>65936.537277768861</v>
       </c>
       <c r="HB32" s="24">
-        <f>+HA32*(1+$BI$35)</f>
+        <f t="shared" si="82"/>
         <v>66595.902650546544</v>
       </c>
       <c r="HC32" s="24">
-        <f>+HB32*(1+$BI$35)</f>
+        <f t="shared" si="82"/>
         <v>67261.861677052017</v>
       </c>
       <c r="HD32" s="24">
-        <f>+HC32*(1+$BI$35)</f>
+        <f t="shared" si="82"/>
         <v>67934.480293822533</v>
       </c>
       <c r="HE32" s="24">
-        <f>+HD32*(1+$BI$35)</f>
+        <f t="shared" si="82"/>
         <v>68613.82509676076</v>
       </c>
       <c r="HF32" s="24">
-        <f>+HE32*(1+$BI$35)</f>
+        <f t="shared" si="82"/>
         <v>69299.963347728364</v>
       </c>
       <c r="HG32" s="24">
-        <f>+HF32*(1+$BI$35)</f>
+        <f t="shared" si="82"/>
         <v>69992.962981205652</v>
       </c>
       <c r="HH32" s="24">
-        <f>+HG32*(1+$BI$35)</f>
+        <f t="shared" ref="HH32:HX32" si="83">+HG32*(1+$BI$35)</f>
         <v>70692.892611017713</v>
       </c>
       <c r="HI32" s="24">
-        <f>+HH32*(1+$BI$35)</f>
+        <f t="shared" si="83"/>
         <v>71399.821537127893</v>
       </c>
       <c r="HJ32" s="24">
-        <f>+HI32*(1+$BI$35)</f>
+        <f t="shared" si="83"/>
         <v>72113.81975249917</v>
       </c>
       <c r="HK32" s="24">
-        <f>+HJ32*(1+$BI$35)</f>
+        <f t="shared" si="83"/>
         <v>72834.957950024167</v>
       </c>
       <c r="HL32" s="24">
-        <f>+HK32*(1+$BI$35)</f>
+        <f t="shared" si="83"/>
         <v>73563.307529524405</v>
       </c>
       <c r="HM32" s="24">
-        <f>+HL32*(1+$BI$35)</f>
+        <f t="shared" si="83"/>
         <v>74298.940604819654</v>
       </c>
       <c r="HN32" s="24">
-        <f>+HM32*(1+$BI$35)</f>
+        <f t="shared" si="83"/>
         <v>75041.930010867858</v>
       </c>
       <c r="HO32" s="24">
-        <f>+HN32*(1+$BI$35)</f>
+        <f t="shared" si="83"/>
         <v>75792.34931097654</v>
       </c>
       <c r="HP32" s="24">
-        <f>+HO32*(1+$BI$35)</f>
+        <f t="shared" si="83"/>
         <v>76550.2728040863</v>
       </c>
       <c r="HQ32" s="24">
-        <f>+HP32*(1+$BI$35)</f>
+        <f t="shared" si="83"/>
         <v>77315.775532127169</v>
       </c>
       <c r="HR32" s="24">
-        <f>+HQ32*(1+$BI$35)</f>
+        <f t="shared" si="83"/>
         <v>78088.933287448439</v>
       </c>
       <c r="HS32" s="24">
-        <f>+HR32*(1+$BI$35)</f>
+        <f t="shared" si="83"/>
         <v>78869.822620322928</v>
       </c>
       <c r="HT32" s="24">
-        <f>+HS32*(1+$BI$35)</f>
+        <f t="shared" si="83"/>
         <v>79658.520846526153</v>
       </c>
       <c r="HU32" s="24">
-        <f>+HT32*(1+$BI$35)</f>
+        <f t="shared" si="83"/>
         <v>80455.106054991411</v>
       </c>
       <c r="HV32" s="24">
-        <f>+HU32*(1+$BI$35)</f>
+        <f t="shared" si="83"/>
         <v>81259.657115541326</v>
       </c>
       <c r="HW32" s="24">
-        <f>+HV32*(1+$BI$35)</f>
+        <f t="shared" si="83"/>
         <v>82072.253686696742</v>
       </c>
       <c r="HX32" s="24">
-        <f>+HW32*(1+$BI$35)</f>
+        <f t="shared" si="83"/>
         <v>82892.976223563717</v>
       </c>
       <c r="HY32" s="24">
-        <f t="shared" ref="HY32:IR32" si="78">+HX32*(1+$BI$35)</f>
+        <f t="shared" ref="HY32:IR32" si="84">+HX32*(1+$BI$35)</f>
         <v>83721.905985799356</v>
       </c>
       <c r="HZ32" s="24">
-        <f t="shared" si="78"/>
+        <f t="shared" si="84"/>
         <v>84559.125045657347</v>
       </c>
       <c r="IA32" s="24">
-        <f t="shared" si="78"/>
+        <f t="shared" si="84"/>
         <v>85404.716296113926</v>
       </c>
       <c r="IB32" s="24">
-        <f t="shared" si="78"/>
+        <f t="shared" si="84"/>
         <v>86258.763459075068</v>
       </c>
       <c r="IC32" s="24">
-        <f t="shared" si="78"/>
+        <f t="shared" si="84"/>
         <v>87121.351093665813</v>
       </c>
       <c r="ID32" s="24">
-        <f t="shared" si="78"/>
+        <f t="shared" si="84"/>
         <v>87992.564604602478</v>
       </c>
       <c r="IE32" s="24">
-        <f t="shared" si="78"/>
+        <f t="shared" si="84"/>
         <v>88872.490250648509</v>
       </c>
       <c r="IF32" s="24">
-        <f t="shared" si="78"/>
+        <f t="shared" si="84"/>
         <v>89761.21515315499</v>
       </c>
       <c r="IG32" s="24">
-        <f t="shared" si="78"/>
+        <f t="shared" si="84"/>
         <v>90658.827304686536</v>
       </c>
       <c r="IH32" s="24">
-        <f t="shared" si="78"/>
+        <f t="shared" si="84"/>
         <v>91565.415577733409</v>
       </c>
       <c r="II32" s="24">
-        <f t="shared" si="78"/>
+        <f t="shared" si="84"/>
         <v>92481.06973351074</v>
       </c>
       <c r="IJ32" s="24">
-        <f t="shared" si="78"/>
+        <f t="shared" si="84"/>
         <v>93405.880430845849</v>
       </c>
       <c r="IK32" s="24">
-        <f t="shared" si="78"/>
+        <f t="shared" si="84"/>
         <v>94339.939235154307</v>
       </c>
       <c r="IL32" s="24">
-        <f t="shared" si="78"/>
+        <f t="shared" si="84"/>
         <v>95283.338627505844</v>
       </c>
       <c r="IM32" s="24">
-        <f t="shared" si="78"/>
+        <f t="shared" si="84"/>
         <v>96236.172013780902</v>
       </c>
       <c r="IN32" s="24">
-        <f t="shared" si="78"/>
+        <f t="shared" si="84"/>
         <v>97198.53373391871</v>
       </c>
       <c r="IO32" s="24">
-        <f t="shared" si="78"/>
+        <f t="shared" si="84"/>
         <v>98170.519071257891</v>
       </c>
       <c r="IP32" s="24">
-        <f t="shared" si="78"/>
+        <f t="shared" si="84"/>
         <v>99152.224261970478</v>
       </c>
       <c r="IQ32" s="24">
-        <f t="shared" si="78"/>
+        <f t="shared" si="84"/>
         <v>100143.74650459018</v>
       </c>
       <c r="IR32" s="24">
-        <f t="shared" si="78"/>
+        <f t="shared" si="84"/>
         <v>101145.18396963608</v>
       </c>
       <c r="IS32" s="24">
-        <f t="shared" ref="IS32:IT32" si="79">+IR32*(1+$BI$35)</f>
+        <f t="shared" ref="IS32:IT32" si="85">+IR32*(1+$BI$35)</f>
         <v>102156.63580933245</v>
       </c>
       <c r="IT32" s="24">
-        <f t="shared" si="79"/>
+        <f t="shared" si="85"/>
         <v>103178.20216742578</v>
       </c>
       <c r="IU32" s="24">
-        <f t="shared" ref="IU32" si="80">+IT32*(1+$BI$35)</f>
+        <f t="shared" ref="IU32" si="86">+IT32*(1+$BI$35)</f>
         <v>104209.98418910004</v>
       </c>
     </row>
@@ -7460,39 +7479,39 @@
         <v>2929.2</v>
       </c>
       <c r="AU33" s="56">
-        <f t="shared" ref="AU33:BC33" si="81">+AT33</f>
+        <f t="shared" ref="AU33:BC33" si="87">+AT33</f>
         <v>2929.2</v>
       </c>
       <c r="AV33" s="56">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>2929.2</v>
       </c>
       <c r="AW33" s="56">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>2929.2</v>
       </c>
       <c r="AX33" s="56">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>2929.2</v>
       </c>
       <c r="AY33" s="56">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>2929.2</v>
       </c>
       <c r="AZ33" s="56">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>2929.2</v>
       </c>
       <c r="BA33" s="56">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>2929.2</v>
       </c>
       <c r="BB33" s="56">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>2929.2</v>
       </c>
       <c r="BC33" s="56">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>2929.2</v>
       </c>
       <c r="BD33" s="56"/>
@@ -7503,87 +7522,87 @@
         <v>36</v>
       </c>
       <c r="C34" s="35">
-        <f t="shared" ref="C34:M34" si="82">+C32/C33</f>
+        <f t="shared" ref="C34:M34" si="88">+C32/C33</f>
         <v>1.801192327630897</v>
       </c>
       <c r="D34" s="35">
-        <f t="shared" si="82"/>
+        <f t="shared" si="88"/>
         <v>2.0555483283465588</v>
       </c>
       <c r="E34" s="35">
-        <f t="shared" si="82"/>
+        <f t="shared" si="88"/>
         <v>2.1951826155255936</v>
       </c>
       <c r="F34" s="35">
-        <f t="shared" si="82"/>
+        <f t="shared" si="88"/>
         <v>2.1719163578613019</v>
       </c>
       <c r="G34" s="35">
-        <f t="shared" si="82"/>
+        <f t="shared" si="88"/>
         <v>1.5723990941787669</v>
       </c>
       <c r="H34" s="35">
-        <f t="shared" si="82"/>
+        <f t="shared" si="88"/>
         <v>0.74111675126903587</v>
       </c>
       <c r="I34" s="35">
-        <f t="shared" si="82"/>
+        <f t="shared" si="88"/>
         <v>2.4512000000000009</v>
       </c>
       <c r="J34" s="35">
-        <f t="shared" si="82"/>
+        <f t="shared" si="88"/>
         <v>1.9407456724367513</v>
       </c>
       <c r="K34" s="35">
-        <f t="shared" si="82"/>
+        <f t="shared" si="88"/>
         <v>2.1479360852197069</v>
       </c>
       <c r="L34" s="35">
-        <f t="shared" si="82"/>
+        <f t="shared" si="88"/>
         <v>3.0612950405531172</v>
       </c>
       <c r="M34" s="35">
-        <f t="shared" si="82"/>
+        <f t="shared" si="88"/>
         <v>2.9683762955089028</v>
       </c>
       <c r="N34" s="35">
-        <f t="shared" ref="N34" si="83">+N32/N33</f>
+        <f t="shared" ref="N34" si="89">+N32/N33</f>
         <v>2.2955029270888754</v>
       </c>
       <c r="O34" s="35">
-        <f t="shared" ref="O34:P34" si="84">+O32/O33</f>
+        <f t="shared" ref="O34:P34" si="90">+O32/O33</f>
         <v>1.6012573568753345</v>
       </c>
       <c r="P34" s="35">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>1.7264150943396235</v>
       </c>
       <c r="Q34" s="35">
-        <f t="shared" ref="Q34" si="85">+Q32/Q33</f>
+        <f t="shared" ref="Q34" si="91">+Q32/Q33</f>
         <v>2.8058147396889797</v>
       </c>
       <c r="R34" s="35">
-        <f t="shared" ref="R34:W34" si="86">+R32/R33</f>
+        <f t="shared" ref="R34:W34" si="92">+R32/R33</f>
         <v>2.5861413043478256</v>
       </c>
       <c r="S34" s="35">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>2.4504418762746432</v>
       </c>
       <c r="T34" s="35">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>3.146397930001362</v>
       </c>
       <c r="U34" s="35">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>3.1671678512848538</v>
       </c>
       <c r="V34" s="35">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>2.8015938444627646</v>
       </c>
       <c r="W34" s="35">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>2.657390825182532</v>
       </c>
       <c r="AH34" s="35">
@@ -7630,39 +7649,39 @@
         <v>2.9944423903195956</v>
       </c>
       <c r="AU34" s="69">
-        <f t="shared" ref="AU34:BC34" si="87">+AU32/AU33</f>
+        <f t="shared" ref="AU34:BC34" si="93">+AU32/AU33</f>
         <v>3.159819279327114</v>
       </c>
       <c r="AV34" s="69">
-        <f t="shared" si="87"/>
+        <f t="shared" si="93"/>
         <v>3.3344383698817532</v>
       </c>
       <c r="AW34" s="69">
-        <f t="shared" si="87"/>
+        <f t="shared" si="93"/>
         <v>3.5188161883425244</v>
       </c>
       <c r="AX34" s="69">
-        <f t="shared" si="87"/>
+        <f t="shared" si="93"/>
         <v>3.713498129682169</v>
       </c>
       <c r="AY34" s="69">
-        <f t="shared" si="87"/>
+        <f t="shared" si="93"/>
         <v>3.919060071012189</v>
       </c>
       <c r="AZ34" s="69">
-        <f t="shared" si="87"/>
+        <f t="shared" si="93"/>
         <v>4.1361100752944226</v>
       </c>
       <c r="BA34" s="69">
-        <f t="shared" si="87"/>
+        <f t="shared" si="93"/>
         <v>4.3652901902802439</v>
       </c>
       <c r="BB34" s="69">
-        <f t="shared" si="87"/>
+        <f t="shared" si="93"/>
         <v>4.6072783480002784</v>
       </c>
       <c r="BC34" s="69">
-        <f t="shared" si="87"/>
+        <f t="shared" si="93"/>
         <v>4.8627903704250484</v>
       </c>
       <c r="BD34" s="69"/>
@@ -7775,135 +7794,135 @@
         <v>37</v>
       </c>
       <c r="G39" s="32">
-        <f>+G16/C16-1</f>
+        <f t="shared" ref="G39:P42" si="94">+G16/C16-1</f>
         <v>-9.5826824369560359E-2</v>
       </c>
       <c r="H39" s="32">
-        <f>+H16/D16-1</f>
+        <f t="shared" si="94"/>
         <v>-0.33606898850191635</v>
       </c>
       <c r="I39" s="32">
-        <f>+I16/E16-1</f>
+        <f t="shared" si="94"/>
         <v>-5.3877348340643838E-2</v>
       </c>
       <c r="J39" s="32">
-        <f>+J16/F16-1</f>
+        <f t="shared" si="94"/>
         <v>-5.500782803706683E-2</v>
       </c>
       <c r="K39" s="32">
-        <f>+K16/G16-1</f>
+        <f t="shared" si="94"/>
         <v>6.6985882120643714E-2</v>
       </c>
       <c r="L39" s="32">
-        <f>+L16/H16-1</f>
+        <f t="shared" si="94"/>
         <v>0.56158624584300676</v>
       </c>
       <c r="M39" s="32">
-        <f>+M16/I16-1</f>
+        <f t="shared" si="94"/>
         <v>0.13645906228131555</v>
       </c>
       <c r="N39" s="32">
-        <f>+N16/J16-1</f>
+        <f t="shared" si="94"/>
         <v>0.13679308646397703</v>
       </c>
       <c r="O39" s="32">
-        <f>+O16/K16-1</f>
+        <f t="shared" si="94"/>
         <v>6.5186213277816263E-2</v>
       </c>
       <c r="P39" s="32">
-        <f>+P16/L16-1</f>
+        <f t="shared" si="94"/>
         <v>-0.15104271306304484</v>
       </c>
       <c r="Q39" s="32">
-        <f>+Q16/M16-1</f>
+        <f t="shared" ref="Q39:Z42" si="95">+Q16/M16-1</f>
         <v>-0.18226600985221675</v>
       </c>
       <c r="R39" s="32">
-        <f>+R16/N16-1</f>
+        <f t="shared" si="95"/>
         <v>-0.13014022372774536</v>
       </c>
       <c r="S39" s="32">
-        <f>+S16/O16-1</f>
+        <f t="shared" si="95"/>
         <v>-3.3921125781792849E-2</v>
       </c>
       <c r="T39" s="32">
-        <f>+T16/P16-1</f>
+        <f t="shared" si="95"/>
         <v>0.17711094282468753</v>
       </c>
       <c r="U39" s="32">
-        <f>+U16/Q16-1</f>
+        <f t="shared" si="95"/>
         <v>0.20303087349397564</v>
       </c>
       <c r="V39" s="32">
-        <f>+V16/R16-1</f>
+        <f t="shared" si="95"/>
         <v>0.12031334903097246</v>
       </c>
       <c r="W39" s="32">
-        <f>+W16/S16-1</f>
+        <f t="shared" si="95"/>
         <v>5.8760059344512783E-2</v>
       </c>
       <c r="AN39" s="32">
-        <f>+AN16/AM16-1</f>
+        <f t="shared" ref="AN39:BC39" si="96">+AN16/AM16-1</f>
         <v>-0.21276997224602745</v>
       </c>
       <c r="AO39" s="32">
-        <f>+AO16/AN16-1</f>
+        <f t="shared" si="96"/>
         <v>-5.9114924046461126E-2</v>
       </c>
       <c r="AP39" s="64">
-        <f>+AP16/AO16-1</f>
+        <f t="shared" si="96"/>
         <v>-0.13603940217391297</v>
       </c>
       <c r="AQ39" s="64">
-        <f>+AQ16/AP16-1</f>
+        <f t="shared" si="96"/>
         <v>0.20250147434637311</v>
       </c>
       <c r="AR39" s="64">
-        <f>+AR16/AQ16-1</f>
+        <f t="shared" si="96"/>
         <v>-0.10615689560046571</v>
       </c>
       <c r="AS39" s="64">
-        <f>+AS16/AR16-1</f>
+        <f t="shared" si="96"/>
         <v>0.11352933107768259</v>
       </c>
       <c r="AT39" s="64">
-        <f>+AT16/AS16-1</f>
+        <f t="shared" si="96"/>
         <v>5.5449999999999777E-2</v>
       </c>
       <c r="AU39" s="64">
-        <f>+AU16/AT16-1</f>
+        <f t="shared" si="96"/>
         <v>5.5449999999999999E-2</v>
       </c>
       <c r="AV39" s="64">
-        <f>+AV16/AU16-1</f>
+        <f t="shared" si="96"/>
         <v>5.5449999999999777E-2</v>
       </c>
       <c r="AW39" s="64">
-        <f>+AW16/AV16-1</f>
+        <f t="shared" si="96"/>
         <v>5.5449999999999999E-2</v>
       </c>
       <c r="AX39" s="64">
-        <f>+AX16/AW16-1</f>
+        <f t="shared" si="96"/>
         <v>5.5449999999999999E-2</v>
       </c>
       <c r="AY39" s="64">
-        <f>+AY16/AX16-1</f>
+        <f t="shared" si="96"/>
         <v>5.5449999999999999E-2</v>
       </c>
       <c r="AZ39" s="64">
-        <f>+AZ16/AY16-1</f>
+        <f t="shared" si="96"/>
         <v>5.5449999999999999E-2</v>
       </c>
       <c r="BA39" s="64">
-        <f>+BA16/AZ16-1</f>
+        <f t="shared" si="96"/>
         <v>5.5449999999999777E-2</v>
       </c>
       <c r="BB39" s="64">
-        <f>+BB16/BA16-1</f>
+        <f t="shared" si="96"/>
         <v>5.5449999999999777E-2</v>
       </c>
       <c r="BC39" s="64">
-        <f>+BC16/BB16-1</f>
+        <f t="shared" si="96"/>
         <v>5.5450000000000221E-2</v>
       </c>
       <c r="BD39" s="64"/>
@@ -7921,135 +7940,135 @@
         <v>38</v>
       </c>
       <c r="G40" s="32">
-        <f>+G17/C17-1</f>
+        <f t="shared" si="94"/>
         <v>-3.9446060918566506E-2</v>
       </c>
       <c r="H40" s="32">
-        <f>+H17/D17-1</f>
+        <f t="shared" si="94"/>
         <v>-0.29001326124655724</v>
       </c>
       <c r="I40" s="32">
-        <f>+I17/E17-1</f>
+        <f t="shared" si="94"/>
         <v>1.0218978102189746E-2</v>
       </c>
       <c r="J40" s="32">
-        <f>+J17/F17-1</f>
+        <f t="shared" si="94"/>
         <v>-1.3397193287989495E-4</v>
       </c>
       <c r="K40" s="32">
-        <f>+K17/G17-1</f>
+        <f t="shared" si="94"/>
         <v>0.10329754601227004</v>
       </c>
       <c r="L40" s="32">
-        <f>+L17/H17-1</f>
+        <f t="shared" si="94"/>
         <v>0.58342911877394621</v>
       </c>
       <c r="M40" s="32">
-        <f>+M17/I17-1</f>
+        <f t="shared" si="94"/>
         <v>0.15285076195480807</v>
       </c>
       <c r="N40" s="32">
-        <f>+N17/J17-1</f>
+        <f t="shared" si="94"/>
         <v>0.13610022443305514</v>
       </c>
       <c r="O40" s="32">
-        <f>+O17/K17-1</f>
+        <f t="shared" si="94"/>
         <v>0.13394036282755262</v>
       </c>
       <c r="P40" s="32">
-        <f>+P17/L17-1</f>
+        <f t="shared" si="94"/>
         <v>6.6723126247655973E-2</v>
       </c>
       <c r="Q40" s="32">
-        <f>+Q17/M17-1</f>
+        <f t="shared" si="95"/>
         <v>4.5866332402712207E-2</v>
       </c>
       <c r="R40" s="32">
-        <f>+R17/N17-1</f>
+        <f t="shared" si="95"/>
         <v>7.4713999292369326E-2</v>
       </c>
       <c r="S40" s="32">
-        <f>+S17/O17-1</f>
+        <f t="shared" si="95"/>
         <v>9.9515753340688962E-2</v>
       </c>
       <c r="T40" s="32">
-        <f>+T17/P17-1</f>
+        <f t="shared" si="95"/>
         <v>0.11526029261653625</v>
       </c>
       <c r="U40" s="32">
-        <f>+U17/Q17-1</f>
+        <f t="shared" si="95"/>
         <v>0.10239158858139041</v>
       </c>
       <c r="V40" s="32">
-        <f>+V17/R17-1</f>
+        <f t="shared" si="95"/>
         <v>6.13443072702331E-2</v>
       </c>
       <c r="W40" s="32">
-        <f>+W17/S17-1</f>
+        <f t="shared" si="95"/>
         <v>3.7770034843205513E-2</v>
       </c>
       <c r="AN40" s="32">
-        <f>+AN17/AM17-1</f>
+        <f t="shared" ref="AN40:BC40" si="97">+AN17/AM17-1</f>
         <v>9.0184626045636707E-2</v>
       </c>
       <c r="AO40" s="32">
-        <f>+AO17/AN17-1</f>
+        <f t="shared" si="97"/>
         <v>5.8406356413166938E-2</v>
       </c>
       <c r="AP40" s="64">
-        <f>+AP17/AO17-1</f>
+        <f t="shared" si="97"/>
         <v>-7.9754969671491205E-2</v>
       </c>
       <c r="AQ40" s="64">
-        <f>+AQ17/AP17-1</f>
+        <f t="shared" si="97"/>
         <v>0.21995879210523861</v>
       </c>
       <c r="AR40" s="64">
-        <f>+AR17/AQ17-1</f>
+        <f t="shared" si="97"/>
         <v>7.7980038821892972E-2</v>
       </c>
       <c r="AS40" s="64">
-        <f>+AS17/AR17-1</f>
+        <f t="shared" si="97"/>
         <v>9.4337081200640993E-2</v>
       </c>
       <c r="AT40" s="64">
-        <f>+AT17/AS17-1</f>
+        <f t="shared" si="97"/>
         <v>5.6157000000000235E-2</v>
       </c>
       <c r="AU40" s="64">
-        <f>+AU17/AT17-1</f>
+        <f t="shared" si="97"/>
         <v>5.6157000000000012E-2</v>
       </c>
       <c r="AV40" s="64">
-        <f>+AV17/AU17-1</f>
+        <f t="shared" si="97"/>
         <v>5.6157000000000235E-2</v>
       </c>
       <c r="AW40" s="64">
-        <f>+AW17/AV17-1</f>
+        <f t="shared" si="97"/>
         <v>5.6157000000000012E-2</v>
       </c>
       <c r="AX40" s="64">
-        <f>+AX17/AW17-1</f>
+        <f t="shared" si="97"/>
         <v>5.6157000000000235E-2</v>
       </c>
       <c r="AY40" s="64">
-        <f>+AY17/AX17-1</f>
+        <f t="shared" si="97"/>
         <v>5.6157000000000012E-2</v>
       </c>
       <c r="AZ40" s="64">
-        <f>+AZ17/AY17-1</f>
+        <f t="shared" si="97"/>
         <v>5.6157000000000012E-2</v>
       </c>
       <c r="BA40" s="64">
-        <f>+BA17/AZ17-1</f>
+        <f t="shared" si="97"/>
         <v>5.6157000000000012E-2</v>
       </c>
       <c r="BB40" s="64">
-        <f>+BB17/BA17-1</f>
+        <f t="shared" si="97"/>
         <v>5.6157000000000012E-2</v>
       </c>
       <c r="BC40" s="64">
-        <f>+BC17/BB17-1</f>
+        <f t="shared" si="97"/>
         <v>5.6157000000000012E-2</v>
       </c>
       <c r="BD40" s="64"/>
@@ -8067,127 +8086,127 @@
         <v>39</v>
       </c>
       <c r="G41" s="32">
-        <f>+G18/C18-1</f>
+        <f t="shared" si="94"/>
         <v>0.1766423357664233</v>
       </c>
       <c r="H41" s="32">
-        <f>+H18/D18-1</f>
+        <f t="shared" si="94"/>
         <v>0.16496350364963508</v>
       </c>
       <c r="I41" s="32">
-        <f>+I18/E18-1</f>
+        <f t="shared" si="94"/>
         <v>0.21199442119944223</v>
       </c>
       <c r="J41" s="32">
-        <f>+J18/F18-1</f>
+        <f t="shared" si="94"/>
         <v>0.20202020202020199</v>
       </c>
       <c r="K41" s="32">
-        <f>+K18/G18-1</f>
+        <f t="shared" si="94"/>
         <v>6.3275434243176276E-2</v>
       </c>
       <c r="L41" s="32">
-        <f>+L18/H18-1</f>
+        <f t="shared" si="94"/>
         <v>0.16541353383458657</v>
       </c>
       <c r="M41" s="32">
-        <f>+M18/I18-1</f>
+        <f t="shared" si="94"/>
         <v>6.6743383199079354E-2</v>
       </c>
       <c r="N41" s="32">
-        <f>+N18/J18-1</f>
+        <f t="shared" si="94"/>
         <v>-0.17331932773109238</v>
       </c>
       <c r="O41" s="32">
-        <f>+O18/K18-1</f>
+        <f t="shared" si="94"/>
         <v>0.17152858809801641</v>
       </c>
       <c r="P41" s="32">
-        <f>+P18/L18-1</f>
+        <f t="shared" si="94"/>
         <v>-0.15268817204301077</v>
       </c>
       <c r="Q41" s="32">
-        <f>+Q18/M18-1</f>
+        <f t="shared" si="95"/>
         <v>-0.17907227615965493</v>
       </c>
       <c r="R41" s="32">
-        <f>+R18/N18-1</f>
+        <f t="shared" si="95"/>
         <v>-7.1156289707751008E-2</v>
       </c>
       <c r="S41" s="32">
-        <f>+S18/O18-1</f>
+        <f t="shared" si="95"/>
         <v>-0.14342629482071723</v>
       </c>
       <c r="T41" s="32">
-        <f>+T18/P18-1</f>
+        <f t="shared" si="95"/>
         <v>-2.0304568527918732E-2</v>
       </c>
       <c r="U41" s="32">
-        <f>+U18/Q18-1</f>
+        <f t="shared" si="95"/>
         <v>0.1681997371879107</v>
       </c>
       <c r="V41" s="32">
-        <f>+V18/R18-1</f>
+        <f t="shared" si="95"/>
         <v>-0.13132694938440481</v>
       </c>
       <c r="W41" s="32">
-        <f>+W18/S18-1</f>
+        <f t="shared" si="95"/>
         <v>5.8139534883721034E-2</v>
       </c>
       <c r="AP41" s="64">
-        <f>+AP18/AO18-1</f>
+        <f t="shared" ref="AP41:BC41" si="98">+AP18/AO18-1</f>
         <v>0.18964918374435569</v>
       </c>
       <c r="AQ41" s="64">
-        <f>+AQ18/AP18-1</f>
+        <f t="shared" si="98"/>
         <v>2.2189781021897836E-2</v>
       </c>
       <c r="AR41" s="64">
-        <f>+AR18/AQ18-1</f>
+        <f t="shared" si="98"/>
         <v>-6.1982290774064697E-2</v>
       </c>
       <c r="AS41" s="64">
-        <f>+AS18/AR18-1</f>
+        <f t="shared" si="98"/>
         <v>-3.8976857490864658E-2</v>
       </c>
       <c r="AT41" s="64">
-        <f>+AT18/AS18-1</f>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="AU41" s="64">
-        <f>+AU18/AT18-1</f>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="AV41" s="64">
-        <f>+AV18/AU18-1</f>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="AW41" s="64">
-        <f>+AW18/AV18-1</f>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="AX41" s="64">
-        <f>+AX18/AW18-1</f>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="AY41" s="64">
-        <f>+AY18/AX18-1</f>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="AZ41" s="64">
-        <f>+AZ18/AY18-1</f>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="BA41" s="64">
-        <f>+BA18/AZ18-1</f>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="BB41" s="64">
-        <f>+BB18/BA18-1</f>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="BC41" s="64">
-        <f>+BC18/BB18-1</f>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="BD41" s="64"/>
@@ -8205,71 +8224,71 @@
         <v>40</v>
       </c>
       <c r="G42" s="37">
-        <f>+G19/C19-1</f>
+        <f t="shared" si="94"/>
         <v>-6.1642881312075737E-2</v>
       </c>
       <c r="H42" s="37">
-        <f>+H19/D19-1</f>
+        <f t="shared" si="94"/>
         <v>-0.3046877888276831</v>
       </c>
       <c r="I42" s="37">
-        <f>+I19/E19-1</f>
+        <f t="shared" si="94"/>
         <v>-1.5302691601693841E-2</v>
       </c>
       <c r="J42" s="37">
-        <f>+J19/F19-1</f>
+        <f t="shared" si="94"/>
         <v>-2.1075126192844684E-2</v>
       </c>
       <c r="K42" s="37">
-        <f>+K19/G19-1</f>
+        <f t="shared" si="94"/>
         <v>8.7010011878499771E-2</v>
       </c>
       <c r="L42" s="37">
-        <f>+L19/H19-1</f>
+        <f t="shared" si="94"/>
         <v>0.56530639372590707</v>
       </c>
       <c r="M42" s="37">
-        <f>+M19/I19-1</f>
+        <f t="shared" si="94"/>
         <v>0.14455251841051298</v>
       </c>
       <c r="N42" s="37">
-        <f>+N19/J19-1</f>
+        <f t="shared" si="94"/>
         <v>0.13084798072942139</v>
       </c>
       <c r="O42" s="37">
-        <f>+O19/K19-1</f>
+        <f t="shared" si="94"/>
         <v>0.10556921515825635</v>
       </c>
       <c r="P42" s="37">
-        <f>+P19/L19-1</f>
+        <f t="shared" si="94"/>
         <v>-2.8787853054569434E-2</v>
       </c>
       <c r="Q42" s="37">
-        <f>+Q19/M19-1</f>
+        <f t="shared" si="95"/>
         <v>-5.3085643332849486E-2</v>
       </c>
       <c r="R42" s="32">
-        <f>+R19/N19-1</f>
+        <f t="shared" si="95"/>
         <v>-1.3745818841423785E-2</v>
       </c>
       <c r="S42" s="37">
-        <f>+S19/O19-1</f>
+        <f t="shared" si="95"/>
         <v>4.098418525840164E-2</v>
       </c>
       <c r="T42" s="37">
-        <f>+T19/P19-1</f>
+        <f t="shared" si="95"/>
         <v>0.13624440402909888</v>
       </c>
       <c r="U42" s="37">
-        <f>+U19/Q19-1</f>
+        <f t="shared" si="95"/>
         <v>0.1396604281262237</v>
       </c>
       <c r="V42" s="37">
-        <f>+V19/R19-1</f>
+        <f t="shared" si="95"/>
         <v>8.0941533788914111E-2</v>
       </c>
       <c r="W42" s="37">
-        <f>+W19/S19-1</f>
+        <f t="shared" si="95"/>
         <v>4.5983247990776244E-2</v>
       </c>
       <c r="AN42" s="37">
@@ -8281,59 +8300,59 @@
         <v>4.9957192989058541E-3</v>
       </c>
       <c r="AP42" s="66">
-        <f>+AP19/AO19-1</f>
+        <f t="shared" ref="AP42:BC42" si="99">+AP19/AO19-1</f>
         <v>-0.10094362584486338</v>
       </c>
       <c r="AQ42" s="66">
-        <f>+AQ19/AP19-1</f>
+        <f t="shared" si="99"/>
         <v>0.20903487125022102</v>
       </c>
       <c r="AR42" s="66">
-        <f>+AR19/AQ19-1</f>
+        <f t="shared" si="99"/>
         <v>-1.7353560494166587E-3</v>
       </c>
       <c r="AS42" s="66">
-        <f>+AS19/AR19-1</f>
+        <f t="shared" si="99"/>
         <v>9.9691147671098213E-2</v>
       </c>
       <c r="AT42" s="66">
-        <f>+AT19/AS19-1</f>
+        <f t="shared" si="99"/>
         <v>5.5191645406512224E-2</v>
       </c>
       <c r="AU42" s="66">
-        <f>+AU19/AT19-1</f>
+        <f t="shared" si="99"/>
         <v>5.5227941449849549E-2</v>
       </c>
       <c r="AV42" s="66">
-        <f>+AV19/AU19-1</f>
+        <f t="shared" si="99"/>
         <v>5.5262366331224388E-2</v>
       </c>
       <c r="AW42" s="66">
-        <f>+AW19/AV19-1</f>
+        <f t="shared" si="99"/>
         <v>5.5295014634595852E-2</v>
       </c>
       <c r="AX42" s="66">
-        <f>+AX19/AW19-1</f>
+        <f t="shared" si="99"/>
         <v>5.5325976385071307E-2</v>
       </c>
       <c r="AY42" s="66">
-        <f>+AY19/AX19-1</f>
+        <f t="shared" si="99"/>
         <v>5.535533724575048E-2</v>
       </c>
       <c r="AZ42" s="66">
-        <f>+AZ19/AY19-1</f>
+        <f t="shared" si="99"/>
         <v>5.5383178708504843E-2</v>
       </c>
       <c r="BA42" s="66">
-        <f>+BA19/AZ19-1</f>
+        <f t="shared" si="99"/>
         <v>5.5409578278572846E-2</v>
       </c>
       <c r="BB42" s="66">
-        <f>+BB19/BA19-1</f>
+        <f t="shared" si="99"/>
         <v>5.5434609652949884E-2</v>
       </c>
       <c r="BC42" s="66">
-        <f>+BC19/BB19-1</f>
+        <f t="shared" si="99"/>
         <v>5.5458342892538592E-2</v>
       </c>
       <c r="BD42" s="66"/>
@@ -8360,157 +8379,157 @@
         <v>100</v>
       </c>
       <c r="C44" s="32">
-        <f>+C27/C19</f>
+        <f t="shared" ref="C44:W44" si="100">+C27/C19</f>
         <v>0.4290121613821381</v>
       </c>
       <c r="D44" s="32">
-        <f>+D27/D19</f>
+        <f t="shared" si="100"/>
         <v>0.43201227402122072</v>
       </c>
       <c r="E44" s="32">
-        <f>+E27/E19</f>
+        <f t="shared" si="100"/>
         <v>0.4504116460389293</v>
       </c>
       <c r="F44" s="32">
-        <f>+F27/F19</f>
+        <f t="shared" si="100"/>
         <v>0.43504292398953615</v>
       </c>
       <c r="G44" s="32">
-        <f>+G27/G19</f>
+        <f t="shared" si="100"/>
         <v>0.37483030714406929</v>
       </c>
       <c r="H44" s="32">
-        <f>+H27/H19</f>
+        <f t="shared" si="100"/>
         <v>0.2743852186627676</v>
       </c>
       <c r="I44" s="32">
-        <f>+I27/I19</f>
+        <f t="shared" si="100"/>
         <v>0.48027906461674769</v>
       </c>
       <c r="J44" s="32">
-        <f>+J27/J19</f>
+        <f t="shared" si="100"/>
         <v>0.41838232526628782</v>
       </c>
       <c r="K44" s="32">
-        <f>+K27/K19</f>
+        <f t="shared" si="100"/>
         <v>0.45997736408695317</v>
       </c>
       <c r="L44" s="32">
-        <f>+L27/L19</f>
+        <f t="shared" si="100"/>
         <v>0.47116968698517292</v>
       </c>
       <c r="M44" s="32">
-        <f>+M27/M19</f>
+        <f t="shared" si="100"/>
         <v>0.49515424185251483</v>
       </c>
       <c r="N44" s="32">
-        <f>+N27/N19</f>
+        <f t="shared" si="100"/>
         <v>0.41330648516416757</v>
       </c>
       <c r="O44" s="32">
-        <f>+O27/O19</f>
+        <f t="shared" si="100"/>
         <v>0.42454462016379552</v>
       </c>
       <c r="P44" s="32">
-        <f>+P27/P19</f>
+        <f t="shared" si="100"/>
         <v>0.31561275881365425</v>
       </c>
       <c r="Q44" s="32">
-        <f>+Q27/Q19</f>
+        <f t="shared" si="100"/>
         <v>0.48657209516186717</v>
       </c>
       <c r="R44" s="32">
-        <f>+R27/R19</f>
+        <f t="shared" si="100"/>
         <v>0.43578840799797519</v>
       </c>
       <c r="S44" s="32">
-        <f>+S27/S19</f>
+        <f t="shared" si="100"/>
         <v>0.42938044694631899</v>
       </c>
       <c r="T44" s="32">
-        <f>+T27/T19</f>
+        <f t="shared" si="100"/>
         <v>0.47773759138130056</v>
       </c>
       <c r="U44" s="32">
-        <f>+U27/U19</f>
+        <f t="shared" si="100"/>
         <v>0.47940886405068583</v>
       </c>
       <c r="V44" s="32">
-        <f>+V27/V19</f>
+        <f t="shared" si="100"/>
         <v>0.43737316974181267</v>
       </c>
       <c r="W44" s="32">
-        <f>+W27/W19</f>
+        <f t="shared" si="100"/>
         <v>0.44334576106338142</v>
       </c>
       <c r="X44" s="32"/>
       <c r="Y44" s="32"/>
       <c r="AM44" s="32">
-        <f>+AM27/AM19</f>
+        <f t="shared" ref="AM44:BC44" si="101">+AM27/AM19</f>
         <v>0.50010888312050317</v>
       </c>
       <c r="AN44" s="32">
-        <f>+AN27/AN19</f>
+        <f t="shared" si="101"/>
         <v>0.51880686041151169</v>
       </c>
       <c r="AO44" s="32">
-        <f>+AO27/AO19</f>
+        <f t="shared" si="101"/>
         <v>0.43681545000093613</v>
       </c>
       <c r="AP44" s="64">
-        <f>+AP27/AP19</f>
+        <f t="shared" si="101"/>
         <v>0.3969533210466582</v>
       </c>
       <c r="AQ44" s="64">
-        <f>+AQ27/AQ19</f>
+        <f t="shared" si="101"/>
         <v>0.46013202485477694</v>
       </c>
       <c r="AR44" s="64">
-        <f>+AR27/AR19</f>
+        <f t="shared" si="101"/>
         <v>0.4162604712154806</v>
       </c>
       <c r="AS44" s="64">
-        <f>+AS27/AS19</f>
+        <f t="shared" si="101"/>
         <v>0.45684620121834019</v>
       </c>
       <c r="AT44" s="64">
-        <f>+AT27/AT19</f>
+        <f t="shared" si="101"/>
         <v>0.4568462012183403</v>
       </c>
       <c r="AU44" s="64">
-        <f>+AU27/AU19</f>
+        <f t="shared" si="101"/>
         <v>0.4568462012183403</v>
       </c>
       <c r="AV44" s="64">
-        <f>+AV27/AV19</f>
+        <f t="shared" si="101"/>
         <v>0.45684620121834019</v>
       </c>
       <c r="AW44" s="64">
-        <f>+AW27/AW19</f>
+        <f t="shared" si="101"/>
         <v>0.4568462012183403</v>
       </c>
       <c r="AX44" s="64">
-        <f>+AX27/AX19</f>
+        <f t="shared" si="101"/>
         <v>0.4568462012183403</v>
       </c>
       <c r="AY44" s="64">
-        <f>+AY27/AY19</f>
+        <f t="shared" si="101"/>
         <v>0.4568462012183403</v>
       </c>
       <c r="AZ44" s="64">
-        <f>+AZ27/AZ19</f>
+        <f t="shared" si="101"/>
         <v>0.45684620121834024</v>
       </c>
       <c r="BA44" s="64">
-        <f>+BA27/BA19</f>
+        <f t="shared" si="101"/>
         <v>0.45684620121834035</v>
       </c>
       <c r="BB44" s="64">
-        <f>+BB27/BB19</f>
+        <f t="shared" si="101"/>
         <v>0.45684620121834019</v>
       </c>
       <c r="BC44" s="64">
-        <f>+BC27/BC19</f>
+        <f t="shared" si="101"/>
         <v>0.45684620121834041</v>
       </c>
       <c r="BD44" s="56"/>
@@ -8645,15 +8664,15 @@
         <v>-31492.399999999998</v>
       </c>
       <c r="L48" s="24">
-        <f t="shared" ref="J48:O48" si="88">+L47+L51</f>
+        <f t="shared" ref="L48:N48" si="102">+L47+L51</f>
         <v>-31176.399999999998</v>
       </c>
       <c r="M48" s="24">
-        <f t="shared" si="88"/>
+        <f t="shared" si="102"/>
         <v>-29650.799999999999</v>
       </c>
       <c r="N48" s="24">
-        <f t="shared" si="88"/>
+        <f t="shared" si="102"/>
         <v>-29712.299999999996</v>
       </c>
       <c r="O48" s="24">
@@ -8665,19 +8684,19 @@
         <v>180633.34326655997</v>
       </c>
       <c r="AM48" s="24">
-        <f t="shared" ref="AM48:AP48" si="89">+AM47+AM51</f>
+        <f t="shared" ref="AM48:AP48" si="103">+AM47+AM51</f>
         <v>140363.86000000002</v>
       </c>
       <c r="AN48" s="24">
-        <f t="shared" si="89"/>
+        <f t="shared" si="103"/>
         <v>139498.992</v>
       </c>
       <c r="AO48" s="24">
-        <f t="shared" si="89"/>
+        <f t="shared" si="103"/>
         <v>157684.25368020311</v>
       </c>
       <c r="AP48" s="24">
-        <f t="shared" si="89"/>
+        <f t="shared" si="103"/>
         <v>139912.89286846283</v>
       </c>
       <c r="AQ48" s="24">
@@ -8735,47 +8754,47 @@
         <v>-31176.399999999998</v>
       </c>
       <c r="M51" s="25">
-        <f t="shared" ref="M51:W51" si="90">+M52+M56-M70-M71</f>
+        <f t="shared" ref="M51:W51" si="104">+M52+M56-M70-M71</f>
         <v>-29650.799999999999</v>
       </c>
       <c r="N51" s="25">
-        <f t="shared" si="90"/>
+        <f t="shared" si="104"/>
         <v>-29712.299999999996</v>
       </c>
       <c r="O51" s="25">
-        <f t="shared" si="90"/>
+        <f t="shared" si="104"/>
         <v>-30475.9</v>
       </c>
       <c r="P51" s="25">
-        <f t="shared" si="90"/>
+        <f t="shared" si="104"/>
         <v>-31630</v>
       </c>
       <c r="Q51" s="25">
-        <f t="shared" si="90"/>
+        <f t="shared" si="104"/>
         <v>-31074.1</v>
       </c>
       <c r="R51" s="25">
-        <f t="shared" si="90"/>
+        <f t="shared" si="104"/>
         <v>-32255.100000000002</v>
       </c>
       <c r="S51" s="25">
-        <f t="shared" si="90"/>
+        <f t="shared" si="104"/>
         <v>3708.1</v>
       </c>
       <c r="T51" s="25">
-        <f t="shared" si="90"/>
+        <f t="shared" si="104"/>
         <v>1625.6</v>
       </c>
       <c r="U51" s="25">
-        <f t="shared" si="90"/>
+        <f t="shared" si="104"/>
         <v>-32740.399999999998</v>
       </c>
       <c r="V51" s="25">
-        <f t="shared" si="90"/>
+        <f t="shared" si="104"/>
         <v>-32573.600000000002</v>
       </c>
       <c r="W51" s="25">
-        <f t="shared" si="90"/>
+        <f t="shared" si="104"/>
         <v>-33647</v>
       </c>
       <c r="AP51" s="25">
@@ -8803,35 +8822,35 @@
         <v>-15619.936717270859</v>
       </c>
       <c r="AV51" s="25">
-        <f t="shared" ref="AV51:BC51" si="91">+AU51+AV32</f>
+        <f t="shared" ref="AV51:BC51" si="105">+AU51+AV32</f>
         <v>-5852.6998442132281</v>
       </c>
       <c r="AW51" s="25">
-        <f t="shared" si="91"/>
+        <f t="shared" si="105"/>
         <v>4454.6165346796934</v>
       </c>
       <c r="AX51" s="25">
-        <f t="shared" si="91"/>
+        <f t="shared" si="105"/>
         <v>15332.195256144701</v>
       </c>
       <c r="AY51" s="25">
-        <f t="shared" si="91"/>
+        <f t="shared" si="105"/>
         <v>26811.906016153604</v>
       </c>
       <c r="AZ51" s="25">
-        <f t="shared" si="91"/>
+        <f t="shared" si="105"/>
         <v>38927.399648706021</v>
       </c>
       <c r="BA51" s="25">
-        <f t="shared" si="91"/>
+        <f t="shared" si="105"/>
         <v>51714.207674074911</v>
       </c>
       <c r="BB51" s="25">
-        <f t="shared" si="91"/>
+        <f t="shared" si="105"/>
         <v>65209.847411037321</v>
       </c>
       <c r="BC51" s="25">
-        <f t="shared" si="91"/>
+        <f t="shared" si="105"/>
         <v>79453.932964086373</v>
       </c>
       <c r="BD51" s="45"/>
@@ -9222,54 +9241,54 @@
         <v>52626.8</v>
       </c>
       <c r="K61" s="25">
-        <f t="shared" ref="K61:Q61" si="92">SUM(K52:K60)</f>
+        <f t="shared" ref="K61:Q61" si="106">SUM(K52:K60)</f>
         <v>51103.1</v>
       </c>
       <c r="L61" s="25">
-        <f t="shared" si="92"/>
+        <f t="shared" si="106"/>
         <v>51893.100000000006</v>
       </c>
       <c r="M61" s="25">
-        <f t="shared" si="92"/>
+        <f t="shared" si="106"/>
         <v>52727</v>
       </c>
       <c r="N61" s="25">
-        <f t="shared" si="92"/>
+        <f t="shared" si="106"/>
         <v>53854.3</v>
       </c>
       <c r="O61" s="25">
-        <f t="shared" si="92"/>
+        <f t="shared" si="106"/>
         <v>50877.7</v>
       </c>
       <c r="P61" s="25">
-        <f t="shared" si="92"/>
+        <f t="shared" si="106"/>
         <v>49247.8</v>
       </c>
       <c r="Q61" s="25">
-        <f t="shared" si="92"/>
+        <f t="shared" si="106"/>
         <v>48501.600000000006</v>
       </c>
       <c r="R61" s="25">
-        <f t="shared" ref="R61" si="93">SUM(R52:R60)</f>
+        <f t="shared" ref="R61" si="107">SUM(R52:R60)</f>
         <v>50435.6</v>
       </c>
       <c r="S61" s="25">
-        <f t="shared" ref="S61" si="94">SUM(S52:S60)</f>
+        <f t="shared" ref="S61" si="108">SUM(S52:S60)</f>
         <v>3708.1</v>
       </c>
       <c r="T61" s="25">
-        <f t="shared" ref="T61" si="95">SUM(T52:T60)</f>
+        <f t="shared" ref="T61" si="109">SUM(T52:T60)</f>
         <v>1625.6</v>
       </c>
       <c r="U61" s="25">
-        <f t="shared" ref="U61:W61" si="96">SUM(U52:U60)</f>
+        <f t="shared" ref="U61:W61" si="110">SUM(U52:U60)</f>
         <v>52089.299999999996</v>
       </c>
       <c r="V61" s="25">
         <v>56146.8</v>
       </c>
       <c r="W61" s="25">
-        <f t="shared" si="96"/>
+        <f t="shared" si="110"/>
         <v>53513</v>
       </c>
     </row>
@@ -9850,54 +9869,54 @@
         <v>52626.799999999996</v>
       </c>
       <c r="K78" s="25">
-        <f t="shared" ref="K78:Q78" si="97">SUM(K63:K77)</f>
+        <f t="shared" ref="K78:Q78" si="111">SUM(K63:K77)</f>
         <v>51103.100000000006</v>
       </c>
       <c r="L78" s="25">
-        <f t="shared" si="97"/>
+        <f t="shared" si="111"/>
         <v>51893.1</v>
       </c>
       <c r="M78" s="25">
-        <f t="shared" si="97"/>
+        <f t="shared" si="111"/>
         <v>52726.999999999993</v>
       </c>
       <c r="N78" s="25">
-        <f t="shared" si="97"/>
+        <f t="shared" si="111"/>
         <v>53854.3</v>
       </c>
       <c r="O78" s="25">
-        <f t="shared" si="97"/>
+        <f t="shared" si="111"/>
         <v>50877.7</v>
       </c>
       <c r="P78" s="25">
-        <f t="shared" si="97"/>
+        <f t="shared" si="111"/>
         <v>49247.799999999996</v>
       </c>
       <c r="Q78" s="25">
-        <f t="shared" si="97"/>
+        <f t="shared" si="111"/>
         <v>48501.599999999999</v>
       </c>
       <c r="R78" s="25">
-        <f t="shared" ref="R78" si="98">SUM(R63:R77)</f>
+        <f t="shared" ref="R78" si="112">SUM(R63:R77)</f>
         <v>50435.500000000007</v>
       </c>
       <c r="S78" s="25">
-        <f t="shared" ref="S78" si="99">SUM(S63:S77)</f>
+        <f t="shared" ref="S78" si="113">SUM(S63:S77)</f>
         <v>0</v>
       </c>
       <c r="T78" s="25">
-        <f t="shared" ref="T78" si="100">SUM(T63:T77)</f>
+        <f t="shared" ref="T78" si="114">SUM(T63:T77)</f>
         <v>0</v>
       </c>
       <c r="U78" s="25">
-        <f t="shared" ref="U78:W78" si="101">SUM(U63:U77)</f>
+        <f t="shared" ref="U78:W78" si="115">SUM(U63:U77)</f>
         <v>52089.299999999988</v>
       </c>
       <c r="V78" s="25">
         <v>56146.8</v>
       </c>
       <c r="W78" s="25">
-        <f t="shared" si="101"/>
+        <f t="shared" si="115"/>
         <v>53512</v>
       </c>
     </row>
@@ -9913,83 +9932,83 @@
         <v>0</v>
       </c>
       <c r="D81" s="24">
-        <f t="shared" ref="D81:W81" si="102">+D52</f>
+        <f t="shared" ref="D81:W81" si="116">+D52</f>
         <v>0</v>
       </c>
       <c r="E81" s="24">
-        <f t="shared" si="102"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="F81" s="24">
-        <f t="shared" si="102"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="G81" s="24">
-        <f t="shared" si="102"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="H81" s="24">
-        <f t="shared" si="102"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="I81" s="24">
-        <f t="shared" si="102"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="J81" s="24">
-        <f t="shared" si="102"/>
+        <f t="shared" si="116"/>
         <v>3449.1</v>
       </c>
       <c r="K81" s="24">
-        <f t="shared" si="102"/>
+        <f t="shared" si="116"/>
         <v>3019.7</v>
       </c>
       <c r="L81" s="24">
-        <f t="shared" si="102"/>
+        <f t="shared" si="116"/>
         <v>3049.4</v>
       </c>
       <c r="M81" s="24">
-        <f t="shared" si="102"/>
+        <f t="shared" si="116"/>
         <v>4305.8</v>
       </c>
       <c r="N81" s="24">
-        <f t="shared" si="102"/>
+        <f t="shared" si="116"/>
         <v>4709.2</v>
       </c>
       <c r="O81" s="24">
-        <f t="shared" si="102"/>
+        <f t="shared" si="116"/>
         <v>2335.6999999999998</v>
       </c>
       <c r="P81" s="24">
-        <f t="shared" si="102"/>
+        <f t="shared" si="116"/>
         <v>1872.5</v>
       </c>
       <c r="Q81" s="24">
-        <f t="shared" si="102"/>
+        <f t="shared" si="116"/>
         <v>2828.3</v>
       </c>
       <c r="R81" s="24">
-        <f t="shared" si="102"/>
+        <f t="shared" si="116"/>
         <v>2583.8000000000002</v>
       </c>
       <c r="S81" s="24">
-        <f t="shared" si="102"/>
+        <f t="shared" si="116"/>
         <v>3708.1</v>
       </c>
       <c r="T81" s="24">
-        <f t="shared" si="102"/>
+        <f t="shared" si="116"/>
         <v>1625.6</v>
       </c>
       <c r="U81" s="24">
-        <f t="shared" si="102"/>
+        <f t="shared" si="116"/>
         <v>3496.3</v>
       </c>
       <c r="V81" s="24">
-        <f t="shared" si="102"/>
+        <f t="shared" si="116"/>
         <v>4579.3</v>
       </c>
       <c r="W81" s="24">
-        <f t="shared" si="102"/>
+        <f t="shared" si="116"/>
         <v>838</v>
       </c>
     </row>
@@ -10002,83 +10021,83 @@
         <v>0</v>
       </c>
       <c r="D82" s="24">
-        <f t="shared" ref="D82:W82" si="103">+D70+D71</f>
+        <f t="shared" ref="D82:W82" si="117">+D70+D71</f>
         <v>0</v>
       </c>
       <c r="E82" s="24">
-        <f t="shared" si="103"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="F82" s="24">
-        <f t="shared" si="103"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="G82" s="24">
-        <f t="shared" si="103"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="H82" s="24">
-        <f t="shared" si="103"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="I82" s="24">
-        <f t="shared" si="103"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="J82" s="24">
-        <f t="shared" si="103"/>
+        <f t="shared" si="117"/>
         <v>37440.400000000001</v>
       </c>
       <c r="K82" s="24">
-        <f t="shared" si="103"/>
+        <f t="shared" si="117"/>
         <v>35723.199999999997</v>
       </c>
       <c r="L82" s="24">
-        <f t="shared" si="103"/>
+        <f t="shared" si="117"/>
         <v>35422.6</v>
       </c>
       <c r="M82" s="24">
-        <f t="shared" si="103"/>
+        <f t="shared" si="117"/>
         <v>35128</v>
       </c>
       <c r="N82" s="24">
-        <f t="shared" si="103"/>
+        <f t="shared" si="117"/>
         <v>35622.699999999997</v>
       </c>
       <c r="O82" s="24">
-        <f t="shared" si="103"/>
+        <f t="shared" si="117"/>
         <v>33988.800000000003</v>
       </c>
       <c r="P82" s="24">
-        <f t="shared" si="103"/>
+        <f t="shared" si="117"/>
         <v>34576.5</v>
       </c>
       <c r="Q82" s="24">
-        <f t="shared" si="103"/>
+        <f t="shared" si="117"/>
         <v>34866.199999999997</v>
       </c>
       <c r="R82" s="24">
-        <f t="shared" si="103"/>
+        <f t="shared" si="117"/>
         <v>35903.4</v>
       </c>
       <c r="S82" s="24">
-        <f t="shared" si="103"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="T82" s="24">
-        <f t="shared" si="103"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="U82" s="24">
-        <f t="shared" si="103"/>
+        <f t="shared" si="117"/>
         <v>37274.6</v>
       </c>
       <c r="V82" s="24">
-        <f t="shared" si="103"/>
+        <f t="shared" si="117"/>
         <v>37152.9</v>
       </c>
       <c r="W82" s="24">
-        <f t="shared" si="103"/>
+        <f t="shared" si="117"/>
         <v>37368</v>
       </c>
     </row>
@@ -10092,83 +10111,83 @@
         <v>0</v>
       </c>
       <c r="D83" s="25">
-        <f t="shared" ref="D83:W83" si="104">+D82-D81</f>
+        <f t="shared" ref="D83:W83" si="118">+D82-D81</f>
         <v>0</v>
       </c>
       <c r="E83" s="25">
-        <f t="shared" si="104"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="F83" s="25">
-        <f t="shared" si="104"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="G83" s="25">
-        <f t="shared" si="104"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="H83" s="25">
-        <f t="shared" si="104"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="I83" s="25">
-        <f t="shared" si="104"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="J83" s="25">
-        <f t="shared" si="104"/>
+        <f t="shared" si="118"/>
         <v>33991.300000000003</v>
       </c>
       <c r="K83" s="25">
-        <f t="shared" si="104"/>
+        <f t="shared" si="118"/>
         <v>32703.499999999996</v>
       </c>
       <c r="L83" s="25">
-        <f t="shared" si="104"/>
+        <f t="shared" si="118"/>
         <v>32373.199999999997</v>
       </c>
       <c r="M83" s="25">
-        <f t="shared" si="104"/>
+        <f t="shared" si="118"/>
         <v>30822.2</v>
       </c>
       <c r="N83" s="25">
-        <f t="shared" si="104"/>
+        <f t="shared" si="118"/>
         <v>30913.499999999996</v>
       </c>
       <c r="O83" s="25">
-        <f t="shared" si="104"/>
+        <f t="shared" si="118"/>
         <v>31653.100000000002</v>
       </c>
       <c r="P83" s="25">
-        <f t="shared" si="104"/>
+        <f t="shared" si="118"/>
         <v>32704</v>
       </c>
       <c r="Q83" s="25">
-        <f t="shared" si="104"/>
+        <f t="shared" si="118"/>
         <v>32037.899999999998</v>
       </c>
       <c r="R83" s="25">
-        <f t="shared" si="104"/>
+        <f t="shared" si="118"/>
         <v>33319.599999999999</v>
       </c>
       <c r="S83" s="25">
-        <f t="shared" si="104"/>
+        <f t="shared" si="118"/>
         <v>-3708.1</v>
       </c>
       <c r="T83" s="25">
-        <f t="shared" si="104"/>
+        <f t="shared" si="118"/>
         <v>-1625.6</v>
       </c>
       <c r="U83" s="25">
-        <f t="shared" si="104"/>
+        <f t="shared" si="118"/>
         <v>33778.299999999996</v>
       </c>
       <c r="V83" s="25">
-        <f t="shared" si="104"/>
+        <f t="shared" si="118"/>
         <v>32573.600000000002</v>
       </c>
       <c r="W83" s="25">
-        <f t="shared" si="104"/>
+        <f t="shared" si="118"/>
         <v>36530</v>
       </c>
     </row>
@@ -10196,31 +10215,31 @@
         <v>1188</v>
       </c>
       <c r="Q86" s="24">
-        <f>+Q32</f>
+        <f t="shared" ref="Q86:W86" si="119">+Q32</f>
         <v>2074.9000000000005</v>
       </c>
       <c r="R86" s="24">
-        <f>+R32</f>
+        <f t="shared" si="119"/>
         <v>1903.3999999999996</v>
       </c>
       <c r="S86" s="24">
-        <f>+S32</f>
+        <f t="shared" si="119"/>
         <v>1802.3</v>
       </c>
       <c r="T86" s="24">
-        <f>+T32</f>
+        <f t="shared" si="119"/>
         <v>2310.4</v>
       </c>
       <c r="U86" s="24">
-        <f>+U32</f>
+        <f t="shared" si="119"/>
         <v>2317.099999999999</v>
       </c>
       <c r="V86" s="24">
-        <f>+V32</f>
+        <f t="shared" si="119"/>
         <v>2039</v>
       </c>
       <c r="W86" s="24">
-        <f>+W32</f>
+        <f t="shared" si="119"/>
         <v>1929</v>
       </c>
       <c r="AQ86" s="24">
@@ -10232,7 +10251,7 @@
         <v>120</v>
       </c>
       <c r="N90" s="24">
-        <f t="shared" ref="N90:N109" si="105">+AQ90-SUM(K90:M90)</f>
+        <f t="shared" ref="N90:N109" si="120">+AQ90-SUM(K90:M90)</f>
         <v>-97.8</v>
       </c>
       <c r="AQ90" s="24">
@@ -10253,7 +10272,7 @@
         <v>-163.6</v>
       </c>
       <c r="N91" s="24">
-        <f t="shared" si="105"/>
+        <f t="shared" si="120"/>
         <v>25.699999999999932</v>
       </c>
       <c r="O91" s="24">
@@ -10283,7 +10302,7 @@
         <v>174</v>
       </c>
       <c r="N92" s="24">
-        <f t="shared" si="105"/>
+        <f t="shared" si="120"/>
         <v>589</v>
       </c>
       <c r="O92" s="24">
@@ -10310,15 +10329,15 @@
         <v>1644.3</v>
       </c>
       <c r="L93" s="25">
-        <f t="shared" ref="L93" si="106">+SUM(L86:L92)</f>
+        <f t="shared" ref="L93" si="121">+SUM(L86:L92)</f>
         <v>1602.2000000000003</v>
       </c>
       <c r="M93" s="25">
-        <f t="shared" ref="M93" si="107">+SUM(M86:M92)</f>
+        <f t="shared" ref="M93" si="122">+SUM(M86:M92)</f>
         <v>2160.3000000000002</v>
       </c>
       <c r="N93" s="25">
-        <f t="shared" si="105"/>
+        <f t="shared" si="120"/>
         <v>2155.6999999999989</v>
       </c>
       <c r="O93" s="25">
@@ -10326,15 +10345,15 @@
         <v>1649.8000000000002</v>
       </c>
       <c r="P93" s="25">
-        <f t="shared" ref="P93:R93" si="108">+SUM(P86:P92)</f>
+        <f t="shared" ref="P93:R93" si="123">+SUM(P86:P92)</f>
         <v>253.90000000000009</v>
       </c>
       <c r="Q93" s="25">
-        <f t="shared" si="108"/>
+        <f t="shared" si="123"/>
         <v>2219.6000000000008</v>
       </c>
       <c r="R93" s="25">
-        <f t="shared" si="108"/>
+        <f t="shared" si="123"/>
         <v>1903.3999999999996</v>
       </c>
       <c r="AN93" s="25">
@@ -10371,7 +10390,7 @@
         <v>-501.5</v>
       </c>
       <c r="N94" s="24">
-        <f t="shared" si="105"/>
+        <f t="shared" si="120"/>
         <v>-687.2</v>
       </c>
       <c r="O94" s="24">
@@ -10411,7 +10430,7 @@
         <v>-28.6</v>
       </c>
       <c r="N95" s="24">
-        <f t="shared" si="105"/>
+        <f t="shared" si="120"/>
         <v>-257.5</v>
       </c>
       <c r="O95" s="24">
@@ -10441,7 +10460,7 @@
         <v>60.1</v>
       </c>
       <c r="N96" s="24">
-        <f t="shared" si="105"/>
+        <f t="shared" si="120"/>
         <v>54.299999999999983</v>
       </c>
       <c r="O96" s="24">
@@ -10471,7 +10490,7 @@
         <v>41.3</v>
       </c>
       <c r="N97" s="24">
-        <f t="shared" si="105"/>
+        <f t="shared" si="120"/>
         <v>8.3000000000000114</v>
       </c>
       <c r="O97" s="24">
@@ -10501,7 +10520,7 @@
         <v>43.8</v>
       </c>
       <c r="N98" s="24">
-        <f t="shared" si="105"/>
+        <f t="shared" si="120"/>
         <v>-240.6</v>
       </c>
       <c r="O98" s="24">
@@ -10527,15 +10546,15 @@
         <v>-244.59999999999994</v>
       </c>
       <c r="L99" s="25">
-        <f t="shared" ref="L99" si="109">+SUM(L94:L98)</f>
+        <f t="shared" ref="L99" si="124">+SUM(L94:L98)</f>
         <v>-413.5</v>
       </c>
       <c r="M99" s="25">
-        <f t="shared" ref="M99" si="110">+SUM(M94:M98)</f>
+        <f t="shared" ref="M99" si="125">+SUM(M94:M98)</f>
         <v>-384.9</v>
       </c>
       <c r="N99" s="25">
-        <f t="shared" si="105"/>
+        <f t="shared" si="120"/>
         <v>-1122.7000000000003</v>
       </c>
       <c r="O99" s="25">
@@ -10543,11 +10562,11 @@
         <v>-554.5</v>
       </c>
       <c r="P99" s="25">
-        <f t="shared" ref="P99:Q99" si="111">+SUM(P94:P98)</f>
+        <f t="shared" ref="P99:Q99" si="126">+SUM(P94:P98)</f>
         <v>-319.2</v>
       </c>
       <c r="Q99" s="25">
-        <f t="shared" si="111"/>
+        <f t="shared" si="126"/>
         <v>-732.9899999999999</v>
       </c>
       <c r="AQ99" s="25">
@@ -10575,7 +10594,7 @@
         <v>-0.3</v>
       </c>
       <c r="N100" s="24">
-        <f t="shared" si="105"/>
+        <f t="shared" si="120"/>
         <v>7.4999999999999991</v>
       </c>
       <c r="O100" s="24">
@@ -10605,7 +10624,7 @@
         <v>0</v>
       </c>
       <c r="N101" s="24">
-        <f t="shared" si="105"/>
+        <f t="shared" si="120"/>
         <v>1154.4000000000001</v>
       </c>
       <c r="O101" s="24">
@@ -10635,7 +10654,7 @@
         <v>-0.4</v>
       </c>
       <c r="N102" s="24">
-        <f t="shared" si="105"/>
+        <f t="shared" si="120"/>
         <v>-500.59999999999991</v>
       </c>
       <c r="O102" s="24">
@@ -10665,7 +10684,7 @@
         <v>-17.7</v>
       </c>
       <c r="N103" s="24">
-        <f t="shared" si="105"/>
+        <f t="shared" si="120"/>
         <v>-803.3</v>
       </c>
       <c r="O103" s="24">
@@ -10695,7 +10714,7 @@
         <v>-963.9</v>
       </c>
       <c r="N104" s="24">
-        <f t="shared" si="105"/>
+        <f t="shared" si="120"/>
         <v>-1029.0999999999999</v>
       </c>
       <c r="O104" s="24">
@@ -10725,7 +10744,7 @@
         <v>66.599999999999994</v>
       </c>
       <c r="N105" s="24">
-        <f t="shared" si="105"/>
+        <f t="shared" si="120"/>
         <v>87.1</v>
       </c>
       <c r="O105" s="24">
@@ -10755,7 +10774,7 @@
         <v>-11.7</v>
       </c>
       <c r="N106" s="24">
-        <f t="shared" si="105"/>
+        <f t="shared" si="120"/>
         <v>-14</v>
       </c>
       <c r="O106" s="24">
@@ -10781,15 +10800,15 @@
         <v>-2263.9</v>
       </c>
       <c r="L107" s="25">
-        <f t="shared" ref="L107" si="112">+SUM(L100:L106)</f>
+        <f t="shared" ref="L107" si="127">+SUM(L100:L106)</f>
         <v>-1306.2999999999997</v>
       </c>
       <c r="M107" s="25">
-        <f t="shared" ref="M107" si="113">+SUM(M100:M106)</f>
+        <f t="shared" ref="M107" si="128">+SUM(M100:M106)</f>
         <v>-927.4</v>
       </c>
       <c r="N107" s="25">
-        <f t="shared" si="105"/>
+        <f t="shared" si="120"/>
         <v>-1098.0000000000009</v>
       </c>
       <c r="O107" s="25">
@@ -10797,11 +10816,11 @@
         <v>-3830.1</v>
       </c>
       <c r="P107" s="25">
-        <f t="shared" ref="P107:Q107" si="114">+SUM(P100:P106)</f>
+        <f t="shared" ref="P107:Q107" si="129">+SUM(P100:P106)</f>
         <v>-686.7</v>
       </c>
       <c r="Q107" s="25">
-        <f t="shared" si="114"/>
+        <f t="shared" si="129"/>
         <v>-546.40000000000032</v>
       </c>
       <c r="AQ107" s="25">
@@ -10829,7 +10848,7 @@
         <v>-49.1</v>
       </c>
       <c r="N108" s="24">
-        <f t="shared" si="105"/>
+        <f t="shared" si="120"/>
         <v>-42.399999999999991</v>
       </c>
       <c r="O108" s="24">
@@ -10860,15 +10879,15 @@
         <v>-909.1</v>
       </c>
       <c r="L109" s="24">
-        <f t="shared" ref="L109" si="115">+L93+L99+L107+L108</f>
+        <f t="shared" ref="L109" si="130">+L93+L99+L107+L108</f>
         <v>-101.29999999999946</v>
       </c>
       <c r="M109" s="24">
-        <f t="shared" ref="M109" si="116">+M93+M99+M107+M108</f>
+        <f t="shared" ref="M109" si="131">+M93+M99+M107+M108</f>
         <v>798.90000000000009</v>
       </c>
       <c r="N109" s="24">
-        <f t="shared" si="105"/>
+        <f t="shared" si="120"/>
         <v>-107.40000000000168</v>
       </c>
       <c r="O109" s="24">
@@ -10876,23 +10895,23 @@
         <v>-2856.9999999999995</v>
       </c>
       <c r="P109" s="24">
-        <f t="shared" ref="P109:Q109" si="117">+P93+P99+P107+P108</f>
+        <f t="shared" ref="P109:Q109" si="132">+P93+P99+P107+P108</f>
         <v>-827.4</v>
       </c>
       <c r="Q109" s="24">
-        <f t="shared" si="117"/>
+        <f t="shared" si="132"/>
         <v>741.6100000000007</v>
       </c>
       <c r="AQ109" s="24">
-        <f t="shared" ref="AQ109:AS109" si="118">+AQ93+AQ99+AQ107+AQ108</f>
+        <f t="shared" ref="AQ109:AS109" si="133">+AQ93+AQ99+AQ107+AQ108</f>
         <v>-318.90000000000111</v>
       </c>
       <c r="AR109" s="24">
-        <f t="shared" ref="AR109" si="119">+AR93+AR99+AR107+AR108</f>
+        <f t="shared" ref="AR109" si="134">+AR93+AR99+AR107+AR108</f>
         <v>-2125.3999999999996</v>
       </c>
       <c r="AS109" s="24">
-        <f t="shared" si="118"/>
+        <f t="shared" si="133"/>
         <v>1995.4999999999993</v>
       </c>
     </row>
@@ -10945,31 +10964,31 @@
         <v>119</v>
       </c>
       <c r="K111" s="25">
-        <f t="shared" ref="K111:Q111" si="120">+SUM(K109:K110)</f>
+        <f t="shared" ref="K111:Q111" si="135">+SUM(K109:K110)</f>
         <v>2540</v>
       </c>
       <c r="L111" s="25">
-        <f t="shared" si="120"/>
+        <f t="shared" si="135"/>
         <v>2918.4000000000005</v>
       </c>
       <c r="M111" s="25">
-        <f t="shared" si="120"/>
+        <f t="shared" si="135"/>
         <v>3848.3</v>
       </c>
       <c r="N111" s="25">
-        <f t="shared" si="120"/>
+        <f t="shared" si="135"/>
         <v>3740.8999999999987</v>
       </c>
       <c r="O111" s="25">
-        <f t="shared" si="120"/>
+        <f t="shared" si="135"/>
         <v>1852.2000000000003</v>
       </c>
       <c r="P111" s="25">
-        <f t="shared" si="120"/>
+        <f t="shared" si="135"/>
         <v>1508.2999999999997</v>
       </c>
       <c r="Q111" s="25">
-        <f t="shared" si="120"/>
+        <f t="shared" si="135"/>
         <v>2614.1100000000006</v>
       </c>
       <c r="AQ111" s="25">
@@ -10995,19 +11014,19 @@
         <v>95</v>
       </c>
       <c r="K113" s="24">
-        <f t="shared" ref="K113:N113" si="121">+K93+K94</f>
+        <f t="shared" ref="K113:N113" si="136">+K93+K94</f>
         <v>1275.5999999999999</v>
       </c>
       <c r="L113" s="24">
-        <f t="shared" si="121"/>
+        <f t="shared" si="136"/>
         <v>1119.6000000000004</v>
       </c>
       <c r="M113" s="24">
-        <f t="shared" si="121"/>
+        <f t="shared" si="136"/>
         <v>1658.8000000000002</v>
       </c>
       <c r="N113" s="24">
-        <f t="shared" si="121"/>
+        <f t="shared" si="136"/>
         <v>1468.4999999999989</v>
       </c>
       <c r="O113" s="24">
@@ -11015,35 +11034,35 @@
         <v>1248.6000000000001</v>
       </c>
       <c r="P113" s="24">
-        <f t="shared" ref="P113:Q113" si="122">+P93+P94</f>
+        <f t="shared" ref="P113:Q113" si="137">+P93+P94</f>
         <v>-183.99999999999989</v>
       </c>
       <c r="Q113" s="24">
-        <f t="shared" si="122"/>
+        <f t="shared" si="137"/>
         <v>1688.4000000000008</v>
       </c>
       <c r="AN113" s="24">
-        <f t="shared" ref="AN113:AS113" si="123">+SUM(AN93:AN94)</f>
+        <f t="shared" ref="AN113:AS113" si="138">+SUM(AN93:AN94)</f>
         <v>4225</v>
       </c>
       <c r="AO113" s="24">
-        <f t="shared" si="123"/>
+        <f t="shared" si="138"/>
         <v>5728.4000000000005</v>
       </c>
       <c r="AP113" s="24">
-        <f t="shared" si="123"/>
+        <f t="shared" si="138"/>
         <v>4624.3999999999996</v>
       </c>
       <c r="AQ113" s="24">
-        <f t="shared" si="123"/>
+        <f t="shared" si="138"/>
         <v>5522.4999999999991</v>
       </c>
       <c r="AR113" s="24">
-        <f t="shared" si="123"/>
+        <f t="shared" si="138"/>
         <v>7386.7</v>
       </c>
       <c r="AS113" s="24">
-        <f t="shared" si="123"/>
+        <f t="shared" si="138"/>
         <v>9611.9</v>
       </c>
     </row>
@@ -11052,55 +11071,55 @@
         <v>79</v>
       </c>
       <c r="K114" s="24">
-        <f>+K32</f>
+        <f t="shared" ref="K114:Q114" si="139">+K32</f>
         <v>1613.1</v>
       </c>
       <c r="L114" s="24">
-        <f>+L32</f>
+        <f t="shared" si="139"/>
         <v>2302.3999999999996</v>
       </c>
       <c r="M114" s="24">
-        <f>+M32</f>
+        <f t="shared" si="139"/>
         <v>2234.0000000000005</v>
       </c>
       <c r="N114" s="24">
-        <f>+N32</f>
+        <f t="shared" si="139"/>
         <v>1725.2999999999988</v>
       </c>
       <c r="O114" s="24">
-        <f>+O32</f>
+        <f t="shared" si="139"/>
         <v>1197.1000000000001</v>
       </c>
       <c r="P114" s="24">
-        <f>+P32</f>
+        <f t="shared" si="139"/>
         <v>1281.0000000000007</v>
       </c>
       <c r="Q114" s="24">
-        <f>+Q32</f>
+        <f t="shared" si="139"/>
         <v>2074.9000000000005</v>
       </c>
       <c r="AN114" s="24">
-        <f>+AN32</f>
+        <f t="shared" ref="AN114:AS114" si="140">+AN32</f>
         <v>8130.5999999999976</v>
       </c>
       <c r="AO114" s="24">
-        <f>+AO32</f>
+        <f t="shared" si="140"/>
         <v>6287.9000000000015</v>
       </c>
       <c r="AP114" s="24">
-        <f>+AP32</f>
+        <f t="shared" si="140"/>
         <v>5031.1000000000013</v>
       </c>
       <c r="AQ114" s="24">
-        <f>+AQ32</f>
+        <f t="shared" si="140"/>
         <v>7874.7999999999993</v>
       </c>
       <c r="AR114" s="24">
-        <f>+AR32</f>
+        <f t="shared" si="140"/>
         <v>6456.4000000000015</v>
       </c>
       <c r="AS114" s="24">
-        <f>+AS32</f>
+        <f t="shared" si="140"/>
         <v>8468.7999999999993</v>
       </c>
     </row>
@@ -11128,15 +11147,15 @@
     </row>
     <row r="117" spans="1:45">
       <c r="N117" s="25">
-        <f t="shared" ref="N117" si="124">SUM(K114:N114)</f>
+        <f t="shared" ref="N117" si="141">SUM(K114:N114)</f>
         <v>7874.7999999999993</v>
       </c>
       <c r="O117" s="25">
-        <f t="shared" ref="O117" si="125">SUM(L114:O114)</f>
+        <f t="shared" ref="O117" si="142">SUM(L114:O114)</f>
         <v>7458.7999999999993</v>
       </c>
       <c r="P117" s="25">
-        <f t="shared" ref="P117" si="126">SUM(M114:P114)</f>
+        <f t="shared" ref="P117" si="143">SUM(M114:P114)</f>
         <v>6437.4000000000005</v>
       </c>
       <c r="Q117" s="25">
@@ -11182,7 +11201,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2494959-3240-CB47-B8D3-3B5F532B5BC3}">
   <dimension ref="B3:C20"/>
   <sheetViews>

--- a/MCD.xlsx
+++ b/MCD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameelbrannon/Library/CloudStorage/Dropbox/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFEC029C-DF0D-1E4D-9994-9A3BE7B2A257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB47B0C0-453D-7E44-8C40-97B0A66D6AB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11340" yWindow="500" windowWidth="39500" windowHeight="28300" activeTab="1" xr2:uid="{68853114-4A9D-F642-8668-56CE329F4C0C}"/>
+    <workbookView xWindow="53700" yWindow="720" windowWidth="42160" windowHeight="27740" xr2:uid="{68853114-4A9D-F642-8668-56CE329F4C0C}"/>
   </bookViews>
   <sheets>
     <sheet name="E" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="199">
   <si>
     <t>Price</t>
   </si>
@@ -647,20 +647,36 @@
   </si>
   <si>
     <t>EV/2026E</t>
+  </si>
+  <si>
+    <t>Deferred I/T</t>
+  </si>
+  <si>
+    <t>SBC</t>
+  </si>
+  <si>
+    <t>Investments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Founded </t>
+  </si>
+  <si>
+    <t>Founder</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
     <numFmt numFmtId="166" formatCode="0\x"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
-    <numFmt numFmtId="170" formatCode="0\X"/>
+    <numFmt numFmtId="168" formatCode="0\X"/>
+    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -747,12 +763,6 @@
       <i/>
       <sz val="8"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -864,7 +874,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1045,10 +1055,10 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1063,6 +1073,8 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1092,14 +1104,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>8718</xdr:colOff>
+      <xdr:colOff>534861</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>22105</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:colOff>548248</xdr:colOff>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>108857</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1115,8 +1127,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="13978718" y="0"/>
-          <a:ext cx="13387" cy="21339024"/>
+          <a:off x="14559290" y="0"/>
+          <a:ext cx="13387" cy="20465143"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1150,7 +1162,7 @@
     <xdr:to>
       <xdr:col>45</xdr:col>
       <xdr:colOff>26458</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>126</xdr:row>
       <xdr:rowOff>111125</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1508,13 +1520,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32BAB3F7-7021-914A-A508-B96F72023C96}">
-  <dimension ref="A1:IU119"/>
+  <dimension ref="A1:IU120"/>
   <sheetViews>
-    <sheetView zoomScale="137" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="AM17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AY36" sqref="AY36"/>
+      <selection pane="bottomRight" activeCell="BM40" sqref="BM40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.1640625" defaultRowHeight="13"/>
@@ -1531,15 +1543,16 @@
     <col min="17" max="17" width="7.83203125" style="24" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="7.33203125" style="24" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="6.6640625" style="24" customWidth="1"/>
-    <col min="20" max="30" width="7.33203125" style="24" customWidth="1"/>
+    <col min="20" max="23" width="7.33203125" style="24" customWidth="1"/>
+    <col min="24" max="24" width="6.6640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="25" max="30" width="7.33203125" style="24" customWidth="1"/>
     <col min="31" max="31" width="6" style="24" customWidth="1"/>
     <col min="32" max="37" width="5.6640625" style="24" customWidth="1"/>
     <col min="38" max="38" width="6.83203125" style="24" bestFit="1" customWidth="1"/>
     <col min="39" max="42" width="7.83203125" style="24" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="8.1640625" style="24" bestFit="1" customWidth="1"/>
     <col min="44" max="45" width="7.33203125" style="24" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="7.1640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="8.6640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="46" max="47" width="7.1640625" style="24" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="7.6640625" style="24" bestFit="1" customWidth="1"/>
     <col min="49" max="55" width="6.83203125" style="24" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="8" style="24" bestFit="1" customWidth="1"/>
@@ -2598,6 +2611,9 @@
       <c r="W3" s="24">
         <v>21841</v>
       </c>
+      <c r="X3" s="24">
+        <v>21892</v>
+      </c>
       <c r="AN3" s="24">
         <v>21685</v>
       </c>
@@ -2690,6 +2706,9 @@
       <c r="W4" s="24">
         <v>8741</v>
       </c>
+      <c r="X4" s="24">
+        <v>8815</v>
+      </c>
       <c r="AN4" s="24">
         <v>7225</v>
       </c>
@@ -2782,6 +2801,9 @@
       <c r="W5" s="24">
         <v>9283</v>
       </c>
+      <c r="X5" s="24">
+        <v>9531</v>
+      </c>
       <c r="AN5" s="24">
         <v>6175</v>
       </c>
@@ -2888,6 +2910,10 @@
       <c r="W6" s="25">
         <f>+SUM(W3:W5)</f>
         <v>39865</v>
+      </c>
+      <c r="X6" s="25">
+        <f>+SUM(X3:X5)</f>
+        <v>40238</v>
       </c>
       <c r="AN6" s="25">
         <f t="shared" ref="AN6:AR6" si="9">+SUM(AN3:AN5)</f>
@@ -3027,6 +3053,9 @@
       <c r="W7" s="24">
         <v>2153</v>
       </c>
+      <c r="X7" s="24">
+        <v>2168</v>
+      </c>
       <c r="AN7" s="24">
         <v>2770</v>
       </c>
@@ -3174,6 +3203,10 @@
       <c r="W8" s="25">
         <f>+SUM(W6:W7)</f>
         <v>42018</v>
+      </c>
+      <c r="X8" s="25">
+        <f>+SUM(X6:X7)</f>
+        <v>42406</v>
       </c>
       <c r="AN8" s="25">
         <f t="shared" ref="AN8:AR8" si="13">+SUM(AN6:AN7)</f>
@@ -3357,28 +3390,32 @@
         <f t="shared" si="15"/>
         <v>1.093822573153739</v>
       </c>
+      <c r="X10" s="46">
+        <f t="shared" ref="X10" si="16">+X16/(X7)</f>
+        <v>1.1351476014760147</v>
+      </c>
       <c r="AN10" s="46">
         <f>+AN16/(AN7)</f>
         <v>3.6146931407942242</v>
       </c>
       <c r="AO10" s="46">
-        <f t="shared" ref="AO10:AS10" si="16">+AO16/(AO7)</f>
+        <f t="shared" ref="AO10:AS10" si="17">+AO16/(AO7)</f>
         <v>3.5738998482549316</v>
       </c>
       <c r="AP10" s="57">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3.0404183787822188</v>
       </c>
       <c r="AQ10" s="57">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3.5772660818713451</v>
       </c>
       <c r="AR10" s="57">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>4.1540360873694215</v>
       </c>
       <c r="AS10" s="57">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>4.5478991596638654</v>
       </c>
       <c r="AT10" s="57">
@@ -3386,39 +3423,39 @@
         <v>4.5933781512605041</v>
       </c>
       <c r="AU10" s="57">
-        <f t="shared" ref="AU10:BC10" si="17">+AT10*1.01</f>
+        <f t="shared" ref="AU10:BC10" si="18">+AT10*1.01</f>
         <v>4.6393119327731096</v>
       </c>
       <c r="AV10" s="57">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4.6857050521008405</v>
       </c>
       <c r="AW10" s="57">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4.7325621026218494</v>
       </c>
       <c r="AX10" s="57">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4.7798877236480681</v>
       </c>
       <c r="AY10" s="57">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4.8276866008845492</v>
       </c>
       <c r="AZ10" s="57">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4.8759634668933947</v>
       </c>
       <c r="BA10" s="57">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4.9247231015623285</v>
       </c>
       <c r="BB10" s="57">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4.9739703325779514</v>
       </c>
       <c r="BC10" s="57">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>5.023710035903731</v>
       </c>
       <c r="BD10" s="56"/>
@@ -3429,74 +3466,77 @@
         <v>167</v>
       </c>
       <c r="G11" s="31">
-        <f t="shared" ref="G11:W11" si="18">+G10/C10-1</f>
+        <f t="shared" ref="G11:X11" si="19">+G10/C10-1</f>
         <v>-7.6625573768383082E-2</v>
       </c>
       <c r="H11" s="31">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-0.33657025766877025</v>
       </c>
       <c r="I11" s="31">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-6.2064263686078425E-2</v>
       </c>
       <c r="J11" s="31">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-0.9514708870973253</v>
       </c>
       <c r="K11" s="31">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>5.1435639443997649E-2</v>
       </c>
       <c r="L11" s="31">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.54409927780445111</v>
       </c>
       <c r="M11" s="31">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.12293984667053426</v>
       </c>
       <c r="N11" s="31">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>20.327335207673954</v>
       </c>
       <c r="O11" s="31">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2.0930625620142029E-2</v>
       </c>
       <c r="P11" s="31">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.11926996638981446</v>
       </c>
       <c r="Q11" s="31">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>7.3026552925627763E-2</v>
       </c>
       <c r="R11" s="31">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.1300742392596812</v>
       </c>
       <c r="S11" s="31">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.27350907309595573</v>
       </c>
       <c r="T11" s="31">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.12453664119405961</v>
       </c>
       <c r="U11" s="31">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.15028604974937054</v>
       </c>
       <c r="V11" s="31">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.10148455324893946</v>
       </c>
       <c r="W11" s="31">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>4.1548446675187423E-2</v>
       </c>
-      <c r="X11" s="31"/>
+      <c r="X11" s="31">
+        <f t="shared" si="19"/>
+        <v>-2.916809475694282E-2</v>
+      </c>
       <c r="Y11" s="31"/>
       <c r="AO11" s="31">
         <f>+AO10/AN10-1</f>
@@ -3519,7 +3559,7 @@
         <v>9.4814552404107966E-2</v>
       </c>
       <c r="AT11" s="59">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="AU11" s="59">
         <v>0.03</v>
@@ -3560,107 +3600,111 @@
         <v>7.6962979760757416E-2</v>
       </c>
       <c r="D12" s="46">
-        <f t="shared" ref="D12:W12" si="19">+D17/(D6)</f>
+        <f t="shared" ref="D12:W12" si="20">+D17/(D6)</f>
         <v>8.2933363413327327E-2</v>
       </c>
       <c r="E12" s="46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>8.4513361186664054E-2</v>
       </c>
       <c r="F12" s="46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>8.2800410438448088E-2</v>
       </c>
       <c r="G12" s="46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>7.1752826918315124E-2</v>
       </c>
       <c r="H12" s="46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>5.7408374804102172E-2</v>
       </c>
       <c r="I12" s="46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>8.3561117514682481E-2</v>
       </c>
       <c r="J12" s="46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>8.1742011445469734E-2</v>
       </c>
       <c r="K12" s="46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>7.8867448744655191E-2</v>
       </c>
       <c r="L12" s="46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>9.0045483018765138E-2</v>
       </c>
       <c r="M12" s="46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>9.4906180717028055E-2</v>
       </c>
       <c r="N12" s="46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.11195246740386203</v>
       </c>
       <c r="O12" s="46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>8.6887515977844054E-2</v>
       </c>
       <c r="P12" s="46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>9.3638487680543767E-2</v>
       </c>
       <c r="Q12" s="46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>9.6788821513314E-2</v>
       </c>
       <c r="R12" s="46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>9.5496345201603397E-2</v>
       </c>
       <c r="S12" s="46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>9.3383137673425834E-2</v>
       </c>
       <c r="T12" s="46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.10170398717484616</v>
       </c>
       <c r="U12" s="46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.10362830952015158</v>
       </c>
       <c r="V12" s="46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>9.7494959677419349E-2</v>
       </c>
       <c r="W12" s="46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>9.3390191897654587E-2</v>
+      </c>
+      <c r="X12" s="46">
+        <f t="shared" ref="X12" si="21">+X17/(X6)</f>
+        <v>9.7917391520453298E-2</v>
       </c>
       <c r="AN12" s="46">
         <f>+AN17/(AN6)</f>
         <v>0.31388057574462019</v>
       </c>
       <c r="AO12" s="46">
-        <f t="shared" ref="AO12:AS12" si="20">+AO17/(AO6)</f>
+        <f t="shared" ref="AO12:AS12" si="22">+AO17/(AO6)</f>
         <v>0.32323969050722429</v>
       </c>
       <c r="AP12" s="57">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.29369677719668136</v>
       </c>
       <c r="AQ12" s="57">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.43193266215547121</v>
       </c>
       <c r="AR12" s="57">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.36956168618512403</v>
       </c>
       <c r="AS12" s="57">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.38902469758064517</v>
       </c>
       <c r="AT12" s="57">
@@ -3668,39 +3712,39 @@
         <v>0.39291494455645165</v>
       </c>
       <c r="AU12" s="57">
-        <f t="shared" ref="AU12:BC12" si="21">+AT12*1.01</f>
+        <f t="shared" ref="AU12:BC12" si="23">+AT12*1.01</f>
         <v>0.39684409400201615</v>
       </c>
       <c r="AV12" s="57">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.40081253494203634</v>
       </c>
       <c r="AW12" s="57">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.40482066029145669</v>
       </c>
       <c r="AX12" s="57">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.40886886689437124</v>
       </c>
       <c r="AY12" s="57">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.41295755556331498</v>
       </c>
       <c r="AZ12" s="57">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.41708713111894813</v>
       </c>
       <c r="BA12" s="57">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.42125800243013761</v>
       </c>
       <c r="BB12" s="57">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.42547058245443897</v>
       </c>
       <c r="BC12" s="57">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.42972528827898338</v>
       </c>
       <c r="BD12" s="57"/>
@@ -3711,74 +3755,77 @@
         <v>168</v>
       </c>
       <c r="G13" s="31">
-        <f t="shared" ref="G13:W13" si="22">+G12/C12-1</f>
+        <f t="shared" ref="G13:X13" si="24">+G12/C12-1</f>
         <v>-6.7696870087908034E-2</v>
       </c>
       <c r="H13" s="31">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-0.30777708221011701</v>
       </c>
       <c r="I13" s="31">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-1.1267374277995623E-2</v>
       </c>
       <c r="J13" s="31">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-1.2782533170715871E-2</v>
       </c>
       <c r="K13" s="31">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>9.9154585706281662E-2</v>
       </c>
       <c r="L13" s="31">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.56850778873348018</v>
       </c>
       <c r="M13" s="31">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.13576964430079741</v>
       </c>
       <c r="N13" s="31">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.36958297727412481</v>
       </c>
       <c r="O13" s="31">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.10169046115787261</v>
       </c>
       <c r="P13" s="31">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>3.9902108815717652E-2</v>
       </c>
       <c r="Q13" s="31">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.9836861857282173E-2</v>
       </c>
       <c r="R13" s="31">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-0.14699204567679713</v>
       </c>
       <c r="S13" s="31">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>7.4758975699548591E-2</v>
       </c>
       <c r="T13" s="31">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>8.6134448495351457E-2</v>
       </c>
       <c r="U13" s="31">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>7.0664028137761292E-2</v>
       </c>
       <c r="V13" s="31">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>2.092870121465551E-2</v>
       </c>
       <c r="W13" s="31">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>7.554066402670756E-5</v>
       </c>
-      <c r="X13" s="31"/>
+      <c r="X13" s="31">
+        <f t="shared" si="24"/>
+        <v>-3.7231535946403715E-2</v>
+      </c>
       <c r="Y13" s="31"/>
       <c r="AO13" s="31"/>
       <c r="AP13" s="58"/>
@@ -3906,6 +3953,9 @@
       <c r="W15" s="52">
         <v>1.9E-2</v>
       </c>
+      <c r="X15" s="51">
+        <v>-0.01</v>
+      </c>
       <c r="AN15" s="51">
         <v>4.4999999999999998E-2</v>
       </c>
@@ -4003,6 +4053,9 @@
       <c r="W16" s="24">
         <v>2355</v>
       </c>
+      <c r="X16" s="24">
+        <v>2461</v>
+      </c>
       <c r="AL16" s="24">
         <v>15295</v>
       </c>
@@ -4026,7 +4079,7 @@
         <v>8748.4000000000015</v>
       </c>
       <c r="AS16" s="54">
-        <f t="shared" ref="AS16:AS34" si="23">SUM(S16:V16)</f>
+        <f t="shared" ref="AS16:AS34" si="25">SUM(S16:V16)</f>
         <v>9741.6</v>
       </c>
       <c r="AT16" s="54">
@@ -4034,39 +4087,39 @@
         <v>10281.771719999999</v>
       </c>
       <c r="AU16" s="54">
-        <f t="shared" ref="AU16:BC16" si="24">+AU7*AU10</f>
+        <f t="shared" ref="AU16:BC16" si="26">+AU7*AU10</f>
         <v>10851.895961873999</v>
       </c>
       <c r="AV16" s="54">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>11453.63359295991</v>
       </c>
       <c r="AW16" s="54">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>12088.737575689536</v>
       </c>
       <c r="AX16" s="54">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>12759.058074261522</v>
       </c>
       <c r="AY16" s="54">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>13466.547844479323</v>
       </c>
       <c r="AZ16" s="54">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>14213.267922455701</v>
       </c>
       <c r="BA16" s="54">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>15001.393628755868</v>
       </c>
       <c r="BB16" s="54">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>15833.220905470378</v>
       </c>
       <c r="BC16" s="54">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>16711.173004678712</v>
       </c>
       <c r="BD16" s="54"/>
@@ -4138,6 +4191,9 @@
       <c r="W17" s="24">
         <v>3723</v>
       </c>
+      <c r="X17" s="24">
+        <v>3940</v>
+      </c>
       <c r="AL17" s="24">
         <v>9327</v>
       </c>
@@ -4157,11 +4213,11 @@
         <v>13085.4</v>
       </c>
       <c r="AR17" s="54">
-        <f t="shared" ref="AR17:AR34" si="25">SUM(O17:R17)</f>
+        <f t="shared" ref="AR17:AR34" si="27">SUM(O17:R17)</f>
         <v>14105.8</v>
       </c>
       <c r="AS17" s="54">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>15436.5</v>
       </c>
       <c r="AT17" s="54">
@@ -4169,39 +4225,39 @@
         <v>16303.367530500003</v>
       </c>
       <c r="AU17" s="54">
-        <f t="shared" ref="AU17:BC17" si="26">+AU6*AU12</f>
+        <f t="shared" ref="AU17:BC17" si="28">+AU6*AU12</f>
         <v>17218.915740910292</v>
       </c>
       <c r="AV17" s="54">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>18185.878392172595</v>
       </c>
       <c r="AW17" s="54">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>19207.142765041834</v>
       </c>
       <c r="AX17" s="54">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>20285.758281298291</v>
       </c>
       <c r="AY17" s="54">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>21424.94560910116</v>
       </c>
       <c r="AZ17" s="54">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>22628.106279671454</v>
       </c>
       <c r="BA17" s="54">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>23898.832844018965</v>
       </c>
       <c r="BB17" s="54">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>25240.919600040539</v>
       </c>
       <c r="BC17" s="54">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>26658.373922020019</v>
       </c>
       <c r="BD17" s="54"/>
@@ -4273,6 +4329,9 @@
       <c r="W18" s="24">
         <v>91</v>
       </c>
+      <c r="X18" s="24">
+        <v>89</v>
+      </c>
       <c r="AL18" s="24">
         <v>151</v>
       </c>
@@ -4292,11 +4351,11 @@
         <v>350.1</v>
       </c>
       <c r="AR18" s="54">
+        <f t="shared" si="27"/>
+        <v>328.4</v>
+      </c>
+      <c r="AS18" s="54">
         <f t="shared" si="25"/>
-        <v>328.4</v>
-      </c>
-      <c r="AS18" s="54">
-        <f t="shared" si="23"/>
         <v>315.60000000000002</v>
       </c>
       <c r="AT18" s="54">
@@ -4304,39 +4363,39 @@
         <v>315.60000000000002</v>
       </c>
       <c r="AU18" s="54">
-        <f t="shared" ref="AU18:BC18" si="27">+AT18</f>
+        <f t="shared" ref="AU18:BC18" si="29">+AT18</f>
         <v>315.60000000000002</v>
       </c>
       <c r="AV18" s="54">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>315.60000000000002</v>
       </c>
       <c r="AW18" s="54">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>315.60000000000002</v>
       </c>
       <c r="AX18" s="54">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>315.60000000000002</v>
       </c>
       <c r="AY18" s="54">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>315.60000000000002</v>
       </c>
       <c r="AZ18" s="54">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>315.60000000000002</v>
       </c>
       <c r="BA18" s="54">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>315.60000000000002</v>
       </c>
       <c r="BB18" s="54">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>315.60000000000002</v>
       </c>
       <c r="BC18" s="54">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>315.60000000000002</v>
       </c>
       <c r="BD18" s="54"/>
@@ -4347,88 +4406,92 @@
         <v>22</v>
       </c>
       <c r="C19" s="25">
-        <f t="shared" ref="C19:L19" si="28">+SUM(C16:C18)</f>
+        <f t="shared" ref="C19:L19" si="30">+SUM(C16:C18)</f>
         <v>5024.1000000000004</v>
       </c>
       <c r="D19" s="25">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>5409.8</v>
       </c>
       <c r="E19" s="25">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>5502.3</v>
       </c>
       <c r="F19" s="25">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>5428.2</v>
       </c>
       <c r="G19" s="25">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>4714.4000000000005</v>
       </c>
       <c r="H19" s="25">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>3761.5</v>
       </c>
       <c r="I19" s="25">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>5418.1</v>
       </c>
       <c r="J19" s="25">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>5313.8</v>
       </c>
       <c r="K19" s="25">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>5124.5999999999995</v>
       </c>
       <c r="L19" s="25">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>5887.9</v>
       </c>
       <c r="M19" s="25">
-        <f t="shared" ref="M19:V19" si="29">+SUM(M16:M18)</f>
+        <f t="shared" ref="M19:V19" si="31">+SUM(M16:M18)</f>
         <v>6201.3</v>
       </c>
       <c r="N19" s="25">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>6009.0999999999995</v>
       </c>
       <c r="O19" s="25">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>5665.6</v>
       </c>
       <c r="P19" s="25">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>5718.4000000000005</v>
       </c>
       <c r="Q19" s="25">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>5872.1</v>
       </c>
       <c r="R19" s="25">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>5926.5</v>
       </c>
       <c r="S19" s="25">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>5897.8</v>
       </c>
       <c r="T19" s="25">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>6497.5</v>
       </c>
       <c r="U19" s="25">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>6692.1999999999989</v>
       </c>
       <c r="V19" s="25">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>6406.2</v>
       </c>
       <c r="W19" s="25">
-        <f t="shared" ref="W19" si="30">+SUM(W16:W18)</f>
+        <f t="shared" ref="W19" si="32">+SUM(W16:W18)</f>
         <v>6169</v>
+      </c>
+      <c r="X19" s="25">
+        <f t="shared" ref="X19" si="33">+SUM(X16:X18)</f>
+        <v>6490</v>
       </c>
       <c r="AL19" s="25">
         <f>+SUM(AL16:AL18)</f>
@@ -4455,11 +4518,11 @@
         <v>23222.899999999998</v>
       </c>
       <c r="AR19" s="55">
+        <f t="shared" si="27"/>
+        <v>23182.6</v>
+      </c>
+      <c r="AS19" s="55">
         <f t="shared" si="25"/>
-        <v>23182.6</v>
-      </c>
-      <c r="AS19" s="55">
-        <f t="shared" si="23"/>
         <v>25493.7</v>
       </c>
       <c r="AT19" s="55">
@@ -4467,39 +4530,39 @@
         <v>26900.739250500003</v>
       </c>
       <c r="AU19" s="55">
-        <f t="shared" ref="AU19:BC19" si="31">SUM(AU16:AU18)</f>
+        <f t="shared" ref="AU19:BC19" si="34">SUM(AU16:AU18)</f>
         <v>28386.411702784288</v>
       </c>
       <c r="AV19" s="55">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>29955.111985132506</v>
       </c>
       <c r="AW19" s="55">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>31611.480340731367</v>
       </c>
       <c r="AX19" s="55">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>33360.416355559813</v>
       </c>
       <c r="AY19" s="55">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>35207.093453580477</v>
       </c>
       <c r="AZ19" s="55">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>37156.974202127152</v>
       </c>
       <c r="BA19" s="55">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>39215.826472774832</v>
       </c>
       <c r="BB19" s="55">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>41389.740505510919</v>
       </c>
       <c r="BC19" s="55">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>43685.146926698733</v>
       </c>
       <c r="BD19" s="55"/>
@@ -4571,6 +4634,9 @@
       <c r="W20" s="24">
         <v>2035</v>
       </c>
+      <c r="X20" s="24">
+        <v>2074</v>
+      </c>
       <c r="AM20" s="24">
         <v>4033.5</v>
       </c>
@@ -4578,23 +4644,23 @@
         <v>3153.8</v>
       </c>
       <c r="AO20" s="24">
-        <f t="shared" ref="AO20:AO32" si="32">SUM(C20:F20)</f>
+        <f t="shared" ref="AO20:AO32" si="35">SUM(C20:F20)</f>
         <v>7760.6</v>
       </c>
       <c r="AP20" s="54">
-        <f t="shared" ref="AP20:AP32" si="33">SUM(G20:J20)</f>
+        <f t="shared" ref="AP20:AP32" si="36">SUM(G20:J20)</f>
         <v>6981.2</v>
       </c>
       <c r="AQ20" s="54">
-        <f t="shared" ref="AQ20:AQ34" si="34">SUM(K20:N20)</f>
+        <f t="shared" ref="AQ20:AQ34" si="37">SUM(K20:N20)</f>
         <v>8047.3</v>
       </c>
       <c r="AR20" s="54">
+        <f t="shared" si="27"/>
+        <v>7380.9000000000005</v>
+      </c>
+      <c r="AS20" s="54">
         <f t="shared" si="25"/>
-        <v>7380.9000000000005</v>
-      </c>
-      <c r="AS20" s="54">
-        <f t="shared" si="23"/>
         <v>8224.0999999999985</v>
       </c>
       <c r="AT20" s="54">
@@ -4602,39 +4668,39 @@
         <v>8678.001610987696</v>
       </c>
       <c r="AU20" s="54">
-        <f t="shared" ref="AU20:BC20" si="35">+AU19*(AT20/AT19)</f>
+        <f t="shared" ref="AU20:BC20" si="38">+AU19*(AT20/AT19)</f>
         <v>9157.2697758610248</v>
       </c>
       <c r="AV20" s="54">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>9663.3221728085064</v>
       </c>
       <c r="AW20" s="54">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>10197.655713772767</v>
       </c>
       <c r="AX20" s="54">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>10761.850972976046</v>
       </c>
       <c r="AY20" s="54">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>11357.576862973643</v>
       </c>
       <c r="AZ20" s="54">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>11986.59557207129</v>
       </c>
       <c r="BA20" s="54">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>12650.767777715571</v>
       </c>
       <c r="BB20" s="54">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>13352.058151283349</v>
       </c>
       <c r="BC20" s="54">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>14092.541170558334</v>
       </c>
       <c r="BD20" s="54"/>
@@ -4706,6 +4772,9 @@
       <c r="W21" s="24">
         <v>627</v>
       </c>
+      <c r="X21" s="24">
+        <v>629</v>
+      </c>
       <c r="AM21" s="24">
         <v>3528.5</v>
       </c>
@@ -4713,23 +4782,23 @@
         <v>2937.9</v>
       </c>
       <c r="AO21" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>2200.6000000000004</v>
       </c>
       <c r="AP21" s="54">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>2207.5</v>
       </c>
       <c r="AQ21" s="54">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>2335.1000000000004</v>
       </c>
       <c r="AR21" s="54">
+        <f t="shared" si="27"/>
+        <v>2349.6999999999998</v>
+      </c>
+      <c r="AS21" s="54">
         <f t="shared" si="25"/>
-        <v>2349.6999999999998</v>
-      </c>
-      <c r="AS21" s="54">
-        <f t="shared" si="23"/>
         <v>2474.6000000000004</v>
       </c>
       <c r="AT21" s="54">
@@ -4737,39 +4806,39 @@
         <v>2611.1772457229558</v>
       </c>
       <c r="AU21" s="54">
-        <f t="shared" ref="AU21:BC21" si="36">+AU$20*(AT21/AT$20)</f>
+        <f t="shared" ref="AU21:BC21" si="39">+AU$20*(AT21/AT$20)</f>
         <v>2755.3871897649228</v>
       </c>
       <c r="AV21" s="54">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>2907.6564060300748</v>
       </c>
       <c r="AW21" s="54">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>3068.4353095538841</v>
       </c>
       <c r="AX21" s="54">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>3238.1994890293813</v>
       </c>
       <c r="AY21" s="54">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>3417.4511138136195</v>
       </c>
       <c r="AZ21" s="54">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>3606.7204195775375</v>
       </c>
       <c r="BA21" s="54">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>3806.567276995047</v>
       </c>
       <c r="BB21" s="54">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>4017.5828481129593</v>
       </c>
       <c r="BC21" s="54">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>4240.3913353027892</v>
       </c>
       <c r="BD21" s="54"/>
@@ -4841,6 +4910,9 @@
       <c r="W22" s="24">
         <v>68</v>
       </c>
+      <c r="X22" s="24">
+        <v>69</v>
+      </c>
       <c r="AM22" s="24">
         <v>2847.6</v>
       </c>
@@ -4848,23 +4920,23 @@
         <v>2174.1999999999998</v>
       </c>
       <c r="AO22" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>223.79999999999998</v>
       </c>
       <c r="AP22" s="54">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>267</v>
       </c>
       <c r="AQ22" s="54">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>260.39999999999998</v>
       </c>
       <c r="AR22" s="54">
+        <f t="shared" si="27"/>
+        <v>244.8</v>
+      </c>
+      <c r="AS22" s="54">
         <f t="shared" si="25"/>
-        <v>244.8</v>
-      </c>
-      <c r="AS22" s="54">
-        <f t="shared" si="23"/>
         <v>232.49999999999997</v>
       </c>
       <c r="AT22" s="54">
@@ -4872,39 +4944,39 @@
         <v>245.33205755701408</v>
       </c>
       <c r="AU22" s="54">
-        <f t="shared" ref="AU22:BC22" si="37">+AU$20*(AT22/AT$20)</f>
+        <f t="shared" ref="AU22:BC22" si="40">+AU$20*(AT22/AT$20)</f>
         <v>258.88124206754401</v>
       </c>
       <c r="AV22" s="54">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>273.18763210296305</v>
       </c>
       <c r="AW22" s="54">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>288.29354621808699</v>
       </c>
       <c r="AX22" s="54">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>304.24366814811731</v>
       </c>
       <c r="AY22" s="54">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>321.08517900334056</v>
       </c>
       <c r="AZ22" s="54">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>338.86789685273482</v>
       </c>
       <c r="BA22" s="54">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>357.64442410949187</v>
       </c>
       <c r="BB22" s="54">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>377.47030315455555</v>
       </c>
       <c r="BC22" s="54">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>398.40418065865134</v>
       </c>
       <c r="BD22" s="54"/>
@@ -4931,14 +5003,17 @@
       <c r="W23" s="24">
         <v>99</v>
       </c>
+      <c r="X23" s="24">
+        <v>101</v>
+      </c>
       <c r="AP23" s="54"/>
       <c r="AQ23" s="54"/>
       <c r="AR23" s="54">
+        <f t="shared" si="27"/>
+        <v>91.4</v>
+      </c>
+      <c r="AS23" s="54">
         <f t="shared" si="25"/>
-        <v>91.4</v>
-      </c>
-      <c r="AS23" s="54">
-        <f t="shared" si="23"/>
         <v>381.7</v>
       </c>
       <c r="AT23" s="54">
@@ -4946,39 +5021,39 @@
         <v>402.76665105166575</v>
       </c>
       <c r="AU23" s="54">
-        <f t="shared" ref="AU23:BC23" si="38">+AU$20*(AT23/AT$20)</f>
+        <f t="shared" ref="AU23:BC23" si="41">+AU$20*(AT23/AT$20)</f>
         <v>425.01062407389912</v>
       </c>
       <c r="AV23" s="54">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>448.49771687613327</v>
       </c>
       <c r="AW23" s="54">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>473.2974046943819</v>
       </c>
       <c r="AX23" s="54">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>499.48304572961877</v>
       </c>
       <c r="AY23" s="54">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>527.13209817451639</v>
       </c>
       <c r="AZ23" s="54">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>556.32634937070463</v>
       </c>
       <c r="BA23" s="54">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>587.15215777459343</v>
       </c>
       <c r="BB23" s="54">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>619.70070844771521</v>
       </c>
       <c r="BC23" s="54">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>654.0682828275576</v>
       </c>
       <c r="BD23" s="54"/>
@@ -5050,6 +5125,9 @@
       <c r="W24" s="24">
         <v>622</v>
       </c>
+      <c r="X24" s="24">
+        <v>590</v>
+      </c>
       <c r="AM24" s="24">
         <v>2231.3000000000002</v>
       </c>
@@ -5057,23 +5135,23 @@
         <v>2200.1999999999998</v>
       </c>
       <c r="AO24" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>1966.8999999999999</v>
       </c>
       <c r="AP24" s="54">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>2245</v>
       </c>
       <c r="AQ24" s="54">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>2377.8000000000002</v>
       </c>
       <c r="AR24" s="54">
+        <f t="shared" si="27"/>
+        <v>2492.1999999999998</v>
+      </c>
+      <c r="AS24" s="54">
         <f t="shared" si="25"/>
-        <v>2492.1999999999998</v>
-      </c>
-      <c r="AS24" s="54">
-        <f t="shared" si="23"/>
         <v>2435.1999999999998</v>
       </c>
       <c r="AT24" s="54">
@@ -5081,39 +5159,39 @@
         <v>2569.6026948939384</v>
       </c>
       <c r="AU24" s="54">
-        <f t="shared" ref="AU24:BC24" si="39">+AU$20*(AT24/AT$20)</f>
+        <f t="shared" ref="AU24:BC24" si="42">+AU$20*(AT24/AT$20)</f>
         <v>2711.5165620769162</v>
       </c>
       <c r="AV24" s="54">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>2861.3613836435934</v>
       </c>
       <c r="AW24" s="54">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>3019.580403227033</v>
       </c>
       <c r="AX24" s="54">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>3186.6416373087959</v>
       </c>
       <c r="AY24" s="54">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>3363.0392598233748</v>
       </c>
       <c r="AZ24" s="54">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>3549.2950641538901</v>
       </c>
       <c r="BA24" s="54">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>3745.9600068448781</v>
       </c>
       <c r="BB24" s="54">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>3953.6158375998848</v>
       </c>
       <c r="BC24" s="54">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>4172.8768203868694</v>
       </c>
       <c r="BD24" s="54"/>
@@ -5185,6 +5263,9 @@
       <c r="W25" s="24">
         <v>-17</v>
       </c>
+      <c r="X25" s="24">
+        <v>107</v>
+      </c>
       <c r="AM25" s="24">
         <v>-1163.2</v>
       </c>
@@ -5192,23 +5273,23 @@
         <v>-236.8</v>
       </c>
       <c r="AO25" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>-119.8</v>
       </c>
       <c r="AP25" s="54">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>-117.5</v>
       </c>
       <c r="AQ25" s="54">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>-483.3</v>
       </c>
       <c r="AR25" s="54">
+        <f t="shared" si="27"/>
+        <v>973.6</v>
+      </c>
+      <c r="AS25" s="54">
         <f t="shared" si="25"/>
-        <v>973.6</v>
-      </c>
-      <c r="AS25" s="54">
-        <f t="shared" si="23"/>
         <v>98.9</v>
       </c>
       <c r="AT25" s="54">
@@ -5216,39 +5297,39 @@
         <v>104.35845373070407</v>
       </c>
       <c r="AU25" s="54">
-        <f t="shared" ref="AU25:BC25" si="40">+AU$20*(AT25/AT$20)</f>
+        <f t="shared" ref="AU25:BC25" si="43">+AU$20*(AT25/AT$20)</f>
         <v>110.12195630314022</v>
       </c>
       <c r="AV25" s="54">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>116.20755619347545</v>
       </c>
       <c r="AW25" s="54">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>122.63325471384429</v>
       </c>
       <c r="AX25" s="54">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>129.41805926816687</v>
       </c>
       <c r="AY25" s="54">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>136.58203958464676</v>
       </c>
       <c r="AZ25" s="54">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>144.1463870913353</v>
       </c>
       <c r="BA25" s="54">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>152.13347761044614</v>
       </c>
       <c r="BB25" s="54">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>160.566937556927</v>
       </c>
       <c r="BC25" s="54">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>169.47171383716386</v>
       </c>
       <c r="BD25" s="54"/>
@@ -5258,88 +5339,92 @@
         <v>28</v>
       </c>
       <c r="C26" s="24">
-        <f t="shared" ref="C26:L26" si="41">+SUM(C20:C25)</f>
+        <f t="shared" ref="C26:L26" si="44">+SUM(C20:C25)</f>
         <v>2868.7000000000003</v>
       </c>
       <c r="D26" s="24">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>3072.7000000000003</v>
       </c>
       <c r="E26" s="24">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>3023.9999999999995</v>
       </c>
       <c r="F26" s="24">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>3066.7</v>
       </c>
       <c r="G26" s="24">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>2947.3</v>
       </c>
       <c r="H26" s="24">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>2729.3999999999996</v>
       </c>
       <c r="I26" s="24">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>2815.8999999999996</v>
       </c>
       <c r="J26" s="24">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>3090.6</v>
       </c>
       <c r="K26" s="24">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>2767.3999999999996</v>
       </c>
       <c r="L26" s="24">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>3113.7000000000003</v>
       </c>
       <c r="M26" s="24">
-        <f t="shared" ref="M26:O26" si="42">+SUM(M20:M25)</f>
+        <f t="shared" ref="M26:O26" si="45">+SUM(M20:M25)</f>
         <v>3130.7</v>
       </c>
       <c r="N26" s="24">
-        <f t="shared" ref="N26" si="43">+SUM(N20:N25)</f>
+        <f t="shared" ref="N26" si="46">+SUM(N20:N25)</f>
         <v>3525.5000000000005</v>
       </c>
       <c r="O26" s="24">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>3260.3</v>
       </c>
       <c r="P26" s="24">
-        <f t="shared" ref="P26:Q26" si="44">+SUM(P20:P25)</f>
+        <f t="shared" ref="P26:Q26" si="47">+SUM(P20:P25)</f>
         <v>3913.6</v>
       </c>
       <c r="Q26" s="24">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>3014.9</v>
       </c>
       <c r="R26" s="24">
-        <f t="shared" ref="R26" si="45">+SUM(R20:R25)</f>
+        <f t="shared" ref="R26" si="48">+SUM(R20:R25)</f>
         <v>3343.8</v>
       </c>
       <c r="S26" s="24">
-        <f t="shared" ref="S26" si="46">+SUM(S20:S25)</f>
+        <f t="shared" ref="S26" si="49">+SUM(S20:S25)</f>
         <v>3365.4</v>
       </c>
       <c r="T26" s="24">
-        <f t="shared" ref="T26:U26" si="47">+SUM(T20:T25)</f>
+        <f t="shared" ref="T26:U26" si="50">+SUM(T20:T25)</f>
         <v>3393.3999999999996</v>
       </c>
       <c r="U26" s="24">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>3483.8999999999996</v>
       </c>
       <c r="V26" s="24">
-        <f t="shared" ref="V26:W26" si="48">+SUM(V20:V25)</f>
+        <f t="shared" ref="V26:X26" si="51">+SUM(V20:V25)</f>
         <v>3604.2999999999997</v>
       </c>
       <c r="W26" s="24">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>3434</v>
+      </c>
+      <c r="X26" s="24">
+        <f t="shared" si="51"/>
+        <v>3570</v>
       </c>
       <c r="AM26" s="24">
         <f>SUM(AM20:AM25)</f>
@@ -5350,63 +5435,63 @@
         <v>10229.300000000003</v>
       </c>
       <c r="AO26" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>12032.099999999999</v>
       </c>
       <c r="AP26" s="54">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>11583.199999999999</v>
       </c>
       <c r="AQ26" s="54">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>12537.3</v>
       </c>
       <c r="AR26" s="54">
+        <f t="shared" si="27"/>
+        <v>13532.599999999999</v>
+      </c>
+      <c r="AS26" s="54">
         <f t="shared" si="25"/>
-        <v>13532.599999999999</v>
-      </c>
-      <c r="AS26" s="54">
-        <f t="shared" si="23"/>
         <v>13846.999999999998</v>
       </c>
       <c r="AT26" s="54">
-        <f t="shared" ref="AT26" si="49">+SUM(AT20:AT25)</f>
+        <f t="shared" ref="AT26" si="52">+SUM(AT20:AT25)</f>
         <v>14611.238713943974</v>
       </c>
       <c r="AU26" s="54">
-        <f t="shared" ref="AU26:BC26" si="50">+SUM(AU20:AU25)</f>
+        <f t="shared" ref="AU26:BC26" si="53">+SUM(AU20:AU25)</f>
         <v>15418.187350147447</v>
       </c>
       <c r="AV26" s="54">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>16270.232867654748</v>
       </c>
       <c r="AW26" s="54">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>17169.895632179996</v>
       </c>
       <c r="AX26" s="54">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>18119.836872460124</v>
       </c>
       <c r="AY26" s="54">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>19122.86655337314</v>
       </c>
       <c r="AZ26" s="54">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>20181.951689117494</v>
       </c>
       <c r="BA26" s="54">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>21300.225121050022</v>
       </c>
       <c r="BB26" s="54">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>22480.994786155392</v>
       </c>
       <c r="BC26" s="54">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>23727.753503571359</v>
       </c>
       <c r="BD26" s="54"/>
@@ -5416,88 +5501,92 @@
         <v>29</v>
       </c>
       <c r="C27" s="24">
-        <f t="shared" ref="C27:L27" si="51">+C19-C26</f>
+        <f t="shared" ref="C27:L27" si="54">+C19-C26</f>
         <v>2155.4</v>
       </c>
       <c r="D27" s="24">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>2337.1</v>
       </c>
       <c r="E27" s="24">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>2478.3000000000006</v>
       </c>
       <c r="F27" s="24">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>2361.5</v>
       </c>
       <c r="G27" s="24">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>1767.1000000000004</v>
       </c>
       <c r="H27" s="24">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>1032.1000000000004</v>
       </c>
       <c r="I27" s="24">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>2602.2000000000007</v>
       </c>
       <c r="J27" s="24">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>2223.2000000000003</v>
       </c>
       <c r="K27" s="24">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>2357.1999999999998</v>
       </c>
       <c r="L27" s="24">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>2774.1999999999994</v>
       </c>
       <c r="M27" s="24">
-        <f t="shared" ref="M27:V27" si="52">+M19-M26</f>
+        <f t="shared" ref="M27:V27" si="55">+M19-M26</f>
         <v>3070.6000000000004</v>
       </c>
       <c r="N27" s="24">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>2483.599999999999</v>
       </c>
       <c r="O27" s="24">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>2405.3000000000002</v>
       </c>
       <c r="P27" s="24">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>1804.8000000000006</v>
       </c>
       <c r="Q27" s="24">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>2857.2000000000003</v>
       </c>
       <c r="R27" s="24">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>2582.6999999999998</v>
       </c>
       <c r="S27" s="24">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>2532.4</v>
       </c>
       <c r="T27" s="24">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>3104.1000000000004</v>
       </c>
       <c r="U27" s="24">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>3208.2999999999993</v>
       </c>
       <c r="V27" s="24">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>2801.9</v>
       </c>
       <c r="W27" s="24">
-        <f t="shared" ref="W27" si="53">+W19-W26</f>
+        <f t="shared" ref="W27:X27" si="56">+W19-W26</f>
         <v>2735</v>
+      </c>
+      <c r="X27" s="24">
+        <f t="shared" si="56"/>
+        <v>2920</v>
       </c>
       <c r="AM27" s="24">
         <f>+AM19-AM26</f>
@@ -5508,63 +5597,63 @@
         <v>11028.899999999998</v>
       </c>
       <c r="AO27" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>9332.3000000000011</v>
       </c>
       <c r="AP27" s="54">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>7624.6000000000022</v>
       </c>
       <c r="AQ27" s="54">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>10685.599999999999</v>
       </c>
       <c r="AR27" s="54">
+        <f t="shared" si="27"/>
+        <v>9650</v>
+      </c>
+      <c r="AS27" s="54">
         <f t="shared" si="25"/>
-        <v>9650</v>
-      </c>
-      <c r="AS27" s="54">
-        <f t="shared" si="23"/>
         <v>11646.699999999999</v>
       </c>
       <c r="AT27" s="54">
-        <f t="shared" ref="AT27" si="54">+AT19-AT26</f>
+        <f t="shared" ref="AT27" si="57">+AT19-AT26</f>
         <v>12289.500536556028</v>
       </c>
       <c r="AU27" s="54">
-        <f t="shared" ref="AU27:BC27" si="55">+AU19-AU26</f>
+        <f t="shared" ref="AU27:BC27" si="58">+AU19-AU26</f>
         <v>12968.22435263684</v>
       </c>
       <c r="AV27" s="54">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>13684.879117477758</v>
       </c>
       <c r="AW27" s="54">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>14441.584708551371</v>
       </c>
       <c r="AX27" s="54">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>15240.579483099689</v>
       </c>
       <c r="AY27" s="54">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>16084.226900207337</v>
       </c>
       <c r="AZ27" s="54">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>16975.022513009659</v>
       </c>
       <c r="BA27" s="54">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>17915.60135172481</v>
       </c>
       <c r="BB27" s="54">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>18908.745719355527</v>
       </c>
       <c r="BC27" s="54">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>19957.393423127374</v>
       </c>
       <c r="BD27" s="54"/>
@@ -5636,6 +5725,9 @@
       <c r="W28" s="24">
         <v>372</v>
       </c>
+      <c r="X28" s="24">
+        <v>373</v>
+      </c>
       <c r="AM28" s="24">
         <v>921.3</v>
       </c>
@@ -5643,23 +5735,23 @@
         <v>981.2</v>
       </c>
       <c r="AO28" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>1121.9000000000001</v>
       </c>
       <c r="AP28" s="54">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>1218.0999999999999</v>
       </c>
       <c r="AQ28" s="54">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>1185.8000000000002</v>
       </c>
       <c r="AR28" s="54">
+        <f t="shared" si="27"/>
+        <v>1207</v>
+      </c>
+      <c r="AS28" s="54">
         <f t="shared" si="25"/>
-        <v>1207</v>
-      </c>
-      <c r="AS28" s="54">
-        <f t="shared" si="23"/>
         <v>1360.8</v>
       </c>
       <c r="AT28" s="54">
@@ -5667,39 +5759,39 @@
         <v>1435.9047910691822</v>
       </c>
       <c r="AU28" s="54">
-        <f t="shared" ref="AU28:BC28" si="56">+AU$27*(AT28/AT$27)</f>
+        <f t="shared" ref="AU28:BC28" si="59">+AU$27*(AT28/AT$27)</f>
         <v>1515.2068567979095</v>
       </c>
       <c r="AV28" s="54">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>1598.9407731858582</v>
       </c>
       <c r="AW28" s="54">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>1687.3542266390227</v>
       </c>
       <c r="AX28" s="54">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>1780.7087467353035</v>
       </c>
       <c r="AY28" s="54">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>1879.2804799472938</v>
       </c>
       <c r="AZ28" s="54">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>1983.3610066116191</v>
       </c>
       <c r="BA28" s="54">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>2093.2582035621353</v>
       </c>
       <c r="BB28" s="54">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>2209.2971549794361</v>
       </c>
       <c r="BC28" s="54">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>2331.8211141517963</v>
       </c>
       <c r="BD28" s="54"/>
@@ -5771,6 +5863,9 @@
       <c r="W29" s="24">
         <v>-45</v>
       </c>
+      <c r="X29" s="24">
+        <v>-9</v>
+      </c>
       <c r="AM29" s="24">
         <v>57.9</v>
       </c>
@@ -5778,23 +5873,23 @@
         <v>25.3</v>
       </c>
       <c r="AO29" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>-70.2</v>
       </c>
       <c r="AP29" s="54">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>-34.799999999999997</v>
       </c>
       <c r="AQ29" s="54">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>42.300000000000004</v>
       </c>
       <c r="AR29" s="54">
+        <f t="shared" si="27"/>
+        <v>338.6</v>
+      </c>
+      <c r="AS29" s="54">
         <f t="shared" si="25"/>
-        <v>338.6</v>
-      </c>
-      <c r="AS29" s="54">
-        <f t="shared" si="23"/>
         <v>-236.3</v>
       </c>
       <c r="AT29" s="54">
@@ -5802,39 +5897,39 @@
         <v>-249.34178580955893</v>
       </c>
       <c r="AU29" s="54">
-        <f t="shared" ref="AU29:BC29" si="57">+AU$27*(AT29/AT$27)</f>
+        <f t="shared" ref="AU29:BC29" si="60">+AU$27*(AT29/AT$27)</f>
         <v>-263.11241935725019</v>
       </c>
       <c r="AV29" s="54">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>-277.65263426206519</v>
       </c>
       <c r="AW29" s="54">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>-293.00544073692026</v>
       </c>
       <c r="AX29" s="54">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>-309.21625283182851</v>
       </c>
       <c r="AY29" s="54">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>-326.33302278920161</v>
       </c>
       <c r="AZ29" s="54">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>-344.40638290882254</v>
       </c>
       <c r="BA29" s="54">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>-363.48979534224918</v>
       </c>
       <c r="BB29" s="54">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>-383.63971025987723</v>
       </c>
       <c r="BC29" s="54">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>-404.91573285866377</v>
       </c>
       <c r="BD29" s="54"/>
@@ -5844,88 +5939,92 @@
         <v>32</v>
       </c>
       <c r="C30" s="24">
-        <f t="shared" ref="C30:L30" si="58">+C27-SUM(C28:C29)</f>
+        <f t="shared" ref="C30:L30" si="61">+C27-SUM(C28:C29)</f>
         <v>1892.7</v>
       </c>
       <c r="D30" s="24">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>2071</v>
       </c>
       <c r="E30" s="24">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>2221.2000000000007</v>
       </c>
       <c r="F30" s="24">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>2095.6999999999998</v>
       </c>
       <c r="G30" s="24">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>1518.4000000000003</v>
       </c>
       <c r="H30" s="24">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>719.70000000000027</v>
       </c>
       <c r="I30" s="24">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>2292.9000000000005</v>
       </c>
       <c r="J30" s="24">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>1910.3000000000002</v>
       </c>
       <c r="K30" s="24">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>2028.6</v>
       </c>
       <c r="L30" s="24">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>2459.0999999999995</v>
       </c>
       <c r="M30" s="24">
-        <f t="shared" ref="M30" si="59">+M27-SUM(M28:M29)</f>
+        <f t="shared" ref="M30" si="62">+M27-SUM(M28:M29)</f>
         <v>2775.5000000000005</v>
       </c>
       <c r="N30" s="24">
-        <f t="shared" ref="N30" si="60">+N27-SUM(N28:N29)</f>
+        <f t="shared" ref="N30" si="63">+N27-SUM(N28:N29)</f>
         <v>2194.2999999999988</v>
       </c>
       <c r="O30" s="24">
-        <f t="shared" ref="O30" si="61">+O27-SUM(O28:O29)</f>
+        <f t="shared" ref="O30" si="64">+O27-SUM(O28:O29)</f>
         <v>1633.9</v>
       </c>
       <c r="P30" s="24">
-        <f t="shared" ref="P30:R30" si="62">+P27-SUM(P28:P29)</f>
+        <f t="shared" ref="P30:R30" si="65">+P27-SUM(P28:P29)</f>
         <v>1502.1000000000006</v>
       </c>
       <c r="Q30" s="24">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>2629.5000000000005</v>
       </c>
       <c r="R30" s="24">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>2338.8999999999996</v>
       </c>
       <c r="S30" s="24">
-        <f t="shared" ref="S30" si="63">+S27-SUM(S28:S29)</f>
+        <f t="shared" ref="S30" si="66">+S27-SUM(S28:S29)</f>
         <v>2267</v>
       </c>
       <c r="T30" s="24">
-        <f t="shared" ref="T30:U30" si="64">+T27-SUM(T28:T29)</f>
+        <f t="shared" ref="T30:U30" si="67">+T27-SUM(T28:T29)</f>
         <v>2816.7000000000003</v>
       </c>
       <c r="U30" s="24">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>2923.4999999999991</v>
       </c>
       <c r="V30" s="24">
-        <f t="shared" ref="V30:W30" si="65">+V27-SUM(V28:V29)</f>
+        <f t="shared" ref="V30:X30" si="68">+V27-SUM(V28:V29)</f>
         <v>2515</v>
       </c>
       <c r="W30" s="24">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>2408</v>
+      </c>
+      <c r="X30" s="24">
+        <f t="shared" si="68"/>
+        <v>2556</v>
       </c>
       <c r="AM30" s="24">
         <f>+AM27-SUM(AM28:AM29)</f>
@@ -5936,63 +6035,63 @@
         <v>10022.399999999998</v>
       </c>
       <c r="AO30" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>8280.6</v>
       </c>
       <c r="AP30" s="54">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>6441.3000000000011</v>
       </c>
       <c r="AQ30" s="54">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>9457.4999999999982</v>
       </c>
       <c r="AR30" s="54">
+        <f t="shared" si="27"/>
+        <v>8104.4000000000015</v>
+      </c>
+      <c r="AS30" s="54">
         <f t="shared" si="25"/>
-        <v>8104.4000000000015</v>
-      </c>
-      <c r="AS30" s="54">
-        <f t="shared" si="23"/>
         <v>10522.2</v>
       </c>
       <c r="AT30" s="54">
-        <f t="shared" ref="AT30" si="66">+AT27-SUM(AT28:AT29)</f>
+        <f t="shared" ref="AT30" si="69">+AT27-SUM(AT28:AT29)</f>
         <v>11102.937531296404</v>
       </c>
       <c r="AU30" s="54">
-        <f t="shared" ref="AU30:BC30" si="67">+AU27-SUM(AU28:AU29)</f>
+        <f t="shared" ref="AU30:BC30" si="70">+AU27-SUM(AU28:AU29)</f>
         <v>11716.129915196181</v>
       </c>
       <c r="AV30" s="54">
-        <f t="shared" si="67"/>
+        <f t="shared" si="70"/>
         <v>12363.590978553964</v>
       </c>
       <c r="AW30" s="54">
-        <f t="shared" si="67"/>
+        <f t="shared" si="70"/>
         <v>13047.235922649268</v>
       </c>
       <c r="AX30" s="54">
-        <f t="shared" si="67"/>
+        <f t="shared" si="70"/>
         <v>13769.086989196214</v>
       </c>
       <c r="AY30" s="54">
-        <f t="shared" si="67"/>
+        <f t="shared" si="70"/>
         <v>14531.279443049245</v>
       </c>
       <c r="AZ30" s="54">
-        <f t="shared" si="67"/>
+        <f t="shared" si="70"/>
         <v>15336.067889306862</v>
       </c>
       <c r="BA30" s="54">
-        <f t="shared" si="67"/>
+        <f t="shared" si="70"/>
         <v>16185.832943504924</v>
       </c>
       <c r="BB30" s="54">
-        <f t="shared" si="67"/>
+        <f t="shared" si="70"/>
         <v>17083.088274635968</v>
       </c>
       <c r="BC30" s="54">
-        <f t="shared" si="67"/>
+        <f t="shared" si="70"/>
         <v>18030.488041834244</v>
       </c>
       <c r="BD30" s="54"/>
@@ -6064,6 +6163,9 @@
       <c r="W31" s="24">
         <v>479</v>
       </c>
+      <c r="X31" s="24">
+        <v>533</v>
+      </c>
       <c r="AM31" s="24">
         <v>3381.2</v>
       </c>
@@ -6071,23 +6173,23 @@
         <v>1891.8</v>
       </c>
       <c r="AO31" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>1992.6999999999998</v>
       </c>
       <c r="AP31" s="54">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>1410.2</v>
       </c>
       <c r="AQ31" s="54">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>1582.7</v>
       </c>
       <c r="AR31" s="54">
+        <f t="shared" si="27"/>
+        <v>1648</v>
+      </c>
+      <c r="AS31" s="54">
         <f t="shared" si="25"/>
-        <v>1648</v>
-      </c>
-      <c r="AS31" s="54">
-        <f t="shared" si="23"/>
         <v>2053.4</v>
       </c>
       <c r="AT31" s="54">
@@ -6095,39 +6197,39 @@
         <v>2331.6168815722449</v>
       </c>
       <c r="AU31" s="54">
-        <f t="shared" ref="AU31:BC31" si="68">+AU30*AVERAGE(0.2,0.22)</f>
+        <f t="shared" ref="AU31:BC31" si="71">+AU30*AVERAGE(0.2,0.22)</f>
         <v>2460.3872821911982</v>
       </c>
       <c r="AV31" s="54">
-        <f t="shared" si="68"/>
+        <f t="shared" si="71"/>
         <v>2596.354105496333</v>
       </c>
       <c r="AW31" s="54">
-        <f t="shared" si="68"/>
+        <f t="shared" si="71"/>
         <v>2739.9195437563467</v>
       </c>
       <c r="AX31" s="54">
-        <f t="shared" si="68"/>
+        <f t="shared" si="71"/>
         <v>2891.5082677312053</v>
       </c>
       <c r="AY31" s="54">
-        <f t="shared" si="68"/>
+        <f t="shared" si="71"/>
         <v>3051.5686830403415</v>
       </c>
       <c r="AZ31" s="54">
-        <f t="shared" si="68"/>
+        <f t="shared" si="71"/>
         <v>3220.5742567544412</v>
       </c>
       <c r="BA31" s="54">
-        <f t="shared" si="68"/>
+        <f t="shared" si="71"/>
         <v>3399.0249181360341</v>
       </c>
       <c r="BB31" s="54">
-        <f t="shared" si="68"/>
+        <f t="shared" si="71"/>
         <v>3587.4485376735533</v>
       </c>
       <c r="BC31" s="54">
-        <f t="shared" si="68"/>
+        <f t="shared" si="71"/>
         <v>3786.4024887851915</v>
       </c>
       <c r="BD31" s="54"/>
@@ -6137,88 +6239,92 @@
         <v>34</v>
       </c>
       <c r="C32" s="24">
-        <f t="shared" ref="C32:L32" si="69">+C30-C31</f>
+        <f t="shared" ref="C32:L32" si="72">+C30-C31</f>
         <v>1389.8000000000002</v>
       </c>
       <c r="D32" s="24">
-        <f t="shared" si="69"/>
+        <f t="shared" si="72"/>
         <v>1580.1</v>
       </c>
       <c r="E32" s="24">
-        <f t="shared" si="69"/>
+        <f t="shared" si="72"/>
         <v>1676.9000000000008</v>
       </c>
       <c r="F32" s="24">
-        <f t="shared" si="69"/>
+        <f t="shared" si="72"/>
         <v>1641.1</v>
       </c>
       <c r="G32" s="24">
-        <f t="shared" si="69"/>
+        <f t="shared" si="72"/>
         <v>1180.4000000000003</v>
       </c>
       <c r="H32" s="24">
-        <f t="shared" si="69"/>
+        <f t="shared" si="72"/>
         <v>554.8000000000003</v>
       </c>
       <c r="I32" s="24">
-        <f t="shared" si="69"/>
+        <f t="shared" si="72"/>
         <v>1838.4000000000005</v>
       </c>
       <c r="J32" s="24">
-        <f t="shared" si="69"/>
+        <f t="shared" si="72"/>
         <v>1457.5000000000002</v>
       </c>
       <c r="K32" s="24">
-        <f t="shared" si="69"/>
+        <f t="shared" si="72"/>
         <v>1613.1</v>
       </c>
       <c r="L32" s="24">
-        <f t="shared" si="69"/>
+        <f t="shared" si="72"/>
         <v>2302.3999999999996</v>
       </c>
       <c r="M32" s="24">
-        <f t="shared" ref="M32" si="70">+M30-M31</f>
+        <f t="shared" ref="M32" si="73">+M30-M31</f>
         <v>2234.0000000000005</v>
       </c>
       <c r="N32" s="24">
-        <f t="shared" ref="N32" si="71">+N30-N31</f>
+        <f t="shared" ref="N32" si="74">+N30-N31</f>
         <v>1725.2999999999988</v>
       </c>
       <c r="O32" s="24">
-        <f t="shared" ref="O32" si="72">+O30-O31</f>
+        <f t="shared" ref="O32" si="75">+O30-O31</f>
         <v>1197.1000000000001</v>
       </c>
       <c r="P32" s="24">
-        <f t="shared" ref="P32:R32" si="73">+P30-P31</f>
+        <f t="shared" ref="P32:R32" si="76">+P30-P31</f>
         <v>1281.0000000000007</v>
       </c>
       <c r="Q32" s="24">
-        <f t="shared" si="73"/>
+        <f t="shared" si="76"/>
         <v>2074.9000000000005</v>
       </c>
       <c r="R32" s="24">
-        <f t="shared" si="73"/>
+        <f t="shared" si="76"/>
         <v>1903.3999999999996</v>
       </c>
       <c r="S32" s="24">
-        <f t="shared" ref="S32" si="74">+S30-S31</f>
+        <f t="shared" ref="S32" si="77">+S30-S31</f>
         <v>1802.3</v>
       </c>
       <c r="T32" s="24">
-        <f t="shared" ref="T32:U32" si="75">+T30-T31</f>
+        <f t="shared" ref="T32:U32" si="78">+T30-T31</f>
         <v>2310.4</v>
       </c>
       <c r="U32" s="24">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>2317.099999999999</v>
       </c>
       <c r="V32" s="24">
-        <f t="shared" ref="V32:W32" si="76">+V30-V31</f>
+        <f t="shared" ref="V32:X32" si="79">+V30-V31</f>
         <v>2039</v>
       </c>
       <c r="W32" s="24">
-        <f t="shared" si="76"/>
+        <f t="shared" si="79"/>
         <v>1929</v>
+      </c>
+      <c r="X32" s="24">
+        <f t="shared" si="79"/>
+        <v>2023</v>
       </c>
       <c r="AM32" s="24">
         <f>+AM30-AM31</f>
@@ -6229,11 +6335,11 @@
         <v>8130.5999999999976</v>
       </c>
       <c r="AO32" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>6287.9000000000015</v>
       </c>
       <c r="AP32" s="54">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>5031.1000000000013</v>
       </c>
       <c r="AQ32" s="54">
@@ -6241,11 +6347,11 @@
         <v>7874.7999999999993</v>
       </c>
       <c r="AR32" s="54">
+        <f t="shared" si="27"/>
+        <v>6456.4000000000015</v>
+      </c>
+      <c r="AS32" s="54">
         <f t="shared" si="25"/>
-        <v>6456.4000000000015</v>
-      </c>
-      <c r="AS32" s="54">
-        <f t="shared" si="23"/>
         <v>8468.7999999999993</v>
       </c>
       <c r="AT32" s="54">
@@ -6253,839 +6359,839 @@
         <v>8771.320649724159</v>
       </c>
       <c r="AU32" s="54">
-        <f t="shared" ref="AU32:BC32" si="77">+AU30-AU31</f>
+        <f t="shared" ref="AU32:BC32" si="80">+AU30-AU31</f>
         <v>9255.7426330049821</v>
       </c>
       <c r="AV32" s="54">
-        <f t="shared" si="77"/>
+        <f t="shared" si="80"/>
         <v>9767.2368730576309</v>
       </c>
       <c r="AW32" s="54">
-        <f t="shared" si="77"/>
+        <f t="shared" si="80"/>
         <v>10307.316378892921</v>
       </c>
       <c r="AX32" s="54">
-        <f t="shared" si="77"/>
+        <f t="shared" si="80"/>
         <v>10877.578721465008</v>
       </c>
       <c r="AY32" s="54">
-        <f t="shared" si="77"/>
+        <f t="shared" si="80"/>
         <v>11479.710760008904</v>
       </c>
       <c r="AZ32" s="54">
-        <f t="shared" si="77"/>
+        <f t="shared" si="80"/>
         <v>12115.493632552421</v>
       </c>
       <c r="BA32" s="54">
-        <f t="shared" si="77"/>
+        <f t="shared" si="80"/>
         <v>12786.80802536889</v>
       </c>
       <c r="BB32" s="54">
-        <f t="shared" si="77"/>
+        <f t="shared" si="80"/>
         <v>13495.639736962414</v>
       </c>
       <c r="BC32" s="54">
-        <f t="shared" si="77"/>
+        <f t="shared" si="80"/>
         <v>14244.085553049052</v>
       </c>
       <c r="BD32" s="54">
-        <f t="shared" ref="BD32:CI32" si="78">+BC32*(1+$BI$35)</f>
+        <f t="shared" ref="BD32:CI32" si="81">+BC32*(1+$BI$35)</f>
         <v>14386.526408579542</v>
       </c>
       <c r="BE32" s="24">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>14530.391672665339</v>
       </c>
       <c r="BF32" s="24">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>14675.695589391993</v>
       </c>
       <c r="BG32" s="24">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>14822.452545285912</v>
       </c>
       <c r="BH32" s="24">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>14970.677070738771</v>
       </c>
       <c r="BI32" s="24">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>15120.383841446159</v>
       </c>
       <c r="BJ32" s="24">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>15271.58767986062</v>
       </c>
       <c r="BK32" s="24">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>15424.303556659226</v>
       </c>
       <c r="BL32" s="24">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>15578.546592225819</v>
       </c>
       <c r="BM32" s="24">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>15734.332058148077</v>
       </c>
       <c r="BN32" s="24">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>15891.675378729558</v>
       </c>
       <c r="BO32" s="24">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>16050.592132516855</v>
       </c>
       <c r="BP32" s="24">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>16211.098053842023</v>
       </c>
       <c r="BQ32" s="24">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>16373.209034380443</v>
       </c>
       <c r="BR32" s="24">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>16536.941124724246</v>
       </c>
       <c r="BS32" s="24">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>16702.31053597149</v>
       </c>
       <c r="BT32" s="24">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>16869.333641331206</v>
       </c>
       <c r="BU32" s="24">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>17038.026977744517</v>
       </c>
       <c r="BV32" s="24">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>17208.407247521962</v>
       </c>
       <c r="BW32" s="24">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>17380.491319997182</v>
       </c>
       <c r="BX32" s="24">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>17554.296233197154</v>
       </c>
       <c r="BY32" s="24">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>17729.839195529126</v>
       </c>
       <c r="BZ32" s="24">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>17907.137587484416</v>
       </c>
       <c r="CA32" s="24">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>18086.208963359262</v>
       </c>
       <c r="CB32" s="24">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>18267.071052992855</v>
       </c>
       <c r="CC32" s="24">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>18449.741763522783</v>
       </c>
       <c r="CD32" s="24">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>18634.239181158013</v>
       </c>
       <c r="CE32" s="24">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>18820.581572969593</v>
       </c>
       <c r="CF32" s="24">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>19008.787388699289</v>
       </c>
       <c r="CG32" s="24">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>19198.875262586283</v>
       </c>
       <c r="CH32" s="24">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>19390.864015212148</v>
       </c>
       <c r="CI32" s="24">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>19584.772655364268</v>
       </c>
       <c r="CJ32" s="24">
-        <f t="shared" ref="CJ32:DO32" si="79">+CI32*(1+$BI$35)</f>
+        <f t="shared" ref="CJ32:DO32" si="82">+CI32*(1+$BI$35)</f>
         <v>19780.62038191791</v>
       </c>
       <c r="CK32" s="24">
-        <f t="shared" si="79"/>
+        <f t="shared" si="82"/>
         <v>19978.426585737088</v>
       </c>
       <c r="CL32" s="24">
-        <f t="shared" si="79"/>
+        <f t="shared" si="82"/>
         <v>20178.21085159446</v>
       </c>
       <c r="CM32" s="24">
-        <f t="shared" si="79"/>
+        <f t="shared" si="82"/>
         <v>20379.992960110405</v>
       </c>
       <c r="CN32" s="24">
-        <f t="shared" si="79"/>
+        <f t="shared" si="82"/>
         <v>20583.792889711509</v>
       </c>
       <c r="CO32" s="24">
-        <f t="shared" si="79"/>
+        <f t="shared" si="82"/>
         <v>20789.630818608624</v>
       </c>
       <c r="CP32" s="24">
-        <f t="shared" si="79"/>
+        <f t="shared" si="82"/>
         <v>20997.52712679471</v>
       </c>
       <c r="CQ32" s="24">
-        <f t="shared" si="79"/>
+        <f t="shared" si="82"/>
         <v>21207.502398062657</v>
       </c>
       <c r="CR32" s="24">
-        <f t="shared" si="79"/>
+        <f t="shared" si="82"/>
         <v>21419.577422043283</v>
       </c>
       <c r="CS32" s="24">
-        <f t="shared" si="79"/>
+        <f t="shared" si="82"/>
         <v>21633.773196263715</v>
       </c>
       <c r="CT32" s="24">
-        <f t="shared" si="79"/>
+        <f t="shared" si="82"/>
         <v>21850.110928226353</v>
       </c>
       <c r="CU32" s="24">
-        <f t="shared" si="79"/>
+        <f t="shared" si="82"/>
         <v>22068.612037508618</v>
       </c>
       <c r="CV32" s="24">
-        <f t="shared" si="79"/>
+        <f t="shared" si="82"/>
         <v>22289.298157883703</v>
       </c>
       <c r="CW32" s="24">
-        <f t="shared" si="79"/>
+        <f t="shared" si="82"/>
         <v>22512.191139462539</v>
       </c>
       <c r="CX32" s="24">
-        <f t="shared" si="79"/>
+        <f t="shared" si="82"/>
         <v>22737.313050857163</v>
       </c>
       <c r="CY32" s="24">
-        <f t="shared" si="79"/>
+        <f t="shared" si="82"/>
         <v>22964.686181365734</v>
       </c>
       <c r="CZ32" s="24">
-        <f t="shared" si="79"/>
+        <f t="shared" si="82"/>
         <v>23194.333043179391</v>
       </c>
       <c r="DA32" s="24">
-        <f t="shared" si="79"/>
+        <f t="shared" si="82"/>
         <v>23426.276373611185</v>
       </c>
       <c r="DB32" s="24">
-        <f t="shared" si="79"/>
+        <f t="shared" si="82"/>
         <v>23660.539137347296</v>
       </c>
       <c r="DC32" s="24">
-        <f t="shared" si="79"/>
+        <f t="shared" si="82"/>
         <v>23897.144528720768</v>
       </c>
       <c r="DD32" s="24">
-        <f t="shared" si="79"/>
+        <f t="shared" si="82"/>
         <v>24136.115974007975</v>
       </c>
       <c r="DE32" s="24">
-        <f t="shared" si="79"/>
+        <f t="shared" si="82"/>
         <v>24377.477133748056</v>
       </c>
       <c r="DF32" s="24">
-        <f t="shared" si="79"/>
+        <f t="shared" si="82"/>
         <v>24621.251905085537</v>
       </c>
       <c r="DG32" s="24">
-        <f t="shared" si="79"/>
+        <f t="shared" si="82"/>
         <v>24867.464424136393</v>
       </c>
       <c r="DH32" s="24">
-        <f t="shared" si="79"/>
+        <f t="shared" si="82"/>
         <v>25116.139068377757</v>
       </c>
       <c r="DI32" s="24">
-        <f t="shared" si="79"/>
+        <f t="shared" si="82"/>
         <v>25367.300459061535</v>
       </c>
       <c r="DJ32" s="24">
-        <f t="shared" si="79"/>
+        <f t="shared" si="82"/>
         <v>25620.97346365215</v>
       </c>
       <c r="DK32" s="24">
-        <f t="shared" si="79"/>
+        <f t="shared" si="82"/>
         <v>25877.183198288672</v>
       </c>
       <c r="DL32" s="24">
-        <f t="shared" si="79"/>
+        <f t="shared" si="82"/>
         <v>26135.955030271558</v>
       </c>
       <c r="DM32" s="24">
-        <f t="shared" si="79"/>
+        <f t="shared" si="82"/>
         <v>26397.314580574275</v>
       </c>
       <c r="DN32" s="24">
-        <f t="shared" si="79"/>
+        <f t="shared" si="82"/>
         <v>26661.287726380018</v>
       </c>
       <c r="DO32" s="24">
-        <f t="shared" si="79"/>
+        <f t="shared" si="82"/>
         <v>26927.900603643819</v>
       </c>
       <c r="DP32" s="24">
-        <f t="shared" ref="DP32:EU32" si="80">+DO32*(1+$BI$35)</f>
+        <f t="shared" ref="DP32:EU32" si="83">+DO32*(1+$BI$35)</f>
         <v>27197.179609680257</v>
       </c>
       <c r="DQ32" s="24">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>27469.151405777062</v>
       </c>
       <c r="DR32" s="24">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>27743.842919834831</v>
       </c>
       <c r="DS32" s="24">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>28021.281349033179</v>
       </c>
       <c r="DT32" s="24">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>28301.494162523511</v>
       </c>
       <c r="DU32" s="24">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>28584.509104148747</v>
       </c>
       <c r="DV32" s="24">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>28870.354195190233</v>
       </c>
       <c r="DW32" s="24">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>29159.057737142135</v>
       </c>
       <c r="DX32" s="24">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>29450.648314513557</v>
       </c>
       <c r="DY32" s="24">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>29745.154797658692</v>
       </c>
       <c r="DZ32" s="24">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>30042.606345635279</v>
       </c>
       <c r="EA32" s="24">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>30343.032409091633</v>
       </c>
       <c r="EB32" s="24">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>30646.46273318255</v>
       </c>
       <c r="EC32" s="24">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>30952.927360514375</v>
       </c>
       <c r="ED32" s="24">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>31262.45663411952</v>
       </c>
       <c r="EE32" s="24">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>31575.081200460714</v>
       </c>
       <c r="EF32" s="24">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>31890.832012465322</v>
       </c>
       <c r="EG32" s="24">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>32209.740332589976</v>
       </c>
       <c r="EH32" s="24">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>32531.837735915877</v>
       </c>
       <c r="EI32" s="24">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>32857.156113275036</v>
       </c>
       <c r="EJ32" s="24">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>33185.72767440779</v>
       </c>
       <c r="EK32" s="24">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>33517.584951151868</v>
       </c>
       <c r="EL32" s="24">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>33852.760800663389</v>
       </c>
       <c r="EM32" s="24">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>34191.288408670021</v>
       </c>
       <c r="EN32" s="24">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>34533.201292756719</v>
       </c>
       <c r="EO32" s="24">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>34878.533305684286</v>
       </c>
       <c r="EP32" s="24">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>35227.318638741126</v>
       </c>
       <c r="EQ32" s="24">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>35579.59182512854</v>
       </c>
       <c r="ER32" s="24">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>35935.387743379826</v>
       </c>
       <c r="ES32" s="24">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>36294.741620813627</v>
       </c>
       <c r="ET32" s="24">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>36657.689037021766</v>
       </c>
       <c r="EU32" s="24">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>37024.265927391985</v>
       </c>
       <c r="EV32" s="24">
-        <f t="shared" ref="EV32:GA32" si="81">+EU32*(1+$BI$35)</f>
+        <f t="shared" ref="EV32:GA32" si="84">+EU32*(1+$BI$35)</f>
         <v>37394.508586665906</v>
       </c>
       <c r="EW32" s="24">
-        <f t="shared" si="81"/>
+        <f t="shared" si="84"/>
         <v>37768.453672532567</v>
       </c>
       <c r="EX32" s="24">
-        <f t="shared" si="81"/>
+        <f t="shared" si="84"/>
         <v>38146.138209257893</v>
       </c>
       <c r="EY32" s="24">
-        <f t="shared" si="81"/>
+        <f t="shared" si="84"/>
         <v>38527.599591350474</v>
       </c>
       <c r="EZ32" s="24">
-        <f t="shared" si="81"/>
+        <f t="shared" si="84"/>
         <v>38912.875587263981</v>
       </c>
       <c r="FA32" s="24">
-        <f t="shared" si="81"/>
+        <f t="shared" si="84"/>
         <v>39302.004343136621</v>
       </c>
       <c r="FB32" s="24">
-        <f t="shared" si="81"/>
+        <f t="shared" si="84"/>
         <v>39695.024386567988</v>
       </c>
       <c r="FC32" s="24">
-        <f t="shared" si="81"/>
+        <f t="shared" si="84"/>
         <v>40091.974630433666</v>
       </c>
       <c r="FD32" s="24">
-        <f t="shared" si="81"/>
+        <f t="shared" si="84"/>
         <v>40492.894376738004</v>
       </c>
       <c r="FE32" s="24">
-        <f t="shared" si="81"/>
+        <f t="shared" si="84"/>
         <v>40897.823320505384</v>
       </c>
       <c r="FF32" s="24">
-        <f t="shared" si="81"/>
+        <f t="shared" si="84"/>
         <v>41306.801553710437</v>
       </c>
       <c r="FG32" s="24">
-        <f t="shared" si="81"/>
+        <f t="shared" si="84"/>
         <v>41719.869569247545</v>
       </c>
       <c r="FH32" s="24">
-        <f t="shared" si="81"/>
+        <f t="shared" si="84"/>
         <v>42137.068264940019</v>
       </c>
       <c r="FI32" s="24">
-        <f t="shared" si="81"/>
+        <f t="shared" si="84"/>
         <v>42558.43894758942</v>
       </c>
       <c r="FJ32" s="24">
-        <f t="shared" si="81"/>
+        <f t="shared" si="84"/>
         <v>42984.023337065315</v>
       </c>
       <c r="FK32" s="24">
-        <f t="shared" si="81"/>
+        <f t="shared" si="84"/>
         <v>43413.863570435969</v>
       </c>
       <c r="FL32" s="24">
-        <f t="shared" si="81"/>
+        <f t="shared" si="84"/>
         <v>43848.002206140329</v>
       </c>
       <c r="FM32" s="24">
-        <f t="shared" si="81"/>
+        <f t="shared" si="84"/>
         <v>44286.482228201734</v>
       </c>
       <c r="FN32" s="24">
-        <f t="shared" si="81"/>
+        <f t="shared" si="84"/>
         <v>44729.347050483753</v>
       </c>
       <c r="FO32" s="24">
-        <f t="shared" si="81"/>
+        <f t="shared" si="84"/>
         <v>45176.640520988592</v>
       </c>
       <c r="FP32" s="24">
-        <f t="shared" si="81"/>
+        <f t="shared" si="84"/>
         <v>45628.406926198477</v>
       </c>
       <c r="FQ32" s="24">
-        <f t="shared" si="81"/>
+        <f t="shared" si="84"/>
         <v>46084.690995460463</v>
       </c>
       <c r="FR32" s="24">
-        <f t="shared" si="81"/>
+        <f t="shared" si="84"/>
         <v>46545.537905415069</v>
       </c>
       <c r="FS32" s="24">
-        <f t="shared" si="81"/>
+        <f t="shared" si="84"/>
         <v>47010.993284469223</v>
       </c>
       <c r="FT32" s="24">
-        <f t="shared" si="81"/>
+        <f t="shared" si="84"/>
         <v>47481.103217313917</v>
       </c>
       <c r="FU32" s="24">
-        <f t="shared" si="81"/>
+        <f t="shared" si="84"/>
         <v>47955.914249487054</v>
       </c>
       <c r="FV32" s="24">
-        <f t="shared" si="81"/>
+        <f t="shared" si="84"/>
         <v>48435.473391981926</v>
       </c>
       <c r="FW32" s="24">
-        <f t="shared" si="81"/>
+        <f t="shared" si="84"/>
         <v>48919.828125901746</v>
       </c>
       <c r="FX32" s="24">
-        <f t="shared" si="81"/>
+        <f t="shared" si="84"/>
         <v>49409.026407160767</v>
       </c>
       <c r="FY32" s="24">
-        <f t="shared" si="81"/>
+        <f t="shared" si="84"/>
         <v>49903.116671232376</v>
       </c>
       <c r="FZ32" s="24">
-        <f t="shared" si="81"/>
+        <f t="shared" si="84"/>
         <v>50402.1478379447</v>
       </c>
       <c r="GA32" s="24">
-        <f t="shared" si="81"/>
+        <f t="shared" si="84"/>
         <v>50906.169316324151</v>
       </c>
       <c r="GB32" s="24">
-        <f t="shared" ref="GB32:HG32" si="82">+GA32*(1+$BI$35)</f>
+        <f t="shared" ref="GB32:HG32" si="85">+GA32*(1+$BI$35)</f>
         <v>51415.23100948739</v>
       </c>
       <c r="GC32" s="24">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>51929.383319582266</v>
       </c>
       <c r="GD32" s="24">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>52448.677152778087</v>
       </c>
       <c r="GE32" s="24">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>52973.163924305867</v>
       </c>
       <c r="GF32" s="24">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>53502.895563548926</v>
       </c>
       <c r="GG32" s="24">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>54037.924519184417</v>
       </c>
       <c r="GH32" s="24">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>54578.303764376258</v>
       </c>
       <c r="GI32" s="24">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>55124.086802020021</v>
       </c>
       <c r="GJ32" s="24">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>55675.32767004022</v>
       </c>
       <c r="GK32" s="24">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>56232.080946740622</v>
       </c>
       <c r="GL32" s="24">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>56794.401756208026</v>
       </c>
       <c r="GM32" s="24">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>57362.34577377011</v>
       </c>
       <c r="GN32" s="24">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>57935.969231507814</v>
       </c>
       <c r="GO32" s="24">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>58515.32892382289</v>
       </c>
       <c r="GP32" s="24">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>59100.482213061121</v>
       </c>
       <c r="GQ32" s="24">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>59691.487035191734</v>
       </c>
       <c r="GR32" s="24">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>60288.401905543651</v>
       </c>
       <c r="GS32" s="24">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>60891.285924599091</v>
       </c>
       <c r="GT32" s="24">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>61500.19878384508</v>
       </c>
       <c r="GU32" s="24">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>62115.200771683529</v>
       </c>
       <c r="GV32" s="24">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>62736.352779400368</v>
       </c>
       <c r="GW32" s="24">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>63363.716307194372</v>
       </c>
       <c r="GX32" s="24">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>63997.353470266316</v>
       </c>
       <c r="GY32" s="24">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>64637.327004968982</v>
       </c>
       <c r="GZ32" s="24">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>65283.700275018673</v>
       </c>
       <c r="HA32" s="24">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>65936.537277768861</v>
       </c>
       <c r="HB32" s="24">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>66595.902650546544</v>
       </c>
       <c r="HC32" s="24">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>67261.861677052017</v>
       </c>
       <c r="HD32" s="24">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>67934.480293822533</v>
       </c>
       <c r="HE32" s="24">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>68613.82509676076</v>
       </c>
       <c r="HF32" s="24">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>69299.963347728364</v>
       </c>
       <c r="HG32" s="24">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>69992.962981205652</v>
       </c>
       <c r="HH32" s="24">
-        <f t="shared" ref="HH32:HX32" si="83">+HG32*(1+$BI$35)</f>
+        <f t="shared" ref="HH32:HX32" si="86">+HG32*(1+$BI$35)</f>
         <v>70692.892611017713</v>
       </c>
       <c r="HI32" s="24">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>71399.821537127893</v>
       </c>
       <c r="HJ32" s="24">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>72113.81975249917</v>
       </c>
       <c r="HK32" s="24">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>72834.957950024167</v>
       </c>
       <c r="HL32" s="24">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>73563.307529524405</v>
       </c>
       <c r="HM32" s="24">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>74298.940604819654</v>
       </c>
       <c r="HN32" s="24">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>75041.930010867858</v>
       </c>
       <c r="HO32" s="24">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>75792.34931097654</v>
       </c>
       <c r="HP32" s="24">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>76550.2728040863</v>
       </c>
       <c r="HQ32" s="24">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>77315.775532127169</v>
       </c>
       <c r="HR32" s="24">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>78088.933287448439</v>
       </c>
       <c r="HS32" s="24">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>78869.822620322928</v>
       </c>
       <c r="HT32" s="24">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>79658.520846526153</v>
       </c>
       <c r="HU32" s="24">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>80455.106054991411</v>
       </c>
       <c r="HV32" s="24">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>81259.657115541326</v>
       </c>
       <c r="HW32" s="24">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>82072.253686696742</v>
       </c>
       <c r="HX32" s="24">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>82892.976223563717</v>
       </c>
       <c r="HY32" s="24">
-        <f t="shared" ref="HY32:IR32" si="84">+HX32*(1+$BI$35)</f>
+        <f t="shared" ref="HY32:IR32" si="87">+HX32*(1+$BI$35)</f>
         <v>83721.905985799356</v>
       </c>
       <c r="HZ32" s="24">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>84559.125045657347</v>
       </c>
       <c r="IA32" s="24">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>85404.716296113926</v>
       </c>
       <c r="IB32" s="24">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>86258.763459075068</v>
       </c>
       <c r="IC32" s="24">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>87121.351093665813</v>
       </c>
       <c r="ID32" s="24">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>87992.564604602478</v>
       </c>
       <c r="IE32" s="24">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>88872.490250648509</v>
       </c>
       <c r="IF32" s="24">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>89761.21515315499</v>
       </c>
       <c r="IG32" s="24">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>90658.827304686536</v>
       </c>
       <c r="IH32" s="24">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>91565.415577733409</v>
       </c>
       <c r="II32" s="24">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>92481.06973351074</v>
       </c>
       <c r="IJ32" s="24">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>93405.880430845849</v>
       </c>
       <c r="IK32" s="24">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>94339.939235154307</v>
       </c>
       <c r="IL32" s="24">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>95283.338627505844</v>
       </c>
       <c r="IM32" s="24">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>96236.172013780902</v>
       </c>
       <c r="IN32" s="24">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>97198.53373391871</v>
       </c>
       <c r="IO32" s="24">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>98170.519071257891</v>
       </c>
       <c r="IP32" s="24">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>99152.224261970478</v>
       </c>
       <c r="IQ32" s="24">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>100143.74650459018</v>
       </c>
       <c r="IR32" s="24">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>101145.18396963608</v>
       </c>
       <c r="IS32" s="24">
-        <f t="shared" ref="IS32:IT32" si="85">+IR32*(1+$BI$35)</f>
+        <f t="shared" ref="IS32:IT32" si="88">+IR32*(1+$BI$35)</f>
         <v>102156.63580933245</v>
       </c>
       <c r="IT32" s="24">
-        <f t="shared" si="85"/>
+        <f t="shared" si="88"/>
         <v>103178.20216742578</v>
       </c>
       <c r="IU32" s="24">
-        <f t="shared" ref="IU32" si="86">+IT32*(1+$BI$35)</f>
+        <f t="shared" ref="IU32" si="89">+IT32*(1+$BI$35)</f>
         <v>104209.98418910004</v>
       </c>
     </row>
@@ -7156,6 +7262,9 @@
       <c r="W33" s="24">
         <v>725.9</v>
       </c>
+      <c r="X33" s="24">
+        <v>722</v>
+      </c>
       <c r="AM33" s="24">
         <v>815.5</v>
       </c>
@@ -7179,7 +7288,7 @@
         <v>740.4443897484631</v>
       </c>
       <c r="AS33" s="54">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>2929.2</v>
       </c>
       <c r="AT33" s="54">
@@ -7187,39 +7296,39 @@
         <v>2929.2</v>
       </c>
       <c r="AU33" s="54">
-        <f t="shared" ref="AU33:BC33" si="87">+AT33</f>
+        <f t="shared" ref="AU33:BC33" si="90">+AT33</f>
         <v>2929.2</v>
       </c>
       <c r="AV33" s="54">
-        <f t="shared" si="87"/>
+        <f t="shared" si="90"/>
         <v>2929.2</v>
       </c>
       <c r="AW33" s="54">
-        <f t="shared" si="87"/>
+        <f t="shared" si="90"/>
         <v>2929.2</v>
       </c>
       <c r="AX33" s="54">
-        <f t="shared" si="87"/>
+        <f t="shared" si="90"/>
         <v>2929.2</v>
       </c>
       <c r="AY33" s="54">
-        <f t="shared" si="87"/>
+        <f t="shared" si="90"/>
         <v>2929.2</v>
       </c>
       <c r="AZ33" s="54">
-        <f t="shared" si="87"/>
+        <f t="shared" si="90"/>
         <v>2929.2</v>
       </c>
       <c r="BA33" s="54">
-        <f t="shared" si="87"/>
+        <f t="shared" si="90"/>
         <v>2929.2</v>
       </c>
       <c r="BB33" s="54">
-        <f t="shared" si="87"/>
+        <f t="shared" si="90"/>
         <v>2929.2</v>
       </c>
       <c r="BC33" s="54">
-        <f t="shared" si="87"/>
+        <f t="shared" si="90"/>
         <v>2929.2</v>
       </c>
       <c r="BD33" s="54"/>
@@ -7230,88 +7339,92 @@
         <v>36</v>
       </c>
       <c r="C34" s="35">
-        <f t="shared" ref="C34:M34" si="88">+C32/C33</f>
+        <f t="shared" ref="C34:M34" si="91">+C32/C33</f>
         <v>1.801192327630897</v>
       </c>
       <c r="D34" s="35">
-        <f t="shared" si="88"/>
+        <f t="shared" si="91"/>
         <v>2.0555483283465588</v>
       </c>
       <c r="E34" s="35">
-        <f t="shared" si="88"/>
+        <f t="shared" si="91"/>
         <v>2.1951826155255936</v>
       </c>
       <c r="F34" s="35">
-        <f t="shared" si="88"/>
+        <f t="shared" si="91"/>
         <v>2.1719163578613019</v>
       </c>
       <c r="G34" s="35">
-        <f t="shared" si="88"/>
+        <f t="shared" si="91"/>
         <v>1.5723990941787669</v>
       </c>
       <c r="H34" s="35">
-        <f t="shared" si="88"/>
+        <f t="shared" si="91"/>
         <v>0.74111675126903587</v>
       </c>
       <c r="I34" s="35">
-        <f t="shared" si="88"/>
+        <f t="shared" si="91"/>
         <v>2.4512000000000009</v>
       </c>
       <c r="J34" s="35">
-        <f t="shared" si="88"/>
+        <f t="shared" si="91"/>
         <v>1.9407456724367513</v>
       </c>
       <c r="K34" s="35">
-        <f t="shared" si="88"/>
+        <f t="shared" si="91"/>
         <v>2.1479360852197069</v>
       </c>
       <c r="L34" s="35">
-        <f t="shared" si="88"/>
+        <f t="shared" si="91"/>
         <v>3.0612950405531172</v>
       </c>
       <c r="M34" s="35">
-        <f t="shared" si="88"/>
+        <f t="shared" si="91"/>
         <v>2.9683762955089028</v>
       </c>
       <c r="N34" s="35">
-        <f t="shared" ref="N34" si="89">+N32/N33</f>
+        <f t="shared" ref="N34" si="92">+N32/N33</f>
         <v>2.2955029270888754</v>
       </c>
       <c r="O34" s="35">
-        <f t="shared" ref="O34:P34" si="90">+O32/O33</f>
+        <f t="shared" ref="O34:P34" si="93">+O32/O33</f>
         <v>1.6012573568753345</v>
       </c>
       <c r="P34" s="35">
-        <f t="shared" si="90"/>
+        <f t="shared" si="93"/>
         <v>1.7264150943396235</v>
       </c>
       <c r="Q34" s="35">
-        <f t="shared" ref="Q34" si="91">+Q32/Q33</f>
+        <f t="shared" ref="Q34" si="94">+Q32/Q33</f>
         <v>2.8058147396889797</v>
       </c>
       <c r="R34" s="35">
-        <f t="shared" ref="R34:W34" si="92">+R32/R33</f>
+        <f t="shared" ref="R34:W34" si="95">+R32/R33</f>
         <v>2.5861413043478256</v>
       </c>
       <c r="S34" s="35">
-        <f t="shared" si="92"/>
+        <f t="shared" si="95"/>
         <v>2.4504418762746432</v>
       </c>
       <c r="T34" s="35">
-        <f t="shared" si="92"/>
+        <f t="shared" si="95"/>
         <v>3.146397930001362</v>
       </c>
       <c r="U34" s="35">
-        <f t="shared" si="92"/>
+        <f t="shared" si="95"/>
         <v>3.1671678512848538</v>
       </c>
       <c r="V34" s="35">
-        <f t="shared" si="92"/>
+        <f t="shared" si="95"/>
         <v>2.8015938444627646</v>
       </c>
       <c r="W34" s="35">
-        <f t="shared" si="92"/>
+        <f t="shared" si="95"/>
         <v>2.657390825182532</v>
+      </c>
+      <c r="X34" s="35">
+        <f t="shared" ref="X34" si="96">+X32/X33</f>
+        <v>2.8019390581717452</v>
       </c>
       <c r="AH34" s="35">
         <v>5.36</v>
@@ -7341,15 +7454,15 @@
         <v>6.31</v>
       </c>
       <c r="AQ34" s="67">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>10.473110348370604</v>
       </c>
       <c r="AR34" s="67">
+        <f t="shared" si="27"/>
+        <v>8.7196284952517633</v>
+      </c>
+      <c r="AS34" s="67">
         <f t="shared" si="25"/>
-        <v>8.7196284952517633</v>
-      </c>
-      <c r="AS34" s="67">
-        <f t="shared" si="23"/>
         <v>11.565601502023624</v>
       </c>
       <c r="AT34" s="67">
@@ -7357,39 +7470,39 @@
         <v>2.9944423903195956</v>
       </c>
       <c r="AU34" s="67">
-        <f t="shared" ref="AU34:BC34" si="93">+AU32/AU33</f>
+        <f t="shared" ref="AU34:BC34" si="97">+AU32/AU33</f>
         <v>3.159819279327114</v>
       </c>
       <c r="AV34" s="67">
-        <f t="shared" si="93"/>
+        <f t="shared" si="97"/>
         <v>3.3344383698817532</v>
       </c>
       <c r="AW34" s="67">
-        <f t="shared" si="93"/>
+        <f t="shared" si="97"/>
         <v>3.5188161883425244</v>
       </c>
       <c r="AX34" s="67">
-        <f t="shared" si="93"/>
+        <f t="shared" si="97"/>
         <v>3.713498129682169</v>
       </c>
       <c r="AY34" s="67">
-        <f t="shared" si="93"/>
+        <f t="shared" si="97"/>
         <v>3.919060071012189</v>
       </c>
       <c r="AZ34" s="67">
-        <f t="shared" si="93"/>
+        <f t="shared" si="97"/>
         <v>4.1361100752944226</v>
       </c>
       <c r="BA34" s="67">
-        <f t="shared" si="93"/>
+        <f t="shared" si="97"/>
         <v>4.3652901902802439</v>
       </c>
       <c r="BB34" s="67">
-        <f t="shared" si="93"/>
+        <f t="shared" si="97"/>
         <v>4.6072783480002784</v>
       </c>
       <c r="BC34" s="67">
-        <f t="shared" si="93"/>
+        <f t="shared" si="97"/>
         <v>4.8627903704250484</v>
       </c>
       <c r="BD34" s="67"/>
@@ -7441,7 +7554,7 @@
         <v>42</v>
       </c>
       <c r="BI36" s="80">
-        <v>0.06</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="37" spans="1:63" s="35" customFormat="1">
@@ -7467,7 +7580,7 @@
       </c>
       <c r="BI37" s="71">
         <f>NPV(BI36,AT32:IB32)+O!J16-O!J17</f>
-        <v>205325.65395377204</v>
+        <v>199731.44601182287</v>
       </c>
     </row>
     <row r="38" spans="1:63" s="35" customFormat="1">
@@ -7493,7 +7606,7 @@
       </c>
       <c r="BI38" s="71">
         <f>+O!J14</f>
-        <v>720.68165599999998</v>
+        <v>717.34324700000002</v>
       </c>
     </row>
     <row r="39" spans="1:63" s="32" customFormat="1">
@@ -7502,135 +7615,139 @@
         <v>37</v>
       </c>
       <c r="G39" s="32">
-        <f t="shared" ref="G39:P42" si="94">+G16/C16-1</f>
+        <f t="shared" ref="G39:P42" si="98">+G16/C16-1</f>
         <v>-9.5826824369560359E-2</v>
       </c>
       <c r="H39" s="32">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v>-0.33606898850191635</v>
       </c>
       <c r="I39" s="32">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v>-5.3877348340643838E-2</v>
       </c>
       <c r="J39" s="32">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v>-5.500782803706683E-2</v>
       </c>
       <c r="K39" s="32">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v>6.6985882120643714E-2</v>
       </c>
       <c r="L39" s="32">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v>0.56158624584300676</v>
       </c>
       <c r="M39" s="32">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v>0.13645906228131555</v>
       </c>
       <c r="N39" s="32">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v>0.13679308646397703</v>
       </c>
       <c r="O39" s="32">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v>6.5186213277816263E-2</v>
       </c>
       <c r="P39" s="32">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v>-0.15104271306304484</v>
       </c>
       <c r="Q39" s="32">
-        <f t="shared" ref="Q39:W42" si="95">+Q16/M16-1</f>
+        <f t="shared" ref="Q39:X42" si="99">+Q16/M16-1</f>
         <v>-0.18226600985221675</v>
       </c>
       <c r="R39" s="32">
-        <f t="shared" si="95"/>
+        <f t="shared" si="99"/>
         <v>-0.13014022372774536</v>
       </c>
       <c r="S39" s="32">
-        <f t="shared" si="95"/>
+        <f t="shared" si="99"/>
         <v>-3.3921125781792849E-2</v>
       </c>
       <c r="T39" s="32">
-        <f t="shared" si="95"/>
+        <f t="shared" si="99"/>
         <v>0.17711094282468753</v>
       </c>
       <c r="U39" s="32">
-        <f t="shared" si="95"/>
+        <f t="shared" si="99"/>
         <v>0.20303087349397564</v>
       </c>
       <c r="V39" s="32">
-        <f t="shared" si="95"/>
+        <f t="shared" si="99"/>
         <v>0.12031334903097246</v>
       </c>
       <c r="W39" s="32">
         <f>+W16/S16-1</f>
         <v>5.8760059344512783E-2</v>
       </c>
+      <c r="X39" s="32">
+        <f>+X16/T16-1</f>
+        <v>-1.0454362685967E-2</v>
+      </c>
       <c r="AN39" s="32">
-        <f t="shared" ref="AN39:BC39" si="96">+AN16/AM16-1</f>
+        <f t="shared" ref="AN39:BC39" si="100">+AN16/AM16-1</f>
         <v>-0.21276997224602745</v>
       </c>
       <c r="AO39" s="32">
-        <f t="shared" si="96"/>
+        <f t="shared" si="100"/>
         <v>-5.9114924046461126E-2</v>
       </c>
       <c r="AP39" s="62">
-        <f t="shared" si="96"/>
+        <f t="shared" si="100"/>
         <v>-0.13603940217391297</v>
       </c>
       <c r="AQ39" s="62">
-        <f t="shared" si="96"/>
+        <f t="shared" si="100"/>
         <v>0.20250147434637311</v>
       </c>
       <c r="AR39" s="62">
-        <f t="shared" si="96"/>
+        <f t="shared" si="100"/>
         <v>-0.10615689560046571</v>
       </c>
       <c r="AS39" s="62">
-        <f t="shared" si="96"/>
+        <f t="shared" si="100"/>
         <v>0.11352933107768259</v>
       </c>
       <c r="AT39" s="62">
-        <f t="shared" si="96"/>
+        <f t="shared" si="100"/>
         <v>5.5449999999999777E-2</v>
       </c>
       <c r="AU39" s="62">
-        <f t="shared" si="96"/>
+        <f t="shared" si="100"/>
         <v>5.5449999999999999E-2</v>
       </c>
       <c r="AV39" s="62">
-        <f t="shared" si="96"/>
+        <f t="shared" si="100"/>
         <v>5.5449999999999777E-2</v>
       </c>
       <c r="AW39" s="62">
-        <f t="shared" si="96"/>
+        <f t="shared" si="100"/>
         <v>5.5449999999999999E-2</v>
       </c>
       <c r="AX39" s="62">
-        <f t="shared" si="96"/>
+        <f t="shared" si="100"/>
         <v>5.5449999999999999E-2</v>
       </c>
       <c r="AY39" s="62">
-        <f t="shared" si="96"/>
+        <f t="shared" si="100"/>
         <v>5.5449999999999999E-2</v>
       </c>
       <c r="AZ39" s="62">
-        <f t="shared" si="96"/>
+        <f t="shared" si="100"/>
         <v>5.5449999999999999E-2</v>
       </c>
       <c r="BA39" s="62">
-        <f t="shared" si="96"/>
+        <f t="shared" si="100"/>
         <v>5.5449999999999777E-2</v>
       </c>
       <c r="BB39" s="62">
-        <f t="shared" si="96"/>
+        <f t="shared" si="100"/>
         <v>5.5449999999999777E-2</v>
       </c>
       <c r="BC39" s="62">
-        <f t="shared" si="96"/>
+        <f t="shared" si="100"/>
         <v>5.5450000000000221E-2</v>
       </c>
       <c r="BD39" s="62"/>
@@ -7639,7 +7756,7 @@
       </c>
       <c r="BI39" s="71">
         <f>+BI37/BI38</f>
-        <v>284.90478735561442</v>
+        <v>278.43218270628381</v>
       </c>
     </row>
     <row r="40" spans="1:63" s="32" customFormat="1">
@@ -7648,135 +7765,139 @@
         <v>38</v>
       </c>
       <c r="G40" s="32">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v>-3.9446060918566506E-2</v>
       </c>
       <c r="H40" s="32">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v>-0.29001326124655724</v>
       </c>
       <c r="I40" s="32">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v>1.0218978102189746E-2</v>
       </c>
       <c r="J40" s="32">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v>-1.3397193287989495E-4</v>
       </c>
       <c r="K40" s="32">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v>0.10329754601227004</v>
       </c>
       <c r="L40" s="32">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v>0.58342911877394621</v>
       </c>
       <c r="M40" s="32">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v>0.15285076195480807</v>
       </c>
       <c r="N40" s="32">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v>0.13610022443305514</v>
       </c>
       <c r="O40" s="32">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v>0.13394036282755262</v>
       </c>
       <c r="P40" s="32">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v>6.6723126247655973E-2</v>
       </c>
       <c r="Q40" s="32">
-        <f t="shared" si="95"/>
+        <f t="shared" si="99"/>
         <v>4.5866332402712207E-2</v>
       </c>
       <c r="R40" s="32">
-        <f t="shared" si="95"/>
+        <f t="shared" si="99"/>
         <v>7.4713999292369326E-2</v>
       </c>
       <c r="S40" s="32">
-        <f t="shared" si="95"/>
+        <f t="shared" si="99"/>
         <v>9.9515753340688962E-2</v>
       </c>
       <c r="T40" s="32">
-        <f t="shared" si="95"/>
+        <f t="shared" si="99"/>
         <v>0.11526029261653625</v>
       </c>
       <c r="U40" s="32">
-        <f t="shared" si="95"/>
+        <f t="shared" si="99"/>
         <v>0.10239158858139041</v>
       </c>
       <c r="V40" s="32">
-        <f t="shared" si="95"/>
+        <f t="shared" si="99"/>
         <v>6.13443072702331E-2</v>
       </c>
       <c r="W40" s="32">
-        <f t="shared" si="95"/>
+        <f t="shared" si="99"/>
         <v>3.7770034843205513E-2</v>
       </c>
+      <c r="X40" s="32">
+        <f t="shared" si="99"/>
+        <v>1.703404266137909E-3</v>
+      </c>
       <c r="AN40" s="32">
-        <f t="shared" ref="AN40:BC40" si="97">+AN17/AM17-1</f>
+        <f t="shared" ref="AN40:BC40" si="101">+AN17/AM17-1</f>
         <v>9.0184626045636707E-2</v>
       </c>
       <c r="AO40" s="32">
-        <f t="shared" si="97"/>
+        <f t="shared" si="101"/>
         <v>5.8406356413166938E-2</v>
       </c>
       <c r="AP40" s="62">
-        <f t="shared" si="97"/>
+        <f t="shared" si="101"/>
         <v>-7.9754969671491205E-2</v>
       </c>
       <c r="AQ40" s="62">
-        <f t="shared" si="97"/>
+        <f t="shared" si="101"/>
         <v>0.21995879210523861</v>
       </c>
       <c r="AR40" s="62">
-        <f t="shared" si="97"/>
+        <f t="shared" si="101"/>
         <v>7.7980038821892972E-2</v>
       </c>
       <c r="AS40" s="62">
-        <f t="shared" si="97"/>
+        <f t="shared" si="101"/>
         <v>9.4337081200640993E-2</v>
       </c>
       <c r="AT40" s="62">
-        <f t="shared" si="97"/>
+        <f t="shared" si="101"/>
         <v>5.6157000000000235E-2</v>
       </c>
       <c r="AU40" s="62">
-        <f t="shared" si="97"/>
+        <f t="shared" si="101"/>
         <v>5.6157000000000012E-2</v>
       </c>
       <c r="AV40" s="62">
-        <f t="shared" si="97"/>
+        <f t="shared" si="101"/>
         <v>5.6157000000000235E-2</v>
       </c>
       <c r="AW40" s="62">
-        <f t="shared" si="97"/>
+        <f t="shared" si="101"/>
         <v>5.6157000000000012E-2</v>
       </c>
       <c r="AX40" s="62">
-        <f t="shared" si="97"/>
+        <f t="shared" si="101"/>
         <v>5.6157000000000235E-2</v>
       </c>
       <c r="AY40" s="62">
-        <f t="shared" si="97"/>
+        <f t="shared" si="101"/>
         <v>5.6157000000000012E-2</v>
       </c>
       <c r="AZ40" s="62">
-        <f t="shared" si="97"/>
+        <f t="shared" si="101"/>
         <v>5.6157000000000012E-2</v>
       </c>
       <c r="BA40" s="62">
-        <f t="shared" si="97"/>
+        <f t="shared" si="101"/>
         <v>5.6157000000000012E-2</v>
       </c>
       <c r="BB40" s="62">
-        <f t="shared" si="97"/>
+        <f t="shared" si="101"/>
         <v>5.6157000000000012E-2</v>
       </c>
       <c r="BC40" s="62">
-        <f t="shared" si="97"/>
+        <f t="shared" si="101"/>
         <v>5.6157000000000012E-2</v>
       </c>
       <c r="BD40" s="62"/>
@@ -7785,7 +7906,7 @@
       </c>
       <c r="BI40" s="71">
         <f>+O!J13</f>
-        <v>258.11</v>
+        <v>278</v>
       </c>
     </row>
     <row r="41" spans="1:63" s="32" customFormat="1">
@@ -7794,127 +7915,131 @@
         <v>39</v>
       </c>
       <c r="G41" s="32">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v>0.1766423357664233</v>
       </c>
       <c r="H41" s="32">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v>0.16496350364963508</v>
       </c>
       <c r="I41" s="32">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v>0.21199442119944223</v>
       </c>
       <c r="J41" s="32">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v>0.20202020202020199</v>
       </c>
       <c r="K41" s="32">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v>6.3275434243176276E-2</v>
       </c>
       <c r="L41" s="32">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v>0.16541353383458657</v>
       </c>
       <c r="M41" s="32">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v>6.6743383199079354E-2</v>
       </c>
       <c r="N41" s="32">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v>-0.17331932773109238</v>
       </c>
       <c r="O41" s="32">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v>0.17152858809801641</v>
       </c>
       <c r="P41" s="32">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v>-0.15268817204301077</v>
       </c>
       <c r="Q41" s="32">
-        <f t="shared" si="95"/>
+        <f t="shared" si="99"/>
         <v>-0.17907227615965493</v>
       </c>
       <c r="R41" s="32">
-        <f t="shared" si="95"/>
+        <f t="shared" si="99"/>
         <v>-7.1156289707751008E-2</v>
       </c>
       <c r="S41" s="32">
-        <f t="shared" si="95"/>
+        <f t="shared" si="99"/>
         <v>-0.14342629482071723</v>
       </c>
       <c r="T41" s="32">
-        <f t="shared" si="95"/>
+        <f t="shared" si="99"/>
         <v>-2.0304568527918732E-2</v>
       </c>
       <c r="U41" s="32">
-        <f t="shared" si="95"/>
+        <f t="shared" si="99"/>
         <v>0.1681997371879107</v>
       </c>
       <c r="V41" s="32">
-        <f t="shared" si="95"/>
+        <f t="shared" si="99"/>
         <v>-0.13132694938440481</v>
       </c>
       <c r="W41" s="32">
-        <f t="shared" si="95"/>
+        <f t="shared" si="99"/>
         <v>5.8139534883721034E-2</v>
       </c>
+      <c r="X41" s="32">
+        <f t="shared" si="99"/>
+        <v>0.15284974093264236</v>
+      </c>
       <c r="AP41" s="62">
-        <f t="shared" ref="AP41:BC41" si="98">+AP18/AO18-1</f>
+        <f t="shared" ref="AP41:BC41" si="102">+AP18/AO18-1</f>
         <v>0.18964918374435569</v>
       </c>
       <c r="AQ41" s="62">
-        <f t="shared" si="98"/>
+        <f t="shared" si="102"/>
         <v>2.2189781021897836E-2</v>
       </c>
       <c r="AR41" s="62">
-        <f t="shared" si="98"/>
+        <f t="shared" si="102"/>
         <v>-6.1982290774064697E-2</v>
       </c>
       <c r="AS41" s="62">
-        <f t="shared" si="98"/>
+        <f t="shared" si="102"/>
         <v>-3.8976857490864658E-2</v>
       </c>
       <c r="AT41" s="62">
-        <f t="shared" si="98"/>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
       <c r="AU41" s="62">
-        <f t="shared" si="98"/>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
       <c r="AV41" s="62">
-        <f t="shared" si="98"/>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
       <c r="AW41" s="62">
-        <f t="shared" si="98"/>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
       <c r="AX41" s="62">
-        <f t="shared" si="98"/>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
       <c r="AY41" s="62">
-        <f t="shared" si="98"/>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
       <c r="AZ41" s="62">
-        <f t="shared" si="98"/>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
       <c r="BA41" s="62">
-        <f t="shared" si="98"/>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
       <c r="BB41" s="62">
-        <f t="shared" si="98"/>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
       <c r="BC41" s="62">
-        <f t="shared" si="98"/>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
       <c r="BD41" s="62"/>
@@ -7923,7 +8048,7 @@
       </c>
       <c r="BI41" s="74">
         <f>+BI39/BI40-1</f>
-        <v>0.10381150422538599</v>
+        <v>1.5546140513806872E-3</v>
       </c>
     </row>
     <row r="42" spans="1:63" s="37" customFormat="1">
@@ -7932,72 +8057,76 @@
         <v>40</v>
       </c>
       <c r="G42" s="37">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v>-6.1642881312075737E-2</v>
       </c>
       <c r="H42" s="37">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v>-0.3046877888276831</v>
       </c>
       <c r="I42" s="37">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v>-1.5302691601693841E-2</v>
       </c>
       <c r="J42" s="37">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v>-2.1075126192844684E-2</v>
       </c>
       <c r="K42" s="37">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v>8.7010011878499771E-2</v>
       </c>
       <c r="L42" s="37">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v>0.56530639372590707</v>
       </c>
       <c r="M42" s="37">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v>0.14455251841051298</v>
       </c>
       <c r="N42" s="37">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v>0.13084798072942139</v>
       </c>
       <c r="O42" s="37">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v>0.10556921515825635</v>
       </c>
       <c r="P42" s="37">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v>-2.8787853054569434E-2</v>
       </c>
       <c r="Q42" s="37">
-        <f t="shared" si="95"/>
+        <f t="shared" si="99"/>
         <v>-5.3085643332849486E-2</v>
       </c>
       <c r="R42" s="32">
-        <f t="shared" si="95"/>
+        <f t="shared" si="99"/>
         <v>-1.3745818841423785E-2</v>
       </c>
       <c r="S42" s="37">
-        <f t="shared" si="95"/>
+        <f t="shared" si="99"/>
         <v>4.098418525840164E-2</v>
       </c>
       <c r="T42" s="37">
-        <f t="shared" si="95"/>
+        <f t="shared" si="99"/>
         <v>0.13624440402909888</v>
       </c>
       <c r="U42" s="37">
-        <f t="shared" si="95"/>
+        <f t="shared" si="99"/>
         <v>0.1396604281262237</v>
       </c>
       <c r="V42" s="37">
-        <f t="shared" si="95"/>
+        <f t="shared" si="99"/>
         <v>8.0941533788914111E-2</v>
       </c>
       <c r="W42" s="37">
-        <f t="shared" si="95"/>
+        <f t="shared" si="99"/>
         <v>4.5983247990776244E-2</v>
+      </c>
+      <c r="X42" s="37">
+        <f>+X19/T19-1</f>
+        <v>-1.154290111581413E-3</v>
       </c>
       <c r="AN42" s="37">
         <f>+AN19/AM19-1</f>
@@ -8008,59 +8137,59 @@
         <v>4.9957192989058541E-3</v>
       </c>
       <c r="AP42" s="64">
-        <f t="shared" ref="AP42:BC42" si="99">+AP19/AO19-1</f>
+        <f t="shared" ref="AP42:BC42" si="103">+AP19/AO19-1</f>
         <v>-0.10094362584486338</v>
       </c>
       <c r="AQ42" s="64">
-        <f t="shared" si="99"/>
+        <f t="shared" si="103"/>
         <v>0.20903487125022102</v>
       </c>
       <c r="AR42" s="64">
-        <f t="shared" si="99"/>
+        <f t="shared" si="103"/>
         <v>-1.7353560494166587E-3</v>
       </c>
       <c r="AS42" s="64">
-        <f t="shared" si="99"/>
+        <f t="shared" si="103"/>
         <v>9.9691147671098213E-2</v>
       </c>
       <c r="AT42" s="64">
-        <f t="shared" si="99"/>
+        <f t="shared" si="103"/>
         <v>5.5191645406512224E-2</v>
       </c>
       <c r="AU42" s="64">
-        <f t="shared" si="99"/>
+        <f t="shared" si="103"/>
         <v>5.5227941449849549E-2</v>
       </c>
       <c r="AV42" s="64">
-        <f t="shared" si="99"/>
+        <f t="shared" si="103"/>
         <v>5.5262366331224388E-2</v>
       </c>
       <c r="AW42" s="64">
-        <f t="shared" si="99"/>
+        <f t="shared" si="103"/>
         <v>5.5295014634595852E-2</v>
       </c>
       <c r="AX42" s="64">
-        <f t="shared" si="99"/>
+        <f t="shared" si="103"/>
         <v>5.5325976385071307E-2</v>
       </c>
       <c r="AY42" s="64">
-        <f t="shared" si="99"/>
+        <f t="shared" si="103"/>
         <v>5.535533724575048E-2</v>
       </c>
       <c r="AZ42" s="64">
-        <f t="shared" si="99"/>
+        <f t="shared" si="103"/>
         <v>5.5383178708504843E-2</v>
       </c>
       <c r="BA42" s="64">
-        <f t="shared" si="99"/>
+        <f t="shared" si="103"/>
         <v>5.5409578278572846E-2</v>
       </c>
       <c r="BB42" s="64">
-        <f t="shared" si="99"/>
+        <f t="shared" si="103"/>
         <v>5.5434609652949884E-2</v>
       </c>
       <c r="BC42" s="64">
-        <f t="shared" si="99"/>
+        <f t="shared" si="103"/>
         <v>5.5458342892538592E-2</v>
       </c>
       <c r="BD42" s="64"/>
@@ -8072,72 +8201,76 @@
         <v>189</v>
       </c>
       <c r="G43" s="32">
-        <f t="shared" ref="G43:W43" si="100">+G19/F19-1</f>
+        <f t="shared" ref="G43:V43" si="104">+G19/F19-1</f>
         <v>-0.13149847094801215</v>
       </c>
       <c r="H43" s="32">
-        <f t="shared" si="100"/>
+        <f t="shared" si="104"/>
         <v>-0.20212540302053295</v>
       </c>
       <c r="I43" s="32">
-        <f t="shared" si="100"/>
+        <f t="shared" si="104"/>
         <v>0.4404094111391732</v>
       </c>
       <c r="J43" s="32">
-        <f t="shared" si="100"/>
+        <f t="shared" si="104"/>
         <v>-1.9250290692309102E-2</v>
       </c>
       <c r="K43" s="32">
-        <f t="shared" si="100"/>
+        <f t="shared" si="104"/>
         <v>-3.5605404795062023E-2</v>
       </c>
       <c r="L43" s="32">
-        <f t="shared" si="100"/>
+        <f t="shared" si="104"/>
         <v>0.14894821059204633</v>
       </c>
       <c r="M43" s="32">
-        <f t="shared" si="100"/>
+        <f t="shared" si="104"/>
         <v>5.3227806178773429E-2</v>
       </c>
       <c r="N43" s="32">
-        <f t="shared" si="100"/>
+        <f t="shared" si="104"/>
         <v>-3.0993501362617581E-2</v>
       </c>
       <c r="O43" s="32">
-        <f t="shared" si="100"/>
+        <f t="shared" si="104"/>
         <v>-5.7163302324807264E-2</v>
       </c>
       <c r="P43" s="32">
-        <f t="shared" si="100"/>
+        <f t="shared" si="104"/>
         <v>9.319401299068053E-3</v>
       </c>
       <c r="Q43" s="32">
-        <f t="shared" si="100"/>
+        <f t="shared" si="104"/>
         <v>2.687814773363173E-2</v>
       </c>
       <c r="R43" s="32">
-        <f t="shared" si="100"/>
+        <f t="shared" si="104"/>
         <v>9.2641474089336651E-3</v>
       </c>
       <c r="S43" s="32">
-        <f t="shared" si="100"/>
+        <f t="shared" si="104"/>
         <v>-4.8426558677128195E-3</v>
       </c>
       <c r="T43" s="32">
-        <f t="shared" si="100"/>
+        <f t="shared" si="104"/>
         <v>0.101681983112347</v>
       </c>
       <c r="U43" s="32">
-        <f t="shared" si="100"/>
+        <f t="shared" si="104"/>
         <v>2.9965371296652332E-2</v>
       </c>
       <c r="V43" s="32">
-        <f t="shared" si="100"/>
+        <f t="shared" si="104"/>
         <v>-4.2736319894802755E-2</v>
       </c>
       <c r="W43" s="32">
         <f>+W19/V19-1</f>
         <v>-3.7026630451749809E-2</v>
+      </c>
+      <c r="X43" s="32">
+        <f>+X19/W19-1</f>
+        <v>5.2034365375263514E-2</v>
       </c>
       <c r="AP43" s="54"/>
       <c r="AQ43" s="54"/>
@@ -8159,7 +8292,7 @@
       </c>
       <c r="BI43" s="76">
         <f>+O!$J$18/E!AS32</f>
-        <v>26.267209313026644</v>
+        <v>23.458807229595696</v>
       </c>
     </row>
     <row r="44" spans="1:63">
@@ -8167,157 +8300,160 @@
         <v>100</v>
       </c>
       <c r="C44" s="32">
-        <f t="shared" ref="C44:W44" si="101">+C27/C19</f>
+        <f t="shared" ref="C44:W44" si="105">+C27/C19</f>
         <v>0.4290121613821381</v>
       </c>
       <c r="D44" s="32">
-        <f t="shared" si="101"/>
+        <f t="shared" si="105"/>
         <v>0.43201227402122072</v>
       </c>
       <c r="E44" s="32">
-        <f t="shared" si="101"/>
+        <f t="shared" si="105"/>
         <v>0.4504116460389293</v>
       </c>
       <c r="F44" s="32">
-        <f t="shared" si="101"/>
+        <f t="shared" si="105"/>
         <v>0.43504292398953615</v>
       </c>
       <c r="G44" s="32">
-        <f t="shared" si="101"/>
+        <f t="shared" si="105"/>
         <v>0.37483030714406929</v>
       </c>
       <c r="H44" s="32">
-        <f t="shared" si="101"/>
+        <f t="shared" si="105"/>
         <v>0.2743852186627676</v>
       </c>
       <c r="I44" s="32">
-        <f t="shared" si="101"/>
+        <f t="shared" si="105"/>
         <v>0.48027906461674769</v>
       </c>
       <c r="J44" s="32">
-        <f t="shared" si="101"/>
+        <f t="shared" si="105"/>
         <v>0.41838232526628782</v>
       </c>
       <c r="K44" s="32">
-        <f t="shared" si="101"/>
+        <f t="shared" si="105"/>
         <v>0.45997736408695317</v>
       </c>
       <c r="L44" s="32">
-        <f t="shared" si="101"/>
+        <f t="shared" si="105"/>
         <v>0.47116968698517292</v>
       </c>
       <c r="M44" s="32">
-        <f t="shared" si="101"/>
+        <f t="shared" si="105"/>
         <v>0.49515424185251483</v>
       </c>
       <c r="N44" s="32">
-        <f t="shared" si="101"/>
+        <f t="shared" si="105"/>
         <v>0.41330648516416757</v>
       </c>
       <c r="O44" s="32">
-        <f t="shared" si="101"/>
+        <f t="shared" si="105"/>
         <v>0.42454462016379552</v>
       </c>
       <c r="P44" s="32">
-        <f t="shared" si="101"/>
+        <f t="shared" si="105"/>
         <v>0.31561275881365425</v>
       </c>
       <c r="Q44" s="32">
-        <f t="shared" si="101"/>
+        <f t="shared" si="105"/>
         <v>0.48657209516186717</v>
       </c>
       <c r="R44" s="32">
-        <f t="shared" si="101"/>
+        <f t="shared" si="105"/>
         <v>0.43578840799797519</v>
       </c>
       <c r="S44" s="32">
-        <f t="shared" si="101"/>
+        <f t="shared" si="105"/>
         <v>0.42938044694631899</v>
       </c>
       <c r="T44" s="32">
-        <f t="shared" si="101"/>
+        <f t="shared" si="105"/>
         <v>0.47773759138130056</v>
       </c>
       <c r="U44" s="32">
-        <f t="shared" si="101"/>
+        <f t="shared" si="105"/>
         <v>0.47940886405068583</v>
       </c>
       <c r="V44" s="32">
-        <f t="shared" si="101"/>
+        <f t="shared" si="105"/>
         <v>0.43737316974181267</v>
       </c>
       <c r="W44" s="32">
-        <f t="shared" si="101"/>
+        <f t="shared" si="105"/>
         <v>0.44334576106338142</v>
       </c>
-      <c r="X44" s="32"/>
+      <c r="X44" s="32">
+        <f t="shared" ref="X44" si="106">+X27/X19</f>
+        <v>0.44992295839753466</v>
+      </c>
       <c r="Y44" s="32"/>
       <c r="AM44" s="32">
-        <f t="shared" ref="AM44:BC44" si="102">+AM27/AM19</f>
+        <f t="shared" ref="AM44:BC44" si="107">+AM27/AM19</f>
         <v>0.50010888312050317</v>
       </c>
       <c r="AN44" s="32">
-        <f t="shared" si="102"/>
+        <f t="shared" si="107"/>
         <v>0.51880686041151169</v>
       </c>
       <c r="AO44" s="32">
-        <f t="shared" si="102"/>
+        <f t="shared" si="107"/>
         <v>0.43681545000093613</v>
       </c>
       <c r="AP44" s="62">
-        <f t="shared" si="102"/>
+        <f t="shared" si="107"/>
         <v>0.3969533210466582</v>
       </c>
       <c r="AQ44" s="62">
-        <f t="shared" si="102"/>
+        <f t="shared" si="107"/>
         <v>0.46013202485477694</v>
       </c>
       <c r="AR44" s="62">
-        <f t="shared" si="102"/>
+        <f t="shared" si="107"/>
         <v>0.4162604712154806</v>
       </c>
       <c r="AS44" s="62">
-        <f t="shared" si="102"/>
+        <f t="shared" si="107"/>
         <v>0.45684620121834019</v>
       </c>
       <c r="AT44" s="62">
-        <f t="shared" si="102"/>
+        <f t="shared" si="107"/>
         <v>0.4568462012183403</v>
       </c>
       <c r="AU44" s="62">
-        <f t="shared" si="102"/>
+        <f t="shared" si="107"/>
         <v>0.4568462012183403</v>
       </c>
       <c r="AV44" s="62">
-        <f t="shared" si="102"/>
+        <f t="shared" si="107"/>
         <v>0.45684620121834019</v>
       </c>
       <c r="AW44" s="62">
-        <f t="shared" si="102"/>
+        <f t="shared" si="107"/>
         <v>0.4568462012183403</v>
       </c>
       <c r="AX44" s="62">
-        <f t="shared" si="102"/>
+        <f t="shared" si="107"/>
         <v>0.4568462012183403</v>
       </c>
       <c r="AY44" s="62">
-        <f t="shared" si="102"/>
+        <f t="shared" si="107"/>
         <v>0.4568462012183403</v>
       </c>
       <c r="AZ44" s="62">
-        <f t="shared" si="102"/>
+        <f t="shared" si="107"/>
         <v>0.45684620121834024</v>
       </c>
       <c r="BA44" s="62">
-        <f t="shared" si="102"/>
+        <f t="shared" si="107"/>
         <v>0.45684620121834035</v>
       </c>
       <c r="BB44" s="62">
-        <f t="shared" si="102"/>
+        <f t="shared" si="107"/>
         <v>0.45684620121834019</v>
       </c>
       <c r="BC44" s="62">
-        <f t="shared" si="102"/>
+        <f t="shared" si="107"/>
         <v>0.45684620121834041</v>
       </c>
       <c r="BD44" s="54"/>
@@ -8326,7 +8462,7 @@
       </c>
       <c r="BI44" s="76">
         <f>+O!$J$18/E!AT32</f>
-        <v>25.361259850551203</v>
+        <v>22.649718850746577</v>
       </c>
     </row>
     <row r="45" spans="1:63">
@@ -8363,7 +8499,7 @@
       </c>
       <c r="BI45" s="76">
         <f>+O!$J$18/E!AU32</f>
-        <v>24.033916137309291</v>
+        <v>21.464290283696037</v>
       </c>
     </row>
     <row r="46" spans="1:63">
@@ -8406,7 +8542,7 @@
       </c>
       <c r="BI46" s="77">
         <f>+O!$J$18/E!AU32</f>
-        <v>24.033916137309291</v>
+        <v>21.464290283696037</v>
       </c>
     </row>
     <row r="47" spans="1:63">
@@ -8419,7 +8555,7 @@
       </c>
       <c r="Q47" s="24">
         <f>+O!J15</f>
-        <v>186015.14223016001</v>
+        <v>199421.422666</v>
       </c>
       <c r="AM47" s="24">
         <f>+AM33*AM46</f>
@@ -8473,15 +8609,15 @@
         <v>-31492.399999999998</v>
       </c>
       <c r="L48" s="24">
-        <f t="shared" ref="L48:N48" si="103">+L47+L51</f>
+        <f t="shared" ref="L48:N48" si="108">+L47+L51</f>
         <v>-31176.399999999998</v>
       </c>
       <c r="M48" s="24">
-        <f t="shared" si="103"/>
+        <f t="shared" si="108"/>
         <v>-29650.799999999999</v>
       </c>
       <c r="N48" s="24">
-        <f t="shared" si="103"/>
+        <f t="shared" si="108"/>
         <v>-29712.299999999996</v>
       </c>
       <c r="O48" s="24">
@@ -8490,22 +8626,22 @@
       </c>
       <c r="Q48" s="24">
         <f>+Q47+Q51</f>
-        <v>154941.04223016</v>
+        <v>168347.32266599999</v>
       </c>
       <c r="AM48" s="24">
-        <f t="shared" ref="AM48:AP48" si="104">+AM47+AM51</f>
+        <f t="shared" ref="AM48:AP48" si="109">+AM47+AM51</f>
         <v>140363.86000000002</v>
       </c>
       <c r="AN48" s="24">
-        <f t="shared" si="104"/>
+        <f t="shared" si="109"/>
         <v>139498.992</v>
       </c>
       <c r="AO48" s="24">
-        <f t="shared" si="104"/>
+        <f t="shared" si="109"/>
         <v>157684.25368020311</v>
       </c>
       <c r="AP48" s="24">
-        <f t="shared" si="104"/>
+        <f t="shared" si="109"/>
         <v>139912.89286846283</v>
       </c>
       <c r="AQ48" s="24">
@@ -8563,48 +8699,52 @@
         <v>-31176.399999999998</v>
       </c>
       <c r="M51" s="25">
-        <f t="shared" ref="M51:W51" si="105">+M52+M56-M70-M71</f>
+        <f t="shared" ref="M51:X51" si="110">+M52+M56-M70-M71</f>
         <v>-29650.799999999999</v>
       </c>
       <c r="N51" s="25">
-        <f t="shared" si="105"/>
+        <f t="shared" si="110"/>
         <v>-29712.299999999996</v>
       </c>
       <c r="O51" s="25">
-        <f t="shared" si="105"/>
+        <f t="shared" si="110"/>
         <v>-30475.9</v>
       </c>
       <c r="P51" s="25">
-        <f t="shared" si="105"/>
+        <f t="shared" si="110"/>
         <v>-31630</v>
       </c>
       <c r="Q51" s="25">
-        <f t="shared" si="105"/>
+        <f t="shared" si="110"/>
         <v>-31074.1</v>
       </c>
       <c r="R51" s="25">
-        <f t="shared" si="105"/>
+        <f t="shared" si="110"/>
         <v>-32255.100000000002</v>
       </c>
       <c r="S51" s="25">
-        <f t="shared" si="105"/>
+        <f t="shared" si="110"/>
         <v>3708.1</v>
       </c>
       <c r="T51" s="25">
-        <f t="shared" si="105"/>
+        <f t="shared" si="110"/>
         <v>-34084.5</v>
       </c>
       <c r="U51" s="25">
-        <f t="shared" si="105"/>
+        <f t="shared" si="110"/>
         <v>-32740.399999999998</v>
       </c>
       <c r="V51" s="25">
-        <f t="shared" si="105"/>
+        <f t="shared" si="110"/>
         <v>-33685.800000000003</v>
       </c>
       <c r="W51" s="25">
-        <f t="shared" si="105"/>
+        <f t="shared" si="110"/>
         <v>-33647</v>
+      </c>
+      <c r="X51" s="25">
+        <f t="shared" si="110"/>
+        <v>-34856</v>
       </c>
       <c r="AP51" s="25">
         <f>+L51</f>
@@ -8631,35 +8771,35 @@
         <v>-15619.936717270859</v>
       </c>
       <c r="AV51" s="25">
-        <f t="shared" ref="AV51:BC51" si="106">+AU51+AV32</f>
+        <f t="shared" ref="AV51:BC51" si="111">+AU51+AV32</f>
         <v>-5852.6998442132281</v>
       </c>
       <c r="AW51" s="25">
-        <f t="shared" si="106"/>
+        <f t="shared" si="111"/>
         <v>4454.6165346796934</v>
       </c>
       <c r="AX51" s="25">
-        <f t="shared" si="106"/>
+        <f t="shared" si="111"/>
         <v>15332.195256144701</v>
       </c>
       <c r="AY51" s="25">
-        <f t="shared" si="106"/>
+        <f t="shared" si="111"/>
         <v>26811.906016153604</v>
       </c>
       <c r="AZ51" s="25">
-        <f t="shared" si="106"/>
+        <f t="shared" si="111"/>
         <v>38927.399648706021</v>
       </c>
       <c r="BA51" s="25">
-        <f t="shared" si="106"/>
+        <f t="shared" si="111"/>
         <v>51714.207674074911</v>
       </c>
       <c r="BB51" s="25">
-        <f t="shared" si="106"/>
+        <f t="shared" si="111"/>
         <v>65209.847411037321</v>
       </c>
       <c r="BC51" s="25">
-        <f t="shared" si="106"/>
+        <f t="shared" si="111"/>
         <v>79453.932964086373</v>
       </c>
       <c r="BD51" s="43"/>
@@ -8711,6 +8851,9 @@
       <c r="W52" s="24">
         <v>838</v>
       </c>
+      <c r="X52" s="24">
+        <v>792</v>
+      </c>
     </row>
     <row r="53" spans="1:57">
       <c r="B53" s="21" t="s">
@@ -8752,6 +8895,9 @@
       <c r="W53" s="24">
         <v>2238</v>
       </c>
+      <c r="X53" s="24">
+        <v>2404</v>
+      </c>
     </row>
     <row r="54" spans="1:57">
       <c r="B54" s="21" t="s">
@@ -8793,6 +8939,9 @@
       <c r="W54" s="24">
         <v>46</v>
       </c>
+      <c r="X54" s="24">
+        <v>46</v>
+      </c>
     </row>
     <row r="55" spans="1:57">
       <c r="B55" s="21" t="s">
@@ -8834,6 +8983,9 @@
       <c r="W55" s="24">
         <v>935</v>
       </c>
+      <c r="X55" s="24">
+        <v>963</v>
+      </c>
     </row>
     <row r="56" spans="1:57">
       <c r="B56" s="21" t="s">
@@ -8875,6 +9027,9 @@
       <c r="W56" s="24">
         <v>2883</v>
       </c>
+      <c r="X56" s="24">
+        <v>2876</v>
+      </c>
     </row>
     <row r="57" spans="1:57">
       <c r="B57" s="21" t="s">
@@ -8916,6 +9071,9 @@
       <c r="W57" s="24">
         <v>3028</v>
       </c>
+      <c r="X57" s="24">
+        <v>3048</v>
+      </c>
     </row>
     <row r="58" spans="1:57">
       <c r="B58" s="21" t="s">
@@ -8957,6 +9115,9 @@
       <c r="W58" s="24">
         <v>5586</v>
       </c>
+      <c r="X58" s="24">
+        <v>5627</v>
+      </c>
     </row>
     <row r="59" spans="1:57">
       <c r="B59" s="21" t="s">
@@ -8998,6 +9159,9 @@
       <c r="W59" s="24">
         <v>13277</v>
       </c>
+      <c r="X59" s="24">
+        <v>13234</v>
+      </c>
     </row>
     <row r="60" spans="1:57">
       <c r="B60" s="21" t="s">
@@ -9038,6 +9202,9 @@
       </c>
       <c r="W60" s="24">
         <v>24682</v>
+      </c>
+      <c r="X60" s="24">
+        <v>24811</v>
       </c>
     </row>
     <row r="61" spans="1:57" s="25" customFormat="1">
@@ -9050,55 +9217,59 @@
         <v>52626.8</v>
       </c>
       <c r="K61" s="25">
-        <f t="shared" ref="K61:Q61" si="107">SUM(K52:K60)</f>
+        <f t="shared" ref="K61:Q61" si="112">SUM(K52:K60)</f>
         <v>51103.1</v>
       </c>
       <c r="L61" s="25">
-        <f t="shared" si="107"/>
+        <f t="shared" si="112"/>
         <v>51893.100000000006</v>
       </c>
       <c r="M61" s="25">
-        <f t="shared" si="107"/>
+        <f t="shared" si="112"/>
         <v>52727</v>
       </c>
       <c r="N61" s="25">
-        <f t="shared" si="107"/>
+        <f t="shared" si="112"/>
         <v>53854.3</v>
       </c>
       <c r="O61" s="25">
-        <f t="shared" si="107"/>
+        <f t="shared" si="112"/>
         <v>50877.7</v>
       </c>
       <c r="P61" s="25">
-        <f t="shared" si="107"/>
+        <f t="shared" si="112"/>
         <v>49247.8</v>
       </c>
       <c r="Q61" s="25">
-        <f t="shared" si="107"/>
+        <f t="shared" si="112"/>
         <v>48501.600000000006</v>
       </c>
       <c r="R61" s="25">
-        <f t="shared" ref="R61" si="108">SUM(R52:R60)</f>
+        <f t="shared" ref="R61" si="113">SUM(R52:R60)</f>
         <v>50435.6</v>
       </c>
       <c r="S61" s="25">
-        <f t="shared" ref="S61" si="109">SUM(S52:S60)</f>
+        <f t="shared" ref="S61" si="114">SUM(S52:S60)</f>
         <v>3708.1</v>
       </c>
       <c r="T61" s="25">
-        <f t="shared" ref="T61" si="110">SUM(T52:T60)</f>
+        <f t="shared" ref="T61" si="115">SUM(T52:T60)</f>
         <v>1625.6</v>
       </c>
       <c r="U61" s="25">
-        <f t="shared" ref="U61:W61" si="111">SUM(U52:U60)</f>
+        <f t="shared" ref="U61:W61" si="116">SUM(U52:U60)</f>
         <v>52089.299999999996</v>
       </c>
       <c r="V61" s="25">
         <v>56146.8</v>
       </c>
       <c r="W61" s="25">
-        <f t="shared" si="111"/>
+        <f t="shared" si="116"/>
         <v>53513</v>
+      </c>
+      <c r="X61" s="25">
+        <f t="shared" ref="X61" si="117">SUM(X52:X60)</f>
+        <v>53801</v>
       </c>
     </row>
     <row r="63" spans="1:57">
@@ -9141,6 +9312,9 @@
       <c r="W63" s="24">
         <v>936</v>
       </c>
+      <c r="X63" s="24">
+        <v>949</v>
+      </c>
     </row>
     <row r="64" spans="1:57">
       <c r="B64" s="21" t="s">
@@ -9173,8 +9347,11 @@
       <c r="W64" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:23">
+      <c r="X64" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24">
       <c r="B65" s="21" t="s">
         <v>58</v>
       </c>
@@ -9214,8 +9391,11 @@
       <c r="W65" s="24">
         <v>685</v>
       </c>
-    </row>
-    <row r="66" spans="1:23">
+      <c r="X65" s="24">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24">
       <c r="B66" s="21" t="s">
         <v>59</v>
       </c>
@@ -9255,8 +9435,11 @@
       <c r="W66" s="24">
         <v>873</v>
       </c>
-    </row>
-    <row r="67" spans="1:23">
+      <c r="X66" s="24">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24">
       <c r="B67" s="21" t="s">
         <v>60</v>
       </c>
@@ -9296,8 +9479,11 @@
       <c r="W67" s="24">
         <v>279</v>
       </c>
-    </row>
-    <row r="68" spans="1:23">
+      <c r="X67" s="24">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24">
       <c r="B68" s="21" t="s">
         <v>61</v>
       </c>
@@ -9337,8 +9523,11 @@
       <c r="W68" s="24">
         <v>372</v>
       </c>
-    </row>
-    <row r="69" spans="1:23">
+      <c r="X68" s="24">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24">
       <c r="B69" s="21" t="s">
         <v>62</v>
       </c>
@@ -9378,8 +9567,11 @@
       <c r="W69" s="24">
         <v>1136</v>
       </c>
-    </row>
-    <row r="70" spans="1:23">
+      <c r="X69" s="24">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24">
       <c r="B70" s="21" t="s">
         <v>63</v>
       </c>
@@ -9410,8 +9602,11 @@
       <c r="W70" s="24">
         <v>604</v>
       </c>
-    </row>
-    <row r="71" spans="1:23">
+      <c r="X70" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24">
       <c r="B71" s="21" t="s">
         <v>66</v>
       </c>
@@ -9454,8 +9649,11 @@
       <c r="W71" s="24">
         <v>36764</v>
       </c>
-    </row>
-    <row r="72" spans="1:23">
+      <c r="X71" s="24">
+        <v>38524</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24">
       <c r="B72" s="21" t="s">
         <v>67</v>
       </c>
@@ -9495,8 +9693,11 @@
       <c r="W72" s="24">
         <v>12828</v>
       </c>
-    </row>
-    <row r="73" spans="1:23">
+      <c r="X72" s="24">
+        <v>12820</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24">
       <c r="B73" s="21" t="s">
         <v>111</v>
       </c>
@@ -9536,8 +9737,11 @@
       <c r="W73" s="24">
         <v>361</v>
       </c>
-    </row>
-    <row r="74" spans="1:23">
+      <c r="X73" s="24">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24">
       <c r="B74" s="21" t="s">
         <v>110</v>
       </c>
@@ -9577,8 +9781,11 @@
       <c r="W74" s="24">
         <v>784</v>
       </c>
-    </row>
-    <row r="75" spans="1:23">
+      <c r="X74" s="24">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24">
       <c r="B75" s="21" t="s">
         <v>112</v>
       </c>
@@ -9618,8 +9825,11 @@
       <c r="W75" s="24">
         <v>927</v>
       </c>
-    </row>
-    <row r="76" spans="1:23">
+      <c r="X75" s="24">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24">
       <c r="B76" s="21" t="s">
         <v>68</v>
       </c>
@@ -9659,8 +9869,11 @@
       <c r="W76" s="24">
         <v>1796</v>
       </c>
-    </row>
-    <row r="77" spans="1:23">
+      <c r="X76" s="24">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24">
       <c r="B77" s="21" t="s">
         <v>64</v>
       </c>
@@ -9700,8 +9913,11 @@
       <c r="W77" s="24">
         <v>-4833</v>
       </c>
-    </row>
-    <row r="78" spans="1:23" s="25" customFormat="1">
+      <c r="X77" s="24">
+        <v>-4824</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24" s="25" customFormat="1">
       <c r="A78" s="42"/>
       <c r="B78" s="26" t="s">
         <v>65</v>
@@ -9711,58 +9927,62 @@
         <v>52626.799999999996</v>
       </c>
       <c r="K78" s="25">
-        <f t="shared" ref="K78:Q78" si="112">SUM(K63:K77)</f>
+        <f t="shared" ref="K78:Q78" si="118">SUM(K63:K77)</f>
         <v>51103.100000000006</v>
       </c>
       <c r="L78" s="25">
-        <f t="shared" si="112"/>
+        <f t="shared" si="118"/>
         <v>51893.1</v>
       </c>
       <c r="M78" s="25">
-        <f t="shared" si="112"/>
+        <f t="shared" si="118"/>
         <v>52726.999999999993</v>
       </c>
       <c r="N78" s="25">
-        <f t="shared" si="112"/>
+        <f t="shared" si="118"/>
         <v>53854.3</v>
       </c>
       <c r="O78" s="25">
-        <f t="shared" si="112"/>
+        <f t="shared" si="118"/>
         <v>50877.7</v>
       </c>
       <c r="P78" s="25">
-        <f t="shared" si="112"/>
+        <f t="shared" si="118"/>
         <v>49247.799999999996</v>
       </c>
       <c r="Q78" s="25">
-        <f t="shared" si="112"/>
+        <f t="shared" si="118"/>
         <v>48501.599999999999</v>
       </c>
       <c r="R78" s="25">
-        <f t="shared" ref="R78" si="113">SUM(R63:R77)</f>
+        <f t="shared" ref="R78" si="119">SUM(R63:R77)</f>
         <v>50435.500000000007</v>
       </c>
       <c r="S78" s="25">
-        <f t="shared" ref="S78" si="114">SUM(S63:S77)</f>
+        <f t="shared" ref="S78" si="120">SUM(S63:S77)</f>
         <v>0</v>
       </c>
       <c r="T78" s="25">
-        <f t="shared" ref="T78" si="115">SUM(T63:T77)</f>
+        <f t="shared" ref="T78" si="121">SUM(T63:T77)</f>
         <v>35710.1</v>
       </c>
       <c r="U78" s="25">
-        <f t="shared" ref="U78:W78" si="116">SUM(U63:U77)</f>
+        <f t="shared" ref="U78:W78" si="122">SUM(U63:U77)</f>
         <v>52089.299999999988</v>
       </c>
       <c r="V78" s="25">
         <v>56146.8</v>
       </c>
       <c r="W78" s="25">
-        <f t="shared" si="116"/>
+        <f t="shared" si="122"/>
         <v>53512</v>
       </c>
-    </row>
-    <row r="79" spans="1:23">
+      <c r="X78" s="25">
+        <f t="shared" ref="X78" si="123">SUM(X63:X77)</f>
+        <v>53801</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24">
       <c r="A79" s="44"/>
     </row>
     <row r="81" spans="1:45">
@@ -9774,84 +9994,88 @@
         <v>0</v>
       </c>
       <c r="D81" s="24">
-        <f t="shared" ref="D81:W81" si="117">+D52</f>
+        <f t="shared" ref="D81:W81" si="124">+D52</f>
         <v>0</v>
       </c>
       <c r="E81" s="24">
-        <f t="shared" si="117"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="F81" s="24">
-        <f t="shared" si="117"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="G81" s="24">
-        <f t="shared" si="117"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="H81" s="24">
-        <f t="shared" si="117"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="I81" s="24">
-        <f t="shared" si="117"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="J81" s="24">
-        <f t="shared" si="117"/>
+        <f t="shared" si="124"/>
         <v>3449.1</v>
       </c>
       <c r="K81" s="24">
-        <f t="shared" si="117"/>
+        <f t="shared" si="124"/>
         <v>3019.7</v>
       </c>
       <c r="L81" s="24">
-        <f t="shared" si="117"/>
+        <f t="shared" si="124"/>
         <v>3049.4</v>
       </c>
       <c r="M81" s="24">
-        <f t="shared" si="117"/>
+        <f t="shared" si="124"/>
         <v>4305.8</v>
       </c>
       <c r="N81" s="24">
-        <f t="shared" si="117"/>
+        <f t="shared" si="124"/>
         <v>4709.2</v>
       </c>
       <c r="O81" s="24">
-        <f t="shared" si="117"/>
+        <f t="shared" si="124"/>
         <v>2335.6999999999998</v>
       </c>
       <c r="P81" s="24">
-        <f t="shared" si="117"/>
+        <f t="shared" si="124"/>
         <v>1872.5</v>
       </c>
       <c r="Q81" s="24">
-        <f t="shared" si="117"/>
+        <f t="shared" si="124"/>
         <v>2828.3</v>
       </c>
       <c r="R81" s="24">
-        <f t="shared" si="117"/>
+        <f t="shared" si="124"/>
         <v>2583.8000000000002</v>
       </c>
       <c r="S81" s="24">
-        <f t="shared" si="117"/>
+        <f t="shared" si="124"/>
         <v>3708.1</v>
       </c>
       <c r="T81" s="24">
-        <f t="shared" si="117"/>
+        <f t="shared" si="124"/>
         <v>1625.6</v>
       </c>
       <c r="U81" s="24">
-        <f t="shared" si="117"/>
+        <f t="shared" si="124"/>
         <v>3496.3</v>
       </c>
       <c r="V81" s="24">
-        <f t="shared" si="117"/>
+        <f t="shared" si="124"/>
         <v>4579.3</v>
       </c>
       <c r="W81" s="24">
-        <f t="shared" si="117"/>
+        <f t="shared" si="124"/>
         <v>838</v>
+      </c>
+      <c r="X81" s="24">
+        <f t="shared" ref="X81" si="125">+X52</f>
+        <v>792</v>
       </c>
     </row>
     <row r="82" spans="1:45">
@@ -9863,84 +10087,88 @@
         <v>0</v>
       </c>
       <c r="D82" s="24">
-        <f t="shared" ref="D82:W82" si="118">+D70+D71</f>
+        <f t="shared" ref="D82:W82" si="126">+D70+D71</f>
         <v>0</v>
       </c>
       <c r="E82" s="24">
-        <f t="shared" si="118"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="F82" s="24">
-        <f t="shared" si="118"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="G82" s="24">
-        <f t="shared" si="118"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="H82" s="24">
-        <f t="shared" si="118"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="I82" s="24">
-        <f t="shared" si="118"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="J82" s="24">
-        <f t="shared" si="118"/>
+        <f t="shared" si="126"/>
         <v>37440.400000000001</v>
       </c>
       <c r="K82" s="24">
-        <f t="shared" si="118"/>
+        <f t="shared" si="126"/>
         <v>35723.199999999997</v>
       </c>
       <c r="L82" s="24">
-        <f t="shared" si="118"/>
+        <f t="shared" si="126"/>
         <v>35422.6</v>
       </c>
       <c r="M82" s="24">
-        <f t="shared" si="118"/>
+        <f t="shared" si="126"/>
         <v>35128</v>
       </c>
       <c r="N82" s="24">
-        <f t="shared" si="118"/>
+        <f t="shared" si="126"/>
         <v>35622.699999999997</v>
       </c>
       <c r="O82" s="24">
-        <f t="shared" si="118"/>
+        <f t="shared" si="126"/>
         <v>33988.800000000003</v>
       </c>
       <c r="P82" s="24">
-        <f t="shared" si="118"/>
+        <f t="shared" si="126"/>
         <v>34576.5</v>
       </c>
       <c r="Q82" s="24">
-        <f t="shared" si="118"/>
+        <f t="shared" si="126"/>
         <v>34866.199999999997</v>
       </c>
       <c r="R82" s="24">
-        <f t="shared" si="118"/>
+        <f t="shared" si="126"/>
         <v>35903.4</v>
       </c>
       <c r="S82" s="24">
-        <f t="shared" si="118"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="T82" s="24">
-        <f t="shared" si="118"/>
+        <f t="shared" si="126"/>
         <v>35710.1</v>
       </c>
       <c r="U82" s="24">
-        <f t="shared" si="118"/>
+        <f t="shared" si="126"/>
         <v>37274.6</v>
       </c>
       <c r="V82" s="24">
-        <f t="shared" si="118"/>
+        <f t="shared" si="126"/>
         <v>39345.300000000003</v>
       </c>
       <c r="W82" s="24">
-        <f t="shared" si="118"/>
+        <f t="shared" si="126"/>
         <v>37368</v>
+      </c>
+      <c r="X82" s="24">
+        <f t="shared" ref="X82" si="127">+X70+X71</f>
+        <v>38524</v>
       </c>
     </row>
     <row r="83" spans="1:45" s="25" customFormat="1">
@@ -9953,84 +10181,88 @@
         <v>0</v>
       </c>
       <c r="D83" s="25">
-        <f t="shared" ref="D83:W83" si="119">+D82-D81</f>
+        <f t="shared" ref="D83:W83" si="128">+D82-D81</f>
         <v>0</v>
       </c>
       <c r="E83" s="25">
-        <f t="shared" si="119"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="F83" s="25">
-        <f t="shared" si="119"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="G83" s="25">
-        <f t="shared" si="119"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="H83" s="25">
-        <f t="shared" si="119"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="I83" s="25">
-        <f t="shared" si="119"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="J83" s="25">
-        <f t="shared" si="119"/>
+        <f t="shared" si="128"/>
         <v>33991.300000000003</v>
       </c>
       <c r="K83" s="25">
-        <f t="shared" si="119"/>
+        <f t="shared" si="128"/>
         <v>32703.499999999996</v>
       </c>
       <c r="L83" s="25">
-        <f t="shared" si="119"/>
+        <f t="shared" si="128"/>
         <v>32373.199999999997</v>
       </c>
       <c r="M83" s="25">
-        <f t="shared" si="119"/>
+        <f t="shared" si="128"/>
         <v>30822.2</v>
       </c>
       <c r="N83" s="25">
-        <f t="shared" si="119"/>
+        <f t="shared" si="128"/>
         <v>30913.499999999996</v>
       </c>
       <c r="O83" s="25">
-        <f t="shared" si="119"/>
+        <f t="shared" si="128"/>
         <v>31653.100000000002</v>
       </c>
       <c r="P83" s="25">
-        <f t="shared" si="119"/>
+        <f t="shared" si="128"/>
         <v>32704</v>
       </c>
       <c r="Q83" s="25">
-        <f t="shared" si="119"/>
+        <f t="shared" si="128"/>
         <v>32037.899999999998</v>
       </c>
       <c r="R83" s="25">
-        <f t="shared" si="119"/>
+        <f t="shared" si="128"/>
         <v>33319.599999999999</v>
       </c>
       <c r="S83" s="25">
-        <f t="shared" si="119"/>
+        <f t="shared" si="128"/>
         <v>-3708.1</v>
       </c>
       <c r="T83" s="25">
-        <f t="shared" si="119"/>
+        <f t="shared" si="128"/>
         <v>34084.5</v>
       </c>
       <c r="U83" s="25">
-        <f t="shared" si="119"/>
+        <f t="shared" si="128"/>
         <v>33778.299999999996</v>
       </c>
       <c r="V83" s="25">
-        <f t="shared" si="119"/>
+        <f t="shared" si="128"/>
         <v>34766</v>
       </c>
       <c r="W83" s="25">
-        <f t="shared" si="119"/>
+        <f t="shared" si="128"/>
         <v>36530</v>
+      </c>
+      <c r="X83" s="25">
+        <f t="shared" ref="X83" si="129">+X82-X81</f>
+        <v>37732</v>
       </c>
     </row>
     <row r="86" spans="1:45">
@@ -10057,35 +10289,80 @@
         <v>1188</v>
       </c>
       <c r="Q86" s="24">
-        <f t="shared" ref="Q86:W86" si="120">+Q32</f>
+        <f t="shared" ref="Q86:W86" si="130">+Q32</f>
         <v>2074.9000000000005</v>
       </c>
       <c r="R86" s="24">
-        <f t="shared" si="120"/>
+        <f t="shared" si="130"/>
         <v>1903.3999999999996</v>
       </c>
       <c r="S86" s="24">
-        <f t="shared" si="120"/>
+        <f t="shared" si="130"/>
         <v>1802.3</v>
       </c>
       <c r="T86" s="24">
-        <f t="shared" si="120"/>
+        <f t="shared" si="130"/>
         <v>2310.4</v>
       </c>
       <c r="U86" s="24">
-        <f t="shared" si="120"/>
+        <f t="shared" si="130"/>
         <v>2317.099999999999</v>
       </c>
       <c r="V86" s="24">
-        <f t="shared" si="120"/>
+        <f t="shared" si="130"/>
         <v>2039</v>
       </c>
       <c r="W86" s="24">
-        <f t="shared" si="120"/>
+        <f t="shared" si="130"/>
         <v>1929</v>
       </c>
       <c r="AQ86" s="24">
         <v>7545.2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:45">
+      <c r="B87" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="S87" s="24">
+        <v>490</v>
+      </c>
+      <c r="V87" s="24">
+        <f>1978.2-SUM(S87:U87)</f>
+        <v>1488.2</v>
+      </c>
+      <c r="W87" s="24">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="88" spans="1:45">
+      <c r="B88" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="S88" s="24">
+        <v>-86</v>
+      </c>
+      <c r="V88" s="24">
+        <f>+-686.4-SUM(S88:U88)</f>
+        <v>-600.4</v>
+      </c>
+      <c r="W88" s="24">
+        <v>-138</v>
+      </c>
+    </row>
+    <row r="89" spans="1:45">
+      <c r="B89" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="S89" s="24">
+        <v>50</v>
+      </c>
+      <c r="V89" s="24">
+        <f>+-175.2-SUM(S89:U89)</f>
+        <v>-225.2</v>
+      </c>
+      <c r="W89" s="24">
+        <v>50</v>
       </c>
     </row>
     <row r="90" spans="1:45">
@@ -10093,8 +10370,11 @@
         <v>120</v>
       </c>
       <c r="N90" s="24">
-        <f t="shared" ref="N90:N109" si="121">+AQ90-SUM(K90:M90)</f>
+        <f t="shared" ref="N90:N110" si="131">+AQ90-SUM(K90:M90)</f>
         <v>-97.8</v>
+      </c>
+      <c r="W90" s="24">
+        <v>0</v>
       </c>
       <c r="AQ90" s="24">
         <v>-97.8</v>
@@ -10114,7 +10394,7 @@
         <v>-163.6</v>
       </c>
       <c r="N91" s="24">
-        <f t="shared" si="121"/>
+        <f t="shared" si="131"/>
         <v>25.699999999999932</v>
       </c>
       <c r="O91" s="24">
@@ -10125,6 +10405,12 @@
       </c>
       <c r="Q91" s="24">
         <v>-45.6</v>
+      </c>
+      <c r="S91" s="24">
+        <v>-31</v>
+      </c>
+      <c r="W91" s="24">
+        <v>-31</v>
       </c>
       <c r="AQ91" s="24">
         <v>-339.1</v>
@@ -10144,7 +10430,7 @@
         <v>174</v>
       </c>
       <c r="N92" s="24">
-        <f t="shared" si="121"/>
+        <f t="shared" si="131"/>
         <v>589</v>
       </c>
       <c r="O92" s="24">
@@ -10155,6 +10441,12 @@
       </c>
       <c r="Q92" s="24">
         <v>190.3</v>
+      </c>
+      <c r="S92" s="24">
+        <v>195</v>
+      </c>
+      <c r="W92" s="24">
+        <v>70</v>
       </c>
       <c r="AQ92" s="24">
         <f>309.9-62.2+225-302.5+284</f>
@@ -10171,15 +10463,15 @@
         <v>1644.3</v>
       </c>
       <c r="L93" s="25">
-        <f t="shared" ref="L93" si="122">+SUM(L86:L92)</f>
+        <f t="shared" ref="L93" si="132">+SUM(L86:L92)</f>
         <v>1602.2000000000003</v>
       </c>
       <c r="M93" s="25">
-        <f t="shared" ref="M93" si="123">+SUM(M86:M92)</f>
+        <f t="shared" ref="M93" si="133">+SUM(M86:M92)</f>
         <v>2160.3000000000002</v>
       </c>
       <c r="N93" s="25">
-        <f t="shared" si="121"/>
+        <f t="shared" si="131"/>
         <v>2155.6999999999989</v>
       </c>
       <c r="O93" s="25">
@@ -10187,16 +10479,40 @@
         <v>1649.8000000000002</v>
       </c>
       <c r="P93" s="25">
-        <f t="shared" ref="P93:R93" si="124">+SUM(P86:P92)</f>
+        <f t="shared" ref="P93:V93" si="134">+SUM(P86:P92)</f>
         <v>253.90000000000009</v>
       </c>
       <c r="Q93" s="25">
-        <f t="shared" si="124"/>
+        <f>+SUM(Q86:Q92)</f>
         <v>2219.6000000000008</v>
       </c>
       <c r="R93" s="25">
-        <f t="shared" si="124"/>
+        <f t="shared" si="134"/>
         <v>1903.3999999999996</v>
+      </c>
+      <c r="S93" s="25">
+        <f t="shared" si="134"/>
+        <v>2420.3000000000002</v>
+      </c>
+      <c r="T93" s="25">
+        <f t="shared" si="134"/>
+        <v>2310.4</v>
+      </c>
+      <c r="U93" s="25">
+        <f t="shared" si="134"/>
+        <v>2317.099999999999</v>
+      </c>
+      <c r="V93" s="25">
+        <f t="shared" si="134"/>
+        <v>2701.6</v>
+      </c>
+      <c r="W93" s="25">
+        <f>+SUM(W86:W92)</f>
+        <v>2390</v>
+      </c>
+      <c r="X93" s="25">
+        <f>1689-W93</f>
+        <v>-701</v>
       </c>
       <c r="AN93" s="25">
         <v>6966.7</v>
@@ -10232,7 +10548,7 @@
         <v>-501.5</v>
       </c>
       <c r="N94" s="24">
-        <f t="shared" si="121"/>
+        <f t="shared" si="131"/>
         <v>-687.2</v>
       </c>
       <c r="O94" s="24">
@@ -10243,6 +10559,16 @@
       </c>
       <c r="Q94" s="24">
         <v>-531.20000000000005</v>
+      </c>
+      <c r="S94" s="24">
+        <v>-503</v>
+      </c>
+      <c r="W94" s="24">
+        <v>-547</v>
+      </c>
+      <c r="X94" s="24">
+        <f>+-628-W94</f>
+        <v>-81</v>
       </c>
       <c r="AN94" s="24">
         <v>-2741.7</v>
@@ -10272,7 +10598,7 @@
         <v>-28.6</v>
       </c>
       <c r="N95" s="24">
-        <f t="shared" si="121"/>
+        <f t="shared" si="131"/>
         <v>-257.5</v>
       </c>
       <c r="O95" s="24">
@@ -10284,774 +10610,981 @@
       <c r="Q95" s="24">
         <v>-152.30000000000001</v>
       </c>
+      <c r="S95" s="24">
+        <v>-98</v>
+      </c>
+      <c r="W95" s="24">
+        <v>-52</v>
+      </c>
       <c r="AQ95" s="24">
         <v>-374.2</v>
       </c>
     </row>
     <row r="96" spans="1:45">
       <c r="B96" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="K96" s="24">
-        <v>29.6</v>
-      </c>
-      <c r="L96" s="24">
-        <v>52.2</v>
-      </c>
-      <c r="M96" s="24">
-        <v>60.1</v>
-      </c>
-      <c r="N96" s="24">
-        <f t="shared" si="121"/>
-        <v>54.299999999999983</v>
-      </c>
-      <c r="O96" s="24">
-        <v>16.5</v>
-      </c>
-      <c r="P96" s="24">
-        <v>351.7</v>
-      </c>
-      <c r="Q96" s="24">
-        <v>33.21</v>
-      </c>
-      <c r="AQ96" s="24">
-        <v>196.2</v>
+        <v>196</v>
+      </c>
+      <c r="S96" s="24">
+        <v>0</v>
+      </c>
+      <c r="W96" s="24">
+        <v>-1820</v>
       </c>
     </row>
     <row r="97" spans="1:45">
       <c r="B97" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K97" s="24">
-        <v>32.799999999999997</v>
+        <v>29.6</v>
       </c>
       <c r="L97" s="24">
-        <v>23.8</v>
+        <v>52.2</v>
       </c>
       <c r="M97" s="24">
-        <v>41.3</v>
+        <v>60.1</v>
       </c>
       <c r="N97" s="24">
-        <f t="shared" si="121"/>
-        <v>8.3000000000000114</v>
+        <f t="shared" si="131"/>
+        <v>54.299999999999983</v>
       </c>
       <c r="O97" s="24">
-        <v>4.9000000000000004</v>
+        <v>16.5</v>
       </c>
       <c r="P97" s="24">
-        <v>6.3</v>
+        <v>351.7</v>
       </c>
       <c r="Q97" s="24">
-        <v>11.1</v>
+        <v>33.21</v>
+      </c>
+      <c r="S97" s="24">
+        <v>21</v>
+      </c>
+      <c r="W97" s="24">
+        <v>42</v>
       </c>
       <c r="AQ97" s="24">
-        <v>106.2</v>
+        <v>196.2</v>
       </c>
     </row>
     <row r="98" spans="1:45">
       <c r="B98" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="K98" s="24">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="L98" s="24">
+        <v>23.8</v>
+      </c>
+      <c r="M98" s="24">
+        <v>41.3</v>
+      </c>
+      <c r="N98" s="24">
+        <f t="shared" si="131"/>
+        <v>8.3000000000000114</v>
+      </c>
+      <c r="O98" s="24">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="P98" s="24">
+        <v>6.3</v>
+      </c>
+      <c r="Q98" s="24">
+        <v>11.1</v>
+      </c>
+      <c r="S98" s="24">
+        <v>18</v>
+      </c>
+      <c r="W98" s="24">
+        <v>8</v>
+      </c>
+      <c r="AQ98" s="24">
+        <v>106.2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:45">
+      <c r="B99" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="K98" s="24">
+      <c r="K99" s="24">
         <v>100.4</v>
       </c>
-      <c r="L98" s="24">
+      <c r="L99" s="24">
         <v>42.5</v>
       </c>
-      <c r="M98" s="24">
+      <c r="M99" s="24">
         <v>43.8</v>
       </c>
-      <c r="N98" s="24">
-        <f t="shared" si="121"/>
+      <c r="N99" s="24">
+        <f t="shared" si="131"/>
         <v>-240.6</v>
       </c>
-      <c r="O98" s="24">
+      <c r="O99" s="24">
         <v>-88</v>
       </c>
-      <c r="P98" s="24">
+      <c r="P99" s="24">
         <v>-128.80000000000001</v>
       </c>
-      <c r="Q98" s="24">
+      <c r="Q99" s="24">
         <v>-93.8</v>
       </c>
-      <c r="AQ98" s="24">
+      <c r="S99" s="24">
+        <v>-179</v>
+      </c>
+      <c r="W99" s="24">
+        <v>-124</v>
+      </c>
+      <c r="AQ99" s="24">
         <v>-53.9</v>
       </c>
     </row>
-    <row r="99" spans="1:45" s="25" customFormat="1">
-      <c r="A99" s="42"/>
-      <c r="B99" s="26" t="s">
+    <row r="100" spans="1:45" s="25" customFormat="1">
+      <c r="A100" s="42"/>
+      <c r="B100" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="K99" s="25">
-        <f>+SUM(K94:K98)</f>
+      <c r="K100" s="25">
+        <f>+SUM(K94:K99)</f>
         <v>-244.59999999999994</v>
       </c>
-      <c r="L99" s="25">
-        <f t="shared" ref="L99" si="125">+SUM(L94:L98)</f>
+      <c r="L100" s="25">
+        <f>+SUM(L94:L99)</f>
         <v>-413.5</v>
       </c>
-      <c r="M99" s="25">
-        <f t="shared" ref="M99" si="126">+SUM(M94:M98)</f>
+      <c r="M100" s="25">
+        <f>+SUM(M94:M99)</f>
         <v>-384.9</v>
       </c>
-      <c r="N99" s="25">
-        <f t="shared" si="121"/>
+      <c r="N100" s="25">
+        <f t="shared" si="131"/>
         <v>-1122.7000000000003</v>
       </c>
-      <c r="O99" s="25">
-        <f>+SUM(O94:O98)</f>
+      <c r="O100" s="25">
+        <f>+SUM(O94:O99)</f>
         <v>-554.5</v>
       </c>
-      <c r="P99" s="25">
-        <f t="shared" ref="P99:Q99" si="127">+SUM(P94:P98)</f>
+      <c r="P100" s="25">
+        <f>+SUM(P94:P99)</f>
         <v>-319.2</v>
       </c>
-      <c r="Q99" s="25">
-        <f t="shared" si="127"/>
+      <c r="Q100" s="25">
+        <f>+SUM(Q94:Q99)</f>
         <v>-732.9899999999999</v>
       </c>
-      <c r="AQ99" s="25">
-        <f>+SUM(AQ94:AQ98)</f>
+      <c r="R100" s="25">
+        <f t="shared" ref="R100:V100" si="135">+SUM(R94:R99)</f>
+        <v>0</v>
+      </c>
+      <c r="S100" s="25">
+        <f t="shared" si="135"/>
+        <v>-741</v>
+      </c>
+      <c r="T100" s="25">
+        <f t="shared" si="135"/>
+        <v>0</v>
+      </c>
+      <c r="U100" s="25">
+        <f t="shared" si="135"/>
+        <v>0</v>
+      </c>
+      <c r="V100" s="25">
+        <f t="shared" si="135"/>
+        <v>0</v>
+      </c>
+      <c r="W100" s="25">
+        <f>+SUM(W94:W99)</f>
+        <v>-2493</v>
+      </c>
+      <c r="X100" s="25">
+        <f>+-846-W100</f>
+        <v>1647</v>
+      </c>
+      <c r="AQ100" s="25">
+        <f>+SUM(AQ94:AQ99)</f>
         <v>-2165.7000000000003</v>
       </c>
-      <c r="AR99" s="25">
+      <c r="AR100" s="25">
         <v>-2678.1</v>
       </c>
-      <c r="AS99" s="25">
+      <c r="AS100" s="25">
         <v>-3184.5</v>
-      </c>
-    </row>
-    <row r="100" spans="1:45">
-      <c r="B100" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="K100" s="24">
-        <v>6.5</v>
-      </c>
-      <c r="L100" s="24">
-        <v>1.4</v>
-      </c>
-      <c r="M100" s="24">
-        <v>-0.3</v>
-      </c>
-      <c r="N100" s="24">
-        <f t="shared" si="121"/>
-        <v>7.4999999999999991</v>
-      </c>
-      <c r="O100" s="24">
-        <v>6</v>
-      </c>
-      <c r="P100" s="24">
-        <v>310.10000000000002</v>
-      </c>
-      <c r="Q100" s="24">
-        <v>-305.39999999999998</v>
-      </c>
-      <c r="AQ100" s="24">
-        <v>15.1</v>
       </c>
     </row>
     <row r="101" spans="1:45">
       <c r="B101" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K101" s="24">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="L101" s="24">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="M101" s="24">
-        <v>0</v>
+        <v>-0.3</v>
       </c>
       <c r="N101" s="24">
-        <f t="shared" si="121"/>
-        <v>1154.4000000000001</v>
+        <f t="shared" si="131"/>
+        <v>7.4999999999999991</v>
       </c>
       <c r="O101" s="24">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P101" s="24">
-        <v>1874.5</v>
+        <v>310.10000000000002</v>
       </c>
       <c r="Q101" s="24">
-        <v>1500</v>
+        <v>-305.39999999999998</v>
+      </c>
+      <c r="S101" s="24">
+        <v>13</v>
+      </c>
+      <c r="W101" s="24">
+        <v>-339</v>
       </c>
       <c r="AQ101" s="24">
-        <v>1154.4000000000001</v>
+        <v>15.1</v>
       </c>
     </row>
     <row r="102" spans="1:45">
       <c r="B102" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K102" s="24">
-        <v>-1337.8</v>
+        <v>0</v>
       </c>
       <c r="L102" s="24">
-        <v>-401.2</v>
+        <v>0</v>
       </c>
       <c r="M102" s="24">
-        <v>-0.4</v>
+        <v>0</v>
       </c>
       <c r="N102" s="24">
-        <f t="shared" si="121"/>
-        <v>-500.59999999999991</v>
+        <f t="shared" si="131"/>
+        <v>1154.4000000000001</v>
       </c>
       <c r="O102" s="24">
-        <v>-1350.6</v>
+        <v>0</v>
       </c>
       <c r="P102" s="24">
-        <v>-850.8</v>
+        <v>1874.5</v>
       </c>
       <c r="Q102" s="24">
-        <v>-0.4</v>
+        <v>1500</v>
+      </c>
+      <c r="S102" s="24">
+        <v>1054</v>
+      </c>
+      <c r="W102" s="24">
+        <v>0</v>
       </c>
       <c r="AQ102" s="24">
-        <v>-2240</v>
+        <v>1154.4000000000001</v>
       </c>
     </row>
     <row r="103" spans="1:45">
       <c r="B103" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K103" s="24">
-        <v>-21.5</v>
+        <v>-1337.8</v>
       </c>
       <c r="L103" s="24">
-        <v>-3</v>
+        <v>-401.2</v>
       </c>
       <c r="M103" s="24">
-        <v>-17.7</v>
+        <v>-0.4</v>
       </c>
       <c r="N103" s="24">
-        <f t="shared" si="121"/>
-        <v>-803.3</v>
+        <f t="shared" si="131"/>
+        <v>-500.59999999999991</v>
       </c>
       <c r="O103" s="24">
-        <v>-1506.5</v>
+        <v>-1350.6</v>
       </c>
       <c r="P103" s="24">
-        <v>-1031.2</v>
+        <v>-850.8</v>
       </c>
       <c r="Q103" s="24">
-        <v>-869.2</v>
+        <v>-0.4</v>
+      </c>
+      <c r="S103" s="24">
+        <v>0</v>
+      </c>
+      <c r="W103" s="24">
+        <v>-1285</v>
       </c>
       <c r="AQ103" s="24">
-        <v>-845.5</v>
+        <v>-2240</v>
       </c>
     </row>
     <row r="104" spans="1:45">
       <c r="B104" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K104" s="24">
-        <v>-962.3</v>
+        <v>-21.5</v>
       </c>
       <c r="L104" s="24">
-        <v>-963.3</v>
+        <v>-3</v>
       </c>
       <c r="M104" s="24">
-        <v>-963.9</v>
+        <v>-17.7</v>
       </c>
       <c r="N104" s="24">
-        <f t="shared" si="121"/>
-        <v>-1029.0999999999999</v>
+        <f t="shared" si="131"/>
+        <v>-803.3</v>
       </c>
       <c r="O104" s="24">
-        <v>-1025.0999999999999</v>
+        <v>-1506.5</v>
       </c>
       <c r="P104" s="24">
-        <v>-1016.9</v>
+        <v>-1031.2</v>
       </c>
       <c r="Q104" s="24">
-        <v>-1014.7</v>
+        <v>-869.2</v>
+      </c>
+      <c r="S104" s="24">
+        <v>-578</v>
+      </c>
+      <c r="W104" s="24">
+        <v>-918</v>
       </c>
       <c r="AQ104" s="24">
-        <v>-3918.6</v>
+        <v>-845.5</v>
       </c>
     </row>
     <row r="105" spans="1:45">
       <c r="B105" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K105" s="24">
-        <v>59.1</v>
+        <v>-962.3</v>
       </c>
       <c r="L105" s="24">
-        <v>72.900000000000006</v>
+        <v>-963.3</v>
       </c>
       <c r="M105" s="24">
-        <v>66.599999999999994</v>
+        <v>-963.9</v>
       </c>
       <c r="N105" s="24">
-        <f t="shared" si="121"/>
-        <v>87.1</v>
+        <f t="shared" si="131"/>
+        <v>-1029.0999999999999</v>
       </c>
       <c r="O105" s="24">
-        <v>58.7</v>
+        <v>-1025.0999999999999</v>
       </c>
       <c r="P105" s="24">
-        <v>47.2</v>
+        <v>-1016.9</v>
       </c>
       <c r="Q105" s="24">
-        <v>62.4</v>
+        <v>-1014.7</v>
+      </c>
+      <c r="S105" s="24">
+        <v>-1111</v>
+      </c>
+      <c r="W105" s="24">
+        <v>-1206</v>
       </c>
       <c r="AQ105" s="24">
-        <v>285.7</v>
+        <v>-3918.6</v>
       </c>
     </row>
     <row r="106" spans="1:45">
       <c r="B106" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="K106" s="24">
+        <v>59.1</v>
+      </c>
+      <c r="L106" s="24">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="M106" s="24">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="N106" s="24">
+        <f t="shared" si="131"/>
+        <v>87.1</v>
+      </c>
+      <c r="O106" s="24">
+        <v>58.7</v>
+      </c>
+      <c r="P106" s="24">
+        <v>47.2</v>
+      </c>
+      <c r="Q106" s="24">
+        <v>62.4</v>
+      </c>
+      <c r="S106" s="24">
+        <v>74</v>
+      </c>
+      <c r="W106" s="24">
+        <v>99</v>
+      </c>
+      <c r="AQ106" s="24">
+        <v>285.7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:45">
+      <c r="B107" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="K106" s="24">
+      <c r="K107" s="24">
         <v>-7.9</v>
       </c>
-      <c r="L106" s="24">
+      <c r="L107" s="24">
         <v>-13.1</v>
       </c>
-      <c r="M106" s="24">
+      <c r="M107" s="24">
         <v>-11.7</v>
       </c>
-      <c r="N106" s="24">
-        <f t="shared" si="121"/>
+      <c r="N107" s="24">
+        <f t="shared" si="131"/>
         <v>-14</v>
       </c>
-      <c r="O106" s="24">
+      <c r="O107" s="24">
         <v>-12.6</v>
       </c>
-      <c r="P106" s="24">
+      <c r="P107" s="24">
         <v>-19.600000000000001</v>
       </c>
-      <c r="Q106" s="24">
+      <c r="Q107" s="24">
         <v>80.900000000000006</v>
       </c>
-      <c r="AQ106" s="24">
+      <c r="S107" s="24">
+        <v>-10</v>
+      </c>
+      <c r="W107" s="24">
+        <v>-12</v>
+      </c>
+      <c r="AQ107" s="24">
         <v>-46.7</v>
       </c>
     </row>
-    <row r="107" spans="1:45" s="25" customFormat="1">
-      <c r="A107" s="42"/>
-      <c r="B107" s="26" t="s">
+    <row r="108" spans="1:45" s="25" customFormat="1">
+      <c r="A108" s="42"/>
+      <c r="B108" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="K107" s="25">
-        <f>+SUM(K100:K106)</f>
+      <c r="K108" s="25">
+        <f>+SUM(K101:K107)</f>
         <v>-2263.9</v>
       </c>
-      <c r="L107" s="25">
-        <f t="shared" ref="L107" si="128">+SUM(L100:L106)</f>
+      <c r="L108" s="25">
+        <f t="shared" ref="L108" si="136">+SUM(L101:L107)</f>
         <v>-1306.2999999999997</v>
       </c>
-      <c r="M107" s="25">
-        <f t="shared" ref="M107" si="129">+SUM(M100:M106)</f>
+      <c r="M108" s="25">
+        <f t="shared" ref="M108" si="137">+SUM(M101:M107)</f>
         <v>-927.4</v>
       </c>
-      <c r="N107" s="25">
-        <f t="shared" si="121"/>
+      <c r="N108" s="25">
+        <f t="shared" si="131"/>
         <v>-1098.0000000000009</v>
       </c>
-      <c r="O107" s="25">
-        <f>+SUM(O100:O106)</f>
+      <c r="O108" s="25">
+        <f>+SUM(O101:O107)</f>
         <v>-3830.1</v>
       </c>
-      <c r="P107" s="25">
-        <f t="shared" ref="P107:Q107" si="130">+SUM(P100:P106)</f>
+      <c r="P108" s="25">
+        <f t="shared" ref="P108:V108" si="138">+SUM(P101:P107)</f>
         <v>-686.7</v>
       </c>
-      <c r="Q107" s="25">
-        <f t="shared" si="130"/>
+      <c r="Q108" s="25">
+        <f t="shared" si="138"/>
         <v>-546.40000000000032</v>
       </c>
-      <c r="AQ107" s="25">
-        <f>+SUM(AQ100:AQ106)</f>
+      <c r="R108" s="25">
+        <f t="shared" si="138"/>
+        <v>0</v>
+      </c>
+      <c r="S108" s="25">
+        <f t="shared" si="138"/>
+        <v>-558</v>
+      </c>
+      <c r="T108" s="25">
+        <f t="shared" si="138"/>
+        <v>0</v>
+      </c>
+      <c r="U108" s="25">
+        <f t="shared" si="138"/>
+        <v>0</v>
+      </c>
+      <c r="V108" s="25">
+        <f t="shared" si="138"/>
+        <v>0</v>
+      </c>
+      <c r="W108" s="25">
+        <f>+SUM(W101:W107)</f>
+        <v>-3661</v>
+      </c>
+      <c r="X108" s="25">
+        <f>+-869-W108</f>
+        <v>2792</v>
+      </c>
+      <c r="AQ108" s="25">
+        <f>+SUM(AQ101:AQ107)</f>
         <v>-5595.6</v>
       </c>
-      <c r="AR107" s="25">
+      <c r="AR108" s="25">
         <v>-6580.2</v>
       </c>
-      <c r="AS107" s="25">
+      <c r="AS108" s="25">
         <v>-4374.1000000000004</v>
-      </c>
-    </row>
-    <row r="108" spans="1:45">
-      <c r="B108" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="K108" s="24">
-        <v>-44.9</v>
-      </c>
-      <c r="L108" s="24">
-        <v>16.3</v>
-      </c>
-      <c r="M108" s="24">
-        <v>-49.1</v>
-      </c>
-      <c r="N108" s="24">
-        <f t="shared" si="121"/>
-        <v>-42.399999999999991</v>
-      </c>
-      <c r="O108" s="24">
-        <v>-122.2</v>
-      </c>
-      <c r="P108" s="24">
-        <v>-75.400000000000006</v>
-      </c>
-      <c r="Q108" s="24">
-        <v>-198.6</v>
-      </c>
-      <c r="AQ108" s="24">
-        <v>-120.1</v>
-      </c>
-      <c r="AR108" s="24">
-        <v>-253.8</v>
-      </c>
-      <c r="AS108" s="24">
-        <v>-57.8</v>
       </c>
     </row>
     <row r="109" spans="1:45">
       <c r="B109" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K109" s="24">
-        <f>+K93+K99+K107+K108</f>
-        <v>-909.1</v>
+        <v>-44.9</v>
       </c>
       <c r="L109" s="24">
-        <f t="shared" ref="L109" si="131">+L93+L99+L107+L108</f>
-        <v>-101.29999999999946</v>
+        <v>16.3</v>
       </c>
       <c r="M109" s="24">
-        <f t="shared" ref="M109" si="132">+M93+M99+M107+M108</f>
-        <v>798.90000000000009</v>
+        <v>-49.1</v>
       </c>
       <c r="N109" s="24">
-        <f t="shared" si="121"/>
-        <v>-107.40000000000168</v>
+        <f t="shared" si="131"/>
+        <v>-42.399999999999991</v>
       </c>
       <c r="O109" s="24">
-        <f>+O93+O99+O107+O108</f>
-        <v>-2856.9999999999995</v>
+        <v>-122.2</v>
       </c>
       <c r="P109" s="24">
-        <f t="shared" ref="P109:Q109" si="133">+P93+P99+P107+P108</f>
-        <v>-827.4</v>
+        <v>-75.400000000000006</v>
       </c>
       <c r="Q109" s="24">
-        <f t="shared" si="133"/>
-        <v>741.6100000000007</v>
+        <v>-198.6</v>
+      </c>
+      <c r="S109" s="24">
+        <v>3</v>
+      </c>
+      <c r="W109" s="24">
+        <v>21</v>
       </c>
       <c r="AQ109" s="24">
-        <f t="shared" ref="AQ109:AS109" si="134">+AQ93+AQ99+AQ107+AQ108</f>
-        <v>-318.90000000000111</v>
+        <v>-120.1</v>
       </c>
       <c r="AR109" s="24">
-        <f t="shared" ref="AR109" si="135">+AR93+AR99+AR107+AR108</f>
-        <v>-2125.3999999999996</v>
+        <v>-253.8</v>
       </c>
       <c r="AS109" s="24">
-        <f t="shared" si="134"/>
-        <v>1995.4999999999993</v>
+        <v>-57.8</v>
       </c>
     </row>
     <row r="110" spans="1:45">
       <c r="B110" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="K110" s="24">
+        <f>+K93+K100+K108+K109</f>
+        <v>-909.1</v>
+      </c>
+      <c r="L110" s="24">
+        <f>+L93+L100+L108+L109</f>
+        <v>-101.29999999999946</v>
+      </c>
+      <c r="M110" s="24">
+        <f>+M93+M100+M108+M109</f>
+        <v>798.90000000000009</v>
+      </c>
+      <c r="N110" s="24">
+        <f t="shared" si="131"/>
+        <v>-107.40000000000168</v>
+      </c>
+      <c r="O110" s="24">
+        <f>+O93+O100+O108+O109</f>
+        <v>-2856.9999999999995</v>
+      </c>
+      <c r="P110" s="24">
+        <f>+P93+P100+P108+P109</f>
+        <v>-827.4</v>
+      </c>
+      <c r="Q110" s="24">
+        <f>+Q93+Q100+Q108+Q109</f>
+        <v>741.6100000000007</v>
+      </c>
+      <c r="S110" s="24">
+        <f>+S93+S100+S108+S109</f>
+        <v>1124.3000000000002</v>
+      </c>
+      <c r="W110" s="24">
+        <f>+W93+W100+W108+W109</f>
+        <v>-3743</v>
+      </c>
+      <c r="AQ110" s="24">
+        <f>+AQ93+AQ100+AQ108+AQ109</f>
+        <v>-318.90000000000111</v>
+      </c>
+      <c r="AR110" s="24">
+        <f>+AR93+AR100+AR108+AR109</f>
+        <v>-2125.3999999999996</v>
+      </c>
+      <c r="AS110" s="24">
+        <f>+AS93+AS100+AS108+AS109</f>
+        <v>1995.4999999999993</v>
+      </c>
+    </row>
+    <row r="111" spans="1:45">
+      <c r="B111" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="K110" s="24">
+      <c r="K111" s="24">
         <f>+J52</f>
         <v>3449.1</v>
       </c>
-      <c r="L110" s="24">
+      <c r="L111" s="24">
         <f>+K52</f>
         <v>3019.7</v>
       </c>
-      <c r="M110" s="24">
+      <c r="M111" s="24">
         <f>+L52</f>
         <v>3049.4</v>
       </c>
-      <c r="N110" s="24">
-        <f>+M111</f>
+      <c r="N111" s="24">
+        <f>+M112</f>
         <v>3848.3</v>
       </c>
-      <c r="O110" s="24">
+      <c r="O111" s="24">
         <f>+N52</f>
         <v>4709.2</v>
       </c>
-      <c r="P110" s="24">
+      <c r="P111" s="24">
         <f>+O52</f>
         <v>2335.6999999999998</v>
       </c>
-      <c r="Q110" s="24">
+      <c r="Q111" s="24">
         <f>+P52</f>
         <v>1872.5</v>
       </c>
-      <c r="AQ110" s="24">
+      <c r="S111" s="24">
+        <f>+R52</f>
+        <v>2583.8000000000002</v>
+      </c>
+      <c r="W111" s="24">
+        <f>+V52</f>
+        <v>4579.3</v>
+      </c>
+      <c r="AQ111" s="24">
         <f>+J52</f>
         <v>3449.1</v>
       </c>
-      <c r="AR110" s="24">
+      <c r="AR111" s="24">
         <v>4709.2</v>
       </c>
-      <c r="AS110" s="24">
+      <c r="AS111" s="24">
         <v>2583.8000000000002</v>
       </c>
     </row>
-    <row r="111" spans="1:45" s="25" customFormat="1">
-      <c r="A111" s="42"/>
-      <c r="B111" s="26" t="s">
+    <row r="112" spans="1:45" s="25" customFormat="1">
+      <c r="A112" s="42"/>
+      <c r="B112" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="K111" s="25">
-        <f t="shared" ref="K111:Q111" si="136">+SUM(K109:K110)</f>
+      <c r="K112" s="25">
+        <f t="shared" ref="K112:Q112" si="139">+SUM(K110:K111)</f>
         <v>2540</v>
       </c>
-      <c r="L111" s="25">
-        <f t="shared" si="136"/>
+      <c r="L112" s="25">
+        <f t="shared" si="139"/>
         <v>2918.4000000000005</v>
       </c>
-      <c r="M111" s="25">
-        <f t="shared" si="136"/>
+      <c r="M112" s="25">
+        <f t="shared" si="139"/>
         <v>3848.3</v>
       </c>
-      <c r="N111" s="25">
-        <f t="shared" si="136"/>
+      <c r="N112" s="25">
+        <f t="shared" si="139"/>
         <v>3740.8999999999987</v>
       </c>
-      <c r="O111" s="25">
-        <f t="shared" si="136"/>
+      <c r="O112" s="25">
+        <f t="shared" si="139"/>
         <v>1852.2000000000003</v>
       </c>
-      <c r="P111" s="25">
-        <f t="shared" si="136"/>
+      <c r="P112" s="25">
+        <f t="shared" si="139"/>
         <v>1508.2999999999997</v>
       </c>
-      <c r="Q111" s="25">
-        <f t="shared" si="136"/>
+      <c r="Q112" s="25">
+        <f t="shared" si="139"/>
         <v>2614.1100000000006</v>
       </c>
-      <c r="AQ111" s="25">
-        <f>+SUM(AQ109:AQ110)</f>
+      <c r="S112" s="25">
+        <f t="shared" ref="S112" si="140">+SUM(S110:S111)</f>
+        <v>3708.1000000000004</v>
+      </c>
+      <c r="W112" s="25">
+        <f t="shared" ref="W112" si="141">+SUM(W110:W111)</f>
+        <v>836.30000000000018</v>
+      </c>
+      <c r="AQ112" s="25">
+        <f>+SUM(AQ110:AQ111)</f>
         <v>3130.1999999999989</v>
       </c>
-      <c r="AR111" s="25">
-        <f>+SUM(AR109:AR110)</f>
+      <c r="AR112" s="25">
+        <f>+SUM(AR110:AR111)</f>
         <v>2583.8000000000002</v>
       </c>
-      <c r="AS111" s="25">
-        <f>+SUM(AS109:AS110)</f>
+      <c r="AS112" s="25">
+        <f>+SUM(AS110:AS111)</f>
         <v>4579.2999999999993</v>
       </c>
     </row>
-    <row r="112" spans="1:45">
-      <c r="N112" s="24" t="s">
+    <row r="113" spans="1:45">
+      <c r="N113" s="24" t="s">
         <v>121</v>
-      </c>
-    </row>
-    <row r="113" spans="1:45">
-      <c r="B113" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="K113" s="24">
-        <f t="shared" ref="K113:N113" si="137">+K93+K94</f>
-        <v>1275.5999999999999</v>
-      </c>
-      <c r="L113" s="24">
-        <f t="shared" si="137"/>
-        <v>1119.6000000000004</v>
-      </c>
-      <c r="M113" s="24">
-        <f t="shared" si="137"/>
-        <v>1658.8000000000002</v>
-      </c>
-      <c r="N113" s="24">
-        <f t="shared" si="137"/>
-        <v>1468.4999999999989</v>
-      </c>
-      <c r="O113" s="24">
-        <f>+O93+O94</f>
-        <v>1248.6000000000001</v>
-      </c>
-      <c r="P113" s="24">
-        <f t="shared" ref="P113:Q113" si="138">+P93+P94</f>
-        <v>-183.99999999999989</v>
-      </c>
-      <c r="Q113" s="24">
-        <f t="shared" si="138"/>
-        <v>1688.4000000000008</v>
-      </c>
-      <c r="AN113" s="24">
-        <f t="shared" ref="AN113:AS113" si="139">+SUM(AN93:AN94)</f>
-        <v>4225</v>
-      </c>
-      <c r="AO113" s="24">
-        <f t="shared" si="139"/>
-        <v>5728.4000000000005</v>
-      </c>
-      <c r="AP113" s="24">
-        <f t="shared" si="139"/>
-        <v>4624.3999999999996</v>
-      </c>
-      <c r="AQ113" s="24">
-        <f t="shared" si="139"/>
-        <v>5522.4999999999991</v>
-      </c>
-      <c r="AR113" s="24">
-        <f t="shared" si="139"/>
-        <v>7386.7</v>
-      </c>
-      <c r="AS113" s="24">
-        <f t="shared" si="139"/>
-        <v>9611.9</v>
       </c>
     </row>
     <row r="114" spans="1:45">
       <c r="B114" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="K114" s="24">
+        <f t="shared" ref="K114:Q114" si="142">+K93+K94</f>
+        <v>1275.5999999999999</v>
+      </c>
+      <c r="L114" s="24">
+        <f t="shared" si="142"/>
+        <v>1119.6000000000004</v>
+      </c>
+      <c r="M114" s="24">
+        <f t="shared" si="142"/>
+        <v>1658.8000000000002</v>
+      </c>
+      <c r="N114" s="24">
+        <f t="shared" si="142"/>
+        <v>1468.4999999999989</v>
+      </c>
+      <c r="O114" s="24">
+        <f t="shared" si="142"/>
+        <v>1248.6000000000001</v>
+      </c>
+      <c r="P114" s="24">
+        <f t="shared" si="142"/>
+        <v>-183.99999999999989</v>
+      </c>
+      <c r="Q114" s="24">
+        <f t="shared" si="142"/>
+        <v>1688.4000000000008</v>
+      </c>
+      <c r="S114" s="24">
+        <f>+S93+S94</f>
+        <v>1917.3000000000002</v>
+      </c>
+      <c r="W114" s="24">
+        <f>+W93+W94</f>
+        <v>1843</v>
+      </c>
+      <c r="X114" s="24">
+        <f>+X93+X94</f>
+        <v>-782</v>
+      </c>
+      <c r="AN114" s="24">
+        <f t="shared" ref="AN114:AS114" si="143">+SUM(AN93:AN94)</f>
+        <v>4225</v>
+      </c>
+      <c r="AO114" s="24">
+        <f t="shared" si="143"/>
+        <v>5728.4000000000005</v>
+      </c>
+      <c r="AP114" s="24">
+        <f t="shared" si="143"/>
+        <v>4624.3999999999996</v>
+      </c>
+      <c r="AQ114" s="24">
+        <f t="shared" si="143"/>
+        <v>5522.4999999999991</v>
+      </c>
+      <c r="AR114" s="24">
+        <f t="shared" si="143"/>
+        <v>7386.7</v>
+      </c>
+      <c r="AS114" s="24">
+        <f t="shared" si="143"/>
+        <v>9611.9</v>
+      </c>
+    </row>
+    <row r="115" spans="1:45">
+      <c r="B115" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="K114" s="24">
-        <f t="shared" ref="K114:W114" si="140">+K32</f>
+      <c r="K115" s="24">
+        <f t="shared" ref="K115:W115" si="144">+K32</f>
         <v>1613.1</v>
       </c>
-      <c r="L114" s="24">
-        <f t="shared" si="140"/>
+      <c r="L115" s="24">
+        <f t="shared" si="144"/>
         <v>2302.3999999999996</v>
       </c>
-      <c r="M114" s="24">
-        <f t="shared" si="140"/>
+      <c r="M115" s="24">
+        <f t="shared" si="144"/>
         <v>2234.0000000000005</v>
       </c>
-      <c r="N114" s="24">
-        <f t="shared" si="140"/>
+      <c r="N115" s="24">
+        <f t="shared" si="144"/>
         <v>1725.2999999999988</v>
       </c>
-      <c r="O114" s="24">
-        <f t="shared" si="140"/>
+      <c r="O115" s="24">
+        <f t="shared" si="144"/>
         <v>1197.1000000000001</v>
       </c>
-      <c r="P114" s="24">
-        <f t="shared" si="140"/>
+      <c r="P115" s="24">
+        <f t="shared" si="144"/>
         <v>1281.0000000000007</v>
       </c>
-      <c r="Q114" s="24">
-        <f t="shared" si="140"/>
+      <c r="Q115" s="24">
+        <f t="shared" si="144"/>
         <v>2074.9000000000005</v>
       </c>
-      <c r="R114" s="24">
-        <f t="shared" si="140"/>
+      <c r="R115" s="24">
+        <f t="shared" si="144"/>
         <v>1903.3999999999996</v>
       </c>
-      <c r="S114" s="24">
-        <f t="shared" si="140"/>
+      <c r="S115" s="24">
+        <f t="shared" si="144"/>
         <v>1802.3</v>
       </c>
-      <c r="T114" s="24">
-        <f t="shared" si="140"/>
+      <c r="T115" s="24">
+        <f t="shared" si="144"/>
         <v>2310.4</v>
       </c>
-      <c r="U114" s="24">
-        <f t="shared" si="140"/>
+      <c r="U115" s="24">
+        <f t="shared" si="144"/>
         <v>2317.099999999999</v>
       </c>
-      <c r="V114" s="24">
-        <f t="shared" si="140"/>
+      <c r="V115" s="24">
+        <f t="shared" si="144"/>
         <v>2039</v>
       </c>
-      <c r="W114" s="24">
-        <f t="shared" si="140"/>
+      <c r="W115" s="24">
+        <f t="shared" si="144"/>
         <v>1929</v>
       </c>
-      <c r="AN114" s="24">
-        <f t="shared" ref="AN114:AS114" si="141">+AN32</f>
+      <c r="X115" s="24">
+        <f t="shared" ref="X115" si="145">+X32</f>
+        <v>2023</v>
+      </c>
+      <c r="AN115" s="24">
+        <f t="shared" ref="AN115:AS115" si="146">+AN32</f>
         <v>8130.5999999999976</v>
       </c>
-      <c r="AO114" s="24">
-        <f t="shared" si="141"/>
+      <c r="AO115" s="24">
+        <f t="shared" si="146"/>
         <v>6287.9000000000015</v>
       </c>
-      <c r="AP114" s="24">
-        <f t="shared" si="141"/>
+      <c r="AP115" s="24">
+        <f t="shared" si="146"/>
         <v>5031.1000000000013</v>
       </c>
-      <c r="AQ114" s="24">
-        <f t="shared" si="141"/>
+      <c r="AQ115" s="24">
+        <f t="shared" si="146"/>
         <v>7874.7999999999993</v>
       </c>
-      <c r="AR114" s="24">
-        <f t="shared" si="141"/>
+      <c r="AR115" s="24">
+        <f t="shared" si="146"/>
         <v>6456.4000000000015</v>
       </c>
-      <c r="AS114" s="24">
-        <f t="shared" si="141"/>
+      <c r="AS115" s="24">
+        <f t="shared" si="146"/>
         <v>8468.7999999999993</v>
       </c>
     </row>
-    <row r="115" spans="1:45">
-      <c r="O115" s="32"/>
-    </row>
-    <row r="116" spans="1:45" s="25" customFormat="1">
-      <c r="A116" s="42"/>
-      <c r="B116" s="21"/>
-      <c r="C116" s="24"/>
-      <c r="D116" s="24"/>
-      <c r="E116" s="24"/>
-      <c r="F116" s="24"/>
-      <c r="G116" s="24"/>
-      <c r="H116" s="24"/>
-      <c r="I116" s="24"/>
-      <c r="J116" s="24"/>
-      <c r="K116" s="24"/>
-      <c r="L116" s="24"/>
-      <c r="M116" s="24"/>
-      <c r="N116" s="24"/>
-      <c r="O116" s="24"/>
-      <c r="P116" s="24"/>
-      <c r="Q116" s="24"/>
-    </row>
-    <row r="117" spans="1:45">
-      <c r="N117" s="25">
-        <f t="shared" ref="N117" si="142">SUM(K114:N114)</f>
+    <row r="116" spans="1:45">
+      <c r="O116" s="32"/>
+    </row>
+    <row r="117" spans="1:45" s="25" customFormat="1">
+      <c r="A117" s="42"/>
+      <c r="B117" s="21"/>
+      <c r="C117" s="24"/>
+      <c r="D117" s="24"/>
+      <c r="E117" s="24"/>
+      <c r="F117" s="24"/>
+      <c r="G117" s="24"/>
+      <c r="H117" s="24"/>
+      <c r="I117" s="24"/>
+      <c r="J117" s="24"/>
+      <c r="K117" s="24"/>
+      <c r="L117" s="24"/>
+      <c r="M117" s="24"/>
+      <c r="N117" s="24"/>
+      <c r="O117" s="24"/>
+      <c r="P117" s="24"/>
+      <c r="Q117" s="24"/>
+    </row>
+    <row r="118" spans="1:45">
+      <c r="N118" s="25">
+        <f t="shared" ref="N118" si="147">SUM(K115:N115)</f>
         <v>7874.7999999999993</v>
       </c>
-      <c r="O117" s="25">
-        <f t="shared" ref="O117" si="143">SUM(L114:O114)</f>
+      <c r="O118" s="25">
+        <f t="shared" ref="O118" si="148">SUM(L115:O115)</f>
         <v>7458.7999999999993</v>
       </c>
-      <c r="P117" s="25">
-        <f t="shared" ref="P117" si="144">SUM(M114:P114)</f>
+      <c r="P118" s="25">
+        <f t="shared" ref="P118" si="149">SUM(M115:P115)</f>
         <v>6437.4000000000005</v>
       </c>
-      <c r="Q117" s="25">
-        <f>SUM(N114:Q114)</f>
+      <c r="Q118" s="25">
+        <f>SUM(N115:Q115)</f>
         <v>6278.3</v>
       </c>
-    </row>
-    <row r="119" spans="1:45">
-      <c r="B119" s="21" t="s">
+      <c r="R118" s="25">
+        <f t="shared" ref="R118:V118" si="150">SUM(O115:R115)</f>
+        <v>6456.4000000000015</v>
+      </c>
+      <c r="S118" s="25">
+        <f t="shared" si="150"/>
+        <v>7061.6000000000013</v>
+      </c>
+      <c r="T118" s="25">
+        <f t="shared" si="150"/>
+        <v>8091</v>
+      </c>
+      <c r="U118" s="25">
+        <f t="shared" si="150"/>
+        <v>8333.1999999999989</v>
+      </c>
+      <c r="V118" s="25">
+        <f t="shared" si="150"/>
+        <v>8468.7999999999993</v>
+      </c>
+      <c r="W118" s="25">
+        <f>SUM(T115:W115)</f>
+        <v>8595.5</v>
+      </c>
+      <c r="X118" s="25">
+        <f>SUM(U115:X115)</f>
+        <v>8308.0999999999985</v>
+      </c>
+    </row>
+    <row r="120" spans="1:45">
+      <c r="B120" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="K119" s="36">
+      <c r="K120" s="36">
         <v>1.29</v>
       </c>
-      <c r="L119" s="36">
+      <c r="L120" s="36">
         <v>1.29</v>
       </c>
-      <c r="M119" s="36">
+      <c r="M120" s="36">
         <v>1.29</v>
       </c>
-      <c r="N119" s="36">
+      <c r="N120" s="36">
         <v>1.38</v>
       </c>
-      <c r="O119" s="36">
+      <c r="O120" s="36">
         <v>1.38</v>
       </c>
-      <c r="P119" s="36">
+      <c r="P120" s="36">
         <v>1.38</v>
       </c>
-      <c r="Q119" s="36">
+      <c r="Q120" s="36">
         <v>1.52</v>
       </c>
     </row>
@@ -11060,7 +11593,7 @@
   <ignoredErrors>
     <ignoredError sqref="AM16:AS32 AM34:AS34 AM33:AP33 AS33 J17:W19" formulaRange="1"/>
     <ignoredError sqref="AQ33:AR33" formula="1" formulaRange="1"/>
-    <ignoredError sqref="N26 N92:N110 V6 R6 N6 F12:W12" formula="1"/>
+    <ignoredError sqref="N26 N98:N111 V6 R6 N6 F12:W12 N97 N92:N95" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -11071,8 +11604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EBBB766-D9B8-FB40-B5C7-D36C974DF243}">
   <dimension ref="B2:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -11091,7 +11624,7 @@
   <sheetData>
     <row r="2" spans="3:12">
       <c r="C2" s="1" t="s">
-        <v>96</v>
+        <v>198</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>123</v>
@@ -11099,45 +11632,53 @@
     </row>
     <row r="3" spans="3:12">
       <c r="C3" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D3" s="82">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="4" spans="3:12">
+      <c r="C4" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>125</v>
-      </c>
-    </row>
-    <row r="4" spans="3:12">
-      <c r="C4" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="5" spans="3:12">
       <c r="C5" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="3:12">
+      <c r="C6" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D6" s="6" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="3:12">
-      <c r="C6" s="3"/>
-      <c r="D6" s="6"/>
-    </row>
     <row r="7" spans="3:12">
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="3:12">
+      <c r="C8" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="3:12">
-      <c r="C8" s="5" t="s">
+    <row r="9" spans="3:12">
+      <c r="C9" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>127</v>
       </c>
     </row>
@@ -11182,7 +11723,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>258.11</v>
+        <v>278</v>
       </c>
       <c r="K13" s="17"/>
     </row>
@@ -11198,10 +11739,10 @@
         <v>1</v>
       </c>
       <c r="J14" s="1">
-        <v>720.68165599999998</v>
+        <v>717.34324700000002</v>
       </c>
       <c r="K14" s="17" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="3:12">
@@ -11217,7 +11758,7 @@
       </c>
       <c r="J15" s="1">
         <f>+J13*J14</f>
-        <v>186015.14223016001</v>
+        <v>199421.422666</v>
       </c>
       <c r="K15" s="17"/>
     </row>
@@ -11226,11 +11767,11 @@
         <v>3</v>
       </c>
       <c r="J16" s="1">
-        <v>838</v>
+        <v>792</v>
       </c>
       <c r="K16" s="17" t="str">
         <f>+K14</f>
-        <v>Q124</v>
+        <v>Q224</v>
       </c>
     </row>
     <row r="17" spans="2:11">
@@ -11238,11 +11779,11 @@
         <v>4</v>
       </c>
       <c r="J17" s="1">
-        <v>37274.6</v>
+        <v>38.524000000000001</v>
       </c>
       <c r="K17" s="17" t="str">
         <f>+K16</f>
-        <v>Q124</v>
+        <v>Q224</v>
       </c>
     </row>
     <row r="18" spans="2:11">
@@ -11251,7 +11792,7 @@
       </c>
       <c r="J18" s="1">
         <f>+J15-J16+J17</f>
-        <v>222451.74223016002</v>
+        <v>198667.946666</v>
       </c>
       <c r="K18" s="17"/>
     </row>
@@ -11265,7 +11806,7 @@
       </c>
       <c r="J20" s="18">
         <f>(1.52*4)/J13</f>
-        <v>2.3555848281740344E-2</v>
+        <v>2.1870503597122302E-2</v>
       </c>
       <c r="K20" s="19"/>
     </row>
@@ -11360,22 +11901,34 @@
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="2:3">
+    <row r="32" spans="2:11">
+      <c r="J32" s="83">
+        <v>26278</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10">
       <c r="C33" s="3" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="34" spans="2:3">
+      <c r="J33" s="83">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10">
       <c r="C34" s="6" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="38" spans="2:3">
+      <c r="J34" s="82">
+        <f>(J32-J33)/365</f>
+        <v>69.087671232876716</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10">
       <c r="B38" s="3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="39" spans="2:3">
+    <row r="39" spans="2:10">
       <c r="B39" s="6" t="s">
         <v>153</v>
       </c>
@@ -11383,7 +11936,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="40" spans="2:3">
+    <row r="40" spans="2:10">
       <c r="B40" s="1" t="s">
         <v>155</v>
       </c>
@@ -11395,10 +11948,10 @@
     <hyperlink ref="C30" r:id="rId3" display="Press Release 8/17/21" xr:uid="{EA0D4B25-29FB-0D4A-BA96-AB5FE06B663F}"/>
     <hyperlink ref="C31" r:id="rId4" display="Press Release 5/13/21" xr:uid="{2E7BD89E-83BF-724E-A075-085ED0D197EF}"/>
     <hyperlink ref="C27" r:id="rId5" display="Press Release 11/1/22" xr:uid="{7C6DD1EA-9EF8-3446-B52B-F8D7AABA2447}"/>
-    <hyperlink ref="D4" r:id="rId6" xr:uid="{76C3B4E3-0B2D-B740-9CCC-3C0402955EDE}"/>
+    <hyperlink ref="D5" r:id="rId6" xr:uid="{76C3B4E3-0B2D-B740-9CCC-3C0402955EDE}"/>
     <hyperlink ref="C34" r:id="rId7" xr:uid="{9357CE5F-ECA1-3744-92A2-6E2A6DE58C3B}"/>
-    <hyperlink ref="D3" r:id="rId8" xr:uid="{0D1D7A66-C79F-B547-B4AB-19B1C3F947AF}"/>
-    <hyperlink ref="D5" r:id="rId9" xr:uid="{393E2B7B-16A0-0C47-BFB4-C2D8AE1C2775}"/>
+    <hyperlink ref="D4" r:id="rId8" xr:uid="{0D1D7A66-C79F-B547-B4AB-19B1C3F947AF}"/>
+    <hyperlink ref="D6" r:id="rId9" xr:uid="{393E2B7B-16A0-0C47-BFB4-C2D8AE1C2775}"/>
     <hyperlink ref="B24" r:id="rId10" xr:uid="{E33EDE6D-980A-CF4F-A59D-3FAC9727221E}"/>
     <hyperlink ref="C24" r:id="rId11" display="https://corporate.mcdonalds.com/content/dam/sites/corp/nfl/pdf/Exhibit 99.1 - Q4-23.pdf" xr:uid="{FE4A4FCE-1A34-DB43-B810-2B0D9DCCE5E8}"/>
     <hyperlink ref="C26" r:id="rId12" display="https://corporate.mcdonalds.com/corpmcd/our-stories/article/mcd-to-acquire-carlyles-stake-mcdonalds-china.html" xr:uid="{C8823DD8-447E-BE40-9E8D-BDFF9493FCFA}"/>

--- a/MCD.xlsx
+++ b/MCD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameelbrannon/Library/CloudStorage/Dropbox/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB47B0C0-453D-7E44-8C40-97B0A66D6AB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43FE6EC3-29A5-7C4B-8B81-9BB5759A47BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="53700" yWindow="720" windowWidth="42160" windowHeight="27740" xr2:uid="{68853114-4A9D-F642-8668-56CE329F4C0C}"/>
+    <workbookView xWindow="11520" yWindow="980" windowWidth="51200" windowHeight="28300" xr2:uid="{68853114-4A9D-F642-8668-56CE329F4C0C}"/>
   </bookViews>
   <sheets>
     <sheet name="E" sheetId="2" r:id="rId1"/>
@@ -1523,10 +1523,10 @@
   <dimension ref="A1:IU120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AM17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="Y7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BM40" sqref="BM40"/>
+      <selection pane="bottomRight" activeCell="AF18" sqref="AF18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.1640625" defaultRowHeight="13"/>
@@ -7906,7 +7906,7 @@
       </c>
       <c r="BI40" s="71">
         <f>+O!J13</f>
-        <v>278</v>
+        <v>296.69</v>
       </c>
     </row>
     <row r="41" spans="1:63" s="32" customFormat="1">
@@ -8048,7 +8048,7 @@
       </c>
       <c r="BI41" s="74">
         <f>+BI39/BI40-1</f>
-        <v>1.5546140513806872E-3</v>
+        <v>-6.1538364264775325E-2</v>
       </c>
     </row>
     <row r="42" spans="1:63" s="37" customFormat="1">
@@ -8292,7 +8292,7 @@
       </c>
       <c r="BI43" s="76">
         <f>+O!$J$18/E!AS32</f>
-        <v>23.458807229595696</v>
+        <v>25.041929429485879</v>
       </c>
     </row>
     <row r="44" spans="1:63">
@@ -8462,7 +8462,7 @@
       </c>
       <c r="BI44" s="76">
         <f>+O!$J$18/E!AT32</f>
-        <v>22.649718850746577</v>
+        <v>24.178239562944189</v>
       </c>
     </row>
     <row r="45" spans="1:63">
@@ -8499,7 +8499,7 @@
       </c>
       <c r="BI45" s="76">
         <f>+O!$J$18/E!AU32</f>
-        <v>21.464290283696037</v>
+        <v>22.912812116900596</v>
       </c>
     </row>
     <row r="46" spans="1:63">
@@ -8542,7 +8542,7 @@
       </c>
       <c r="BI46" s="77">
         <f>+O!$J$18/E!AU32</f>
-        <v>21.464290283696037</v>
+        <v>22.912812116900596</v>
       </c>
     </row>
     <row r="47" spans="1:63">
@@ -8555,7 +8555,7 @@
       </c>
       <c r="Q47" s="24">
         <f>+O!J15</f>
-        <v>199421.422666</v>
+        <v>212828.56795242999</v>
       </c>
       <c r="AM47" s="24">
         <f>+AM33*AM46</f>
@@ -8626,7 +8626,7 @@
       </c>
       <c r="Q48" s="24">
         <f>+Q47+Q51</f>
-        <v>168347.32266599999</v>
+        <v>181754.46795242999</v>
       </c>
       <c r="AM48" s="24">
         <f t="shared" ref="AM48:AP48" si="109">+AM47+AM51</f>
@@ -11605,7 +11605,7 @@
   <dimension ref="B2:L40"/>
   <sheetViews>
     <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -11723,7 +11723,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>278</v>
+        <v>296.69</v>
       </c>
       <c r="K13" s="17"/>
     </row>
@@ -11758,7 +11758,7 @@
       </c>
       <c r="J15" s="1">
         <f>+J13*J14</f>
-        <v>199421.422666</v>
+        <v>212828.56795242999</v>
       </c>
       <c r="K15" s="17"/>
     </row>
@@ -11792,7 +11792,7 @@
       </c>
       <c r="J18" s="1">
         <f>+J15-J16+J17</f>
-        <v>198667.946666</v>
+        <v>212075.09195243</v>
       </c>
       <c r="K18" s="17"/>
     </row>
@@ -11806,7 +11806,7 @@
       </c>
       <c r="J20" s="18">
         <f>(1.52*4)/J13</f>
-        <v>2.1870503597122302E-2</v>
+        <v>2.0492770231554821E-2</v>
       </c>
       <c r="K20" s="19"/>
     </row>
